--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/tc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD9B894-A829-3E4B-9079-B81E7616C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A935F-A150-9149-9485-28F29289B2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2780" windowWidth="41940" windowHeight="23760" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2920" yWindow="2780" windowWidth="41940" windowHeight="14040" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="297">
   <si>
     <t>Journal Title</t>
   </si>
@@ -813,6 +813,232 @@
 department power
 marketing capability
 market-based assets</t>
+  </si>
+  <si>
+    <t>10.1257/jel.20191480</t>
+  </si>
+  <si>
+    <t>10.1086/682384</t>
+  </si>
+  <si>
+    <t>China Shock
+Trade Liberalizations
+Trade Policy Uncertainty (TPU)
+Trade Dynamics</t>
+  </si>
+  <si>
+    <t>10.1086/733420</t>
+  </si>
+  <si>
+    <t>Labor market
+Labor demand
+Skilled labor
+Wages
+Labor supply
+Canada
+United States</t>
+  </si>
+  <si>
+    <t>10.1086/703579</t>
+  </si>
+  <si>
+    <t>Employment
+Labor demand
+Labor supply
+Labor market
+Population aging
+Social norms</t>
+  </si>
+  <si>
+    <t>Labor-Market
+International-Trade
+Property-Rights
+Growth
+China
+Firm
+Productivity
+Technology
+Adjustment
+Inequality</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2025.104066</t>
+  </si>
+  <si>
+    <t>Trade war
+Trade liberalization
+Trade-policy uncertainty (TPU)
+Trade dynamics
+Trade elasticity</t>
+  </si>
+  <si>
+    <t>Trade liberalization
+Input tariffs
+China exports
+Variety</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2020.103339</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmoneco.2021.05.001</t>
+  </si>
+  <si>
+    <t>Entrepreneurship
+Globalization
+Import competition
+Tradable and nontradable industries
+Human capital</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>China
+Competition
+Policy
+Growth
+Media
+Productivity
+Adjustment
+Elections
+Extremism
+Ideology</t>
+  </si>
+  <si>
+    <t>Economic competition
+Imports
+Economics
+Polarization (Social sciences)
+Factionalism (Politics)
+United States presidential elections</t>
+  </si>
+  <si>
+    <t>10.1257/aer.20170011</t>
+  </si>
+  <si>
+    <t>10.1111/ecoj.12245</t>
+  </si>
+  <si>
+    <t>Import Competition
+Trade
+Threat
+Party
+Responses</t>
+  </si>
+  <si>
+    <t>10.1093/isq/sqab027</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2024.103987</t>
+  </si>
+  <si>
+    <t>Trade war
+Exports
+Tariffs</t>
+  </si>
+  <si>
+    <t>Trade war
+Trade policy
+Retaliatory tariffs
+Agricultural subsidies
+Health insurance coverage
+State and local taxes
+Voting</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2024.103891</t>
+  </si>
+  <si>
+    <t>Industrial policy
+Economic history
+Foreign investments
+Export controls
+Antitrust violation lawsuits
+Intervention (Federal government)</t>
+  </si>
+  <si>
+    <t>10.1257/jep.38.4.81</t>
+  </si>
+  <si>
+    <t>10.1017/s002081831300043x</t>
+  </si>
+  <si>
+    <t>United-States
+International-Trade
+Pass-Through
+Politics
+Specialization
+Market
+Impact
+World</t>
+  </si>
+  <si>
+    <t>Labor market dynamics
+international trade
+migration
+internal trade
+economic geography
+mobility frictions
+trade costs
+input-output linkages
+China’s trade
+welfare effects
+general equilibrium
+manufacturing employment</t>
+  </si>
+  <si>
+    <t>10.3982/ECTA13758</t>
+  </si>
+  <si>
+    <t>10.1093/isq/sqae141</t>
+  </si>
+  <si>
+    <t>Import Competition
+Politics
+Bias
+Consequences
+Attitudes
+Support
+Tariffs
+Impact</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Trade war
+Trade deficit
+Tariff evasion
+Demand of entry states</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2025.104090</t>
+  </si>
+  <si>
+    <t>Trade liberalization
+Elections
+China</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2022.103652</t>
+  </si>
+  <si>
+    <t>10.3982/ECTA12121</t>
+  </si>
+  <si>
+    <t>Quantile regression
+instrumental variables
+panel data
+income inequality
+import competition</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2024.103926</t>
+  </si>
+  <si>
+    <t>US-china tariff war
+Night lights</t>
   </si>
 </sst>
 </file>
@@ -1692,10 +1918,10 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1859,22 +2085,22 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="I3" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -1886,10 +2112,10 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>40</v>
@@ -1904,42 +2130,42 @@
         <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1951,10 +2177,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>243</v>
+        <v>206</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>40</v>
@@ -1969,57 +2195,57 @@
         <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>161</v>
+      <c r="F5" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2021</v>
+        <v>240</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2019</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1">
-        <v>4</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>40</v>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>178</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>40</v>
+        <v>211</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>40</v>
@@ -2034,18 +2260,18 @@
         <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -2054,102 +2280,102 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2025</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2024</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3</v>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>40</v>
@@ -2164,10 +2390,10 @@
         <v>40</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2184,22 +2410,22 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="I8" s="2">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -2208,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>40</v>
@@ -2229,15 +2455,15 @@
         <v>40</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -2249,37 +2475,37 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I9" s="2">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>40</v>
@@ -2294,17 +2520,17 @@
         <v>40</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
@@ -2314,37 +2540,37 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="I10" s="2">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>182</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>40</v>
+        <v>207</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>40</v>
@@ -2359,17 +2585,17 @@
         <v>40</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
@@ -2379,37 +2605,37 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>40</v>
+        <v>235</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>40</v>
@@ -2424,57 +2650,57 @@
         <v>40</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2017</v>
+        <v>240</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2022</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>40</v>
+        <v>189</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>40</v>
@@ -2489,18 +2715,18 @@
         <v>40</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -2509,37 +2735,37 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I13" s="2">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>185</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>40</v>
+        <v>195</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>40</v>
@@ -2554,33 +2780,33 @@
         <v>40</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="I14" s="2">
         <v>2022</v>
@@ -2601,10 +2827,10 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>40</v>
+        <v>176</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>40</v>
@@ -2619,10 +2845,10 @@
         <v>40</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2642,7 +2868,7 @@
         <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H15" t="s">
         <v>143</v>
@@ -2668,8 +2894,8 @@
       <c r="O15" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>40</v>
+      <c r="P15" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>40</v>
@@ -2684,10 +2910,10 @@
         <v>40</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2698,238 +2924,238 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2024</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2016</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2014</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>231</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="2">
-        <v>2024</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18" t="s">
-        <v>195</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>5</v>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O19" t="s">
-        <v>193</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>40</v>
+        <v>213</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>40</v>
@@ -2944,10 +3170,10 @@
         <v>40</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2964,37 +3190,37 @@
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="I20" s="2">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
-      <c r="M20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" t="s">
-        <v>40</v>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>194</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>40</v>
+        <v>186</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>40</v>
@@ -3009,18 +3235,18 @@
         <v>40</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -3028,38 +3254,38 @@
       <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
-        <v>132</v>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2020</v>
+        <v>288</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2025</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
         <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>196</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>40</v>
+        <v>212</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>40</v>
@@ -3074,12 +3300,12 @@
         <v>40</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3088,43 +3314,43 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>130</v>
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2018</v>
+        <v>240</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2016</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>197</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>40</v>
@@ -3139,10 +3365,10 @@
         <v>40</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3159,16 +3385,16 @@
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I23" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -3186,10 +3412,10 @@
         <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>40</v>
+        <v>205</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>40</v>
@@ -3204,18 +3430,18 @@
         <v>40</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>40</v>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -3223,35 +3449,35 @@
       <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" t="s">
-        <v>124</v>
+      <c r="F24" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="3">
         <v>2021</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O24" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>40</v>
@@ -3269,12 +3495,12 @@
         <v>40</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -3286,37 +3512,37 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="I25" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
       </c>
       <c r="O25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>40</v>
@@ -3339,7 +3565,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -3348,40 +3574,40 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>120</v>
+      <c r="F26" t="s">
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2024</v>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2015</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1">
-        <v>4</v>
-      </c>
-      <c r="N26" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>40</v>
@@ -3402,7 +3628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3419,22 +3645,22 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I27" s="2">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -3443,13 +3669,13 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>203</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>40</v>
+        <v>181</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>40</v>
@@ -3464,7 +3690,7 @@
         <v>40</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3478,40 +3704,40 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="F28" t="s">
-        <v>116</v>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2015</v>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2024</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>40</v>
@@ -3532,9 +3758,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -3549,16 +3775,16 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="I29" s="2">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
@@ -3576,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>205</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>40</v>
+        <v>175</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>40</v>
@@ -3594,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3604,32 +3830,32 @@
       <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
+      <c r="C30" t="s">
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -3641,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>40</v>
@@ -3662,14 +3888,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
@@ -3679,37 +3905,37 @@
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="I31" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>40</v>
@@ -3724,7 +3950,7 @@
         <v>40</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3734,32 +3960,32 @@
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>40</v>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="I32" s="2">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>4</v>
@@ -3771,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="O32" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>40</v>
@@ -3809,34 +4035,34 @@
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I33" s="2">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
-      <c r="N33">
-        <v>4</v>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
       </c>
       <c r="O33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>40</v>
@@ -3871,37 +4097,37 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="I34" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" t="s">
-        <v>5</v>
-      </c>
-      <c r="M34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>40</v>
@@ -3929,8 +4155,8 @@
       <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>40</v>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
@@ -3938,35 +4164,35 @@
       <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="F35" t="s">
-        <v>103</v>
+      <c r="F35" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H35" t="s">
-        <v>102</v>
-      </c>
-      <c r="I35" s="2">
-        <v>2019</v>
+      <c r="H35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2020</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>40</v>
@@ -4003,17 +4229,17 @@
       <c r="E36" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>101</v>
+      <c r="F36" t="s">
+        <v>107</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="3">
-        <v>2025</v>
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2024</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
@@ -4021,17 +4247,17 @@
       <c r="K36" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="1">
-        <v>4</v>
-      </c>
-      <c r="M36" s="1">
-        <v>4</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>40</v>
@@ -4054,7 +4280,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -4063,22 +4289,22 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>99</v>
+      <c r="F37" t="s">
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="3">
-        <v>2024</v>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2015</v>
       </c>
       <c r="J37" t="s">
         <v>37</v>
@@ -4086,17 +4312,17 @@
       <c r="K37" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="1">
-        <v>4</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
         <v>40</v>
       </c>
       <c r="O37" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>40</v>
@@ -4124,8 +4350,8 @@
       <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
+      <c r="C38" t="s">
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -4134,34 +4360,34 @@
         <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" t="s">
-        <v>5</v>
-      </c>
-      <c r="M38" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>40</v>
@@ -4189,44 +4415,44 @@
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
+      <c r="C39" t="s">
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>149</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="3">
-        <v>2024</v>
+      <c r="H39" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2017</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="1">
-        <v>4</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>40</v>
@@ -4254,44 +4480,44 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>40</v>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
-      <c r="F40" t="s">
-        <v>93</v>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H40" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="2">
-        <v>2020</v>
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2024</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-      <c r="M40">
-        <v>4</v>
-      </c>
-      <c r="N40">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="O40" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>40</v>
@@ -4329,34 +4555,34 @@
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I41" s="2">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41">
-        <v>4</v>
-      </c>
-      <c r="M41">
-        <v>4</v>
-      </c>
-      <c r="N41">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>5</v>
       </c>
       <c r="O41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>40</v>
@@ -4388,28 +4614,28 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="I42" s="2">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <v>4</v>
@@ -4421,7 +4647,7 @@
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>40</v>
@@ -4459,22 +4685,22 @@
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I43" s="2">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L43">
         <v>4</v>
@@ -4486,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>40</v>
@@ -4512,34 +4738,34 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I44" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L44">
         <v>4</v>
@@ -4551,7 +4777,7 @@
         <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>40</v>
@@ -4583,40 +4809,40 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I45" s="3">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L45" s="1">
         <v>4</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>40</v>
+      <c r="M45" s="1">
+        <v>4</v>
+      </c>
+      <c r="N45" s="1">
+        <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>40</v>
@@ -4634,7 +4860,7 @@
         <v>40</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -4654,22 +4880,22 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I46" s="2">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L46">
         <v>4</v>
@@ -4681,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>40</v>
@@ -4709,8 +4935,8 @@
       <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>44</v>
+      <c r="C47" t="s">
+        <v>40</v>
       </c>
       <c r="D47" t="s">
         <v>43</v>
@@ -4719,34 +4945,34 @@
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="I47" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47">
-        <v>4</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="L47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>40</v>
@@ -4778,40 +5004,40 @@
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I48" s="3">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L48" s="1">
         <v>4</v>
       </c>
-      <c r="M48" s="1">
-        <v>4</v>
-      </c>
-      <c r="N48" s="1">
-        <v>4</v>
+      <c r="M48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O48" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>40</v>
@@ -4829,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -4839,8 +5065,8 @@
       <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>44</v>
+      <c r="C49" t="s">
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
@@ -4848,35 +5074,35 @@
       <c r="E49" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>75</v>
+      <c r="F49" t="s">
+        <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2020</v>
+      <c r="H49" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2021</v>
       </c>
       <c r="J49" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>40</v>
       </c>
       <c r="O49" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>40</v>
@@ -4913,35 +5139,35 @@
       <c r="E50" t="s">
         <v>40</v>
       </c>
-      <c r="F50" t="s">
-        <v>73</v>
+      <c r="F50" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H50" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="2">
-        <v>2015</v>
+      <c r="H50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2017</v>
       </c>
       <c r="J50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50" t="s">
-        <v>40</v>
-      </c>
-      <c r="N50" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>40</v>
@@ -4967,34 +5193,34 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="I51" s="2">
         <v>2023</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
         <v>5</v>
@@ -5006,7 +5232,7 @@
         <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>40</v>
@@ -5029,7 +5255,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
         <v>40</v>
@@ -5038,40 +5264,40 @@
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="F52" t="s">
-        <v>69</v>
+      <c r="F52" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H52" t="s">
-        <v>68</v>
-      </c>
-      <c r="I52" s="2">
-        <v>2016</v>
+      <c r="H52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2018</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4</v>
+      </c>
+      <c r="M52" s="1">
+        <v>4</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>40</v>
@@ -5094,49 +5320,49 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>44</v>
+      <c r="C53" t="s">
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I53" s="2">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L53" t="s">
         <v>5</v>
       </c>
       <c r="M53" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>40</v>
@@ -5164,8 +5390,8 @@
       <c r="B54" t="s">
         <v>40</v>
       </c>
-      <c r="C54" t="s">
-        <v>40</v>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
@@ -5173,35 +5399,35 @@
       <c r="E54" t="s">
         <v>40</v>
       </c>
-      <c r="F54" t="s">
-        <v>65</v>
+      <c r="F54" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="H54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="3">
         <v>2024</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54">
-        <v>4</v>
-      </c>
-      <c r="M54">
-        <v>4</v>
-      </c>
-      <c r="N54">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O54" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>40</v>
@@ -5224,49 +5450,49 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C55" t="s">
-        <v>40</v>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I55" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>7</v>
-      </c>
-      <c r="L55" t="s">
-        <v>5</v>
-      </c>
-      <c r="M55" t="s">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
       </c>
       <c r="O55" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>40</v>
@@ -5289,7 +5515,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
@@ -5304,34 +5530,34 @@
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="I56" s="2">
         <v>2021</v>
       </c>
       <c r="J56" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L56">
         <v>4</v>
       </c>
-      <c r="M56" t="s">
-        <v>40</v>
-      </c>
-      <c r="N56" t="s">
-        <v>40</v>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
       </c>
       <c r="O56" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>40</v>
@@ -5363,40 +5589,40 @@
         <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="I57" s="2">
         <v>2025</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
       </c>
       <c r="O57" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>40</v>
@@ -5434,34 +5660,34 @@
         <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I58" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58">
-        <v>4</v>
-      </c>
-      <c r="M58">
-        <v>4</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="L58" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>40</v>
@@ -5484,12 +5710,12 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>44</v>
       </c>
       <c r="D59" t="s">
@@ -5498,35 +5724,35 @@
       <c r="E59" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>55</v>
+      <c r="F59" t="s">
+        <v>151</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2017</v>
+      <c r="H59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2016</v>
       </c>
       <c r="J59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="1">
-        <v>4</v>
-      </c>
-      <c r="M59" s="1">
-        <v>4</v>
-      </c>
-      <c r="N59" s="1">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="L59" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>5</v>
       </c>
       <c r="O59" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>40</v>
@@ -5547,54 +5773,54 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="136" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I60" s="2">
         <v>2025</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K60" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60">
-        <v>4</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="L60" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>5</v>
       </c>
       <c r="O60" t="s">
-        <v>233</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>40</v>
+        <v>199</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>40</v>
@@ -5609,57 +5835,57 @@
         <v>40</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
         <v>40</v>
       </c>
-      <c r="F61" t="s">
-        <v>51</v>
+      <c r="F61" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="H61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" s="3">
         <v>2024</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K61" t="s">
-        <v>6</v>
-      </c>
-      <c r="L61">
-        <v>4</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4</v>
+      </c>
+      <c r="M61" s="1">
+        <v>4</v>
+      </c>
+      <c r="N61" s="1">
+        <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>234</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>40</v>
+        <v>180</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>40</v>
@@ -5674,12 +5900,12 @@
         <v>40</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -5694,22 +5920,22 @@
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="I62" s="2">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L62">
         <v>4</v>
@@ -5721,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>40</v>
@@ -5747,34 +5973,34 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I63" s="2">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L63">
         <v>4</v>
@@ -5786,7 +6012,7 @@
         <v>4</v>
       </c>
       <c r="O63" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>40</v>
@@ -5814,7 +6040,7 @@
       <c r="B64" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>44</v>
       </c>
       <c r="D64" t="s">
@@ -5823,35 +6049,35 @@
       <c r="E64" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>42</v>
+      <c r="F64" t="s">
+        <v>153</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="3">
+      <c r="H64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64" s="2">
         <v>2024</v>
       </c>
       <c r="J64" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N64" t="s">
+        <v>40</v>
       </c>
       <c r="O64" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>40</v>
@@ -5875,9 +6101,10 @@
   </sheetData>
   <autoFilter ref="A1:U64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U64">
-      <sortCondition ref="H1:H64"/>
+      <sortCondition ref="F1:F64"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A935F-A150-9149-9485-28F29289B2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367AAADE-0E1C-674F-A2D8-868FF8D825E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2780" windowWidth="41940" windowHeight="14040" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2920" yWindow="2780" windowWidth="40360" windowHeight="21940" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="376">
   <si>
     <t>Journal Title</t>
   </si>
@@ -786,12 +786,6 @@
     <t>10.1080/00076791.2024.2348013</t>
   </si>
   <si>
-    <t>Marketing
-Chinese
-Oversea
- trade promotion</t>
-  </si>
-  <si>
     <t>Nestlé
 dairy industry
 China
@@ -803,16 +797,6 @@
   </si>
   <si>
     <t>10.1177/00222429251319310</t>
-  </si>
-  <si>
-    <t>Import competition
-role of marketing
-quasi-experiment
-revenue growth
-marketing
-department power
-marketing capability
-market-based assets</t>
   </si>
   <si>
     <t>10.1257/jel.20191480</t>
@@ -1039,6 +1023,399 @@
   <si>
     <t>US-china tariff war
 Night lights</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>trade wars
+tariffs
+China
+vote share
+agriculture</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Radical Right
+Embedded Liberalism
+Right Parties
+Globalization
+Politics
+Compensation
+Support
+Attitudes
+Threat
+Jobs</t>
+  </si>
+  <si>
+    <t>10.1111/ajps.12358</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2014.11.006</t>
+  </si>
+  <si>
+    <t>Export destination choice
+Spatial correlation
+Extended gravity
+Firm-level customs data
+MFA/ATC quota removal</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>10.3982/QE1994</t>
+  </si>
+  <si>
+    <t>Trade policy
+gravity models
+semiparametric methods
+nonparametric methods
+generalized propensity scores</t>
+  </si>
+  <si>
+    <t>Quality
+Variable markups
+Export price
+“Washington apples” effect
+Specific trade costs</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2020.103327</t>
+  </si>
+  <si>
+    <t>Canda</t>
+  </si>
+  <si>
+    <t>Import Competition
+Trade
+Decline
+China</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2019.05.002</t>
+  </si>
+  <si>
+    <t>10.1086/682151</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Voters
+Model
+Polarization
+Preferences
+Members
+Events
+Growth
+Jobs</t>
+  </si>
+  <si>
+    <t>Trade policy uncertainty
+Firm dynamics
+Export reallocation</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2016.12.009</t>
+  </si>
+  <si>
+    <t>Pass-Through
+Firm Heterogeneity
+Tariffs
+Retail
+Duties
+Export</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2024.104011</t>
+  </si>
+  <si>
+    <t>International trade
+US-China decoupling
+Tariffs
+Global value chains</t>
+  </si>
+  <si>
+    <t>10.1111/isqu.12178</t>
+  </si>
+  <si>
+    <t>Congressional Politics
+Foreign-Policy
+Trade
+Economy
+Power
+Institutions
+America</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2024.103912</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>International trade
+Automation
+China shock
+Inequality
+Local labor markets</t>
+  </si>
+  <si>
+    <t>10.1111/risa.12761</t>
+  </si>
+  <si>
+    <t>Copula approach
+risk pooling
+wheat yield losses</t>
+  </si>
+  <si>
+    <t>global supply chains
+global value chains
+input tari¤s
+imported
+intermediate goods</t>
+  </si>
+  <si>
+    <t>10.1257/aer.20211519</t>
+  </si>
+  <si>
+    <t>International-Trade
+Productivity Growth
+Level Productivity
+Import Competition
+Firm Evidence
+Investment
+Agreements
+Entry
+Employment
+Countries</t>
+  </si>
+  <si>
+    <t>10.1257/aer.20141419</t>
+  </si>
+  <si>
+    <t>Consumer boycotts
+International trade
+International political economy
+Economic diplomacy</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2015.11.008</t>
+  </si>
+  <si>
+    <t>10.1093/jeg/lbaa029</t>
+  </si>
+  <si>
+    <t>Value added trade
+labour market adjustment
+local labour markets</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2022.103687</t>
+  </si>
+  <si>
+    <t>Exporting
+Trade protectionism
+US-China trade war</t>
+  </si>
+  <si>
+    <t>trade war
+tariff incidence
+within-firm adjustments
+trade barriers</t>
+  </si>
+  <si>
+    <t>Trade war
+Industrial policy
+Scale economies
+Strategic interactions</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmoneco.2023.10.012</t>
+  </si>
+  <si>
+    <t>10.1093/restud/rdx050</t>
+  </si>
+  <si>
+    <t>Industry dynamics
+Government subsidies
+China
+Shipbuilding</t>
+  </si>
+  <si>
+    <t>10.1017/S0020818320000612</t>
+  </si>
+  <si>
+    <t>International-Trade
+Policy
+Competition
+Democracies
+Interests</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Take-Up
+US
+Legislators
+Layoffs</t>
+  </si>
+  <si>
+    <t>10.1093/isq/sqaa090</t>
+  </si>
+  <si>
+    <t>10.1080/00343404.2016.1245415</t>
+  </si>
+  <si>
+    <t>industry entry
+trade shocks
+industry relatedness
+industrial branching
+evolutionary economic geography</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>event space
+trade war
+event system theory
+stakeholder strategy
+crisis management</t>
+  </si>
+  <si>
+    <t>10.1177/01492063231162089</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2018.07.004</t>
+  </si>
+  <si>
+    <t>Chinese import competition
+Media slant
+U.S. daily newspapers
+Election</t>
+  </si>
+  <si>
+    <t>10.1057/s41267-023-00620-3</t>
+  </si>
+  <si>
+    <t>geopolitics
+techno-nationalism
+US–China rivalry
+geo-strategies
+decoupling</t>
+  </si>
+  <si>
+    <t>10.1086/729948</t>
+  </si>
+  <si>
+    <t>trade war
+Trump administration
+US-China relations
+presidential approval
+US midterm elections</t>
+  </si>
+  <si>
+    <t>Import competition
+Safety
+Injuries
+Trade liberalization</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2016.06.003</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2021.103493</t>
+  </si>
+  <si>
+    <t>Current account
+Real interest rate
+Capital flows
+Demographic development
+Social security
+China</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>10.1111/risa.14321</t>
+  </si>
+  <si>
+    <t>AI-driven cyberattacks
+CGE modeling
+cyber resilience
+international trade
+supply chains</t>
+  </si>
+  <si>
+    <t>10.1257/aer.20131578</t>
+  </si>
+  <si>
+    <t>Policy Uncertainty Theory
+Import Competition
+Trade Liberalization
+Intermediate Inputs
+Investment
+Impact
+Population
+Agglomeration
+Productivity
+Technology</t>
+  </si>
+  <si>
+    <t>10.1057/s41267-016-0007-2</t>
+  </si>
+  <si>
+    <t>globalization
+import competition
+cost of capital
+China</t>
+  </si>
+  <si>
+    <t>Quasi-Experiment / Natural Experiment and Diff-in-Diff
+Panel Data Models</t>
+  </si>
+  <si>
+    <t>Import competition
+role of marketing
+quasi-experiment
+revenue growth
+marketing department power
+marketing capability
+market-based assets</t>
+  </si>
+  <si>
+    <t>Marketing
+Chinese Overseas
+trade promotion</t>
+  </si>
+  <si>
+    <t>10.1016/j.jinteco.2021.103477</t>
+  </si>
+  <si>
+    <t>10.1177/10591478241231850</t>
+  </si>
+  <si>
+    <t>10.1093/isq/sqae117</t>
+  </si>
+  <si>
+    <t>Multinational firm
+Export platform
+Welfare</t>
+  </si>
+  <si>
+    <t>Tariff uncertainty
+sourcing strategy
+trade war
+supplier development</t>
   </si>
 </sst>
 </file>
@@ -1529,15 +1906,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1915,207 +2301,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="76" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="14" width="4" customWidth="1"/>
-    <col min="15" max="16" width="31.5" customWidth="1"/>
-    <col min="18" max="20" width="3.83203125" customWidth="1"/>
+    <col min="1" max="5" width="5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="4.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="101.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="5.1640625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="3">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="J2" s="5">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
         <v>2</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="5">
         <v>2</v>
       </c>
-      <c r="O2" s="2">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="O2" s="3">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5">
         <v>5</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5">
         <v>5</v>
       </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" ht="255" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>2020</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>261</v>
+      <c r="P3" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>40</v>
@@ -2130,57 +2519,57 @@
         <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>2016</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="L4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>262</v>
+      <c r="P4" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>40</v>
@@ -2195,57 +2584,57 @@
         <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>2019</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>259</v>
+      <c r="P5" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>40</v>
@@ -2260,57 +2649,57 @@
         <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>2025</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>257</v>
+      <c r="P6" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>40</v>
@@ -2325,57 +2714,57 @@
         <v>40</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>2025</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>264</v>
+      <c r="P7" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>40</v>
@@ -2390,187 +2779,187 @@
         <v>40</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:21" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>2020</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="204" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="9" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:21" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>2020</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>271</v>
+      <c r="P10" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>40</v>
@@ -2585,57 +2974,57 @@
         <v>40</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>2015</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="L11" s="2">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>270</v>
+      <c r="P11" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>40</v>
@@ -2650,23 +3039,23 @@
         <v>40</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2675,16 +3064,16 @@
       <c r="G12" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>2022</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="1">
@@ -2696,11 +3085,11 @@
       <c r="N12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>274</v>
+      <c r="P12" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>40</v>
@@ -2715,57 +3104,57 @@
         <v>40</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>2024</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>277</v>
+      <c r="P13" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>40</v>
@@ -2780,56 +3169,56 @@
         <v>40</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>2022</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="L14" s="2">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="2" t="s">
         <v>243</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -2848,54 +3237,54 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="15" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>2024</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>278</v>
+      <c r="P15" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>40</v>
@@ -2910,57 +3299,57 @@
         <v>40</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>2024</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>280</v>
+      <c r="P16" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>40</v>
@@ -2975,57 +3364,57 @@
         <v>40</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="136" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="17" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>2014</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="L17" s="2">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>283</v>
+      <c r="P17" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>40</v>
@@ -3040,57 +3429,57 @@
         <v>40</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="18" spans="1:21" ht="221" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>2019</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>284</v>
+      <c r="P18" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>40</v>
@@ -3105,23 +3494,23 @@
         <v>40</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3130,16 +3519,16 @@
       <c r="G19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>2024</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="1">
@@ -3151,11 +3540,11 @@
       <c r="N19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>287</v>
+      <c r="P19" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>40</v>
@@ -3170,187 +3559,187 @@
         <v>40</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2022</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20" t="s">
-        <v>186</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2025</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2025</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="1">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
-        <v>4</v>
-      </c>
-      <c r="N21" s="1">
-        <v>4</v>
-      </c>
-      <c r="O21" t="s">
-        <v>212</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="22" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:21" ht="204" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>2016</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>294</v>
+      <c r="P22" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>40</v>
@@ -3365,57 +3754,57 @@
         <v>40</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="23" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>2024</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="L23" s="2">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>296</v>
+      <c r="P23" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>40</v>
@@ -3430,41 +3819,41 @@
         <v>40</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="6">
         <v>2021</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="1">
@@ -3476,11 +3865,11 @@
       <c r="N24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3" t="s">
         <v>178</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>40</v>
@@ -3498,54 +3887,54 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>2018</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M25" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="M25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>223</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>40</v>
@@ -3560,57 +3949,57 @@
         <v>40</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>2015</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>4</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="L26" s="2">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>221</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>40</v>
@@ -3625,106 +4014,106 @@
         <v>40</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="27" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>155</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>2023</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
-      <c r="N27">
+      <c r="L27" s="2">
+        <v>4</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4</v>
+      </c>
+      <c r="N27" s="2">
         <v>3</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>252</v>
-      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="6">
         <v>2024</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L28" s="1">
@@ -3736,11 +4125,11 @@
       <c r="N28" s="1">
         <v>3</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="3" t="s">
         <v>202</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>40</v>
@@ -3755,56 +4144,56 @@
         <v>40</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:21" ht="238" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
+        <v>302</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>2015</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="1" t="s">
         <v>242</v>
       </c>
       <c r="Q29" s="1" t="s">
@@ -3823,54 +4212,54 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>2020</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>215</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>40</v>
@@ -3885,56 +4274,56 @@
         <v>40</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
+        <v>308</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>2018</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="L31" s="2">
+        <v>4</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4</v>
+      </c>
+      <c r="N31" s="2">
+        <v>4</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="1" t="s">
         <v>247</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -3953,54 +4342,54 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <v>2019</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="L32" s="2">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>4</v>
+      </c>
+      <c r="N32" s="2">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>236</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>40</v>
@@ -4015,57 +4404,57 @@
         <v>40</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:32" ht="170" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="5">
         <v>2015</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" t="s">
-        <v>40</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="L33" s="2">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>204</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>40</v>
@@ -4080,57 +4469,60 @@
         <v>40</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>40</v>
+        <v>311</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:32" ht="153" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="5">
         <v>2017</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-      <c r="N34">
-        <v>4</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="L34" s="2">
+        <v>4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4</v>
+      </c>
+      <c r="N34" s="2">
+        <v>4</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>228</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>40</v>
@@ -4145,41 +4537,41 @@
         <v>40</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="6">
         <v>2020</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -4191,11 +4583,11 @@
       <c r="N35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="3" t="s">
         <v>217</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>40</v>
@@ -4210,57 +4602,57 @@
         <v>40</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:32" ht="136" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="5">
         <v>2024</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="L36" s="2">
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4</v>
+      </c>
+      <c r="N36" s="2">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>209</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>40</v>
@@ -4275,57 +4667,57 @@
         <v>40</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:32" ht="187" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="5">
         <v>2015</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" t="s">
-        <v>40</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="L37" s="2">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>218</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>40</v>
@@ -4340,57 +4732,57 @@
         <v>40</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="38" spans="1:32" ht="153" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="5">
         <v>2024</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="M38">
-        <v>4</v>
-      </c>
-      <c r="N38">
-        <v>4</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="L38" s="2">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2">
+        <v>4</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>227</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>40</v>
@@ -4405,57 +4797,57 @@
         <v>40</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="39" spans="1:32" ht="255" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s">
+        <v>302</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="5">
         <v>2017</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39">
-        <v>4</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="L39" s="2">
+        <v>4</v>
+      </c>
+      <c r="M39" s="2">
+        <v>4</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>184</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>40</v>
@@ -4470,41 +4862,41 @@
         <v>40</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="6">
         <v>2024</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -4516,11 +4908,11 @@
       <c r="N40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="3" t="s">
         <v>237</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>40</v>
@@ -4535,57 +4927,57 @@
         <v>40</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:32" ht="170" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="5">
         <v>2017</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="3" t="s">
         <v>214</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>40</v>
@@ -4600,57 +4992,57 @@
         <v>40</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:32" ht="306" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="5">
         <v>2016</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>4</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>4</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="L42" s="2">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2">
+        <v>4</v>
+      </c>
+      <c r="N42" s="2">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>188</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>40</v>
@@ -4665,57 +5057,57 @@
         <v>40</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:32" ht="238" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="5">
         <v>2021</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L43">
-        <v>4</v>
-      </c>
-      <c r="M43">
-        <v>4</v>
-      </c>
-      <c r="N43">
-        <v>4</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="L43" s="2">
+        <v>4</v>
+      </c>
+      <c r="M43" s="2">
+        <v>4</v>
+      </c>
+      <c r="N43" s="2">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>191</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>40</v>
@@ -4730,57 +5122,60 @@
         <v>40</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>40</v>
+        <v>332</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:32" ht="136" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="5">
         <v>2023</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44">
-        <v>4</v>
-      </c>
-      <c r="N44">
-        <v>4</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="L44" s="2">
+        <v>4</v>
+      </c>
+      <c r="M44" s="2">
+        <v>4</v>
+      </c>
+      <c r="N44" s="2">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>216</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>40</v>
@@ -4795,41 +5190,41 @@
         <v>40</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="6">
         <v>2024</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L45" s="1">
@@ -4841,11 +5236,11 @@
       <c r="N45" s="1">
         <v>4</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="3" t="s">
         <v>192</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>40</v>
@@ -4863,54 +5258,54 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:32" ht="170" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="5">
         <v>2024</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46">
-        <v>4</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="L46" s="2">
+        <v>4</v>
+      </c>
+      <c r="M46" s="2">
+        <v>4</v>
+      </c>
+      <c r="N46" s="2">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>234</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>40</v>
@@ -4925,57 +5320,57 @@
         <v>40</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="5">
         <v>2018</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="3" t="s">
         <v>185</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>40</v>
@@ -4990,41 +5385,41 @@
         <v>40</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:32" ht="187" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="6">
         <v>2021</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L48" s="1">
@@ -5036,11 +5431,11 @@
       <c r="N48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="3" t="s">
         <v>225</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>40</v>
@@ -5055,57 +5450,57 @@
         <v>40</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>40</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="5">
         <v>2021</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49" t="s">
-        <v>40</v>
-      </c>
-      <c r="N49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="L49" s="2">
+        <v>4</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>230</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>40</v>
@@ -5120,41 +5515,41 @@
         <v>40</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="6">
         <v>2017</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L50" s="1">
@@ -5166,11 +5561,11 @@
       <c r="N50" s="1">
         <v>3</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="3" t="s">
         <v>232</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>40</v>
@@ -5185,57 +5580,57 @@
         <v>40</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>40</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:21" ht="238" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="5">
         <v>2023</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="3" t="s">
         <v>193</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>40</v>
@@ -5250,41 +5645,41 @@
         <v>40</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="6">
         <v>2018</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L52" s="1">
@@ -5296,11 +5691,11 @@
       <c r="N52" s="1">
         <v>4</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="3" t="s">
         <v>197</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>40</v>
@@ -5315,57 +5710,57 @@
         <v>40</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
+    <row r="53" spans="1:21" ht="238" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="5">
         <v>2023</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="3" t="s">
         <v>226</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>40</v>
@@ -5380,41 +5775,41 @@
         <v>40</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>40</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="6">
         <v>2024</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L54" s="1">
@@ -5426,11 +5821,11 @@
       <c r="N54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="3" t="s">
         <v>177</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>40</v>
@@ -5445,57 +5840,57 @@
         <v>40</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>40</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="5">
         <v>2016</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L55">
-        <v>4</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="L55" s="2">
+        <v>4</v>
+      </c>
+      <c r="M55" s="2">
+        <v>4</v>
+      </c>
+      <c r="N55" s="2">
+        <v>4</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>190</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>40</v>
@@ -5510,57 +5905,57 @@
         <v>40</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>40</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
+    <row r="56" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s">
+        <v>361</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="5">
         <v>2021</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L56">
-        <v>4</v>
-      </c>
-      <c r="M56">
-        <v>4</v>
-      </c>
-      <c r="N56">
-        <v>4</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="L56" s="2">
+        <v>4</v>
+      </c>
+      <c r="M56" s="2">
+        <v>4</v>
+      </c>
+      <c r="N56" s="2">
+        <v>4</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>198</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>40</v>
@@ -5575,57 +5970,57 @@
         <v>40</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" t="s">
+    <row r="57" spans="1:21" ht="272" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="5">
         <v>2025</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>4</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="L57" s="2">
+        <v>4</v>
+      </c>
+      <c r="M57" s="2">
+        <v>4</v>
+      </c>
+      <c r="N57" s="2">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>208</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>40</v>
@@ -5640,57 +6035,57 @@
         <v>40</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="5">
         <v>2016</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="3" t="s">
         <v>222</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>40</v>
@@ -5705,57 +6100,57 @@
         <v>40</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>40</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="59" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s">
+        <v>295</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="5">
         <v>2016</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="3" t="s">
         <v>183</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>40</v>
@@ -5770,60 +6165,60 @@
         <v>40</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="136" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="C60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="5">
         <v>2025</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>254</v>
+      <c r="P60" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>40</v>
@@ -5835,41 +6230,41 @@
         <v>40</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="61" spans="1:21" ht="255" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="6">
         <v>2024</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L61" s="1">
@@ -5881,11 +6276,11 @@
       <c r="N61" s="1">
         <v>3</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="P61" s="4" t="s">
-        <v>250</v>
+      <c r="P61" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>40</v>
@@ -5903,54 +6298,54 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="62" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s">
+        <v>286</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="5">
         <v>2021</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="L62" s="2">
+        <v>4</v>
+      </c>
+      <c r="M62" s="2">
+        <v>4</v>
+      </c>
+      <c r="N62" s="2">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>201</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>40</v>
@@ -5965,57 +6360,57 @@
         <v>40</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" spans="1:21" ht="323" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="C63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s">
+        <v>286</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="5">
         <v>2024</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
-      <c r="M63">
-        <v>4</v>
-      </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="L63" s="2">
+        <v>4</v>
+      </c>
+      <c r="M63" s="2">
+        <v>4</v>
+      </c>
+      <c r="N63" s="2">
+        <v>4</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>224</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>40</v>
+        <v>375</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>40</v>
@@ -6030,53 +6425,53 @@
         <v>40</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:21" ht="187" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s">
+        <v>240</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="5">
         <v>2024</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64" t="s">
-        <v>40</v>
-      </c>
-      <c r="N64" t="s">
-        <v>40</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="L64" s="2">
+        <v>4</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>182</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -6095,7 +6490,7 @@
         <v>40</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>40</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367AAADE-0E1C-674F-A2D8-868FF8D825E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9A36F-A511-1F4C-BA18-B95136AE422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2780" windowWidth="40360" windowHeight="21940" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -1906,7 +1906,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1926,6 +1926,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2307,7 +2308,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2392,68 +2393,68 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>8</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="J2" s="7">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7">
         <v>2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <v>2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="7">
         <v>2</v>
       </c>
-      <c r="O2" s="3">
-        <v>40</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="O2" s="7">
+        <v>40</v>
+      </c>
+      <c r="P2" s="7">
         <v>7</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="7">
         <v>5</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="7">
         <v>2</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="7">
         <v>2</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="7">
         <v>2</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="7">
         <v>5</v>
       </c>
     </row>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9A36F-A511-1F4C-BA18-B95136AE422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EAED9B-873C-8C48-83E7-6123F4093A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2780" windowWidth="40360" windowHeight="21940" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2920" yWindow="2780" windowWidth="44360" windowHeight="25500" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="375">
   <si>
     <t>Journal Title</t>
   </si>
@@ -873,9 +873,6 @@
 Import competition
 Tradable and nontradable industries
 Human capital</t>
-  </si>
-  <si>
-    <t>SU</t>
   </si>
   <si>
     <t>China
@@ -1104,9 +1101,6 @@
     <t>10.1086/682151</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>Voters
 Model
 Polarization
@@ -1416,6 +1410,13 @@
 sourcing strategy
 trade war
 supplier development</t>
+  </si>
+  <si>
+    <t>Foreign Direct-Investment
+Belt
+Internationalization
+Impact
+FDI</t>
   </si>
 </sst>
 </file>
@@ -2302,13 +2303,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2322,7 +2323,7 @@
     <col min="11" max="11" width="19.1640625" style="2" customWidth="1"/>
     <col min="12" max="14" width="4.83203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="101.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" style="2" customWidth="1"/>
     <col min="18" max="20" width="5.1640625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="10.83203125" style="2"/>
@@ -2868,7 +2869,7 @@
         <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>123</v>
@@ -2960,22 +2961,22 @@
         <v>207</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -3025,7 +3026,7 @@
         <v>235</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>40</v>
@@ -3040,7 +3041,7 @@
         <v>40</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -3090,22 +3091,22 @@
         <v>189</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -3155,7 +3156,7 @@
         <v>195</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>40</v>
@@ -3170,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -3285,22 +3286,22 @@
         <v>187</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -3350,22 +3351,22 @@
         <v>219</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="153" x14ac:dyDescent="0.2">
@@ -3415,7 +3416,7 @@
         <v>194</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>40</v>
@@ -3430,7 +3431,7 @@
         <v>40</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="221" x14ac:dyDescent="0.2">
@@ -3480,22 +3481,22 @@
         <v>231</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -3545,7 +3546,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>40</v>
@@ -3560,7 +3561,7 @@
         <v>40</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -3583,7 +3584,7 @@
         <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>145</v>
@@ -3610,22 +3611,22 @@
         <v>186</v>
       </c>
       <c r="P20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -3648,7 +3649,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>100</v>
@@ -3675,22 +3676,22 @@
         <v>212</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="204" x14ac:dyDescent="0.2">
@@ -3740,7 +3741,7 @@
         <v>210</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>40</v>
@@ -3755,7 +3756,7 @@
         <v>40</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -3805,7 +3806,7 @@
         <v>205</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>40</v>
@@ -3820,7 +3821,7 @@
         <v>40</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -3843,7 +3844,7 @@
         <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>160</v>
@@ -3870,7 +3871,7 @@
         <v>178</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>40</v>
@@ -3908,7 +3909,7 @@
         <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>66</v>
@@ -3935,22 +3936,22 @@
         <v>223</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -3973,7 +3974,7 @@
         <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>87</v>
@@ -4000,7 +4001,7 @@
         <v>221</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>40</v>
@@ -4015,7 +4016,7 @@
         <v>40</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -4038,7 +4039,7 @@
         <v>155</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>154</v>
@@ -4103,7 +4104,7 @@
         <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>119</v>
@@ -4130,7 +4131,7 @@
         <v>202</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>40</v>
@@ -4145,7 +4146,7 @@
         <v>40</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="238" x14ac:dyDescent="0.2">
@@ -4168,7 +4169,7 @@
         <v>165</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>164</v>
@@ -4233,7 +4234,7 @@
         <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>92</v>
@@ -4260,22 +4261,22 @@
         <v>215</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -4298,7 +4299,7 @@
         <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>158</v>
@@ -4390,25 +4391,25 @@
         <v>236</v>
       </c>
       <c r="P32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>310</v>
-      </c>
     </row>
-    <row r="33" spans="1:32" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>204</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>40</v>
@@ -4470,13 +4471,10 @@
         <v>40</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="153" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -4496,7 +4494,7 @@
         <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>56</v>
@@ -4523,7 +4521,7 @@
         <v>228</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>40</v>
@@ -4538,10 +4536,10 @@
         <v>40</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>217</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>40</v>
@@ -4603,10 +4601,10 @@
         <v>40</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="136" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>209</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>40</v>
@@ -4668,10 +4666,10 @@
         <v>40</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="187" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="187" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>218</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>40</v>
@@ -4733,10 +4731,10 @@
         <v>40</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>65</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>64</v>
@@ -4783,7 +4781,7 @@
         <v>227</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>40</v>
@@ -4798,10 +4796,10 @@
         <v>40</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="255" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="255" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -4821,7 +4819,7 @@
         <v>149</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>148</v>
@@ -4848,7 +4846,7 @@
         <v>184</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>40</v>
@@ -4863,10 +4861,10 @@
         <v>40</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>237</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>40</v>
@@ -4928,10 +4926,10 @@
         <v>40</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="170" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -4978,7 +4976,7 @@
         <v>214</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>40</v>
@@ -4993,10 +4991,10 @@
         <v>40</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="306" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="306" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -5043,7 +5041,7 @@
         <v>188</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>40</v>
@@ -5058,10 +5056,10 @@
         <v>40</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="238" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>81</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>80</v>
@@ -5108,7 +5106,7 @@
         <v>191</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>40</v>
@@ -5123,13 +5121,10 @@
         <v>40</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AF43" s="2" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -5149,7 +5144,7 @@
         <v>91</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>90</v>
@@ -5176,7 +5171,7 @@
         <v>216</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>40</v>
@@ -5191,10 +5186,10 @@
         <v>40</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>76</v>
@@ -5241,7 +5236,7 @@
         <v>192</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>40</v>
@@ -5259,7 +5254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="170" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -5279,7 +5274,7 @@
         <v>51</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>50</v>
@@ -5306,7 +5301,7 @@
         <v>234</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>40</v>
@@ -5321,10 +5316,10 @@
         <v>40</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -5371,7 +5366,7 @@
         <v>185</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>40</v>
@@ -5386,10 +5381,10 @@
         <v>40</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="187" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>83</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>82</v>
@@ -5436,7 +5431,7 @@
         <v>225</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>40</v>
@@ -5451,7 +5446,7 @@
         <v>40</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -5474,7 +5469,7 @@
         <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>59</v>
@@ -5501,7 +5496,7 @@
         <v>230</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>40</v>
@@ -5516,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -5566,7 +5561,7 @@
         <v>232</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>40</v>
@@ -5581,7 +5576,7 @@
         <v>40</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="238" x14ac:dyDescent="0.2">
@@ -5604,7 +5599,7 @@
         <v>136</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>135</v>
@@ -5631,7 +5626,7 @@
         <v>193</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>40</v>
@@ -5646,7 +5641,7 @@
         <v>40</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -5669,7 +5664,7 @@
         <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>129</v>
@@ -5696,7 +5691,7 @@
         <v>197</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>40</v>
@@ -5711,7 +5706,7 @@
         <v>40</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="238" x14ac:dyDescent="0.2">
@@ -5761,7 +5756,7 @@
         <v>226</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>40</v>
@@ -5776,7 +5771,7 @@
         <v>40</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="153" x14ac:dyDescent="0.2">
@@ -5826,7 +5821,7 @@
         <v>177</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>40</v>
@@ -5841,7 +5836,7 @@
         <v>40</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -5891,7 +5886,7 @@
         <v>190</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>40</v>
@@ -5906,7 +5901,7 @@
         <v>40</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -5929,7 +5924,7 @@
         <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>125</v>
@@ -5956,7 +5951,7 @@
         <v>198</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>40</v>
@@ -5971,7 +5966,7 @@
         <v>40</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="272" x14ac:dyDescent="0.2">
@@ -5994,7 +5989,7 @@
         <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>108</v>
@@ -6021,7 +6016,7 @@
         <v>208</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>40</v>
@@ -6036,7 +6031,7 @@
         <v>40</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -6086,7 +6081,7 @@
         <v>222</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>40</v>
@@ -6101,7 +6096,7 @@
         <v>40</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -6124,7 +6119,7 @@
         <v>151</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>150</v>
@@ -6151,7 +6146,7 @@
         <v>183</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>40</v>
@@ -6166,7 +6161,7 @@
         <v>40</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -6216,10 +6211,10 @@
         <v>199</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>40</v>
@@ -6281,7 +6276,7 @@
         <v>180</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>40</v>
@@ -6319,7 +6314,7 @@
         <v>122</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>121</v>
@@ -6346,7 +6341,7 @@
         <v>201</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>40</v>
@@ -6361,7 +6356,7 @@
         <v>40</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="323" x14ac:dyDescent="0.2">
@@ -6384,7 +6379,7 @@
         <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>84</v>
@@ -6411,7 +6406,7 @@
         <v>224</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>40</v>
@@ -6426,7 +6421,7 @@
         <v>40</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="187" x14ac:dyDescent="0.2">
@@ -6476,7 +6471,7 @@
         <v>182</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>40</v>
@@ -6491,7 +6486,7 @@
         <v>40</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFB7F4-FB72-EB42-8D43-915107CC4140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0D03E-7023-5741-B012-EEAA17CC9614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2260" windowWidth="40960" windowHeight="23640" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0D03E-7023-5741-B012-EEAA17CC9614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888121C-9F1D-6A44-9E24-4E6E865067A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2260" windowWidth="40960" windowHeight="23640" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="12320" yWindow="2880" windowWidth="36420" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="383">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1461,6 +1461,15 @@
   </si>
   <si>
     <t>Theme 4: Labour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased import competition from China (Autor et al., 2013) and developing countries (Bernard et al., 2006) contributed to higher unemployment rates in manufacturing.  Abraham and Kearney (2020) concluded that the China is the largest contributor to the decline in employment-to-population ratio, amounting 0.92% </t>
+  </si>
+  <si>
+    <t>Review of a range of existing evidnece, including literature, data,  and policy documents.</t>
+  </si>
+  <si>
+    <t>Pierce and Schott (2016) argue that granting China permanent normal trade relations (PNTR) led to manufacturing job losses.  Acemoglu et al. (2016) support this cliam, identifying compettion from Chinese imports as a key factor in the contraction of US manufacturing after the millennium, a period that followed China being granted with normal trade relations (NTR) tariff status.</t>
   </si>
 </sst>
 </file>
@@ -3397,10 +3406,10 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3414,8 +3423,9 @@
     <col min="7" max="7" width="19.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="101.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="30.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
-    <col min="11" max="22" width="8" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="2" customWidth="1"/>
+    <col min="11" max="14" width="31.1640625" style="2" customWidth="1"/>
+    <col min="15" max="22" width="8" style="2" customWidth="1"/>
     <col min="23" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -3589,11 +3599,17 @@
       <c r="I3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="O3" s="2" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888121C-9F1D-6A44-9E24-4E6E865067A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7C169-07BD-A449-9BEF-3E7D1EE8AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12320" yWindow="2880" windowWidth="36420" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -3409,7 +3409,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="M3:N3"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3532,16 +3532,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O2" s="7">
         <v>2</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7C169-07BD-A449-9BEF-3E7D1EE8AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D2D11-9A2D-9E42-BB21-F026AE302EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="2880" windowWidth="36420" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="23320" yWindow="5760" windowWidth="26600" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="387">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1470,6 +1470,19 @@
   </si>
   <si>
     <t>Pierce and Schott (2016) argue that granting China permanent normal trade relations (PNTR) led to manufacturing job losses.  Acemoglu et al. (2016) support this cliam, identifying compettion from Chinese imports as a key factor in the contraction of US manufacturing after the millennium, a period that followed China being granted with normal trade relations (NTR) tariff status.</t>
+  </si>
+  <si>
+    <t>The root causes of manufacturing job contraction were analyzed using empirical data from sources including UN Comtrade, US economy data, US County Business Patterns (CBP), and data from the National Bureau of Economic Research (NBER) and Center for Economic Studies (CES).</t>
+  </si>
+  <si>
+    <t>Pierce and Schott (2015) emphasise that the reduction of tariffs on Chinese goods following China's accession to the WTO and the granting of most favoured nation (MFN) status in 2001 contributed to manufacturing contraction.</t>
+  </si>
+  <si>
+    <t>Acemoglu et al. (2016) identified the period between 1999 and 2011 as a significant period of employment decline in US manufacturing, attributing the loss of over 2 million positions to import competition from China.  In another study, Autor et al. (2014) shed light on the distributional effects of this competition, finding that it negatively impacted manufacturing workers with below-average wages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acemoglu et al. (2016) suggested that imposing trade restrictions could allow certain manufacturing industries facing competition from China to expand. However, if prices drop due to downstream effects, more consumers will purchase products from China, potentially offsetting the benefits of those restrictions.
+</t>
   </si>
 </sst>
 </file>
@@ -3406,10 +3419,10 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,7 +3436,7 @@
     <col min="7" max="7" width="19.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="101.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="30.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" customWidth="1"/>
     <col min="11" max="14" width="31.1640625" style="2" customWidth="1"/>
     <col min="15" max="22" width="8" style="2" customWidth="1"/>
     <col min="23" max="16384" width="10.83203125" style="2"/>
@@ -3502,19 +3515,19 @@
     </row>
     <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>4</v>
       </c>
       <c r="C2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <v>4</v>
@@ -3523,49 +3536,49 @@
         <v>4</v>
       </c>
       <c r="H2" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="7">
         <v>5</v>
       </c>
       <c r="K2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" s="7">
         <v>5</v>
@@ -3632,7 +3645,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3660,11 +3673,19 @@
       <c r="I4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="O4" s="2" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D2D11-9A2D-9E42-BB21-F026AE302EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D10523-251E-4B41-BFE7-AC698BD65971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="5760" windowWidth="26600" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Trade and Labor Market Dynamics: General Equilibrium Analysis of the China Trade Shock</t>
   </si>
   <si>
-    <t>Caliendo, L., et al.</t>
-  </si>
-  <si>
     <t>Wiley</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t>Does political conflict hurt trade? Evidence from consumer boycotts</t>
   </si>
   <si>
-    <t>Heilmann, K</t>
-  </si>
-  <si>
     <t>Did Trump's trade war impact the 2018 election?</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
   </si>
   <si>
     <t>Detection and Impact of Industrial Subsidies: The Case of Chinese Shipbuilding</t>
-  </si>
-  <si>
-    <t>Kalouptsidi, M</t>
   </si>
   <si>
     <t>Dependency of Crop Production between Global Breadbaskets: A Copula Approach for the Assessment of Global and Regional Risk Pools</t>
@@ -1483,6 +1474,15 @@
   <si>
     <t xml:space="preserve">Acemoglu et al. (2016) suggested that imposing trade restrictions could allow certain manufacturing industries facing competition from China to expand. However, if prices drop due to downstream effects, more consumers will purchase products from China, potentially offsetting the benefits of those restrictions.
 </t>
+  </si>
+  <si>
+    <t>Caliendo et al.</t>
+  </si>
+  <si>
+    <t>Heilmann</t>
+  </si>
+  <si>
+    <t>Kalouptsidi</t>
   </si>
 </sst>
 </file>
@@ -3419,10 +3419,10 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3444,19 +3444,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -3465,31 +3465,31 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>44</v>
@@ -3498,7 +3498,7 @@
         <v>43</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>2</v>
@@ -3510,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3589,13 +3589,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="5">
         <v>2020</v>
@@ -3607,21 +3607,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>45</v>
@@ -3642,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="204" x14ac:dyDescent="0.2">
@@ -3650,13 +3650,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="5">
         <v>2016</v>
@@ -3668,23 +3668,23 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>45</v>
@@ -3707,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="119" x14ac:dyDescent="0.2">
@@ -3715,13 +3715,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5">
         <v>2019</v>
@@ -3733,10 +3733,10 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3762,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -3773,7 +3773,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>58</v>
@@ -3788,10 +3788,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3815,7 +3815,7 @@
         <v>5</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="85" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>52</v>
@@ -3841,10 +3841,10 @@
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="119" x14ac:dyDescent="0.2">
@@ -3876,13 +3876,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="5">
         <v>2020</v>
@@ -3894,10 +3894,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3921,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="204" x14ac:dyDescent="0.2">
@@ -3929,13 +3929,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="5">
         <v>2021</v>
@@ -3947,10 +3947,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="255" x14ac:dyDescent="0.2">
@@ -3985,10 +3985,10 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="5">
         <v>2020</v>
@@ -4000,10 +4000,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -4042,7 +4042,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>48</v>
@@ -4057,10 +4057,10 @@
         <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4088,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -4096,13 +4096,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="6">
         <v>2022</v>
@@ -4114,10 +4114,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4141,7 +4141,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -4149,13 +4149,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="5">
         <v>2024</v>
@@ -4167,10 +4167,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4196,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -4204,13 +4204,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E14" s="5">
         <v>2022</v>
@@ -4222,10 +4222,10 @@
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -4259,13 +4259,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E15" s="5">
         <v>2024</v>
@@ -4277,10 +4277,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -4304,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4312,13 +4312,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E16" s="5">
         <v>2024</v>
@@ -4330,10 +4330,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4357,7 +4357,7 @@
         <v>4</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="153" x14ac:dyDescent="0.2">
@@ -4365,13 +4365,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="5">
         <v>2014</v>
@@ -4383,10 +4383,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -4410,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="204" x14ac:dyDescent="0.2">
@@ -4418,10 +4418,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>61</v>
@@ -4436,10 +4436,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -4451,7 +4451,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>5</v>
@@ -4463,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -4471,13 +4471,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6">
         <v>2024</v>
@@ -4489,10 +4489,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4516,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4524,13 +4524,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="5">
         <v>2022</v>
@@ -4542,10 +4542,10 @@
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4569,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -4577,13 +4577,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="6">
         <v>2025</v>
@@ -4595,10 +4595,10 @@
         <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4624,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="204" x14ac:dyDescent="0.2">
@@ -4632,13 +4632,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="5">
         <v>2016</v>
@@ -4650,10 +4650,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4671,7 +4671,7 @@
         <v>43</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>5</v>
@@ -4683,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -4691,13 +4691,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="5">
         <v>2024</v>
@@ -4709,10 +4709,10 @@
         <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -4736,7 +4736,7 @@
         <v>4</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4744,13 +4744,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E24" s="6">
         <v>2021</v>
@@ -4762,10 +4762,10 @@
         <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -4789,7 +4789,7 @@
         <v>40</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -4797,13 +4797,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5">
         <v>2018</v>
@@ -4815,10 +4815,10 @@
         <v>7</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -4836,7 +4836,7 @@
         <v>43</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>5</v>
@@ -4848,7 +4848,7 @@
         <v>40</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -4856,13 +4856,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="5">
         <v>2015</v>
@@ -4874,10 +4874,10 @@
         <v>6</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -4913,13 +4913,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E27" s="5">
         <v>2023</v>
@@ -4931,10 +4931,10 @@
         <v>9</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4958,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -4966,13 +4966,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="6">
         <v>2024</v>
@@ -4984,10 +4984,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -5011,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="238" x14ac:dyDescent="0.2">
@@ -5019,13 +5019,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E29" s="5">
         <v>2015</v>
@@ -5037,10 +5037,10 @@
         <v>6</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5066,7 +5066,7 @@
         <v>4</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -5074,13 +5074,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5">
         <v>2020</v>
@@ -5092,10 +5092,10 @@
         <v>6</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -5119,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -5127,13 +5127,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E31" s="5">
         <v>2018</v>
@@ -5145,10 +5145,10 @@
         <v>6</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -5176,7 +5176,7 @@
         <v>4</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -5187,7 +5187,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>46</v>
@@ -5202,10 +5202,10 @@
         <v>6</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -5239,13 +5239,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="5">
         <v>2015</v>
@@ -5257,10 +5257,10 @@
         <v>18</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -5286,7 +5286,7 @@
         <v>40</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="153" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>56</v>
@@ -5312,10 +5312,10 @@
         <v>6</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -5343,7 +5343,7 @@
         <v>4</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -5351,13 +5351,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="6">
         <v>2020</v>
@@ -5369,10 +5369,10 @@
         <v>15</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -5400,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -5408,13 +5408,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="5">
         <v>2024</v>
@@ -5426,10 +5426,10 @@
         <v>6</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -5455,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -5463,13 +5463,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="5">
         <v>2015</v>
@@ -5481,10 +5481,10 @@
         <v>13</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5512,7 +5512,7 @@
         <v>40</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="153" x14ac:dyDescent="0.2">
@@ -5520,13 +5520,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="5">
         <v>2024</v>
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5565,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="255" x14ac:dyDescent="0.2">
@@ -5573,13 +5573,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E39" s="5">
         <v>2017</v>
@@ -5591,10 +5591,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5606,7 +5606,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T39" s="2">
         <v>4</v>
@@ -5618,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="119" x14ac:dyDescent="0.2">
@@ -5629,7 +5629,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>41</v>
@@ -5644,10 +5644,10 @@
         <v>15</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -5675,7 +5675,7 @@
         <v>5</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -5683,13 +5683,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="5">
         <v>2017</v>
@@ -5701,10 +5701,10 @@
         <v>15</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5730,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="306" x14ac:dyDescent="0.2">
@@ -5738,13 +5738,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="5">
         <v>2016</v>
@@ -5756,10 +5756,10 @@
         <v>6</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5785,7 +5785,7 @@
         <v>4</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="238" x14ac:dyDescent="0.2">
@@ -5793,13 +5793,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="5">
         <v>2021</v>
@@ -5811,10 +5811,10 @@
         <v>13</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5842,7 +5842,7 @@
         <v>4</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -5850,13 +5850,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="5">
         <v>2023</v>
@@ -5868,10 +5868,10 @@
         <v>6</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5897,7 +5897,7 @@
         <v>4</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -5905,13 +5905,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="6">
         <v>2024</v>
@@ -5923,10 +5923,10 @@
         <v>28</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -5952,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -5963,7 +5963,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>50</v>
@@ -5978,10 +5978,10 @@
         <v>6</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="119" x14ac:dyDescent="0.2">
@@ -6017,13 +6017,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E47" s="5">
         <v>2018</v>
@@ -6035,10 +6035,10 @@
         <v>13</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -6064,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -6072,13 +6072,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="6">
         <v>2021</v>
@@ -6090,10 +6090,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -6117,7 +6117,7 @@
         <v>40</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -6128,7 +6128,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>59</v>
@@ -6143,10 +6143,10 @@
         <v>13</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -6172,7 +6172,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>54</v>
@@ -6198,10 +6198,10 @@
         <v>9</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -6229,7 +6229,7 @@
         <v>3</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="238" x14ac:dyDescent="0.2">
@@ -6237,13 +6237,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="5">
         <v>2023</v>
@@ -6255,10 +6255,10 @@
         <v>10</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -6267,7 +6267,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -6282,7 +6282,7 @@
         <v>5</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="102" x14ac:dyDescent="0.2">
@@ -6290,13 +6290,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" s="6">
         <v>2018</v>
@@ -6308,10 +6308,10 @@
         <v>6</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -6335,7 +6335,7 @@
         <v>4</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="238" x14ac:dyDescent="0.2">
@@ -6343,13 +6343,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="5">
         <v>2023</v>
@@ -6361,10 +6361,10 @@
         <v>8</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -6388,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="153" x14ac:dyDescent="0.2">
@@ -6396,13 +6396,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="6">
         <v>2024</v>
@@ -6414,10 +6414,10 @@
         <v>18</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -6443,7 +6443,7 @@
         <v>40</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -6451,13 +6451,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="5">
         <v>2016</v>
@@ -6469,10 +6469,10 @@
         <v>6</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -6500,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="136" x14ac:dyDescent="0.2">
@@ -6508,13 +6508,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="5">
         <v>2021</v>
@@ -6526,10 +6526,10 @@
         <v>6</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -6553,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="272" x14ac:dyDescent="0.2">
@@ -6561,13 +6561,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="5">
         <v>2025</v>
@@ -6579,10 +6579,10 @@
         <v>7</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -6594,7 +6594,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T57" s="2">
         <v>4</v>
@@ -6606,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="170" x14ac:dyDescent="0.2">
@@ -6614,13 +6614,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="5">
         <v>2016</v>
@@ -6632,10 +6632,10 @@
         <v>15</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -6663,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -6671,13 +6671,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E59" s="5">
         <v>2016</v>
@@ -6689,10 +6689,10 @@
         <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -6718,7 +6718,7 @@
         <v>5</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -6726,13 +6726,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="5">
         <v>2025</v>
@@ -6744,13 +6744,13 @@
         <v>10</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -6758,7 +6758,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -6773,7 +6773,7 @@
         <v>5</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="255" x14ac:dyDescent="0.2">
@@ -6781,13 +6781,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E61" s="6">
         <v>2024</v>
@@ -6799,10 +6799,10 @@
         <v>9</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -6826,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -6834,13 +6834,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="5">
         <v>2021</v>
@@ -6852,10 +6852,10 @@
         <v>6</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -6881,7 +6881,7 @@
         <v>4</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="323" x14ac:dyDescent="0.2">
@@ -6889,13 +6889,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="5">
         <v>2024</v>
@@ -6907,10 +6907,10 @@
         <v>10</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -6919,7 +6919,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -6934,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="187" x14ac:dyDescent="0.2">
@@ -6942,13 +6942,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E64" s="5">
         <v>2024</v>
@@ -6960,10 +6960,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -6991,7 +6991,7 @@
         <v>40</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7017,27 +7017,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B2" s="5">
         <v>2020</v>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B3" s="5">
         <v>2016</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" s="5">
         <v>2019</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" s="5">
         <v>2025</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B6" s="5">
         <v>2025</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B7" s="5">
         <v>2020</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" s="5">
         <v>2021</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B9" s="5">
         <v>2020</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B10" s="5">
         <v>2015</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B11" s="6">
         <v>2022</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="5">
         <v>2024</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B13" s="5">
         <v>2022</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B14" s="5">
         <v>2024</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B15" s="5">
         <v>2024</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B16" s="5">
         <v>2014</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B17" s="5">
         <v>2019</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B18" s="6">
         <v>2024</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B19" s="5">
         <v>2022</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B20" s="6">
         <v>2025</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B21" s="5">
         <v>2016</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B22" s="5">
         <v>2024</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B23" s="6">
         <v>2021</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" s="5">
         <v>2018</v>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B25" s="5">
         <v>2015</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B26" s="5">
         <v>2023</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B27" s="6">
         <v>2024</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B28" s="5">
         <v>2015</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B29" s="5">
         <v>2020</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B30" s="5">
         <v>2018</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B31" s="5">
         <v>2019</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B32" s="5">
         <v>2015</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B33" s="5">
         <v>2017</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B34" s="6">
         <v>2020</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B35" s="5">
         <v>2024</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5">
         <v>2015</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B37" s="5">
         <v>2024</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B38" s="5">
         <v>2017</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B39" s="6">
         <v>2024</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5">
         <v>2017</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B41" s="5">
         <v>2016</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B42" s="5">
         <v>2021</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B43" s="5">
         <v>2023</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B44" s="6">
         <v>2024</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B45" s="5">
         <v>2024</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B46" s="5">
         <v>2018</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B47" s="6">
         <v>2021</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B48" s="5">
         <v>2021</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B49" s="6">
         <v>2017</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B50" s="5">
         <v>2023</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B51" s="6">
         <v>2018</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B52" s="5">
         <v>2023</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B53" s="6">
         <v>2024</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B54" s="5">
         <v>2016</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B55" s="5">
         <v>2021</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B56" s="5">
         <v>2025</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B57" s="5">
         <v>2016</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B58" s="5">
         <v>2016</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B59" s="5">
         <v>2025</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B60" s="6">
         <v>2024</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B61" s="5">
         <v>2021</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B62" s="5">
         <v>2024</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B63" s="5">
         <v>2024</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D10523-251E-4B41-BFE7-AC698BD65971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED2DE9-466D-B848-AA51-3C170CAE3A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23320" yWindow="5760" windowWidth="26600" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -3419,10 +3419,10 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3524,16 +3524,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
       </c>
       <c r="F2" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <v>25</v>
@@ -3545,16 +3545,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L2" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M2" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N2" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O2" s="7">
         <v>1</v>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="255" x14ac:dyDescent="0.2">

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED2DE9-466D-B848-AA51-3C170CAE3A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118FC08-B9AA-4643-A9F9-B72FDDD73AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23320" yWindow="5760" windowWidth="26600" windowHeight="22180" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="4560" yWindow="2000" windowWidth="34900" windowHeight="27040" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="389">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1483,6 +1483,12 @@
   </si>
   <si>
     <t>Kalouptsidi</t>
+  </si>
+  <si>
+    <t>The analysis incorporates census data from the US and Canada, including the ntegrated Public Use Microdata Series (IPUMS), American Community Survey, Canadian Master File, and National Household Survey.</t>
+  </si>
+  <si>
+    <t>Albouy et al. (2019) highlight a seemingly paradoxical finding: despite Canada's more flexible immigration regulations, US manufacturing suffered more than Canadian manufacturing when exposed to Chinese import competition.</t>
   </si>
 </sst>
 </file>
@@ -3419,10 +3425,10 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3710,7 +3716,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3738,11 +3744,15 @@
       <c r="I5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="O5" s="2" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118FC08-B9AA-4643-A9F9-B72FDDD73AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDEB18-C903-164C-A374-A76368B81CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2000" windowWidth="34900" windowHeight="27040" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2160" yWindow="4200" windowWidth="43860" windowHeight="26720" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="390">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1489,6 +1489,9 @@
   </si>
   <si>
     <t>Albouy et al. (2019) highlight a seemingly paradoxical finding: despite Canada's more flexible immigration regulations, US manufacturing suffered more than Canadian manufacturing when exposed to Chinese import competition.</t>
+  </si>
+  <si>
+    <t>Alessandria et al. (2025) concluded that trade war between US and China commenced in 2018 and would continue and the states would be reversed when political turnover in US.</t>
   </si>
 </sst>
 </file>
@@ -2372,9 +2375,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2396,11 +2399,10 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2431,9 +2433,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2451,37 +2453,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3425,10 +3396,10 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3804,7 +3775,9 @@
         <v>249</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -7015,8 +6988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="E13" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,31 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDEB18-C903-164C-A374-A76368B81CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559C4E9-13D2-A444-B9CA-0EFA08983DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="4200" windowWidth="43860" windowHeight="26720" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="4600" yWindow="3600" windowWidth="43860" windowHeight="26720" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="chart" sheetId="4" r:id="rId2"/>
+    <sheet name="count" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$S$64</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">chart!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">chart!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">chart!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">chart!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">chart!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">chart!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">chart!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">chart!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">chart!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">chart!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">chart!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">chart!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">chart!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">chart!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">chart!$A$2:$A$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="399">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1492,6 +1478,33 @@
   </si>
   <si>
     <t>Alessandria et al. (2025) concluded that trade war between US and China commenced in 2018 and would continue and the states would be reversed when political turnover in US.</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Formulating Research Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Searching Articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evaluating and Excluding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analysing and Thematising</t>
+  </si>
+  <si>
+    <t>Thematic Analysis and Findings</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2015,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6988,9 +7001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7033,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>COUNTIFS(A:A, $F$1, B:B, D2)</f>
+        <f t="shared" ref="F2:F13" si="0">COUNTIFS(A:A, $F$1, B:B, D2)</f>
         <v>1</v>
       </c>
       <c r="G2">
@@ -7052,15 +7063,15 @@
         <v>2015</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">COUNTIF(B:B, D3)</f>
+        <f t="shared" ref="E3:E12" si="1">COUNTIF(B:B, D3)</f>
         <v>5</v>
       </c>
       <c r="F3">
-        <f>COUNTIFS(A:A, $F$1, B:B, D3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="1">E3-F3</f>
+        <f t="shared" ref="G3:G13" si="2">E3-F3</f>
         <v>2</v>
       </c>
     </row>
@@ -7075,15 +7086,15 @@
         <v>2016</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <f>COUNTIFS(A:A, $F$1, B:B, D4)</f>
         <v>5</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7098,15 +7109,15 @@
         <v>2017</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f>COUNTIFS(A:A, $F$1, B:B, D5)</f>
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -7121,15 +7132,15 @@
         <v>2018</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f>COUNTIFS(A:A, $F$1, B:B, D6)</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7144,15 +7155,15 @@
         <v>2019</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F7">
-        <f>COUNTIFS(A:A, $F$1, B:B, D7)</f>
-        <v>3</v>
-      </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7167,15 +7178,15 @@
         <v>2020</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f>COUNTIFS(A:A, $F$1, B:B, D8)</f>
         <v>4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7190,15 +7201,15 @@
         <v>2021</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <f>COUNTIFS(A:A, $F$1, B:B, D9)</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -7213,15 +7224,15 @@
         <v>2022</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f>COUNTIFS(A:A, $F$1, B:B, D10)</f>
         <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7236,15 +7247,15 @@
         <v>2023</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <f>COUNTIFS(A:A, $F$1, B:B, D11)</f>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7259,15 +7270,15 @@
         <v>2024</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <f>COUNTIFS(A:A, $F$1, B:B, D12)</f>
         <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7286,11 +7297,11 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <f>COUNTIFS(A:A, $F$1, B:B, D13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -7582,7 +7593,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>340</v>
       </c>
@@ -7698,4 +7709,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305E5A6-5F90-CE4F-BACA-09F424C010D8}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2">
+        <v>109</v>
+      </c>
+      <c r="G2">
+        <f>SUM(C2:F2)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3">
+        <v>149</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">SUM(C3:F3)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>229</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5">
+        <v>113</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G2:G8)</f>
+        <v>2438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559C4E9-13D2-A444-B9CA-0EFA08983DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE8945E-28D5-BD4A-8152-2DE541B0E520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="3600" windowWidth="43860" windowHeight="26720" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="11700" yWindow="2960" windowWidth="34240" windowHeight="28820" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="count" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$S$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$U$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="408">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1428,9 +1428,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Theme 1: Trade War</t>
-  </si>
-  <si>
     <t>Theme 2: China Shock</t>
   </si>
   <si>
@@ -1505,6 +1502,36 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Zeng and Kim (2024) utilise the Moody's databases of Orbis Crossborder Investment and Orbis Company.</t>
+  </si>
+  <si>
+    <t>Zeng and Kim (2024) concluded that the data indicated Chinese firms, rather than state-owned enterprises (SOEs), dramatically increased their greenfield foreign direct investments (FDI) in the U.S. following the outbreak of the U.S.-China trade war in 2018.  SOEs were the most adversely affected.  Additionally, there is no evidence that any firms increased their investments in countries participating in the Belt and Road Initiative (BRI)).</t>
+  </si>
+  <si>
+    <t>Zeng and Kim (2024) revealed that state-owned enterprises (SOEs) are most affected, as they adopt a more cautious political stance that prioritizes supporting the domestic "dual-circulation" strategy over outbound investment.</t>
+  </si>
+  <si>
+    <t>Zeng and Kim (2024) concluded that evidence suggests a surge in greenfield investments by Chinese firms in the US due to trade-war, which implies a positive impact on US employment.</t>
+  </si>
+  <si>
+    <t>Other Theme</t>
+  </si>
+  <si>
+    <t>DuBois (2023) discussed the business operations of the Anlgo-Swiss company Nestlé and its US rival Borden in the Esat Aisa from the late 19th century until the outbreak of the Second World War.</t>
+  </si>
+  <si>
+    <t>Invaluable insights can be gained from the busienss activities between the PRC and its politically aligned countries in Latin America, from Cuba to Chile, during the Mao, as discussed by Ren (2024).</t>
+  </si>
+  <si>
+    <t>Theeme 1: Trade War</t>
+  </si>
+  <si>
+    <t>Drawing the inspriation of the archives of foreign affairs of the PRC, Ren (2024) explored the nuanced its business history between the PRC and Latin America during the early decades of New China.</t>
+  </si>
+  <si>
+    <t>Citation</t>
   </si>
 </sst>
 </file>
@@ -3406,33 +3433,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="101.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" customWidth="1"/>
-    <col min="11" max="14" width="31.1640625" style="2" customWidth="1"/>
-    <col min="15" max="22" width="8" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="101.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="31.1640625" style="2" customWidth="1"/>
+    <col min="17" max="24" width="8" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
@@ -3440,102 +3467,108 @@
         <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
       <c r="F2" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="7">
         <v>3</v>
       </c>
       <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
         <v>25</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
       </c>
       <c r="J2" s="7">
         <v>5</v>
       </c>
       <c r="K2" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L2" s="7">
         <v>9</v>
@@ -3547,10 +3580,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>
@@ -3571,278 +3601,307 @@
         <v>1</v>
       </c>
       <c r="W2" s="7">
+        <v>1</v>
+      </c>
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="255" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="str">
+        <f>IF(B3="", "", B3 &amp; IF(F3="", " (no year)", " (" &amp; F3 &amp; ")"))</f>
+        <v>Abraham and Kearney (2020)</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>2020</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="2">
-        <v>4</v>
-      </c>
-      <c r="U3" s="2">
-        <v>4</v>
-      </c>
+      <c r="U3" s="1"/>
       <c r="V3" s="2">
         <v>4</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2">
+        <v>4</v>
+      </c>
+      <c r="X3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C64" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
+        <v>Acemoglu et al. (2016)</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>2016</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="2">
-        <v>4</v>
-      </c>
-      <c r="U4" s="2">
-        <v>4</v>
-      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="2">
         <v>4</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="2">
+        <v>4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Albouy et al. (2019)</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>2019</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="2">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2">
-        <v>4</v>
-      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="2">
         <v>4</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="2">
+        <v>4</v>
+      </c>
+      <c r="X5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Alessandria et al. (2025)</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>2025</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U6" s="1"/>
       <c r="V6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Alessandria et al. (2025)</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>2025</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3850,52 +3909,57 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="2">
-        <v>4</v>
-      </c>
-      <c r="U7" s="2">
-        <v>4</v>
-      </c>
+      <c r="U7" s="1"/>
       <c r="V7" s="2">
         <v>4</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="2">
+        <v>4</v>
+      </c>
+      <c r="X7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Amiti et al. (2020)</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>2020</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3903,382 +3967,417 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="2">
-        <v>4</v>
-      </c>
-      <c r="U8" s="2">
-        <v>4</v>
-      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="2">
         <v>4</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="2">
+        <v>4</v>
+      </c>
+      <c r="X8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="204" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Aslan and Kumar (2021)</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>2021</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="2">
-        <v>4</v>
-      </c>
-      <c r="U9" s="2">
-        <v>4</v>
-      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
       <c r="V9" s="2">
         <v>4</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="2">
+        <v>4</v>
+      </c>
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="255" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Autor et al. (2020)</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>2020</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U10" s="1"/>
       <c r="V10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Autor et al. (2015)</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>2015</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="2">
-        <v>4</v>
-      </c>
-      <c r="U11" s="2">
-        <v>4</v>
-      </c>
+      <c r="U11" s="1"/>
       <c r="V11" s="2">
         <v>4</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="2">
+        <v>4</v>
+      </c>
+      <c r="X11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ballard-Rosa et al. (2022)</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>2022</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1">
-        <v>4</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>4</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Benguria and Saffie (2024)</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>2024</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="2">
-        <v>4</v>
-      </c>
-      <c r="U13" s="2">
-        <v>4</v>
-      </c>
+      <c r="U13" s="1"/>
       <c r="V13" s="2">
         <v>4</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="2">
+        <v>4</v>
+      </c>
+      <c r="X13" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Benguria et al. (2022)</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>2022</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="2">
-        <v>4</v>
-      </c>
-      <c r="U14" s="2">
-        <v>4</v>
-      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="2">
         <v>4</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="2">
+        <v>4</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Blanchard et al. (2024)</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>2024</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -4286,105 +4385,115 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="2">
-        <v>4</v>
-      </c>
-      <c r="U15" s="2">
-        <v>4</v>
-      </c>
+      <c r="U15" s="1"/>
       <c r="V15" s="2">
         <v>4</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="2">
+        <v>4</v>
+      </c>
+      <c r="X15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Bown and Wang (2024)</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>2024</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="2">
-        <v>4</v>
-      </c>
-      <c r="U16" s="2">
-        <v>4</v>
-      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="2">
         <v>4</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="2">
+        <v>4</v>
+      </c>
+      <c r="X16" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Broz and Werfel (2014)</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>2014</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4392,52 +4501,57 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="2">
-        <v>4</v>
-      </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="1"/>
+      <c r="V17" s="2">
+        <v>4</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Caliendo et al. (2019)</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>2019</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4446,104 +4560,114 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Carcelli and Park (2024)</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <v>2024</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1">
-        <v>4</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>4</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Che et al. (2022)</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>2022</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4551,166 +4675,181 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="2">
-        <v>4</v>
-      </c>
-      <c r="U20" s="2">
-        <v>4</v>
-      </c>
+      <c r="U20" s="1"/>
       <c r="V20" s="2">
         <v>4</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="2">
+        <v>4</v>
+      </c>
+      <c r="X20" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Che et al. (2025)</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <v>2025</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <v>4</v>
-      </c>
-      <c r="U21" s="1">
-        <v>4</v>
-      </c>
+      <c r="U21" s="1"/>
       <c r="V21" s="1">
         <v>4</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="1">
+        <v>4</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Chetverikov et al. (2016)</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>2016</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Chor and Li (2024)</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>2024</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -4718,828 +4857,905 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="2">
-        <v>4</v>
-      </c>
-      <c r="U23" s="2">
-        <v>4</v>
-      </c>
+      <c r="U23" s="1"/>
       <c r="V23" s="2">
         <v>4</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="2">
+        <v>4</v>
+      </c>
+      <c r="X23" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Chyzh and Urbatsch (2021)</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>2021</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1">
-        <v>4</v>
-      </c>
-      <c r="U24" s="1" t="s">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
+        <v>4</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Colantone and Stanig (2018)</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>2018</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="U25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Defever et al. (2015)</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>2015</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="2">
-        <v>4</v>
-      </c>
-      <c r="U26" s="2">
-        <v>4</v>
-      </c>
+      <c r="U26" s="1"/>
       <c r="V26" s="2">
         <v>4</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="2">
+        <v>4</v>
+      </c>
+      <c r="X26" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DuBois (2023)</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>2023</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="2">
-        <v>4</v>
-      </c>
-      <c r="U27" s="2">
-        <v>4</v>
-      </c>
+      <c r="U27" s="1"/>
       <c r="V27" s="2">
+        <v>4</v>
+      </c>
+      <c r="W27" s="2">
+        <v>4</v>
+      </c>
+      <c r="X27" s="2">
         <v>3</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Egger and Erhardt (2024)</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <v>2024</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1">
-        <v>4</v>
-      </c>
-      <c r="U28" s="1">
-        <v>4</v>
-      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
       <c r="V28" s="1">
+        <v>4</v>
+      </c>
+      <c r="W28" s="1">
+        <v>4</v>
+      </c>
+      <c r="X28" s="1">
         <v>3</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="238" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Eugeni (2015)</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>2015</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="2">
-        <v>4</v>
-      </c>
-      <c r="U29" s="2">
-        <v>4</v>
-      </c>
+      <c r="U29" s="1"/>
       <c r="V29" s="2">
         <v>4</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="2">
+        <v>4</v>
+      </c>
+      <c r="X29" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Fan et al. (2020)</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>2020</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="2">
-        <v>4</v>
-      </c>
-      <c r="U30" s="2">
-        <v>4</v>
-      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
       <c r="V30" s="2">
         <v>4</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" s="2">
+        <v>4</v>
+      </c>
+      <c r="X30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Fatum et al. (2018)</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>2018</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="2">
-        <v>4</v>
-      </c>
-      <c r="U31" s="2">
-        <v>4</v>
-      </c>
+      <c r="U31" s="1"/>
       <c r="V31" s="2">
         <v>4</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="2">
+        <v>4</v>
+      </c>
+      <c r="X31" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Feenstra et al. (2019)</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>2019</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="2">
-        <v>4</v>
-      </c>
-      <c r="U32" s="2">
-        <v>4</v>
-      </c>
+      <c r="U32" s="1"/>
       <c r="V32" s="2">
         <v>4</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="2">
+        <v>4</v>
+      </c>
+      <c r="X32" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Feigenbaum and Hall (2015)</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>2015</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="2">
-        <v>4</v>
-      </c>
-      <c r="U33" s="2" t="s">
+      <c r="U33" s="1"/>
+      <c r="V33" s="2">
+        <v>4</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="X33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="Y33" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="153" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Feng et al. (2017)</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>2017</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="2">
-        <v>4</v>
-      </c>
-      <c r="U34" s="2">
-        <v>4</v>
-      </c>
+      <c r="U34" s="1"/>
       <c r="V34" s="2">
         <v>4</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="2">
+        <v>4</v>
+      </c>
+      <c r="X34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Flaaen et al. (2020)</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <v>2020</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="W35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Freund et al. (2024)</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>2024</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="2">
-        <v>4</v>
-      </c>
-      <c r="U36" s="2">
-        <v>4</v>
-      </c>
+      <c r="U36" s="1"/>
       <c r="V36" s="2">
         <v>4</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="2">
+        <v>4</v>
+      </c>
+      <c r="X36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Galantucci (2015)</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>2015</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="2">
-        <v>4</v>
-      </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" s="1"/>
+      <c r="V37" s="2">
+        <v>4</v>
+      </c>
+      <c r="W37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="X37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="Y37" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="153" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Galle and Lorentzen (2024)</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>2024</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -5547,52 +5763,57 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="2">
-        <v>4</v>
-      </c>
-      <c r="U38" s="2">
-        <v>4</v>
-      </c>
+      <c r="U38" s="1"/>
       <c r="V38" s="2">
         <v>4</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" s="2">
+        <v>4</v>
+      </c>
+      <c r="X38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="255" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Gaupp et al. (2017)</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>2017</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -5601,768 +5822,838 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T39" s="2">
-        <v>4</v>
-      </c>
-      <c r="U39" s="2">
-        <v>4</v>
-      </c>
       <c r="V39" s="2">
         <v>4</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="2">
+        <v>4</v>
+      </c>
+      <c r="X39" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Grossman et al. (2024)</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <v>2024</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="T40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="W40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Handley and Limão (2017)</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>2017</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="T41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U41" s="1"/>
       <c r="V41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="306" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="306" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Heilmann (2016)</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>2016</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S42" s="1"/>
-      <c r="T42" s="2">
-        <v>4</v>
-      </c>
-      <c r="U42" s="2">
-        <v>4</v>
-      </c>
+      <c r="U42" s="1"/>
       <c r="V42" s="2">
         <v>4</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="2">
+        <v>4</v>
+      </c>
+      <c r="X42" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="238" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jakubik and Stolzenburg (2021)</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>2021</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="2">
-        <v>4</v>
-      </c>
-      <c r="U43" s="2">
-        <v>4</v>
-      </c>
+      <c r="U43" s="1"/>
       <c r="V43" s="2">
         <v>4</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="2">
+        <v>4</v>
+      </c>
+      <c r="X43" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jiang et al. (2023)</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>2023</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S44" s="1"/>
-      <c r="T44" s="2">
-        <v>4</v>
-      </c>
-      <c r="U44" s="2">
-        <v>4</v>
-      </c>
+      <c r="U44" s="1"/>
       <c r="V44" s="2">
         <v>4</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" s="2">
+        <v>4</v>
+      </c>
+      <c r="X44" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jiao et al. (2024)</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <v>2024</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1">
-        <v>4</v>
-      </c>
-      <c r="U45" s="1">
-        <v>4</v>
-      </c>
+      <c r="U45" s="1"/>
       <c r="V45" s="1">
         <v>4</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="1">
+        <v>4</v>
+      </c>
+      <c r="X45" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ju et al. (2024)</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>2024</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="T46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S46" s="1"/>
-      <c r="T46" s="2">
-        <v>4</v>
-      </c>
-      <c r="U46" s="2">
-        <v>4</v>
-      </c>
+      <c r="U46" s="1"/>
       <c r="V46" s="2">
         <v>4</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="2">
+        <v>4</v>
+      </c>
+      <c r="X46" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Kalouptsidi (2018)</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>2018</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U47" s="1"/>
       <c r="V47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Kim and Margalit (2021)</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <v>2021</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1">
-        <v>4</v>
-      </c>
-      <c r="U48" s="1" t="s">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1">
+        <v>4</v>
+      </c>
+      <c r="W48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="X48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="Y48" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Kim and Pelc (2021)</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>2021</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2" t="s">
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S49" s="1"/>
-      <c r="T49" s="2">
-        <v>4</v>
-      </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="1"/>
+      <c r="V49" s="2">
+        <v>4</v>
+      </c>
+      <c r="W49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="X49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="Y49" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Liang and Zeng (2017)</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <v>2017</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="T50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1">
-        <v>4</v>
-      </c>
-      <c r="U50" s="1">
-        <v>4</v>
-      </c>
+      <c r="U50" s="1"/>
       <c r="V50" s="1">
+        <v>4</v>
+      </c>
+      <c r="W50" s="1">
+        <v>4</v>
+      </c>
+      <c r="X50" s="1">
         <v>3</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="Y50" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="238" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lu and Zhou (2023)</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>2023</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="2" t="s">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="V51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lu et al. (2018)</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="6">
+      <c r="F52" s="6">
         <v>2018</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1">
-        <v>4</v>
-      </c>
-      <c r="U52" s="1">
-        <v>4</v>
-      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
       <c r="V52" s="1">
         <v>4</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W52" s="1">
+        <v>4</v>
+      </c>
+      <c r="X52" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Luo and Van Assche (2023)</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>2023</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -6370,164 +6661,179 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U53" s="1"/>
       <c r="V53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="W53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="153" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Mansfield and Solodoch (2024)</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="6">
+      <c r="F54" s="6">
         <v>2024</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="T54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1">
-        <v>4</v>
-      </c>
-      <c r="U54" s="1" t="s">
+      <c r="U54" s="1"/>
+      <c r="V54" s="1">
+        <v>4</v>
+      </c>
+      <c r="W54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>McManus and Schaur (2016)</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>2016</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="2" t="s">
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1"/>
+      <c r="S55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="T55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S55" s="1"/>
-      <c r="T55" s="2">
-        <v>4</v>
-      </c>
-      <c r="U55" s="2">
-        <v>4</v>
-      </c>
+      <c r="U55" s="1"/>
       <c r="V55" s="2">
         <v>4</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="W55" s="2">
+        <v>4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Niemeläinen (2021)</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>2021</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -6535,52 +6841,57 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S56" s="1"/>
-      <c r="T56" s="2">
-        <v>4</v>
-      </c>
-      <c r="U56" s="2">
-        <v>4</v>
-      </c>
+      <c r="U56" s="1"/>
       <c r="V56" s="2">
         <v>4</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W56" s="2">
+        <v>4</v>
+      </c>
+      <c r="X56" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y56" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="272" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="272" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Osman and El‐Gendy (2025)</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>2025</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -6589,409 +6900,458 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T57" s="2">
-        <v>4</v>
-      </c>
-      <c r="U57" s="2">
-        <v>4</v>
-      </c>
       <c r="V57" s="2">
         <v>4</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" s="2">
+        <v>4</v>
+      </c>
+      <c r="X57" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pierce and Schott (2016)</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>2016</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1"/>
+      <c r="S58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S58" s="1"/>
-      <c r="T58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U58" s="1"/>
       <c r="V58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="W58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Rahaman (2016)</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>2016</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="2" t="s">
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S59" s="1"/>
-      <c r="T59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U59" s="1"/>
       <c r="V59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="W59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ramani (2025)</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>2025</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="2" t="s">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="V60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="W60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="255" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ren (2024)</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E61" s="6">
+      <c r="F61" s="6">
         <v>2024</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="2" t="s">
+      <c r="P61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1">
-        <v>4</v>
-      </c>
-      <c r="U61" s="1">
-        <v>4</v>
-      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="V61" s="1">
+        <v>4</v>
+      </c>
+      <c r="W61" s="1">
+        <v>4</v>
+      </c>
+      <c r="X61" s="1">
         <v>3</v>
       </c>
-      <c r="W61" s="1" t="s">
+      <c r="Y61" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wang (2021)</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>2021</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="T62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S62" s="1"/>
-      <c r="T62" s="2">
-        <v>4</v>
-      </c>
-      <c r="U62" s="2">
-        <v>4</v>
-      </c>
+      <c r="U62" s="1"/>
       <c r="V62" s="2">
         <v>4</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="W62" s="2">
+        <v>4</v>
+      </c>
+      <c r="X62" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="323" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="323" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wu et al. (2024)</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <v>2024</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="2" t="s">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="2">
-        <v>4</v>
-      </c>
-      <c r="U63" s="2">
-        <v>4</v>
-      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
       <c r="V63" s="2">
         <v>4</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="W63" s="2">
+        <v>4</v>
+      </c>
+      <c r="X63" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y63" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="221" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Zeng and Kim (2024)</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <v>2024</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="2" t="s">
-        <v>45</v>
+      <c r="O64" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R64" s="1"/>
+      <c r="S64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="T64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S64" s="1"/>
-      <c r="T64" s="2">
-        <v>4</v>
-      </c>
-      <c r="U64" s="2" t="s">
+      <c r="U64" s="1"/>
+      <c r="V64" s="2">
+        <v>4</v>
+      </c>
+      <c r="W64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V64" s="2" t="s">
+      <c r="X64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="Y64" s="1" t="s">
         <v>365</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
+  <autoFilter ref="A1:U64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7730,7 +8090,7 @@
         <v>372</v>
       </c>
       <c r="B1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7738,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C2">
         <v>109</v>
@@ -7753,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3">
         <v>149</v>
@@ -7768,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4">
         <v>88</v>
@@ -7786,7 +8146,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5">
         <v>113</v>
@@ -7801,7 +8161,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -7816,7 +8176,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G7">
         <v>1200</v>
@@ -7827,7 +8187,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G8">
         <v>500</v>
@@ -7835,7 +8195,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G9">
         <f>SUM(G2:G8)</f>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE8945E-28D5-BD4A-8152-2DE541B0E520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D94690-E830-C64D-8844-A6C8EC4A62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11700" yWindow="2960" windowWidth="34240" windowHeight="28820" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -3435,7 +3435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3553,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="7">
         <v>3</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D94690-E830-C64D-8844-A6C8EC4A62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B8520B-79B1-644A-983C-D1A7FE4F878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11700" yWindow="2960" windowWidth="34240" windowHeight="28820" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1678,6 +1678,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2022,7 +2029,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2043,6 +2050,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3436,10 +3444,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3541,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
@@ -3550,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <v>25</v>
@@ -3571,16 +3579,19 @@
         <v>5</v>
       </c>
       <c r="L2" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" s="7">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="P2" s="8">
+        <v>8</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B8520B-79B1-644A-983C-D1A7FE4F878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30EFAD-F263-A84C-A09F-508F58192446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="2960" windowWidth="34240" windowHeight="28820" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="22500" yWindow="2900" windowWidth="25920" windowHeight="27800" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="417">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1519,9 +1519,6 @@
     <t>Other Theme</t>
   </si>
   <si>
-    <t>DuBois (2023) discussed the business operations of the Anlgo-Swiss company Nestlé and its US rival Borden in the Esat Aisa from the late 19th century until the outbreak of the Second World War.</t>
-  </si>
-  <si>
     <t>Invaluable insights can be gained from the busienss activities between the PRC and its politically aligned countries in Latin America, from Cuba to Chile, during the Mao, as discussed by Ren (2024).</t>
   </si>
   <si>
@@ -1532,13 +1529,43 @@
   </si>
   <si>
     <t>Citation</t>
+  </si>
+  <si>
+    <t>This study primarily relies on the archival records of both Borden and Nestlé, including their annual reports and legal documents. DuBois (2023) provides a comprehensive overview of the history of condensed milk operations in Asian countries during the early 19th century.</t>
+  </si>
+  <si>
+    <t>DuBois (2023) explores the business operations of tinned sweetened condensed milk by the Anglo-Swiss company Nestlé and its American competitor Borden in East Asia, spanning from the late 19th century until the outbreak of the Second World War.</t>
+  </si>
+  <si>
+    <t>Bown and Wang (2024) highlight that China’s ambition to achieve global leadership in the semiconductor industry, along with other sectors, remains unimpeded.  This is despite various measures imposed by the US, including high tariffs and export controls.  Notably, the US Department of Defense has established the Semiconductor Manufacturing Technology (SEMATECH) initiative to foster collaboration between the public and private sectors, alongside the Creating Helpful Incentives to Produce Semiconductors (CHIPS) Act of 2022, introduced by the Biden administration.</t>
+  </si>
+  <si>
+    <t>Bown and Wang (2024) consolidate multiple sources, including scholarly articles, industry reports, and policy documents, to provide a concise history of semiconductor development, tracing its evolution from the invention just before the Second World War to the present day.</t>
+  </si>
+  <si>
+    <t>Utili</t>
+  </si>
+  <si>
+    <t>Utilising data from the Census Bureau and Eurostat concerning imports to the US and EU countries, Alessandra et al. (2025) employed a Markov’s model to analyse the consequences of trade war between the US and China.</t>
+  </si>
+  <si>
+    <t>Based on their analysis, Alessandria et al. (2025) concluded that increases in US tariffs on Chinese imports are likely to remain in place, regardless of potential political turnover during future presidential elections.</t>
+  </si>
+  <si>
+    <t>Since the onset of the US-China trade war in 2018, Alessandria et al. (2025) highlighted that the normalisation of trade relations with China is unlikely to be reversed, albeit geopolitical risks persist following the granting of Permanent Normal Trade Rations (PNTR) status to China.</t>
+  </si>
+  <si>
+    <t>Trade war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Normal Trade Rations schedule </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1675,17 +1702,28 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2029,28 +2067,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3443,3921 +3498,3943 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="101.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16" width="31.1640625" style="2" customWidth="1"/>
-    <col min="17" max="24" width="8" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="101.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16" width="31.1640625" style="1" customWidth="1"/>
+    <col min="17" max="24" width="8" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>-1</v>
       </c>
-      <c r="C2" s="7">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>25</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>5</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>8</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>8</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>8</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>8</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="9">
         <v>8</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>1</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <v>1</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <v>1</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>1</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="8">
         <v>1</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <v>1</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="5" t="str">
         <f>IF(B3="", "", B3 &amp; IF(F3="", " (no year)", " (" &amp; F3 &amp; ")"))</f>
         <v>Abraham and Kearney (2020)</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>2020</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="2" t="s">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2">
-        <v>4</v>
-      </c>
-      <c r="W3" s="2">
-        <v>4</v>
-      </c>
-      <c r="X3" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="U3" s="10"/>
+      <c r="V3" s="5">
+        <v>4</v>
+      </c>
+      <c r="W3" s="5">
+        <v>4</v>
+      </c>
+      <c r="X3" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="5" t="str">
         <f t="shared" ref="C4:C64" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
         <v>Acemoglu et al. (2016)</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>2016</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="2">
-        <v>4</v>
-      </c>
-      <c r="W4" s="2">
-        <v>4</v>
-      </c>
-      <c r="X4" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+      <c r="U4" s="10"/>
+      <c r="V4" s="5">
+        <v>4</v>
+      </c>
+      <c r="W4" s="5">
+        <v>4</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Albouy et al. (2019)</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>2019</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2" t="s">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="2" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="2">
-        <v>4</v>
-      </c>
-      <c r="W5" s="2">
-        <v>4</v>
-      </c>
-      <c r="X5" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="U5" s="10"/>
+      <c r="V5" s="5">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4</v>
+      </c>
+      <c r="X5" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Alessandria et al. (2021)</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Alessandria et al. (2025)</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7">
         <v>2025</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="2" t="s">
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Alessandria et al. (2025)</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2025</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="U7" s="10"/>
+      <c r="V7" s="5">
+        <v>4</v>
+      </c>
+      <c r="W7" s="5">
+        <v>4</v>
+      </c>
+      <c r="X7" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="2">
-        <v>4</v>
-      </c>
-      <c r="W7" s="2">
-        <v>4</v>
-      </c>
-      <c r="X7" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Amiti et al. (2020)</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>2020</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="2" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="2">
-        <v>4</v>
-      </c>
-      <c r="W8" s="2">
-        <v>4</v>
-      </c>
-      <c r="X8" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="U8" s="10"/>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5">
+        <v>4</v>
+      </c>
+      <c r="X8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Aslan and Kumar (2021)</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>2021</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2" t="s">
+      <c r="K9" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="2">
-        <v>4</v>
-      </c>
-      <c r="W9" s="2">
-        <v>4</v>
-      </c>
-      <c r="X9" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="1" t="s">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="5">
+        <v>4</v>
+      </c>
+      <c r="W9" s="5">
+        <v>4</v>
+      </c>
+      <c r="X9" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Autor et al. (2020)</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>2020</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2" t="s">
+      <c r="K10" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="2" t="s">
+      <c r="U10" s="10"/>
+      <c r="V10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Autor et al. (2015)</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>2015</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="2">
-        <v>4</v>
-      </c>
-      <c r="W11" s="2">
-        <v>4</v>
-      </c>
-      <c r="X11" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+      <c r="U11" s="10"/>
+      <c r="V11" s="5">
+        <v>4</v>
+      </c>
+      <c r="W11" s="5">
+        <v>4</v>
+      </c>
+      <c r="X11" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Ballard-Rosa et al. (2022)</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="12">
         <v>2022</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
+      <c r="K12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1">
-        <v>4</v>
-      </c>
-      <c r="W12" s="1" t="s">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10">
+        <v>4</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Benguria and Saffie (2024)</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>2024</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
+      <c r="K13" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="2">
-        <v>4</v>
-      </c>
-      <c r="W13" s="2">
-        <v>4</v>
-      </c>
-      <c r="X13" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="1" t="s">
+      <c r="U13" s="10"/>
+      <c r="V13" s="5">
+        <v>4</v>
+      </c>
+      <c r="W13" s="5">
+        <v>4</v>
+      </c>
+      <c r="X13" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Benguria et al. (2022)</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>2022</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2" t="s">
+      <c r="R14" s="10"/>
+      <c r="S14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="2">
-        <v>4</v>
-      </c>
-      <c r="W14" s="2">
-        <v>4</v>
-      </c>
-      <c r="X14" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="1" t="s">
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="5">
+        <v>4</v>
+      </c>
+      <c r="W14" s="5">
+        <v>4</v>
+      </c>
+      <c r="X14" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Blanchard et al. (2024)</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>2024</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="2" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="2">
-        <v>4</v>
-      </c>
-      <c r="W15" s="2">
-        <v>4</v>
-      </c>
-      <c r="X15" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="1" t="s">
+      <c r="U15" s="10"/>
+      <c r="V15" s="5">
+        <v>4</v>
+      </c>
+      <c r="W15" s="5">
+        <v>4</v>
+      </c>
+      <c r="X15" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Bown and Wang (2024)</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>2024</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2" t="s">
+      <c r="K16" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="2">
-        <v>4</v>
-      </c>
-      <c r="W16" s="2">
-        <v>4</v>
-      </c>
-      <c r="X16" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="1" t="s">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="5">
+        <v>4</v>
+      </c>
+      <c r="W16" s="5">
+        <v>4</v>
+      </c>
+      <c r="X16" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Broz and Werfel (2014)</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>2014</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="2" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="2">
-        <v>4</v>
-      </c>
-      <c r="W17" s="2" t="s">
+      <c r="U17" s="10"/>
+      <c r="V17" s="5">
+        <v>4</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Caliendo et al. (2019)</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>2019</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="2" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Carcelli and Park (2024)</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="12">
         <v>2024</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1">
-        <v>4</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10">
+        <v>4</v>
+      </c>
+      <c r="W19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Che et al. (2022)</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>2022</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="2" t="s">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="2">
-        <v>4</v>
-      </c>
-      <c r="W20" s="2">
-        <v>4</v>
-      </c>
-      <c r="X20" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="1" t="s">
+      <c r="U20" s="10"/>
+      <c r="V20" s="5">
+        <v>4</v>
+      </c>
+      <c r="W20" s="5">
+        <v>4</v>
+      </c>
+      <c r="X20" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Che et al. (2025)</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="12">
         <v>2025</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1">
-        <v>4</v>
-      </c>
-      <c r="W21" s="1">
-        <v>4</v>
-      </c>
-      <c r="X21" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="1" t="s">
+      <c r="U21" s="10"/>
+      <c r="V21" s="10">
+        <v>4</v>
+      </c>
+      <c r="W21" s="10">
+        <v>4</v>
+      </c>
+      <c r="X21" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Chetverikov et al. (2016)</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>2016</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="2" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="X22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Chor and Li (2024)</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>2024</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="2" t="s">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="2">
-        <v>4</v>
-      </c>
-      <c r="W23" s="2">
-        <v>4</v>
-      </c>
-      <c r="X23" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="1" t="s">
+      <c r="U23" s="10"/>
+      <c r="V23" s="5">
+        <v>4</v>
+      </c>
+      <c r="W23" s="5">
+        <v>4</v>
+      </c>
+      <c r="X23" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Chyzh and Urbatsch (2021)</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="12">
         <v>2021</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1">
-        <v>4</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10">
+        <v>4</v>
+      </c>
+      <c r="W24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Colantone and Stanig (2018)</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="7">
         <v>2018</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="2" t="s">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="V25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="X25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Defever et al. (2015)</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="7">
         <v>2015</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="2" t="s">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="2">
-        <v>4</v>
-      </c>
-      <c r="W26" s="2">
-        <v>4</v>
-      </c>
-      <c r="X26" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="1" t="s">
+      <c r="U26" s="10"/>
+      <c r="V26" s="5">
+        <v>4</v>
+      </c>
+      <c r="W26" s="5">
+        <v>4</v>
+      </c>
+      <c r="X26" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DuBois (2023)</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="7">
         <v>2023</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="2" t="s">
+      <c r="K27" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="2">
-        <v>4</v>
-      </c>
-      <c r="W27" s="2">
-        <v>4</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="U27" s="10"/>
+      <c r="V27" s="5">
+        <v>4</v>
+      </c>
+      <c r="W27" s="5">
+        <v>4</v>
+      </c>
+      <c r="X27" s="5">
         <v>3</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Egger and Erhardt (2024)</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="12">
         <v>2024</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1">
-        <v>4</v>
-      </c>
-      <c r="W28" s="1">
-        <v>4</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10">
+        <v>4</v>
+      </c>
+      <c r="W28" s="10">
+        <v>4</v>
+      </c>
+      <c r="X28" s="10">
         <v>3</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Eugeni (2015)</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="7">
         <v>2015</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="2" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="2" t="s">
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="2">
-        <v>4</v>
-      </c>
-      <c r="W29" s="2">
-        <v>4</v>
-      </c>
-      <c r="X29" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="1" t="s">
+      <c r="U29" s="10"/>
+      <c r="V29" s="5">
+        <v>4</v>
+      </c>
+      <c r="W29" s="5">
+        <v>4</v>
+      </c>
+      <c r="X29" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Fan et al. (2020)</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="7">
         <v>2020</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="2" t="s">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="2">
-        <v>4</v>
-      </c>
-      <c r="W30" s="2">
-        <v>4</v>
-      </c>
-      <c r="X30" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="1" t="s">
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="5">
+        <v>4</v>
+      </c>
+      <c r="W30" s="5">
+        <v>4</v>
+      </c>
+      <c r="X30" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Fatum et al. (2018)</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="7">
         <v>2018</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="2" t="s">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="2" t="s">
+      <c r="R31" s="10"/>
+      <c r="S31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="2">
-        <v>4</v>
-      </c>
-      <c r="W31" s="2">
-        <v>4</v>
-      </c>
-      <c r="X31" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="1" t="s">
+      <c r="U31" s="10"/>
+      <c r="V31" s="5">
+        <v>4</v>
+      </c>
+      <c r="W31" s="5">
+        <v>4</v>
+      </c>
+      <c r="X31" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Feenstra et al. (2019)</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="7">
         <v>2019</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="2">
-        <v>4</v>
-      </c>
-      <c r="W32" s="2">
-        <v>4</v>
-      </c>
-      <c r="X32" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="1" t="s">
+      <c r="U32" s="10"/>
+      <c r="V32" s="5">
+        <v>4</v>
+      </c>
+      <c r="W32" s="5">
+        <v>4</v>
+      </c>
+      <c r="X32" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Feigenbaum and Hall (2015)</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="7">
         <v>2015</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="2">
-        <v>4</v>
-      </c>
-      <c r="W33" s="2" t="s">
+      <c r="U33" s="10"/>
+      <c r="V33" s="5">
+        <v>4</v>
+      </c>
+      <c r="W33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="X33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Y33" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Feng et al. (2017)</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="7">
         <v>2017</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="2" t="s">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
+      <c r="R34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="2">
-        <v>4</v>
-      </c>
-      <c r="W34" s="2">
-        <v>4</v>
-      </c>
-      <c r="X34" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y34" s="1" t="s">
+      <c r="U34" s="10"/>
+      <c r="V34" s="5">
+        <v>4</v>
+      </c>
+      <c r="W34" s="5">
+        <v>4</v>
+      </c>
+      <c r="X34" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Flaaen et al. (2020)</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="12">
         <v>2020</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="2" t="s">
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1" t="s">
+      <c r="R35" s="10"/>
+      <c r="S35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1" t="s">
+      <c r="U35" s="10"/>
+      <c r="V35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y35" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Freund et al. (2024)</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="7">
         <v>2024</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="2">
-        <v>4</v>
-      </c>
-      <c r="W36" s="2">
-        <v>4</v>
-      </c>
-      <c r="X36" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y36" s="1" t="s">
+      <c r="U36" s="10"/>
+      <c r="V36" s="5">
+        <v>4</v>
+      </c>
+      <c r="W36" s="5">
+        <v>4</v>
+      </c>
+      <c r="X36" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Galantucci (2015)</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="7">
         <v>2015</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="2" t="s">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1" t="s">
+      <c r="R37" s="10"/>
+      <c r="S37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="2">
-        <v>4</v>
-      </c>
-      <c r="W37" s="2" t="s">
+      <c r="U37" s="10"/>
+      <c r="V37" s="5">
+        <v>4</v>
+      </c>
+      <c r="W37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="X37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y37" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Galle and Lorentzen (2024)</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="7">
         <v>2024</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="2" t="s">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="2">
-        <v>4</v>
-      </c>
-      <c r="W38" s="2">
-        <v>4</v>
-      </c>
-      <c r="X38" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="1" t="s">
+      <c r="U38" s="10"/>
+      <c r="V38" s="5">
+        <v>4</v>
+      </c>
+      <c r="W38" s="5">
+        <v>4</v>
+      </c>
+      <c r="X38" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Gaupp et al. (2017)</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="7">
         <v>2017</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="2" t="s">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V39" s="2">
-        <v>4</v>
-      </c>
-      <c r="W39" s="2">
-        <v>4</v>
-      </c>
-      <c r="X39" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y39" s="1" t="s">
+      <c r="V39" s="5">
+        <v>4</v>
+      </c>
+      <c r="W39" s="5">
+        <v>4</v>
+      </c>
+      <c r="X39" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Grossman et al. (2024)</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="12">
         <v>2024</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="2" t="s">
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
+      <c r="R40" s="10"/>
+      <c r="S40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1" t="s">
+      <c r="U40" s="10"/>
+      <c r="V40" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Y40" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Handley and Limão (2017)</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="7">
         <v>2017</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1" t="s">
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="2" t="s">
+      <c r="U41" s="10"/>
+      <c r="V41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="2" t="s">
+      <c r="W41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="2" t="s">
+      <c r="X41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Y41" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:25" ht="323" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Heilmann (2016)</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="7">
         <v>2016</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="2" t="s">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="2" t="s">
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="1"/>
-      <c r="V42" s="2">
-        <v>4</v>
-      </c>
-      <c r="W42" s="2">
-        <v>4</v>
-      </c>
-      <c r="X42" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="1" t="s">
+      <c r="U42" s="10"/>
+      <c r="V42" s="5">
+        <v>4</v>
+      </c>
+      <c r="W42" s="5">
+        <v>4</v>
+      </c>
+      <c r="X42" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="43" spans="1:25" ht="255" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Jakubik and Stolzenburg (2021)</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="7">
         <v>2021</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="2" t="s">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1" t="s">
+      <c r="R43" s="10"/>
+      <c r="S43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="2">
-        <v>4</v>
-      </c>
-      <c r="W43" s="2">
-        <v>4</v>
-      </c>
-      <c r="X43" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="1" t="s">
+      <c r="U43" s="10"/>
+      <c r="V43" s="5">
+        <v>4</v>
+      </c>
+      <c r="W43" s="5">
+        <v>4</v>
+      </c>
+      <c r="X43" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Jiang et al. (2023)</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="7">
         <v>2023</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1" t="s">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="2">
-        <v>4</v>
-      </c>
-      <c r="W44" s="2">
-        <v>4</v>
-      </c>
-      <c r="X44" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y44" s="1" t="s">
+      <c r="U44" s="10"/>
+      <c r="V44" s="5">
+        <v>4</v>
+      </c>
+      <c r="W44" s="5">
+        <v>4</v>
+      </c>
+      <c r="X44" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Jiao et al. (2024)</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="12">
         <v>2024</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1" t="s">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1">
-        <v>4</v>
-      </c>
-      <c r="W45" s="1">
-        <v>4</v>
-      </c>
-      <c r="X45" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="1" t="s">
+      <c r="U45" s="10"/>
+      <c r="V45" s="10">
+        <v>4</v>
+      </c>
+      <c r="W45" s="10">
+        <v>4</v>
+      </c>
+      <c r="X45" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Ju et al. (2024)</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="7">
         <v>2024</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="2" t="s">
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1" t="s">
+      <c r="R46" s="10"/>
+      <c r="S46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="2">
-        <v>4</v>
-      </c>
-      <c r="W46" s="2">
-        <v>4</v>
-      </c>
-      <c r="X46" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="1" t="s">
+      <c r="U46" s="10"/>
+      <c r="V46" s="5">
+        <v>4</v>
+      </c>
+      <c r="W46" s="5">
+        <v>4</v>
+      </c>
+      <c r="X46" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Kalouptsidi (2018)</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="7">
         <v>2018</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="2" t="s">
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="2" t="s">
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="2" t="s">
+      <c r="U47" s="10"/>
+      <c r="V47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X47" s="2" t="s">
+      <c r="X47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y47" s="1" t="s">
+      <c r="Y47" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Kim and Margalit (2021)</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="12">
         <v>2021</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1" t="s">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1">
-        <v>4</v>
-      </c>
-      <c r="W48" s="1" t="s">
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10">
+        <v>4</v>
+      </c>
+      <c r="W48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="X48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y48" s="1" t="s">
+      <c r="Y48" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Kim and Pelc (2021)</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="7">
         <v>2021</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="2" t="s">
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="2" t="s">
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U49" s="1"/>
-      <c r="V49" s="2">
-        <v>4</v>
-      </c>
-      <c r="W49" s="2" t="s">
+      <c r="U49" s="10"/>
+      <c r="V49" s="5">
+        <v>4</v>
+      </c>
+      <c r="W49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="X49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="1" t="s">
+      <c r="Y49" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Liang and Zeng (2017)</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="12">
         <v>2017</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="2" t="s">
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1" t="s">
+      <c r="R50" s="10"/>
+      <c r="S50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1">
-        <v>4</v>
-      </c>
-      <c r="W50" s="1">
-        <v>4</v>
-      </c>
-      <c r="X50" s="1">
+      <c r="U50" s="10"/>
+      <c r="V50" s="10">
+        <v>4</v>
+      </c>
+      <c r="W50" s="10">
+        <v>4</v>
+      </c>
+      <c r="X50" s="10">
         <v>3</v>
       </c>
-      <c r="Y50" s="1" t="s">
+      <c r="Y50" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Lu and Zhou (2023)</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="7">
         <v>2023</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2" t="s">
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="2" t="s">
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="W51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="X51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="1" t="s">
+      <c r="Y51" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Lu et al. (2018)</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="12">
         <v>2018</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1">
-        <v>4</v>
-      </c>
-      <c r="W52" s="1">
-        <v>4</v>
-      </c>
-      <c r="X52" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="1" t="s">
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10">
+        <v>4</v>
+      </c>
+      <c r="W52" s="10">
+        <v>4</v>
+      </c>
+      <c r="X52" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Luo and Van Assche (2023)</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="7">
         <v>2023</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="2" t="s">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="1"/>
-      <c r="V53" s="2" t="s">
+      <c r="U53" s="10"/>
+      <c r="V53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W53" s="2" t="s">
+      <c r="W53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X53" s="2" t="s">
+      <c r="X53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y53" s="1" t="s">
+      <c r="Y53" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Mansfield and Solodoch (2024)</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="12">
         <v>2024</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1" t="s">
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1">
-        <v>4</v>
-      </c>
-      <c r="W54" s="1" t="s">
+      <c r="U54" s="10"/>
+      <c r="V54" s="10">
+        <v>4</v>
+      </c>
+      <c r="W54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="X54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y54" s="1" t="s">
+      <c r="Y54" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="55" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>McManus and Schaur (2016)</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="7">
         <v>2016</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="2" t="s">
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1" t="s">
+      <c r="R55" s="10"/>
+      <c r="S55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="1"/>
-      <c r="V55" s="2">
-        <v>4</v>
-      </c>
-      <c r="W55" s="2">
-        <v>4</v>
-      </c>
-      <c r="X55" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y55" s="1" t="s">
+      <c r="U55" s="10"/>
+      <c r="V55" s="5">
+        <v>4</v>
+      </c>
+      <c r="W55" s="5">
+        <v>4</v>
+      </c>
+      <c r="X55" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Niemeläinen (2021)</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="7">
         <v>2021</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="2" t="s">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="1"/>
-      <c r="V56" s="2">
-        <v>4</v>
-      </c>
-      <c r="W56" s="2">
-        <v>4</v>
-      </c>
-      <c r="X56" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y56" s="1" t="s">
+      <c r="U56" s="10"/>
+      <c r="V56" s="5">
+        <v>4</v>
+      </c>
+      <c r="W56" s="5">
+        <v>4</v>
+      </c>
+      <c r="X56" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y56" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="272" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+    <row r="57" spans="1:25" ht="289" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Osman and El‐Gendy (2025)</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="7">
         <v>2025</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="2" t="s">
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V57" s="2">
-        <v>4</v>
-      </c>
-      <c r="W57" s="2">
-        <v>4</v>
-      </c>
-      <c r="X57" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="1" t="s">
+      <c r="V57" s="5">
+        <v>4</v>
+      </c>
+      <c r="W57" s="5">
+        <v>4</v>
+      </c>
+      <c r="X57" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="10" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Pierce and Schott (2016)</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="7">
         <v>2016</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="2" t="s">
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1" t="s">
+      <c r="R58" s="10"/>
+      <c r="S58" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="1"/>
-      <c r="V58" s="2" t="s">
+      <c r="U58" s="10"/>
+      <c r="V58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="W58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X58" s="2" t="s">
+      <c r="X58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Y58" s="10" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Rahaman (2016)</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="7">
         <v>2016</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="2" t="s">
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="1"/>
-      <c r="V59" s="2" t="s">
+      <c r="U59" s="10"/>
+      <c r="V59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="2" t="s">
+      <c r="W59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="2" t="s">
+      <c r="X59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="1" t="s">
+      <c r="Y59" s="10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+    <row r="60" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Ramani (2025)</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="7">
         <v>2025</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2" t="s">
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="2" t="s">
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="2" t="s">
+      <c r="W60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X60" s="2" t="s">
+      <c r="X60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="1" t="s">
+      <c r="Y60" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Ren (2024)</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="12">
         <v>2024</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="2" t="s">
+      <c r="K61" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1">
-        <v>4</v>
-      </c>
-      <c r="W61" s="1">
-        <v>4</v>
-      </c>
-      <c r="X61" s="1">
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10">
+        <v>4</v>
+      </c>
+      <c r="W61" s="10">
+        <v>4</v>
+      </c>
+      <c r="X61" s="10">
         <v>3</v>
       </c>
-      <c r="Y61" s="1" t="s">
+      <c r="Y61" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Wang (2021)</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="7">
         <v>2021</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1" t="s">
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U62" s="1"/>
-      <c r="V62" s="2">
-        <v>4</v>
-      </c>
-      <c r="W62" s="2">
-        <v>4</v>
-      </c>
-      <c r="X62" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="1" t="s">
+      <c r="U62" s="10"/>
+      <c r="V62" s="5">
+        <v>4</v>
+      </c>
+      <c r="W62" s="5">
+        <v>4</v>
+      </c>
+      <c r="X62" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="323" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+    <row r="63" spans="1:25" ht="340" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Wu et al. (2024)</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="7">
         <v>2024</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="2" t="s">
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="2">
-        <v>4</v>
-      </c>
-      <c r="W63" s="2">
-        <v>4</v>
-      </c>
-      <c r="X63" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y63" s="1" t="s">
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="5">
+        <v>4</v>
+      </c>
+      <c r="W63" s="5">
+        <v>4</v>
+      </c>
+      <c r="X63" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y63" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="221" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="64" spans="1:25" ht="238" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Zeng and Kim (2024)</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="7">
         <v>2024</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1" t="s">
+      <c r="N64" s="10"/>
+      <c r="O64" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="2" t="s">
+      <c r="P64" s="10"/>
+      <c r="Q64" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="1"/>
-      <c r="S64" s="2" t="s">
+      <c r="R64" s="10"/>
+      <c r="S64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="1"/>
-      <c r="V64" s="2">
-        <v>4</v>
-      </c>
-      <c r="W64" s="2" t="s">
+      <c r="U64" s="10"/>
+      <c r="V64" s="5">
+        <v>4</v>
+      </c>
+      <c r="W64" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="2" t="s">
+      <c r="X64" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y64" s="1" t="s">
+      <c r="Y64" s="10" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7372,709 +7449,974 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C27" sqref="A1:G63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>2020</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2014</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="13">
         <f>COUNTIF(B:B, D2)</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="13">
         <f t="shared" ref="F2:F13" si="0">COUNTIFS(A:A, $F$1, B:B, D2)</f>
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <f>E2-F2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>2016</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
         <v>2015</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <f t="shared" ref="E3:E12" si="1">COUNTIF(B:B, D3)</f>
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G13" si="2">E3-F3</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>2019</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
         <v>2016</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>2017</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>2025</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>2018</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>2020</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>2019</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>2021</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>2020</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>2020</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <v>2021</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>2015</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>2022</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="12">
         <v>2022</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <v>2023</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>2024</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <v>2024</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>2022</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
         <v>2025</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="13">
         <f>COUNTIF(B:B, D13)</f>
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="12">
         <v>2025</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>2024</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="12">
         <v>2024</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>2017</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>2024</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="7">
         <v>2024</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="7">
         <v>2017</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="12">
         <v>2024</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="7">
         <v>2017</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="12">
         <v>2024</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="7">
         <v>2024</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="12">
         <v>2017</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="12">
         <v>2018</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="12">
         <v>2024</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="7">
         <v>2025</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="7">
         <v>2025</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="12">
         <v>2024</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="7">
         <v>2024</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="7">
         <v>2024</v>
       </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8087,128 +8429,129 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>109</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <f>SUM(C2:F2)</f>
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>149</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">SUM(C3:F3)</f>
+      <c r="G3" s="13">
+        <f t="shared" ref="G3:G6" si="0">SUM(C3:F3)</f>
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>88</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>229</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>113</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <f>SUM(G2:G8)</f>
         <v>2438</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30EFAD-F263-A84C-A09F-508F58192446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5013250-9BBB-5842-B3AF-740E3B64A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22500" yWindow="2900" windowWidth="25920" windowHeight="27800" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -1543,12 +1543,6 @@
     <t>Bown and Wang (2024) consolidate multiple sources, including scholarly articles, industry reports, and policy documents, to provide a concise history of semiconductor development, tracing its evolution from the invention just before the Second World War to the present day.</t>
   </si>
   <si>
-    <t>Utili</t>
-  </si>
-  <si>
-    <t>Utilising data from the Census Bureau and Eurostat concerning imports to the US and EU countries, Alessandra et al. (2025) employed a Markov’s model to analyse the consequences of trade war between the US and China.</t>
-  </si>
-  <si>
     <t>Based on their analysis, Alessandria et al. (2025) concluded that increases in US tariffs on Chinese imports are likely to remain in place, regardless of potential political turnover during future presidential elections.</t>
   </si>
   <si>
@@ -1559,13 +1553,19 @@
   </si>
   <si>
     <t xml:space="preserve">Non-Normal Trade Rations schedule </t>
+  </si>
+  <si>
+    <t>Through a comprehensive literature review of the trade relationship between US and China over the past six decades—from embargo to normalisation—Alessandra et al. (2025) performed an empirical study with three components, analysing US imports from 1974 to 2007 to explore trade policy uncertainty.</t>
+  </si>
+  <si>
+    <t>Utilising data from the Census Bureau on imports to the US from 2014 to 2024, Alessandra et al. (2025) conducted an empirical study employing a Markov model to analyse the impact of China trade shock on US manufacturing and its competitors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1717,12 +1717,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2100,11 +2094,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3498,11 +3492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3516,8 +3510,9 @@
     <col min="8" max="8" width="19.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="101.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="31.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" style="5" customWidth="1"/>
+    <col min="13" max="16" width="31.1640625" style="1" customWidth="1"/>
     <col min="17" max="24" width="8" style="1" customWidth="1"/>
     <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -3676,7 +3671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="255" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3742,7 +3737,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3885,7 +3880,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Alessandria et al. (2021)</v>
+        <v>Alessandria et al. (2025)</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>234</v>
@@ -3894,7 +3889,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="7">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>
@@ -3908,8 +3903,8 @@
       <c r="J6" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>411</v>
+      <c r="K6" s="14" t="s">
+        <v>415</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>388</v>
@@ -3970,15 +3965,15 @@
       <c r="J7" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>412</v>
+      <c r="K7" s="14" t="s">
+        <v>416</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -4034,7 +4029,7 @@
       <c r="J8" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -4092,8 +4087,8 @@
       <c r="J9" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>415</v>
+      <c r="K9" s="15" t="s">
+        <v>413</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -4152,8 +4147,8 @@
       <c r="J10" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>413</v>
+      <c r="K10" s="15" t="s">
+        <v>411</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -4216,7 +4211,7 @@
       <c r="J11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -4278,8 +4273,8 @@
       <c r="J12" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>416</v>
+      <c r="K12" s="15" t="s">
+        <v>414</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -4338,8 +4333,8 @@
       <c r="J13" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>414</v>
+      <c r="K13" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -5690,7 +5685,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -5750,7 +5745,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="187" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6110,7 +6105,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="255" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="238" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5013250-9BBB-5842-B3AF-740E3B64A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E120C-6077-0E47-BC09-D7AADC42821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="2900" windowWidth="25920" windowHeight="27800" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="5960" yWindow="2900" windowWidth="42460" windowHeight="28200" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="419">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1440,25 +1440,12 @@
     <t xml:space="preserve">Increased import competition from China (Autor et al., 2013) and developing countries (Bernard et al., 2006) contributed to higher unemployment rates in manufacturing.  Abraham and Kearney (2020) concluded that the China is the largest contributor to the decline in employment-to-population ratio, amounting 0.92% </t>
   </si>
   <si>
-    <t>Review of a range of existing evidnece, including literature, data,  and policy documents.</t>
-  </si>
-  <si>
-    <t>Pierce and Schott (2016) argue that granting China permanent normal trade relations (PNTR) led to manufacturing job losses.  Acemoglu et al. (2016) support this cliam, identifying compettion from Chinese imports as a key factor in the contraction of US manufacturing after the millennium, a period that followed China being granted with normal trade relations (NTR) tariff status.</t>
-  </si>
-  <si>
-    <t>The root causes of manufacturing job contraction were analyzed using empirical data from sources including UN Comtrade, US economy data, US County Business Patterns (CBP), and data from the National Bureau of Economic Research (NBER) and Center for Economic Studies (CES).</t>
-  </si>
-  <si>
     <t>Pierce and Schott (2015) emphasise that the reduction of tariffs on Chinese goods following China's accession to the WTO and the granting of most favoured nation (MFN) status in 2001 contributed to manufacturing contraction.</t>
   </si>
   <si>
     <t>Acemoglu et al. (2016) identified the period between 1999 and 2011 as a significant period of employment decline in US manufacturing, attributing the loss of over 2 million positions to import competition from China.  In another study, Autor et al. (2014) shed light on the distributional effects of this competition, finding that it negatively impacted manufacturing workers with below-average wages.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acemoglu et al. (2016) suggested that imposing trade restrictions could allow certain manufacturing industries facing competition from China to expand. However, if prices drop due to downstream effects, more consumers will purchase products from China, potentially offsetting the benefits of those restrictions.
-</t>
-  </si>
-  <si>
     <t>Caliendo et al.</t>
   </si>
   <si>
@@ -1474,9 +1461,6 @@
     <t>Albouy et al. (2019) highlight a seemingly paradoxical finding: despite Canada's more flexible immigration regulations, US manufacturing suffered more than Canadian manufacturing when exposed to Chinese import competition.</t>
   </si>
   <si>
-    <t>Alessandria et al. (2025) concluded that trade war between US and China commenced in 2018 and would continue and the states would be reversed when political turnover in US.</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -1510,9 +1494,6 @@
     <t>Zeng and Kim (2024) concluded that the data indicated Chinese firms, rather than state-owned enterprises (SOEs), dramatically increased their greenfield foreign direct investments (FDI) in the U.S. following the outbreak of the U.S.-China trade war in 2018.  SOEs were the most adversely affected.  Additionally, there is no evidence that any firms increased their investments in countries participating in the Belt and Road Initiative (BRI)).</t>
   </si>
   <si>
-    <t>Zeng and Kim (2024) revealed that state-owned enterprises (SOEs) are most affected, as they adopt a more cautious political stance that prioritizes supporting the domestic "dual-circulation" strategy over outbound investment.</t>
-  </si>
-  <si>
     <t>Zeng and Kim (2024) concluded that evidence suggests a surge in greenfield investments by Chinese firms in the US due to trade-war, which implies a positive impact on US employment.</t>
   </si>
   <si>
@@ -1522,9 +1503,6 @@
     <t>Invaluable insights can be gained from the busienss activities between the PRC and its politically aligned countries in Latin America, from Cuba to Chile, during the Mao, as discussed by Ren (2024).</t>
   </si>
   <si>
-    <t>Theeme 1: Trade War</t>
-  </si>
-  <si>
     <t>Drawing the inspriation of the archives of foreign affairs of the PRC, Ren (2024) explored the nuanced its business history between the PRC and Latin America during the early decades of New China.</t>
   </si>
   <si>
@@ -1555,10 +1533,37 @@
     <t xml:space="preserve">Non-Normal Trade Rations schedule </t>
   </si>
   <si>
-    <t>Through a comprehensive literature review of the trade relationship between US and China over the past six decades—from embargo to normalisation—Alessandra et al. (2025) performed an empirical study with three components, analysing US imports from 1974 to 2007 to explore trade policy uncertainty.</t>
-  </si>
-  <si>
     <t>Utilising data from the Census Bureau on imports to the US from 2014 to 2024, Alessandra et al. (2025) conducted an empirical study employing a Markov model to analyse the impact of China trade shock on US manufacturing and its competitors.</t>
+  </si>
+  <si>
+    <t>Review of a range of existing evidence, including literature, data, and policy documents.</t>
+  </si>
+  <si>
+    <t>The root causes of manufacturing job contraction were analysed using empirical data from sources including UN Comtrade, US economy data, US County Business Patterns (CBP), and data from the National Bureau of Economic Research (NBER) and Center for Economic Studies (CES).</t>
+  </si>
+  <si>
+    <t>Theme 1: Trade War</t>
+  </si>
+  <si>
+    <t>Pierce and Schott (2016) argue that granting China permanent normal trade relations (PNTR) led to manufacturing job losses.  Acemoglu et al. (2016) support this claim, identifying competition from Chinese imports as a key factor in the contraction of US manufacturing after the millennium, a period that followed China being granted with normal trade relations (NTR) tariff status.</t>
+  </si>
+  <si>
+    <t>Zeng and Kim (2024) revealed that state-owned enterprises (SOEs) are most affected, as they adopt a more cautious political stance that prioritizes supporting the domestic “dual-circulation” strategy over outbound investment.</t>
+  </si>
+  <si>
+    <t>Acemoglu et al. (2016) suggested that imposing trade restrictions could allow certain manufacturing industries facing competition from China to expand. However, if prices drop due to downstream effects, more consumers will purchase products from China, potentially offsetting the benefits of those restrictions.</t>
+  </si>
+  <si>
+    <t>Alessandria et al. (2025) highlighted that the risk of trade-policy uncertainty has evolved significantly since the implementation of Trump’s tariff hikes in 2018.</t>
+  </si>
+  <si>
+    <t>To mitigate trade policy uncertainty, Chinese firms have increasingly turned to investment in the US market as a viable strategy.</t>
+  </si>
+  <si>
+    <t>Alessandria et al. (2025) concluded that trade war between the US and China, which began in 2018, is likely to continue, and these tensions will not be reversed despite potential political turnover in the US.</t>
+  </si>
+  <si>
+    <t>Through a comprehensive literature review of the trade relationship between the US and China over the past six decades—from embargo to normalisation—Alessandra et al. (2025) conducted an empirical study with three components, analysing US imports from 1974 to 2007 to explore trade policy uncertainty.</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2103,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3492,11 +3497,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="131" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3525,7 +3530,7 @@
         <v>166</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>165</v>
@@ -3552,7 +3557,7 @@
         <v>168</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>373</v>
@@ -3564,7 +3569,7 @@
         <v>375</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>45</v>
@@ -3704,12 +3709,12 @@
         <v>253</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>376</v>
@@ -3770,17 +3775,17 @@
         <v>254</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="5" t="s">
@@ -3840,13 +3845,13 @@
         <v>251</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="5" t="s">
@@ -3904,13 +3909,17 @@
         <v>249</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -3966,14 +3975,14 @@
         <v>256</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -4088,7 +4097,7 @@
         <v>260</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -4148,7 +4157,7 @@
         <v>262</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -4274,7 +4283,7 @@
         <v>265</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -4334,7 +4343,7 @@
         <v>268</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -4514,12 +4523,12 @@
         <v>271</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -4606,7 +4615,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5174,14 +5183,14 @@
         <v>244</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -6050,7 +6059,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6354,7 +6363,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7216,14 +7225,14 @@
         <v>362</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -7396,17 +7405,17 @@
         <v>368</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="N64" s="10"/>
       <c r="O64" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="5" t="s">
@@ -8439,7 +8448,7 @@
         <v>372</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8447,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C2" s="13">
         <v>109</v>
@@ -8462,7 +8471,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C3" s="13">
         <v>149</v>
@@ -8477,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C4" s="13">
         <v>88</v>
@@ -8495,7 +8504,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C5" s="13">
         <v>113</v>
@@ -8510,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C6" s="13">
         <v>50</v>
@@ -8525,7 +8534,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G7" s="13">
         <v>1200</v>
@@ -8536,7 +8545,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G8" s="13">
         <v>500</v>
@@ -8544,7 +8553,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G9" s="13">
         <f>SUM(G2:G8)</f>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E120C-6077-0E47-BC09-D7AADC42821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C710A-219E-F947-A787-1CE54C6F2706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="2900" windowWidth="42460" windowHeight="28200" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="418">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1503,9 +1503,6 @@
     <t>Invaluable insights can be gained from the busienss activities between the PRC and its politically aligned countries in Latin America, from Cuba to Chile, during the Mao, as discussed by Ren (2024).</t>
   </si>
   <si>
-    <t>Drawing the inspriation of the archives of foreign affairs of the PRC, Ren (2024) explored the nuanced its business history between the PRC and Latin America during the early decades of New China.</t>
-  </si>
-  <si>
     <t>Citation</t>
   </si>
   <si>
@@ -1527,9 +1524,6 @@
     <t>Since the onset of the US-China trade war in 2018, Alessandria et al. (2025) highlighted that the normalisation of trade relations with China is unlikely to be reversed, albeit geopolitical risks persist following the granting of Permanent Normal Trade Rations (PNTR) status to China.</t>
   </si>
   <si>
-    <t>Trade war</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non-Normal Trade Rations schedule </t>
   </si>
   <si>
@@ -1564,6 +1558,9 @@
   </si>
   <si>
     <t>Through a comprehensive literature review of the trade relationship between the US and China over the past six decades—from embargo to normalisation—Alessandra et al. (2025) conducted an empirical study with three components, analysing US imports from 1974 to 2007 to explore trade policy uncertainty.</t>
+  </si>
+  <si>
+    <t>Drawing the inspiration of the archives of foreign affairs of the PRC, Ren (2024) explored the nuanced its business history between the PRC and Latin America during the early decades of New China.</t>
   </si>
 </sst>
 </file>
@@ -3498,10 +3495,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3530,7 +3527,7 @@
         <v>166</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>165</v>
@@ -3557,7 +3554,7 @@
         <v>168</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>373</v>
@@ -3607,46 +3604,46 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J2" s="8">
         <v>5</v>
       </c>
       <c r="K2" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M2" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N2" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O2" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P2" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="8">
         <v>1</v>
@@ -3673,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="255" x14ac:dyDescent="0.2">
@@ -3709,12 +3706,12 @@
         <v>253</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>376</v>
@@ -3775,10 +3772,10 @@
         <v>254</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
@@ -3909,16 +3906,16 @@
         <v>249</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -3975,14 +3972,14 @@
         <v>256</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -4096,9 +4093,7 @@
       <c r="J9" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>406</v>
-      </c>
+      <c r="K9" s="15"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -4157,7 +4152,7 @@
         <v>262</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -4283,7 +4278,7 @@
         <v>265</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -4343,7 +4338,7 @@
         <v>268</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -4523,12 +4518,12 @@
         <v>271</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -4844,7 +4839,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -5183,14 +5178,14 @@
         <v>244</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -5330,7 +5325,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="170" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -7225,7 +7220,7 @@
         <v>362</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -7411,7 +7406,7 @@
         <v>394</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N64" s="10"/>
       <c r="O64" s="10" t="s">

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C710A-219E-F947-A787-1CE54C6F2706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB347D-0FBF-424E-82DC-DCB2AFA2F876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="2900" windowWidth="42460" windowHeight="28200" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="422">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1561,6 +1561,18 @@
   </si>
   <si>
     <t>Drawing the inspiration of the archives of foreign affairs of the PRC, Ren (2024) explored the nuanced its business history between the PRC and Latin America during the early decades of New China.</t>
+  </si>
+  <si>
+    <t>Amiti et al. (2020) utilised firm-level export data from China to the US covering the years 2000 to 2006 to investigate the relationship between China’s export growth and trade normalisation, specifically the attainment of Permanent Normal Trade Relation (PNTR) status.  To measure the impacts of new product varieties, the authors employed Feenstra’s (1996) model of Constant Elasticity of Substitution (CES).</t>
+  </si>
+  <si>
+    <t>Amiti et al. (2020) emphasise that new Chinese firms have aggressively entered the export market, rather than merely introducing new products that disrupt the US market.</t>
+  </si>
+  <si>
+    <t>Amiti et al. (2020) highlight China capitalised on significantly reduced tariffs following the US granting of Permanent Normal Trade Rations (PNTR) status, just after its entry into the World Trade Organisation (WTO).</t>
+  </si>
+  <si>
+    <t>Estimating that a 1% reduction in export prices from China would result in a 2% job loss in the US, Amiti et al. (2020) concluded that competition from Chinese manufacturing has a substantial negative impact on employment in the US.</t>
   </si>
 </sst>
 </file>
@@ -3495,10 +3507,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4003,7 +4015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="238" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -4035,11 +4047,19 @@
       <c r="J8" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>418</v>
+      </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>421</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB347D-0FBF-424E-82DC-DCB2AFA2F876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304EFA0-C6F0-654E-BE13-5C869FA909B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="2900" windowWidth="42460" windowHeight="28200" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="5960" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="429">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1524,9 +1524,6 @@
     <t>Since the onset of the US-China trade war in 2018, Alessandria et al. (2025) highlighted that the normalisation of trade relations with China is unlikely to be reversed, albeit geopolitical risks persist following the granting of Permanent Normal Trade Rations (PNTR) status to China.</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-Normal Trade Rations schedule </t>
-  </si>
-  <si>
     <t>Utilising data from the Census Bureau on imports to the US from 2014 to 2024, Alessandra et al. (2025) conducted an empirical study employing a Markov model to analyse the impact of China trade shock on US manufacturing and its competitors.</t>
   </si>
   <si>
@@ -1551,9 +1548,6 @@
     <t>Alessandria et al. (2025) highlighted that the risk of trade-policy uncertainty has evolved significantly since the implementation of Trump’s tariff hikes in 2018.</t>
   </si>
   <si>
-    <t>To mitigate trade policy uncertainty, Chinese firms have increasingly turned to investment in the US market as a viable strategy.</t>
-  </si>
-  <si>
     <t>Alessandria et al. (2025) concluded that trade war between the US and China, which began in 2018, is likely to continue, and these tensions will not be reversed despite potential political turnover in the US.</t>
   </si>
   <si>
@@ -1573,6 +1567,33 @@
   </si>
   <si>
     <t>Estimating that a 1% reduction in export prices from China would result in a 2% job loss in the US, Amiti et al. (2020) concluded that competition from Chinese manufacturing has a substantial negative impact on employment in the US.</t>
+  </si>
+  <si>
+    <t>The first paper demonstrated that China’s reduction in export prices is advantageous due to its lower tariffs on intermediate commodity prices (Aslan and Kumar, 2021).</t>
+  </si>
+  <si>
+    <t>Aslan and Kumar (2021) argue that import competition from China has a significantly negatively affect on employment in the US, especially since entrepreneurship is a key driver of the labour market.  They note that the granting of Permanent Normal Trade Relation (PNTR) to China exacerbated these challenges.</t>
+  </si>
+  <si>
+    <t>Following significant changes in trade policy with China, Aslan and Kumar (2020) concluded that US consumers benefit from lower import prices from China and other countries.  However, US manufacturing industries have suffered severely, losing competitive advantages and becoming unprofitable.</t>
+  </si>
+  <si>
+    <t>Aslan and Kumar (2021) utilised individual and household data from the US Census Bureau spanning two decades (1993-2013) to explore the negative impact of Chinese imports on the entrepreneurship in the US.</t>
+  </si>
+  <si>
+    <t>To mitigate trade policy uncertainty, Chinese firms have increasingly turned to investment in the US market as a viable strategy (Alessandria et al., 2025).</t>
+  </si>
+  <si>
+    <t>Leveraging Nielsen’s media data from National Bureau of Economic Research (NBER) and survey data from the Pew Research Center for the period between 2000 and 2016, Autor et al. (2020) explore the relationship between trade competition from China and ideological polarisation amid the decline of US manufacturing.</t>
+  </si>
+  <si>
+    <t>Autor et al. (2020) argue that the US economy has suffered significantly due to competitive pressure from Chinese manufacturing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor et al. (2020) contend that import competition from China has a negative impact on the US labour market, leading to a decline in manufacturing jobs while shifting employment from low-skilled work to high-skilled positions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autor et al. (2020) conclude that the rightward ideological polarisation is primarily driven by non-Hispanic Whites during the two US presidential elections in 2008 and 2016.  </t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2096,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2096,23 +2117,35 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3506,11 +3539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3566,7 +3599,7 @@
         <v>168</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>373</v>
@@ -3609,3851 +3642,3861 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11">
         <v>-1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="11">
         <v>10</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="11">
         <v>5</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="11">
         <v>50</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="11">
         <v>5</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="11">
         <v>15</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="11">
         <v>15</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="11">
         <v>15</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <v>15</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="12">
         <v>15</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="11">
         <v>1</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="11">
         <v>1</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="11">
         <v>1</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="11">
         <v>1</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="11">
         <v>1</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="11">
         <v>1</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="11">
         <v>1</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="11">
         <v>1</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="13" t="str">
         <f>IF(B3="", "", B3 &amp; IF(F3="", " (no year)", " (" &amp; F3 &amp; ")"))</f>
         <v>Abraham and Kearney (2020)</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="16">
         <v>2020</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="K3" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="5" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="5">
-        <v>4</v>
-      </c>
-      <c r="W3" s="5">
-        <v>4</v>
-      </c>
-      <c r="X3" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="10" t="s">
+      <c r="U3" s="14"/>
+      <c r="V3" s="13">
+        <v>4</v>
+      </c>
+      <c r="W3" s="13">
+        <v>4</v>
+      </c>
+      <c r="X3" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="13" t="str">
         <f t="shared" ref="C4:C64" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
         <v>Acemoglu et al. (2016)</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="16">
         <v>2016</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="5">
-        <v>4</v>
-      </c>
-      <c r="W4" s="5">
-        <v>4</v>
-      </c>
-      <c r="X4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="10" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="13">
+        <v>4</v>
+      </c>
+      <c r="W4" s="13">
+        <v>4</v>
+      </c>
+      <c r="X4" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Albouy et al. (2019)</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="16">
         <v>2019</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="5" t="s">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="5" t="s">
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="5">
-        <v>4</v>
-      </c>
-      <c r="W5" s="5">
-        <v>4</v>
-      </c>
-      <c r="X5" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="10" t="s">
+      <c r="U5" s="14"/>
+      <c r="V5" s="13">
+        <v>4</v>
+      </c>
+      <c r="W5" s="13">
+        <v>4</v>
+      </c>
+      <c r="X5" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Alessandria et al. (2025)</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="16">
         <v>2025</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="M6" s="10" t="s">
+      <c r="K6" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="L6" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="5" t="s">
+      <c r="M6" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="5" t="s">
+      <c r="U6" s="14"/>
+      <c r="V6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Alessandria et al. (2025)</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="16">
         <v>2025</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="5" t="s">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="5">
-        <v>4</v>
-      </c>
-      <c r="W7" s="5">
-        <v>4</v>
-      </c>
-      <c r="X7" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="U7" s="14"/>
+      <c r="V7" s="13">
+        <v>4</v>
+      </c>
+      <c r="W7" s="13">
+        <v>4</v>
+      </c>
+      <c r="X7" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Amiti et al. (2020)</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="16">
         <v>2020</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
+      <c r="O8" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="5" t="s">
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="5">
-        <v>4</v>
-      </c>
-      <c r="W8" s="5">
-        <v>4</v>
-      </c>
-      <c r="X8" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="10" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="13">
+        <v>4</v>
+      </c>
+      <c r="W8" s="13">
+        <v>4</v>
+      </c>
+      <c r="X8" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="221" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Aslan and Kumar (2021)</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="16">
         <v>2021</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="5" t="s">
+      <c r="K9" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="5">
-        <v>4</v>
-      </c>
-      <c r="W9" s="5">
-        <v>4</v>
-      </c>
-      <c r="X9" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="10" t="s">
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="13">
+        <v>4</v>
+      </c>
+      <c r="W9" s="13">
+        <v>4</v>
+      </c>
+      <c r="X9" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Autor et al. (2020)</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="16">
         <v>2020</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="5" t="s">
+      <c r="K10" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10" t="s">
+      <c r="R10" s="14"/>
+      <c r="S10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="5" t="s">
+      <c r="U10" s="14"/>
+      <c r="V10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Autor et al. (2015)</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="16">
         <v>2015</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="5" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10" t="s">
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="5">
-        <v>4</v>
-      </c>
-      <c r="W11" s="5">
-        <v>4</v>
-      </c>
-      <c r="X11" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="10" t="s">
+      <c r="U11" s="14"/>
+      <c r="V11" s="13">
+        <v>4</v>
+      </c>
+      <c r="W11" s="13">
+        <v>4</v>
+      </c>
+      <c r="X11" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ballard-Rosa et al. (2022)</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="19">
         <v>2022</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10">
-        <v>4</v>
-      </c>
-      <c r="W12" s="10" t="s">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14">
+        <v>4</v>
+      </c>
+      <c r="W12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="Y12" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Benguria and Saffie (2024)</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="16">
         <v>2024</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10" t="s">
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="5">
-        <v>4</v>
-      </c>
-      <c r="W13" s="5">
-        <v>4</v>
-      </c>
-      <c r="X13" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="10" t="s">
+      <c r="U13" s="14"/>
+      <c r="V13" s="13">
+        <v>4</v>
+      </c>
+      <c r="W13" s="13">
+        <v>4</v>
+      </c>
+      <c r="X13" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Benguria et al. (2022)</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="16">
         <v>2022</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="5" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="5" t="s">
+      <c r="R14" s="14"/>
+      <c r="S14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="5">
-        <v>4</v>
-      </c>
-      <c r="W14" s="5">
-        <v>4</v>
-      </c>
-      <c r="X14" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="10" t="s">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="13">
+        <v>4</v>
+      </c>
+      <c r="W14" s="13">
+        <v>4</v>
+      </c>
+      <c r="X14" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Blanchard et al. (2024)</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="16">
         <v>2024</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="5" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="5">
-        <v>4</v>
-      </c>
-      <c r="W15" s="5">
-        <v>4</v>
-      </c>
-      <c r="X15" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="10" t="s">
+      <c r="U15" s="14"/>
+      <c r="V15" s="13">
+        <v>4</v>
+      </c>
+      <c r="W15" s="13">
+        <v>4</v>
+      </c>
+      <c r="X15" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Bown and Wang (2024)</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="16">
         <v>2024</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="5" t="s">
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="5">
-        <v>4</v>
-      </c>
-      <c r="W16" s="5">
-        <v>4</v>
-      </c>
-      <c r="X16" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="10" t="s">
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="13">
+        <v>4</v>
+      </c>
+      <c r="W16" s="13">
+        <v>4</v>
+      </c>
+      <c r="X16" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Broz and Werfel (2014)</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="16">
         <v>2014</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="5" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="5">
-        <v>4</v>
-      </c>
-      <c r="W17" s="5" t="s">
+      <c r="U17" s="14"/>
+      <c r="V17" s="13">
+        <v>4</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="X17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" s="10" t="s">
+      <c r="Y17" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Caliendo et al. (2019)</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="16">
         <v>2019</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="5" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="Y18" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Carcelli and Park (2024)</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="19">
         <v>2024</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10">
-        <v>4</v>
-      </c>
-      <c r="W19" s="10" t="s">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14">
+        <v>4</v>
+      </c>
+      <c r="W19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="X19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y19" s="10" t="s">
+      <c r="Y19" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Che et al. (2022)</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="16">
         <v>2022</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="5" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="5">
-        <v>4</v>
-      </c>
-      <c r="W20" s="5">
-        <v>4</v>
-      </c>
-      <c r="X20" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="10" t="s">
+      <c r="U20" s="14"/>
+      <c r="V20" s="13">
+        <v>4</v>
+      </c>
+      <c r="W20" s="13">
+        <v>4</v>
+      </c>
+      <c r="X20" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Che et al. (2025)</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="19">
         <v>2025</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10">
-        <v>4</v>
-      </c>
-      <c r="W21" s="10">
-        <v>4</v>
-      </c>
-      <c r="X21" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="10" t="s">
+      <c r="U21" s="14"/>
+      <c r="V21" s="14">
+        <v>4</v>
+      </c>
+      <c r="W21" s="14">
+        <v>4</v>
+      </c>
+      <c r="X21" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Chetverikov et al. (2016)</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="16">
         <v>2016</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="5" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10" t="s">
+      <c r="R22" s="14"/>
+      <c r="S22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="10" t="s">
+      <c r="Y22" s="14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Chor and Li (2024)</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="16">
         <v>2024</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="5" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="5">
-        <v>4</v>
-      </c>
-      <c r="W23" s="5">
-        <v>4</v>
-      </c>
-      <c r="X23" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="10" t="s">
+      <c r="U23" s="14"/>
+      <c r="V23" s="13">
+        <v>4</v>
+      </c>
+      <c r="W23" s="13">
+        <v>4</v>
+      </c>
+      <c r="X23" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Chyzh and Urbatsch (2021)</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="19">
         <v>2021</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10">
-        <v>4</v>
-      </c>
-      <c r="W24" s="10" t="s">
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14">
+        <v>4</v>
+      </c>
+      <c r="W24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="X24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y24" s="10" t="s">
+      <c r="Y24" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Colantone and Stanig (2018)</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="16">
         <v>2018</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="5" t="s">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10" t="s">
+      <c r="R25" s="14"/>
+      <c r="S25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y25" s="10" t="s">
+      <c r="Y25" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Defever et al. (2015)</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="16">
         <v>2015</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="5" t="s">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10" t="s">
+      <c r="R26" s="14"/>
+      <c r="S26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="5">
-        <v>4</v>
-      </c>
-      <c r="W26" s="5">
-        <v>4</v>
-      </c>
-      <c r="X26" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="10" t="s">
+      <c r="U26" s="14"/>
+      <c r="V26" s="13">
+        <v>4</v>
+      </c>
+      <c r="W26" s="13">
+        <v>4</v>
+      </c>
+      <c r="X26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="27" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DuBois (2023)</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="16">
         <v>2023</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10" t="s">
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="5" t="s">
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="5">
-        <v>4</v>
-      </c>
-      <c r="W27" s="5">
-        <v>4</v>
-      </c>
-      <c r="X27" s="5">
+      <c r="U27" s="14"/>
+      <c r="V27" s="13">
+        <v>4</v>
+      </c>
+      <c r="W27" s="13">
+        <v>4</v>
+      </c>
+      <c r="X27" s="13">
         <v>3</v>
       </c>
-      <c r="Y27" s="10" t="s">
+      <c r="Y27" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Egger and Erhardt (2024)</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="19">
         <v>2024</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10">
-        <v>4</v>
-      </c>
-      <c r="W28" s="10">
-        <v>4</v>
-      </c>
-      <c r="X28" s="10">
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14">
+        <v>4</v>
+      </c>
+      <c r="W28" s="14">
+        <v>4</v>
+      </c>
+      <c r="X28" s="14">
         <v>3</v>
       </c>
-      <c r="Y28" s="10" t="s">
+      <c r="Y28" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Eugeni (2015)</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="16">
         <v>2015</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="5" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="5" t="s">
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="10"/>
-      <c r="V29" s="5">
-        <v>4</v>
-      </c>
-      <c r="W29" s="5">
-        <v>4</v>
-      </c>
-      <c r="X29" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="10" t="s">
+      <c r="U29" s="14"/>
+      <c r="V29" s="13">
+        <v>4</v>
+      </c>
+      <c r="W29" s="13">
+        <v>4</v>
+      </c>
+      <c r="X29" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Fan et al. (2020)</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="16">
         <v>2020</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="5" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="5">
-        <v>4</v>
-      </c>
-      <c r="W30" s="5">
-        <v>4</v>
-      </c>
-      <c r="X30" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="10" t="s">
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="13">
+        <v>4</v>
+      </c>
+      <c r="W30" s="13">
+        <v>4</v>
+      </c>
+      <c r="X30" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="14" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Fatum et al. (2018)</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="16">
         <v>2018</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="5" t="s">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="5" t="s">
+      <c r="R31" s="14"/>
+      <c r="S31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="10"/>
-      <c r="V31" s="5">
-        <v>4</v>
-      </c>
-      <c r="W31" s="5">
-        <v>4</v>
-      </c>
-      <c r="X31" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="10" t="s">
+      <c r="U31" s="14"/>
+      <c r="V31" s="13">
+        <v>4</v>
+      </c>
+      <c r="W31" s="13">
+        <v>4</v>
+      </c>
+      <c r="X31" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Feenstra et al. (2019)</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="16">
         <v>2019</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10" t="s">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="5">
-        <v>4</v>
-      </c>
-      <c r="W32" s="5">
-        <v>4</v>
-      </c>
-      <c r="X32" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="10" t="s">
+      <c r="U32" s="14"/>
+      <c r="V32" s="13">
+        <v>4</v>
+      </c>
+      <c r="W32" s="13">
+        <v>4</v>
+      </c>
+      <c r="X32" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Feigenbaum and Hall (2015)</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="16">
         <v>2015</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10" t="s">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="10"/>
-      <c r="V33" s="5">
-        <v>4</v>
-      </c>
-      <c r="W33" s="5" t="s">
+      <c r="U33" s="14"/>
+      <c r="V33" s="13">
+        <v>4</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X33" s="5" t="s">
+      <c r="X33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y33" s="10" t="s">
+      <c r="Y33" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Feng et al. (2017)</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="16">
         <v>2017</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="5" t="s">
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10" t="s">
+      <c r="R34" s="14"/>
+      <c r="S34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="10"/>
-      <c r="V34" s="5">
-        <v>4</v>
-      </c>
-      <c r="W34" s="5">
-        <v>4</v>
-      </c>
-      <c r="X34" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y34" s="10" t="s">
+      <c r="U34" s="14"/>
+      <c r="V34" s="13">
+        <v>4</v>
+      </c>
+      <c r="W34" s="13">
+        <v>4</v>
+      </c>
+      <c r="X34" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Flaaen et al. (2020)</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="19">
         <v>2020</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="5" t="s">
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10" t="s">
+      <c r="R35" s="14"/>
+      <c r="S35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10" t="s">
+      <c r="U35" s="14"/>
+      <c r="V35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="10" t="s">
+      <c r="W35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Y35" s="10" t="s">
+      <c r="Y35" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Freund et al. (2024)</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="16">
         <v>2024</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10" t="s">
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="5">
-        <v>4</v>
-      </c>
-      <c r="W36" s="5">
-        <v>4</v>
-      </c>
-      <c r="X36" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y36" s="10" t="s">
+      <c r="U36" s="14"/>
+      <c r="V36" s="13">
+        <v>4</v>
+      </c>
+      <c r="W36" s="13">
+        <v>4</v>
+      </c>
+      <c r="X36" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Galantucci (2015)</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="16">
         <v>2015</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="5" t="s">
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10" t="s">
+      <c r="R37" s="14"/>
+      <c r="S37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="5">
-        <v>4</v>
-      </c>
-      <c r="W37" s="5" t="s">
+      <c r="U37" s="14"/>
+      <c r="V37" s="13">
+        <v>4</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X37" s="5" t="s">
+      <c r="X37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y37" s="10" t="s">
+      <c r="Y37" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="5" t="str">
+      <c r="C38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Galle and Lorentzen (2024)</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="16">
         <v>2024</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="5" t="s">
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="10"/>
-      <c r="V38" s="5">
-        <v>4</v>
-      </c>
-      <c r="W38" s="5">
-        <v>4</v>
-      </c>
-      <c r="X38" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="10" t="s">
+      <c r="U38" s="14"/>
+      <c r="V38" s="13">
+        <v>4</v>
+      </c>
+      <c r="W38" s="13">
+        <v>4</v>
+      </c>
+      <c r="X38" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="272" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Gaupp et al. (2017)</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="16">
         <v>2017</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="5" t="s">
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V39" s="5">
-        <v>4</v>
-      </c>
-      <c r="W39" s="5">
-        <v>4</v>
-      </c>
-      <c r="X39" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y39" s="10" t="s">
+      <c r="V39" s="13">
+        <v>4</v>
+      </c>
+      <c r="W39" s="13">
+        <v>4</v>
+      </c>
+      <c r="X39" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5" t="str">
+      <c r="C40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Grossman et al. (2024)</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="19">
         <v>2024</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="5" t="s">
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10" t="s">
+      <c r="R40" s="14"/>
+      <c r="S40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10" t="s">
+      <c r="U40" s="14"/>
+      <c r="V40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W40" s="10" t="s">
+      <c r="W40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X40" s="10" t="s">
+      <c r="X40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Y40" s="10" t="s">
+      <c r="Y40" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="5" t="str">
+      <c r="C41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Handley and Limão (2017)</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="16">
         <v>2017</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10" t="s">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="10"/>
-      <c r="V41" s="5" t="s">
+      <c r="U41" s="14"/>
+      <c r="V41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="5" t="s">
+      <c r="W41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="10" t="s">
+      <c r="Y41" s="14" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="323" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C42" s="5" t="str">
+      <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Heilmann (2016)</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="16">
         <v>2016</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="5" t="s">
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="5" t="s">
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="10"/>
-      <c r="V42" s="5">
-        <v>4</v>
-      </c>
-      <c r="W42" s="5">
-        <v>4</v>
-      </c>
-      <c r="X42" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="10" t="s">
+      <c r="U42" s="14"/>
+      <c r="V42" s="13">
+        <v>4</v>
+      </c>
+      <c r="W42" s="13">
+        <v>4</v>
+      </c>
+      <c r="X42" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="14" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="5" t="str">
+      <c r="C43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Jakubik and Stolzenburg (2021)</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="16">
         <v>2021</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="5" t="s">
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10" t="s">
+      <c r="R43" s="14"/>
+      <c r="S43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="10"/>
-      <c r="V43" s="5">
-        <v>4</v>
-      </c>
-      <c r="W43" s="5">
-        <v>4</v>
-      </c>
-      <c r="X43" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="10" t="s">
+      <c r="U43" s="14"/>
+      <c r="V43" s="13">
+        <v>4</v>
+      </c>
+      <c r="W43" s="13">
+        <v>4</v>
+      </c>
+      <c r="X43" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="44" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="5" t="str">
+      <c r="C44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Jiang et al. (2023)</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="16">
         <v>2023</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10" t="s">
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="10"/>
-      <c r="V44" s="5">
-        <v>4</v>
-      </c>
-      <c r="W44" s="5">
-        <v>4</v>
-      </c>
-      <c r="X44" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y44" s="10" t="s">
+      <c r="U44" s="14"/>
+      <c r="V44" s="13">
+        <v>4</v>
+      </c>
+      <c r="W44" s="13">
+        <v>4</v>
+      </c>
+      <c r="X44" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="14" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="45" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="5" t="str">
+      <c r="C45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Jiao et al. (2024)</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="19">
         <v>2024</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10" t="s">
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10">
-        <v>4</v>
-      </c>
-      <c r="W45" s="10">
-        <v>4</v>
-      </c>
-      <c r="X45" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="10" t="s">
+      <c r="U45" s="14"/>
+      <c r="V45" s="14">
+        <v>4</v>
+      </c>
+      <c r="W45" s="14">
+        <v>4</v>
+      </c>
+      <c r="X45" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ju et al. (2024)</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="16">
         <v>2024</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="5" t="s">
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10" t="s">
+      <c r="R46" s="14"/>
+      <c r="S46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U46" s="10"/>
-      <c r="V46" s="5">
-        <v>4</v>
-      </c>
-      <c r="W46" s="5">
-        <v>4</v>
-      </c>
-      <c r="X46" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="10" t="s">
+      <c r="U46" s="14"/>
+      <c r="V46" s="13">
+        <v>4</v>
+      </c>
+      <c r="W46" s="13">
+        <v>4</v>
+      </c>
+      <c r="X46" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="47" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C47" s="5" t="str">
+      <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Kalouptsidi (2018)</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="16">
         <v>2018</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="5" t="s">
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="5" t="s">
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="5" t="s">
+      <c r="U47" s="14"/>
+      <c r="V47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W47" s="5" t="s">
+      <c r="W47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X47" s="5" t="s">
+      <c r="X47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y47" s="10" t="s">
+      <c r="Y47" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+    <row r="48" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="5" t="str">
+      <c r="C48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Kim and Margalit (2021)</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="19">
         <v>2021</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10" t="s">
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10">
-        <v>4</v>
-      </c>
-      <c r="W48" s="10" t="s">
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14">
+        <v>4</v>
+      </c>
+      <c r="W48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X48" s="10" t="s">
+      <c r="X48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y48" s="10" t="s">
+      <c r="Y48" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+    <row r="49" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="5" t="str">
+      <c r="C49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Kim and Pelc (2021)</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="16">
         <v>2021</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="5" t="s">
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="5" t="s">
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U49" s="10"/>
-      <c r="V49" s="5">
-        <v>4</v>
-      </c>
-      <c r="W49" s="5" t="s">
+      <c r="U49" s="14"/>
+      <c r="V49" s="13">
+        <v>4</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X49" s="5" t="s">
+      <c r="X49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="10" t="s">
+      <c r="Y49" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="119" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+    <row r="50" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="5" t="str">
+      <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Liang and Zeng (2017)</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="19">
         <v>2017</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="5" t="s">
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10" t="s">
+      <c r="R50" s="14"/>
+      <c r="S50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T50" s="5" t="s">
+      <c r="T50" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10">
-        <v>4</v>
-      </c>
-      <c r="W50" s="10">
-        <v>4</v>
-      </c>
-      <c r="X50" s="10">
+      <c r="U50" s="14"/>
+      <c r="V50" s="14">
+        <v>4</v>
+      </c>
+      <c r="W50" s="14">
+        <v>4</v>
+      </c>
+      <c r="X50" s="14">
         <v>3</v>
       </c>
-      <c r="Y50" s="10" t="s">
+      <c r="Y50" s="14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+    <row r="51" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="5" t="str">
+      <c r="C51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Lu and Zhou (2023)</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="16">
         <v>2023</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="5" t="s">
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="5" t="s">
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W51" s="5" t="s">
+      <c r="W51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X51" s="5" t="s">
+      <c r="X51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="10" t="s">
+      <c r="Y51" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+    <row r="52" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="5" t="str">
+      <c r="C52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Lu et al. (2018)</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="19">
         <v>2018</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10" t="s">
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10">
-        <v>4</v>
-      </c>
-      <c r="W52" s="10">
-        <v>4</v>
-      </c>
-      <c r="X52" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="10" t="s">
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14">
+        <v>4</v>
+      </c>
+      <c r="W52" s="14">
+        <v>4</v>
+      </c>
+      <c r="X52" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+    <row r="53" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Luo and Van Assche (2023)</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="16">
         <v>2023</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="5" t="s">
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="10"/>
-      <c r="V53" s="5" t="s">
+      <c r="U53" s="14"/>
+      <c r="V53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W53" s="5" t="s">
+      <c r="W53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X53" s="5" t="s">
+      <c r="X53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y53" s="10" t="s">
+      <c r="Y53" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="153" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+    <row r="54" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="5" t="str">
+      <c r="C54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Mansfield and Solodoch (2024)</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="19">
         <v>2024</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10" t="s">
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T54" s="5" t="s">
+      <c r="T54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10">
-        <v>4</v>
-      </c>
-      <c r="W54" s="10" t="s">
+      <c r="U54" s="14"/>
+      <c r="V54" s="14">
+        <v>4</v>
+      </c>
+      <c r="W54" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X54" s="10" t="s">
+      <c r="X54" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y54" s="10" t="s">
+      <c r="Y54" s="14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+    <row r="55" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="5" t="str">
+      <c r="C55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>McManus and Schaur (2016)</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="16">
         <v>2016</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="5" t="s">
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10" t="s">
+      <c r="R55" s="14"/>
+      <c r="S55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T55" s="5" t="s">
+      <c r="T55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="10"/>
-      <c r="V55" s="5">
-        <v>4</v>
-      </c>
-      <c r="W55" s="5">
-        <v>4</v>
-      </c>
-      <c r="X55" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y55" s="10" t="s">
+      <c r="U55" s="14"/>
+      <c r="V55" s="13">
+        <v>4</v>
+      </c>
+      <c r="W55" s="13">
+        <v>4</v>
+      </c>
+      <c r="X55" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="14" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+    <row r="56" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="5" t="str">
+      <c r="C56" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Niemeläinen (2021)</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="16">
         <v>2021</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="5" t="s">
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="10"/>
-      <c r="V56" s="5">
-        <v>4</v>
-      </c>
-      <c r="W56" s="5">
-        <v>4</v>
-      </c>
-      <c r="X56" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y56" s="10" t="s">
+      <c r="U56" s="14"/>
+      <c r="V56" s="13">
+        <v>4</v>
+      </c>
+      <c r="W56" s="13">
+        <v>4</v>
+      </c>
+      <c r="X56" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y56" s="14" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+    <row r="57" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="5" t="str">
+      <c r="C57" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Osman and El‐Gendy (2025)</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="16">
         <v>2025</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="5" t="s">
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V57" s="5">
-        <v>4</v>
-      </c>
-      <c r="W57" s="5">
-        <v>4</v>
-      </c>
-      <c r="X57" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="10" t="s">
+      <c r="V57" s="13">
+        <v>4</v>
+      </c>
+      <c r="W57" s="13">
+        <v>4</v>
+      </c>
+      <c r="X57" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="170" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+    <row r="58" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="5" t="str">
+      <c r="C58" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Pierce and Schott (2016)</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="16">
         <v>2016</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="5" t="s">
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10" t="s">
+      <c r="R58" s="14"/>
+      <c r="S58" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T58" s="5" t="s">
+      <c r="T58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="10"/>
-      <c r="V58" s="5" t="s">
+      <c r="U58" s="14"/>
+      <c r="V58" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="5" t="s">
+      <c r="W58" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X58" s="5" t="s">
+      <c r="X58" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="10" t="s">
+      <c r="Y58" s="14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+    <row r="59" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="5" t="str">
+      <c r="C59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Rahaman (2016)</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="16">
         <v>2016</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="5" t="s">
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T59" s="5" t="s">
+      <c r="T59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="10"/>
-      <c r="V59" s="5" t="s">
+      <c r="U59" s="14"/>
+      <c r="V59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="5" t="s">
+      <c r="W59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="5" t="s">
+      <c r="X59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="10" t="s">
+      <c r="Y59" s="14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="204" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+    <row r="60" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="5" t="str">
+      <c r="C60" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ramani (2025)</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="16">
         <v>2025</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="5" t="s">
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="5" t="s">
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="5" t="s">
+      <c r="W60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X60" s="5" t="s">
+      <c r="X60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="10" t="s">
+      <c r="Y60" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="255" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+    <row r="61" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
         <v>59</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="5" t="str">
+      <c r="C61" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ren (2024)</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="19">
         <v>2024</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="K61" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10" t="s">
+      <c r="K61" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="5" t="s">
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10">
-        <v>4</v>
-      </c>
-      <c r="W61" s="10">
-        <v>4</v>
-      </c>
-      <c r="X61" s="10">
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14">
+        <v>4</v>
+      </c>
+      <c r="W61" s="14">
+        <v>4</v>
+      </c>
+      <c r="X61" s="14">
         <v>3</v>
       </c>
-      <c r="Y61" s="10" t="s">
+      <c r="Y61" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="187" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+    <row r="62" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="5" t="str">
+      <c r="C62" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Wang (2021)</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="16">
         <v>2021</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10" t="s">
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T62" s="5" t="s">
+      <c r="T62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U62" s="10"/>
-      <c r="V62" s="5">
-        <v>4</v>
-      </c>
-      <c r="W62" s="5">
-        <v>4</v>
-      </c>
-      <c r="X62" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="10" t="s">
+      <c r="U62" s="14"/>
+      <c r="V62" s="13">
+        <v>4</v>
+      </c>
+      <c r="W62" s="13">
+        <v>4</v>
+      </c>
+      <c r="X62" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="340" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+    <row r="63" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="5" t="str">
+      <c r="C63" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Wu et al. (2024)</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="16">
         <v>2024</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="5" t="s">
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="5">
-        <v>4</v>
-      </c>
-      <c r="W63" s="5">
-        <v>4</v>
-      </c>
-      <c r="X63" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y63" s="10" t="s">
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="13">
+        <v>4</v>
+      </c>
+      <c r="W63" s="13">
+        <v>4</v>
+      </c>
+      <c r="X63" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y63" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="238" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+    <row r="64" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="5" t="str">
+      <c r="C64" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Zeng and Kim (2024)</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="16">
         <v>2024</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="M64" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10" t="s">
+      <c r="M64" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="5" t="s">
+      <c r="P64" s="14"/>
+      <c r="Q64" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="10"/>
-      <c r="S64" s="5" t="s">
+      <c r="R64" s="14"/>
+      <c r="S64" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T64" s="5" t="s">
+      <c r="T64" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="10"/>
-      <c r="V64" s="5">
-        <v>4</v>
-      </c>
-      <c r="W64" s="5" t="s">
+      <c r="U64" s="14"/>
+      <c r="V64" s="13">
+        <v>4</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="5" t="s">
+      <c r="X64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y64" s="10" t="s">
+      <c r="Y64" s="14" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7485,280 +7528,280 @@
       <c r="B1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B2" s="7">
         <v>2020</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>2014</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <f>COUNTIF(B:B, D2)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F13" si="0">COUNTIFS(A:A, $F$1, B:B, D2)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <f>E2-F2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B3" s="7">
         <v>2016</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>2015</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E12" si="1">COUNTIF(B:B, D3)</f>
         <v>5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G13" si="2">E3-F3</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B4" s="7">
         <v>2019</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
         <v>2016</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
         <v>2017</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B6" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>2018</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B7" s="7">
         <v>2020</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
         <v>2019</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B8" s="7">
         <v>2021</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
         <v>2020</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B9" s="7">
         <v>2020</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>2021</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B10" s="7">
         <v>2015</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
         <v>2022</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>2022</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
         <v>2023</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B12" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
         <v>2024</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -7770,672 +7813,672 @@
       <c r="B13" s="7">
         <v>2022</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
         <v>2025</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <f>COUNTIF(B:B, D13)</f>
         <v>5</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B17" s="7">
         <v>2019</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B19" s="7">
         <v>2022</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>2025</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B21" s="7">
         <v>2016</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B22" s="7">
         <v>2024</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>2021</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>290</v>
       </c>
       <c r="B24" s="7">
         <v>2018</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B25" s="7">
         <v>2015</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>2024</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B28" s="7">
         <v>2015</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B29" s="7">
         <v>2020</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B30" s="7">
         <v>2018</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B31" s="7">
         <v>2019</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B32" s="7">
         <v>2015</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B33" s="7">
         <v>2017</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>2020</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B35" s="7">
         <v>2024</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B36" s="7">
         <v>2015</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B37" s="7">
         <v>2024</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B38" s="7">
         <v>2017</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>2024</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B40" s="7">
         <v>2017</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B41" s="7">
         <v>2016</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B42" s="7">
         <v>2021</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B43" s="7">
         <v>2023</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <v>2024</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B45" s="7">
         <v>2024</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B46" s="7">
         <v>2018</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>335</v>
       </c>
       <c r="B48" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>2017</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B50" s="7">
         <v>2023</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>2018</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B52" s="7">
         <v>2023</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>2024</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B54" s="7">
         <v>2016</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>353</v>
       </c>
       <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B56" s="7">
         <v>2025</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B57" s="7">
         <v>2016</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>288</v>
       </c>
       <c r="B58" s="7">
         <v>2016</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B59" s="7">
         <v>2025</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="9">
         <v>2024</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="7">
         <v>2021</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B62" s="7">
         <v>2024</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B63" s="7">
         <v>2024</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8453,124 +8496,124 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="3.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>109</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <f>SUM(C2:F2)</f>
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>149</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G6" si="0">SUM(C3:F3)</f>
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>88</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>229</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>113</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>50</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <f>SUM(G2:G8)</f>
         <v>2438</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304EFA0-C6F0-654E-BE13-5C869FA909B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18C190-C3CE-1F48-95D7-C6F9876BDB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="432">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1594,6 +1594,15 @@
   </si>
   <si>
     <t xml:space="preserve">Autor et al. (2020) conclude that the rightward ideological polarisation is primarily driven by non-Hispanic Whites during the two US presidential elections in 2008 and 2016.  </t>
+  </si>
+  <si>
+    <t>Autor et al. (2015) investigate the effects of both trade competition from China and technological advancement on the US labour market by analysing employment data from the US Census commuting zones (CZs).</t>
+  </si>
+  <si>
+    <t>Autor et al. (2015) reveal that China shock negatively affects not only manufacturing jobs but also clerical, technical, professional, and managerial positions, corroborating findings existing literatures (Autor et al., 2013).</t>
+  </si>
+  <si>
+    <t>As employment shifts from low-skill to high-skill positions due to technological advancement, Autor et al. (2015) notably conclude that trade competition from China has a detrimental impact on the overall US labour market across all job categories.</t>
   </si>
 </sst>
 </file>
@@ -3540,10 +3549,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4282,11 +4291,17 @@
       <c r="J11" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>429</v>
+      </c>
       <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>431</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18C190-C3CE-1F48-95D7-C6F9876BDB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3074B-BE1D-F34B-8495-F69DD997EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="436">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1603,6 +1603,18 @@
   </si>
   <si>
     <t>As employment shifts from low-skill to high-skill positions due to technological advancement, Autor et al. (2015) notably conclude that trade competition from China has a detrimental impact on the overall US labour market across all job categories.</t>
+  </si>
+  <si>
+    <t>Balllard-Rosa et al. (2022) utilise data of three sources, primary data from a YouGov’s survey conducted in September 2017 with 1,800 respondents, trade data from UN Comtrade, and county-level employment data from US Census commuting zones (CZs).</t>
+  </si>
+  <si>
+    <t>Balllard-Rosa et al. (2022) emphasise that China shock negatively impacts not only employment and the economy but also individual’s social status and mental health.  The trade competition resulting from globalisation has affected the social standing of dominant White populations, contributing to their support for authoritarian politicians, such as President Trump.</t>
+  </si>
+  <si>
+    <t>Trump’s protectionism is particularly favoured in commuting zones (CZs) facing declines in both employment rates and average wages due to trade competition from China (Balllard-Rosa et al., 2022).</t>
+  </si>
+  <si>
+    <t>Balllard-Rosa et al. (2022) argue that the economic decline associated with globalisation has sparked various political reforms worldwide, notably the rise of President Trump and extreme left or right factions in the US Congress, as well as Brexit and increasing partisanship in European countries.</t>
   </si>
 </sst>
 </file>
@@ -3549,10 +3561,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4327,7 +4339,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -4359,12 +4371,20 @@
       <c r="J12" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>432</v>
+      </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="O12" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14" t="s">

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3074B-BE1D-F34B-8495-F69DD997EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFA459-2953-7F4B-A075-550DCBAF28BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="443">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1605,9 +1605,6 @@
     <t>As employment shifts from low-skill to high-skill positions due to technological advancement, Autor et al. (2015) notably conclude that trade competition from China has a detrimental impact on the overall US labour market across all job categories.</t>
   </si>
   <si>
-    <t>Balllard-Rosa et al. (2022) utilise data of three sources, primary data from a YouGov’s survey conducted in September 2017 with 1,800 respondents, trade data from UN Comtrade, and county-level employment data from US Census commuting zones (CZs).</t>
-  </si>
-  <si>
     <t>Balllard-Rosa et al. (2022) emphasise that China shock negatively impacts not only employment and the economy but also individual’s social status and mental health.  The trade competition resulting from globalisation has affected the social standing of dominant White populations, contributing to their support for authoritarian politicians, such as President Trump.</t>
   </si>
   <si>
@@ -1615,6 +1612,30 @@
   </si>
   <si>
     <t>Balllard-Rosa et al. (2022) argue that the economic decline associated with globalisation has sparked various political reforms worldwide, notably the rise of President Trump and extreme left or right factions in the US Congress, as well as Brexit and increasing partisanship in European countries.</t>
+  </si>
+  <si>
+    <t>Balllard-Rosa et al. (2022) utilise data of three sources, primary data from a YouGov’s survey conducted in September 2017 with 1,800 respondents, trade data from UN Comtrade (1991-2007), and county-level employment data from US Census covering 366 commuting zones (CZs).</t>
+  </si>
+  <si>
+    <t>Utilising three data sources—firm-level data from the China Customs database (2013-2016), transcription changes in annual reports from firms listed on China mainland’s stock exchanges (2008-2018), and quarterly data from 2,312 companies available in COMPUSTAT Global (2016-2019)—Benguria et al. (2022) explore trade-policy uncertainty (TPU) amid the US-China trade war.</t>
+  </si>
+  <si>
+    <t>By examining financial data and conducting a descriptive analysis regarding the US-China trade war, Benguria et al. (2022) emphasise that the profitability of Chinese firms has significantly declined, with trade policy uncertainty (TPU) emerging as a major concern for their future strategies.</t>
+  </si>
+  <si>
+    <t>Benguria et al. (2022) reveal that Chinese companies face challenges related to trade policy uncertainty (TPU) in context of rising tariffs from US and China.  Specifically, they are facing US tariffs reduce import demands from China, while Chinese tariffs increase costs for imports from the US.</t>
+  </si>
+  <si>
+    <t>Leveraging county-level voting data from Dave Leip’s Atlas of US Presidential Elections (2008-2018) and agricultural data from the US Census, Blanchard et al. (2024) explore the relationship between individual economic wellness and political voting behaviour.</t>
+  </si>
+  <si>
+    <t>Blanchard et al. (2024) suggest that the government subsidies to US farmers in 2018 were implemented in response to the adverse effects of China’s retaliatory tariffs on the agricultural sector.</t>
+  </si>
+  <si>
+    <t>Blanchard et al. (2024) argue that both outcomes of the 2018 midterm elections Trump’s presidential re-election in 2020 were significantly influenced by changes in trade policy and retaliatory tariffs imposed by other countries.</t>
+  </si>
+  <si>
+    <t>Blanchard et al. (2024) highlight that the introduction of a federal cap on State and Local Taxes (SALT) in 2017 was unfavourable for high-income taxpayers.  Additionally, the reversal of the Affordable Care Act (ACA, also known as Obamacare) in 2018 and the US-China trade war have negatively impacted the Republican Party.</t>
   </si>
 </sst>
 </file>
@@ -3561,10 +3582,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4372,18 +4393,18 @@
         <v>265</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>434</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>435</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -4465,7 +4486,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -4497,10 +4518,16 @@
       <c r="J14" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>437</v>
+      </c>
       <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="13" t="s">
@@ -4525,7 +4552,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -4557,12 +4584,18 @@
       <c r="J15" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="K15" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>442</v>
+      </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFA459-2953-7F4B-A075-550DCBAF28BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B547C58-04E6-AB4F-B8D5-4398BDDC99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="447">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1636,6 +1636,18 @@
   </si>
   <si>
     <t>Blanchard et al. (2024) highlight that the introduction of a federal cap on State and Local Taxes (SALT) in 2017 was unfavourable for high-income taxpayers.  Additionally, the reversal of the Affordable Care Act (ACA, also known as Obamacare) in 2018 and the US-China trade war have negatively impacted the Republican Party.</t>
+  </si>
+  <si>
+    <t>By analysing monthly data on domestic exports from the US Census (2015-2019), Benguria and Saffie (2024) discuss the effects of trade tariffs imposed by US and retaliatory measures taken by countries including China, Canada, Mexico, the EU, Turkey, Russia, and India.</t>
+  </si>
+  <si>
+    <t>Although US exports to China have sharply declined due to retaliatory tariffs, Benguria and Saffie (2024) emphasise that US exports to alternative markets have experienced significant growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benguria and Saffie (2024) suggest that entrepreneurs are striving for survival as US industries with high exposure to countries imposing retaliatory tariffs have adapted by reallocating their exports to destinations that do not face such measures. </t>
+  </si>
+  <si>
+    <t>Albeit globalisation, Bown and Wang (2024) emphasise that China’s ambition to dominate manufacturing sector is the primary reason the US is striving for reclaim leadership in semi-conductor industry (Holdren et al., 2017).</t>
   </si>
 </sst>
 </file>
@@ -3582,10 +3594,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4458,10 +4470,16 @@
       <c r="J13" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>445</v>
+      </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -4657,7 +4675,9 @@
         <v>401</v>
       </c>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="14" t="s">
+        <v>446</v>
+      </c>
       <c r="Q16" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B547C58-04E6-AB4F-B8D5-4398BDDC99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C6AA6-BB14-7947-A2F9-533315C16D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="456">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1648,6 +1648,33 @@
   </si>
   <si>
     <t>Albeit globalisation, Bown and Wang (2024) emphasise that China’s ambition to dominate manufacturing sector is the primary reason the US is striving for reclaim leadership in semi-conductor industry (Holdren et al., 2017).</t>
+  </si>
+  <si>
+    <t>Utilising the Global Antidumping Database (GAD) from World Bank and the Real Effective Exchange Rate (REER) data from the Federal Reserve Board, Broz and Werfel (2014) analyse the relationship between the number of antidumping cases investigated by International Trade Commission (ITC) over the past three decades between 1979 and 2009 and the REER of the US dollar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broz and Werfel (2014) highlight that China’s policy of maintaining an undervalued renminbi provides competitive advantages to certain industries sensitive to raw material prices, such as aluminium and steel processing. </t>
+  </si>
+  <si>
+    <t>Broz and Werfel (2014) argue that metal manufacturing industry is particularly vulnerable to dumping practices due to government subsidies and the controlled undervaluation of currency, supported by empirical evidence.</t>
+  </si>
+  <si>
+    <t>Broz and Werfel (2014) suggest that China’s monetary policy negatively impacts employment in US industries with high pass-through rates.</t>
+  </si>
+  <si>
+    <t>Utilising data of various aspects including manufacturing, employment and migration from the US Census to examine the rise of import competition from China (2000-2007), Caliendo et al. (2019) developed a dynamic trade model that allows for counterfactual scenario analysis.  This approach facilitates the study of generalised employment equilibrium effects on the US labour market.</t>
+  </si>
+  <si>
+    <t>According to the model developed by Caliendo et al. (2019), the China shock negatively impacted US employment, resulting in a loss of approximately 550,000 jobs from 2000 to 2007.  This finding corroborates existing literatures (Autor et al., 2013).  On a positive note, they reveal that the China shock contributed to a 0.2% increase in US welfare.</t>
+  </si>
+  <si>
+    <t>Caliendo et al. (2019) suggest that their model provides a method for quantifying the impacts of various scenarios on the US labour market, including changes in trade and migration policies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By employing a dynamic trade model to quantify employment reallocation and investigate the resilience of US labour market, Caliendo et al. (2019) reveal that the market created notably 50,000 construction jobs and other non-manufacturing positions, despite a compensation loss of 550,000 manufacturing jobs in the US. </t>
+  </si>
+  <si>
+    <t>Caliendo et al. (2019) highlight that the China shock can lead to delayed welfare gains due to resource reallocation among all trading partners.  However, the US benefits little from this reallocation due the high costs involved.</t>
   </si>
 </sst>
 </file>
@@ -3594,10 +3621,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4698,7 +4725,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -4730,11 +4757,19 @@
       <c r="J17" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>448</v>
+      </c>
       <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>450</v>
+      </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -4756,7 +4791,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -4788,12 +4823,22 @@
       <c r="J18" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="M18" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>455</v>
+      </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C6AA6-BB14-7947-A2F9-533315C16D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B50A8B-5BB4-F34A-BC7D-AF6010B8A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="461">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1675,6 +1675,21 @@
   </si>
   <si>
     <t>Caliendo et al. (2019) highlight that the China shock can lead to delayed welfare gains due to resource reallocation among all trading partners.  However, the US benefits little from this reallocation due the high costs involved.</t>
+  </si>
+  <si>
+    <t>Utilising county-level data of American Community Survey (ACS) from the US Census and Agricultural Census data from the US Department of Agriculture (USDA), Carcelli and Park (2024) explore the relationship between political preference of the US farmers and China’s retaliatory tariffs during Trump’s first presidential midterm election.</t>
+  </si>
+  <si>
+    <t>Charactered by limited flexibility, low responsiveness, and high dependence on weather, Carcelli and Park (2024) highlight that China’s retaliatory tariffs did not deter Trump-supporting farmers from continuing to plant low-value crops like soybeans during tariff trade war in 2018.</t>
+  </si>
+  <si>
+    <t>In light of severe impacts on the US agricultural industry resulting from China’s retaliatory tariffs in response to trade policy changes in 2018, Carcelli and Park (2024) investigate how partisanship and ideology influence the voting preference of US farmers.</t>
+  </si>
+  <si>
+    <t>Carcelli and Park (2024) emphasise that US farmers, heavily reliant on migrant labour, exhibit ideological political stances in response to China’s retaliatory tariffs.</t>
+  </si>
+  <si>
+    <t>As China is the largest importer of soybeans from the US, Carcelli and Park (2024) note that Republicans supporting soybean farmers are not optimistic about the trade war—mitigating risks—they are shifting to low-exposure crops in response to China’s retaliatory tariffs.</t>
   </si>
 </sst>
 </file>
@@ -3621,10 +3636,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,7 +4874,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -4891,12 +4906,22 @@
       <c r="J19" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>457</v>
+      </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="N19" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>460</v>
+      </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14" t="s">

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B50A8B-5BB4-F34A-BC7D-AF6010B8A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03372B03-ABC9-5D4A-BB70-1C16774D2DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="80" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="3000" yWindow="9680" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="470">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1690,6 +1690,33 @@
   </si>
   <si>
     <t>As China is the largest importer of soybeans from the US, Carcelli and Park (2024) note that Republicans supporting soybean farmers are not optimistic about the trade war—mitigating risks—they are shifting to low-exposure crops in response to China’s retaliatory tariffs.</t>
+  </si>
+  <si>
+    <t>Addressing existing gaps in literature on tariff evasion, Che et al. (2025) emphasise that Trump’s trade war has failed to reduce US trade deficits.  This aligns with the views of China’s Ministry of Foreign Affairs, noting that US importers engage in tariff evasion, despite a lack of empirical evidence.</t>
+  </si>
+  <si>
+    <t>Che et al. (2025) argue that the US cannot benefit from the rise of protectionism, which ultimately harms all trade partners due to well-established global supply chain resulting from globalisation.</t>
+  </si>
+  <si>
+    <t>Highlighting the increased social costs associated with rising trade tariffs, Che et al. (2025) criticise that the US labour market will suffer as a consequence of the US-China trade war.</t>
+  </si>
+  <si>
+    <t>In the context of tariff evasion, Che et al. (2025) note that labour unions may play a role in facilitating such behaviours.</t>
+  </si>
+  <si>
+    <t>Employing a difference-in-difference (DiD) approach within McCrary’s (2018) model, Che et al. (2022) analyse county-level voting preferences from the US Census and Dave Leip’s Atlas to examine how the China shock has influenced political preferences over the past 25 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employing annual bilateral trade data from US Bureau of Economic Analysis (2011-2021), annual labour data from the County Business Pattern of the US Census (2011-2021), and US import data from the US International Trade Commission (2014-2021), Che et al. (2022) compare datasets between the China-US and China-EU trade relationships using a difference-in-differences (DiD) approach to conduct a heterogeneous analysis. </t>
+  </si>
+  <si>
+    <t>Using annual employment data from the County Business Patterns (CBP) of the US Census (1992-2016), employment and unemployment data from the US Bureau of Labor Statistics (1990-2016), and county-level election preferring data from Dave Leip’s Atlas (1994-2016), Che et al. (2022) examine how US voters respond to China’s trade normalisation through a difference-in-differences (DiD) approach over the past 25 years.</t>
+  </si>
+  <si>
+    <t>Following the establishment of Permanent Normal Trade Relations (PNTR) with China in 2000, Che et al. (2022) argue that the conditions for initiating a US-China trade war became highly unlikely.</t>
+  </si>
+  <si>
+    <t>In light of the reversal of protectionism since the 2000s, Che et al. (2022) note that voters in counties with high exposure to China’s import competition tend to support parties advocating for more restrictive trade policies.</t>
   </si>
 </sst>
 </file>
@@ -3636,10 +3663,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4942,7 +4969,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -4974,10 +5001,16 @@
       <c r="J20" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>468</v>
+      </c>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
@@ -5000,7 +5033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5032,12 +5065,22 @@
       <c r="J21" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14" t="s">
@@ -5060,7 +5103,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5092,7 +5135,9 @@
       <c r="J22" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>466</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03372B03-ABC9-5D4A-BB70-1C16774D2DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0838FA-3A55-5E4F-9577-6275A984F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="9680" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="473">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1704,12 +1704,6 @@
     <t>In the context of tariff evasion, Che et al. (2025) note that labour unions may play a role in facilitating such behaviours.</t>
   </si>
   <si>
-    <t>Employing a difference-in-difference (DiD) approach within McCrary’s (2018) model, Che et al. (2022) analyse county-level voting preferences from the US Census and Dave Leip’s Atlas to examine how the China shock has influenced political preferences over the past 25 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employing annual bilateral trade data from US Bureau of Economic Analysis (2011-2021), annual labour data from the County Business Pattern of the US Census (2011-2021), and US import data from the US International Trade Commission (2014-2021), Che et al. (2022) compare datasets between the China-US and China-EU trade relationships using a difference-in-differences (DiD) approach to conduct a heterogeneous analysis. </t>
-  </si>
-  <si>
     <t>Using annual employment data from the County Business Patterns (CBP) of the US Census (1992-2016), employment and unemployment data from the US Bureau of Labor Statistics (1990-2016), and county-level election preferring data from Dave Leip’s Atlas (1994-2016), Che et al. (2022) examine how US voters respond to China’s trade normalisation through a difference-in-differences (DiD) approach over the past 25 years.</t>
   </si>
   <si>
@@ -1717,6 +1711,21 @@
   </si>
   <si>
     <t>In light of the reversal of protectionism since the 2000s, Che et al. (2022) note that voters in counties with high exposure to China’s import competition tend to support parties advocating for more restrictive trade policies.</t>
+  </si>
+  <si>
+    <t>Employing annual bilateral trade data from US Bureau of Economic Analysis (2011-2021), annual labour data from the County Business Pattern of the US Census (2011-2021), and US import data from the US International Trade Commission (2014-2021), Che et al. (2022) compare datasets between the China-US and China-EU trade relationships using a difference-in-differences (DiD) approach to conduct a heterogeneous analysis.</t>
+  </si>
+  <si>
+    <t>Building on a longitudinal data model (Hausman and Taylor, 1981), Chetverikov et al. (2016) utilise datasets from Autor et al. (2013) to develop an unbiased estimation algorithm, supported Monte Carlo simulations, to explore micro-level observables.</t>
+  </si>
+  <si>
+    <t>According to their model’s estimations, Chetverikov et al. (2016) note that low-paid workers experience greater impacts from the China shock compared to high-paid workers.</t>
+  </si>
+  <si>
+    <t>Chetverikov et al. (2016) argue that trade competition from China exacerbates wage inequality in the labour market.  The negative effects on male workers are slightly greater than those on female workers, while labour markets in areas with high exposure to import competition suffer more than those with low exposure.</t>
+  </si>
+  <si>
+    <t>Chetverikov et al. (2016) present a novel estimation approach for extracting insights from micro-level data.</t>
   </si>
 </sst>
 </file>
@@ -3663,10 +3672,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5002,14 +5011,14 @@
         <v>282</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -5033,7 +5042,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>280</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>461</v>
@@ -5103,7 +5112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5136,13 +5145,19 @@
         <v>285</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>470</v>
+      </c>
       <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="O22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>472</v>
+      </c>
       <c r="Q22" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0838FA-3A55-5E4F-9577-6275A984F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00542BF4-3D13-5944-B047-67D6F12C40B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="9680" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2960" yWindow="7800" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="480">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1726,6 +1726,27 @@
   </si>
   <si>
     <t>Chetverikov et al. (2016) present a novel estimation approach for extracting insights from micro-level data.</t>
+  </si>
+  <si>
+    <t>Using both district-level and individual-level panel data of election results for legislative positions from 15 selected EU countries with significant exposure to China’s trade competition over the two decades (1988-2007), Colantone and Stanig (2018) employ the approach proposed by Autor et al. (2013) to investigate the relationships between China imports and political preferences amid the rise of right-wing or radical-right partisanship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colantone and Stanig (2018) concluded that selected EU countries, which have a stake in EU trade policy, experience a surge in support for nationalism and radical-right partisanship due to the China shock.  Their findings provide empirical evidence of this trend, highlighting a paradox where, despite globalisation, some EU countries remain net autarkic. </t>
+  </si>
+  <si>
+    <t>Quantifying macroeconomic activities (Hu and Yao, 2021; Henderson et al., 2012), Chor and Li (2024) analyse 12 conservative quarters of VIIRS DNB nighttime imagery from the NOAA National Centers for Environmental Information over a three-year period (2018-2020).  They compare the economic impacts of these images in both the US and China, focusing on regions highly exposed to the US-China trade war.</t>
+  </si>
+  <si>
+    <t>Chor and Li (2024) argue that luminosity serves as an empirical evidence of China’s economic slowdown amid the onset of the US-China trade war while luminosity pertains over the period in the US counterpart cities.</t>
+  </si>
+  <si>
+    <t>Chor and Li (2024) observe that China’s economy situation is reflected in the dimming luminosity identified in their quasi-experimental model.  These persistent changes signal the gradual unwinding of trade liberalisation that has developed between US and China over the past three decades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leveraging county-level economic data from the Bureau of Economic Analysis and demographic data from the American Community Survey (ACS) of the US Census (2013-2017), Chyzh and Urbatsch (2021) explore the relationship between President Trump’s aggressive trade policy and his partisan support. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chyzh and Urbatsch (2021) observe significant shifts in political preferences in the areas heavily reliant on soybean production, which have been negatively impacted by abrupt changes in trade policy.  These findings reflected that protectionism does not resonate with the majority.  Trump’s coalition faces retaliatorily challenges with each substantial trade policy change. </t>
   </si>
 </sst>
 </file>
@@ -3672,10 +3693,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5184,7 +5205,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -5216,10 +5237,16 @@
       <c r="J23" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>476</v>
+      </c>
       <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="14" t="s">
+        <v>477</v>
+      </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
@@ -5242,7 +5269,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5274,10 +5301,14 @@
       <c r="J24" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>478</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="14" t="s">
+        <v>479</v>
+      </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
@@ -5300,7 +5331,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5332,12 +5363,16 @@
       <c r="J25" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>473</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="P25" s="14" t="s">
+        <v>474</v>
+      </c>
       <c r="Q25" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00542BF4-3D13-5944-B047-67D6F12C40B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5D935-6041-DB4A-AA10-1737E0ED948F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="7800" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2960" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="483">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1747,6 +1747,15 @@
   </si>
   <si>
     <t xml:space="preserve">Chyzh and Urbatsch (2021) observe significant shifts in political preferences in the areas heavily reliant on soybean production, which have been negatively impacted by abrupt changes in trade policy.  These findings reflected that protectionism does not resonate with the majority.  Trump’s coalition faces retaliatorily challenges with each substantial trade policy change. </t>
+  </si>
+  <si>
+    <t>Using transaction-level panel data on exports from China Customs (2000-2006), with a focus on textile related products (chapters 50-63 in Harmonised System) covered under the MultiFiber Arrangement (MFA), Defever et al. (2015) specifically analysed new exporting companies in MFA-restricted countries after 2005.</t>
+  </si>
+  <si>
+    <t>Defever et al. (2015) highlight that a significant number of Chinese companies have emerged to export trade to neighbouring countries of previously traded countries.</t>
+  </si>
+  <si>
+    <t>Defever et al. (2015) note that Chinese firms tend to establish previously traded countries before as regional distribution hubs, facilitating expansion into nearby countries.  This finding aligns the behaviour of spatial exporters, emphasising the efficiency of supply chains.</t>
   </si>
 </sst>
 </file>
@@ -3693,10 +3702,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,12 +5440,18 @@
       <c r="J26" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>480</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>481</v>
+      </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="P26" s="14" t="s">
+        <v>482</v>
+      </c>
       <c r="Q26" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5D935-6041-DB4A-AA10-1737E0ED948F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B1CE5-D8EF-B44D-BB83-780817221DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="485">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1756,6 +1756,12 @@
   </si>
   <si>
     <t>Defever et al. (2015) note that Chinese firms tend to establish previously traded countries before as regional distribution hubs, facilitating expansion into nearby countries.  This finding aligns the behaviour of spatial exporters, emphasising the efficiency of supply chains.</t>
+  </si>
+  <si>
+    <t>Utilising empirical data of the Trade Analysis Information System (TRAINS) within the World Bank’s World Integrated Trade Solution (WITS) for 2011, Egger and Erhardt (2024) employ gravity models to assess the actual effects of US ad valorem tariff on Chinese imports.</t>
+  </si>
+  <si>
+    <t>Egger and Erhardt (2024) conclude from their models that changes in trade policy have ripple effects, emphasising that the US ad valorem tariff on Chinese imports will have nonlinear consequences.</t>
   </si>
 </sst>
 </file>
@@ -3702,10 +3708,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5538,7 +5544,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -5570,10 +5576,14 @@
       <c r="J28" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="14" t="s">
+        <v>483</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="14" t="s">
+        <v>484</v>
+      </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B1CE5-D8EF-B44D-BB83-780817221DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168BEEB-78B2-504F-8B94-F56471101F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2340" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="488">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1762,6 +1762,15 @@
   </si>
   <si>
     <t>Egger and Erhardt (2024) conclude from their models that changes in trade policy have ripple effects, emphasising that the US ad valorem tariff on Chinese imports will have nonlinear consequences.</t>
+  </si>
+  <si>
+    <t>2014-2025</t>
+  </si>
+  <si>
+    <t>Using databases of World Bank Pensions, IMF World Economic Outlook, and the World Bank, Eugeni (2015) analyses economic data from seven East Asian countries to examine the trade imbalance between the US and China.</t>
+  </si>
+  <si>
+    <t>Arguing that China’s lack of domestic demand, correlating to its savings glut (Bernanke, 2005), contributes to the US trade deficit within the broader context of global imbalances, Eugeni (2015) suggests that enhancing China’s pay-as-you-go pension system could stimulate domestic demand, thereby alleviating the global over-savings and helping to reduce the US trade imbalance.</t>
   </si>
 </sst>
 </file>
@@ -2292,8 +2301,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2802,7 +2811,510 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart!$F$24:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Korea</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$F$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-056F-8B4C-8C5C-A6978EDCD239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3347,6 +3859,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3380,6 +4411,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80B3C6D-4298-A32D-9738-D37B711E60DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3707,11 +4774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3952,7 +5019,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -4348,7 +5415,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5638,12 +6705,16 @@
       <c r="J29" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>486</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="P29" s="14" t="s">
+        <v>487</v>
+      </c>
       <c r="Q29" s="13" t="s">
         <v>45</v>
       </c>
@@ -5666,7 +6737,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -6030,7 +7101,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -6090,7 +7161,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -6450,7 +7521,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -7230,7 +8301,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>54</v>
       </c>
@@ -7787,16 +8858,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C27" sqref="A1:G63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8147,7 +9219,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>234</v>
       </c>
@@ -8160,7 +9232,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>234</v>
       </c>
@@ -8173,7 +9245,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>279</v>
       </c>
@@ -8186,7 +9258,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>279</v>
       </c>
@@ -8199,7 +9271,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>234</v>
       </c>
@@ -8212,7 +9284,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>234</v>
       </c>
@@ -8225,7 +9297,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>288</v>
       </c>
@@ -8238,7 +9310,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>290</v>
       </c>
@@ -8247,11 +9319,32 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>295</v>
       </c>
@@ -8259,12 +9352,43 @@
         <v>2015</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E25" s="10">
+        <f>SUM(E2:E13)</f>
+        <v>62</v>
+      </c>
+      <c r="F25" s="10">
+        <f>COUNTIF(A:A, F24)</f>
+        <v>36</v>
+      </c>
+      <c r="G25" s="10">
+        <f>COUNTIF(A:A, G24)</f>
+        <v>11</v>
+      </c>
+      <c r="H25" s="10">
+        <f>COUNTIF(A:A, H24)</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="10">
+        <f>COUNTIF(A:A,I24)</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="10">
+        <f>COUNTIF(A:A, J24)</f>
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <f>COUNTIF(A:A,K24)</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>E25-SUM(F25:K25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>279</v>
       </c>
@@ -8277,7 +9401,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>296</v>
       </c>
@@ -8290,7 +9414,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>295</v>
       </c>
@@ -8303,7 +9427,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>279</v>
       </c>
@@ -8316,7 +9440,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>301</v>
       </c>
@@ -8329,7 +9453,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>234</v>
       </c>
@@ -8342,7 +9466,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>234</v>
       </c>
@@ -8769,7 +9893,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168BEEB-78B2-504F-8B94-F56471101F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883182B5-7184-3842-AC13-3A7343F68DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="490">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1771,6 +1771,12 @@
   </si>
   <si>
     <t>Arguing that China’s lack of domestic demand, correlating to its savings glut (Bernanke, 2005), contributes to the US trade deficit within the broader context of global imbalances, Eugeni (2015) suggests that enhancing China’s pay-as-you-go pension system could stimulate domestic demand, thereby alleviating the global over-savings and helping to reduce the US trade imbalance.</t>
+  </si>
+  <si>
+    <t>Using transactional-level and annual firm-level export data from China’s General Administration of Customs and National Bureau of Statistics, along with aggregate-level data from CEPII’s Gravity, Fan et al. (2020) analyse the effects of changes in trade policy and trade costs.</t>
+  </si>
+  <si>
+    <t>Fan et al. (2020) argue that Chinese manufacturers tend to export products to the US at lower prices with reduced quality to mitigate the impact of rising in tariffs, such as ad valorem taxes.  Conversely, when faced with increased specific trade costs, these manufacturers are more likely to export higher-quality goods at elevated prices to the US (Hummels and Skiba, 2004; Alchian and Allen, 1983).</t>
   </si>
 </sst>
 </file>
@@ -4775,10 +4781,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6737,7 +6743,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -6769,10 +6775,14 @@
       <c r="J30" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="14" t="s">
+        <v>488</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="N30" s="14" t="s">
+        <v>489</v>
+      </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="13" t="s">

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883182B5-7184-3842-AC13-3A7343F68DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9F9D8-C4A8-964E-9D40-88B6247966CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="493">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1777,6 +1777,15 @@
   </si>
   <si>
     <t>Fan et al. (2020) argue that Chinese manufacturers tend to export products to the US at lower prices with reduced quality to mitigate the impact of rising in tariffs, such as ad valorem taxes.  Conversely, when faced with increased specific trade costs, these manufacturers are more likely to export higher-quality goods at elevated prices to the US (Hummels and Skiba, 2004; Alchian and Allen, 1983).</t>
+  </si>
+  <si>
+    <t>In a counterfactual scenario involving 10% appreciation of the RMB against the USD, the model estimates a 12% increase in imports from the US to China and a 19% decrease in exports from China to the US.  Fatum et al. (2018) conclude that manipulating exchange contributes to the trade imbalance between the US and China.</t>
+  </si>
+  <si>
+    <t>Fatum et al. (2018) argue that export growth in China is driven by the government-controlled currency depreciation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilising transitional-level import and export data from China’s Customs database in China (2000-2011), Fatum et al. (2018) examine the effects of fluctuation in the exchange rates between USD and RMB on the import and export markets.  Their analysis investigates how changes in this impact China’s export activities.	</t>
   </si>
 </sst>
 </file>
@@ -4784,7 +4793,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6837,12 +6846,18 @@
       <c r="J31" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="14"/>
+      <c r="K31" s="14" t="s">
+        <v>492</v>
+      </c>
       <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="M31" s="14" t="s">
+        <v>491</v>
+      </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
+      <c r="P31" s="14" t="s">
+        <v>490</v>
+      </c>
       <c r="Q31" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9F9D8-C4A8-964E-9D40-88B6247966CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC967CC7-F840-0D4F-8700-A91277EA54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="497">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1786,6 +1786,18 @@
   </si>
   <si>
     <t xml:space="preserve">Utilising transitional-level import and export data from China’s Customs database in China (2000-2011), Fatum et al. (2018) examine the effects of fluctuation in the exchange rates between USD and RMB on the import and export markets.  Their analysis investigates how changes in this impact China’s export activities.	</t>
+  </si>
+  <si>
+    <t>Utilising transaction-level exports data from China Customs (2000-2006) with a focus on the US and EU countries, along with the tariffs for imports from and exports to these countries sourced from WTO Tariff database and used by Feenstra et al. (2002), Feng et el. (2017) conduct their analysis.</t>
+  </si>
+  <si>
+    <t>Feng et al. (2017) emphasise that the reduction in uncertainty surrounding trade policy, particularly related to China’s accession to the WTO, has led to the “China shock”, resulting in higher quality goods at reduced prices.  This dynamic has prompted a reallocation of employment in the US due to the competition between new exporters and existing firms.</t>
+  </si>
+  <si>
+    <t>Feng et al. (2017) provide empirical evidence indicating that the trade policy uncertainty constrains the decision-making of China firms regarding international trade and highlighting that China firms are more likely to export higher-quality goods at lower prices.</t>
+  </si>
+  <si>
+    <t>Feng et al. (2017) point out that job dynamics in US manufacturing have been influenced not only by trade competition from imports but also by the competitive pressures between new exporters and established firms.</t>
   </si>
 </sst>
 </file>
@@ -4790,10 +4802,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6882,7 +6894,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -6914,11 +6926,19 @@
       <c r="J32" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="14" t="s">
+        <v>493</v>
+      </c>
       <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="M32" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>496</v>
+      </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC967CC7-F840-0D4F-8700-A91277EA54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699549DC-7E25-6E45-A099-BD278B5A43F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="11440" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2780" yWindow="3820" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="505">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1798,6 +1798,30 @@
   </si>
   <si>
     <t>Feng et al. (2017) point out that job dynamics in US manufacturing have been influenced not only by trade competition from imports but also by the competitive pressures between new exporters and established firms.</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Utilising the merchandise-level import data from the US International Trade Commission (ITC), Korea Customs Service, and the Canadian International Merchandise Trade Database over a decade (2010-2019), along with a confidential dataset from the Bill of Lading (2012-2019) from the Port Input/Export Reporting Service (PIERS), Flaaen et al. (2020) analyse the impacts of antidumping tariffs on the reallocation of manufacturing and export countries, as well as changes in prices of both washing machines and non-tariff-related dryers.</t>
+  </si>
+  <si>
+    <t>In 2018, the Trump administration imposed significant tariffs on various imported goods from China.  Flaaen et al. (2020) argue that these tariffs created trade policy uncertainty, negatively impacting the US economy not only through a decline in the value-added on imports but also due to retaliated tariffs on US exports.</t>
+  </si>
+  <si>
+    <t>Flaaen et al. (2020) suggest that the research on washing machine can provide valuable insights into the effects of specific changes in trade policy with China.  They note a 5% decline in consumer price index (CPI) for laundry equipment following the initial round of antidumping duties in 2012, which affected production in South Korea and Mexico.  Manufacturers subsequently shifted production to China and other Southeast Asian countries.  However, the CPI rebounded by 9% in 2019 when manufacturing returned to the US after another antidumping petition was filed against China in 2016.</t>
+  </si>
+  <si>
+    <t>Annual tariffs collected amounted to approximately USD 82 million; however, these tariffs contributed to a USD 1.5 billion increase in consumer costs.  Flaaen et al. (2020) emphasise that the antidumping duties had minimal economic significance, as they resulted in only about 1,800 new jobs, leading to a cost of approximately USD 815,000 per job to consumers.</t>
+  </si>
+  <si>
+    <t>Utilising multiple datasets spanning two decades (1990-2010), including those used by Autor et al. (2013), voting data from the US House (1990-2010) available from VoteView, and election data collected by Dubin (1998), Ansolabehere and Jones (2000), and Ansolabehere et al. (2010), Feigenbaum and Hall (2015) implement two empirical strategies to analyse the voting behaviours of legislators in response to imports competition from China.</t>
+  </si>
+  <si>
+    <t>Feigenbaum and Hall (2015) argue that there was a shift toward protectionism in roll call votes on trade bills in districts adversely affected by the China shock.</t>
+  </si>
+  <si>
+    <t>Feigenbaum and Hall (2015) provide empirical evidence showing that legislative incumbents in the US House shifted to their roll call votes on trade-related bills to protectionism to avoid facing partisan challenges in the next election.</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +3228,7 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Korea</c:v>
+                  <c:v>South Korea</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -4802,10 +4826,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6962,7 +6986,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -6994,11 +7018,15 @@
       <c r="J33" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="K33" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>504</v>
+      </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
@@ -7022,7 +7050,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -7054,11 +7082,19 @@
       <c r="J34" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="14" t="s">
+        <v>493</v>
+      </c>
       <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="M34" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>496</v>
+      </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="13" t="s">
         <v>45</v>
@@ -7084,7 +7120,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -7116,11 +7152,19 @@
       <c r="J35" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
+      <c r="K35" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>499</v>
+      </c>
       <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="N35" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>501</v>
+      </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="13" t="s">
         <v>45</v>
@@ -8905,8 +8949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9380,7 +9424,7 @@
         <v>288</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>335</v>
+        <v>497</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>296</v>
@@ -9708,7 +9752,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>335</v>
+        <v>497</v>
       </c>
       <c r="B47" s="9">
         <v>2021</v>
@@ -9721,7 +9765,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>335</v>
+        <v>497</v>
       </c>
       <c r="B48" s="7">
         <v>2021</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699549DC-7E25-6E45-A099-BD278B5A43F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C84EC-0BD2-DE4D-82B5-C6AC35DFE769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3820" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="3020" yWindow="10560" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="510">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1773,9 +1773,6 @@
     <t>Arguing that China’s lack of domestic demand, correlating to its savings glut (Bernanke, 2005), contributes to the US trade deficit within the broader context of global imbalances, Eugeni (2015) suggests that enhancing China’s pay-as-you-go pension system could stimulate domestic demand, thereby alleviating the global over-savings and helping to reduce the US trade imbalance.</t>
   </si>
   <si>
-    <t>Using transactional-level and annual firm-level export data from China’s General Administration of Customs and National Bureau of Statistics, along with aggregate-level data from CEPII’s Gravity, Fan et al. (2020) analyse the effects of changes in trade policy and trade costs.</t>
-  </si>
-  <si>
     <t>Fan et al. (2020) argue that Chinese manufacturers tend to export products to the US at lower prices with reduced quality to mitigate the impact of rising in tariffs, such as ad valorem taxes.  Conversely, when faced with increased specific trade costs, these manufacturers are more likely to export higher-quality goods at elevated prices to the US (Hummels and Skiba, 2004; Alchian and Allen, 1983).</t>
   </si>
   <si>
@@ -1822,6 +1819,24 @@
   </si>
   <si>
     <t>Feigenbaum and Hall (2015) provide empirical evidence showing that legislative incumbents in the US House shifted to their roll call votes on trade-related bills to protectionism to avoid facing partisan challenges in the next election.</t>
+  </si>
+  <si>
+    <t>Using transactional-level and annual firm-level export data from China’s General Administration of Customs and National Bureau of Statistics, along with aggregate-level data from the Gravity database of the Centre d’Etudes Prospectives et d’Informations Internationales (CEPII), Fan et al. (2020) analyse the effects of changes in trade policy and trade costs.</t>
+  </si>
+  <si>
+    <t>Freund et al. (2024) note that the “China shock” is characterised by near-shoring and friend-shoring to neighbouring countries, such as Vietnam and Thailand.  These countries are increasingly seeking suppliers from both their immediate neighbours and more distant countries as a strategy to mitigate risk associated with reliance on China.</t>
+  </si>
+  <si>
+    <t>Albeit South Korea and Thailand have benefited from changes in US trade policy, Freund et al. (2024) emphasise that China remains a dominant source of imports for the US.  They note that tariffs imposed by the Trump administration in 2018 led to a 5% reduction in China’s import share compared to 2017.  Their findings also provide evidence of restructuring in global supply chains, with strategic countries increasingly incorporating supply chains from China.</t>
+  </si>
+  <si>
+    <t>Freund et al. (2024) observe that US tariffs not only contribute to reduced export growth but also contract the labour market in the US, resulting in negative effects on economies of the US and China.</t>
+  </si>
+  <si>
+    <t>Employing merchandise-level import data from US Customs over a six-year period (2017-2022), recovering approximately 18,000 products and over 150 countries, and utilising various data  sources, including the GeoDist database of the Centre d’Etudes Prospectives et d’Informations Internationales (CEPII), the World Development Indicators (WDI) from the World Bank, and UN Comtrade, Freund et al. (2024) examine the reshoring and near-shoring of the supply chains from China to other developing countries, from Southeast Asia to Middle America.</t>
+  </si>
+  <si>
+    <t>In the context of the US-China trade war, Freund et al. (2024) highlight that while the decoupling between the US and China has not led to deglobalisation, it has prompted the reshoring of supply chains.  They observe that Chinese manufacturers are increasingly shifting their final production stages to nearby developing countries to avoid US tariffs.  These findings align with Fajgelbaum et al. (2024), indicating that the US-China trade war benefits third countries, resulting in increased manufacturing and exports.</t>
   </si>
 </sst>
 </file>
@@ -4826,10 +4841,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6821,12 +6836,12 @@
         <v>299</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -6883,16 +6898,16 @@
         <v>241</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q31" s="13" t="s">
         <v>45</v>
@@ -6951,17 +6966,17 @@
         <v>302</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="O32" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>496</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -7019,13 +7034,13 @@
         <v>305</v>
       </c>
       <c r="K33" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="N33" s="17" t="s">
         <v>503</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>504</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -7083,17 +7098,17 @@
         <v>306</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="O34" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>496</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="13" t="s">
@@ -7153,17 +7168,17 @@
         <v>308</v>
       </c>
       <c r="K35" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>498</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>499</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>500</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>501</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="13" t="s">
@@ -7190,7 +7205,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -7222,11 +7237,21 @@
       <c r="J36" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="K36" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>507</v>
+      </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
@@ -9424,7 +9449,7 @@
         <v>288</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>296</v>
@@ -9752,7 +9777,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B47" s="9">
         <v>2021</v>
@@ -9765,7 +9790,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" s="7">
         <v>2021</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C84EC-0BD2-DE4D-82B5-C6AC35DFE769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49560D1-CD3C-DC44-9B9E-E532AA366EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="10560" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="514">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1837,6 +1837,18 @@
   </si>
   <si>
     <t>In the context of the US-China trade war, Freund et al. (2024) highlight that while the decoupling between the US and China has not led to deglobalisation, it has prompted the reshoring of supply chains.  They observe that Chinese manufacturers are increasingly shifting their final production stages to nearby developing countries to avoid US tariffs.  These findings align with Fajgelbaum et al. (2024), indicating that the US-China trade war benefits third countries, resulting in increased manufacturing and exports.</t>
+  </si>
+  <si>
+    <t>In light of the spike in unemployment rates and contraction in US manufacturing in 2008, Galantucci (2015) utilises both district-level and state-level economic data, along with voting preferences from various sources, including from the US House, US Senate, US Census, US Department of Commerce, Voteview, MapLight, Scott, Kondo, and Rhodium.  The study explores the relationships between voting behaviours and financial exposure to businesses dependent on China.</t>
+  </si>
+  <si>
+    <t>Regarding the controversial legislation of currency reforms against RMB, Galantucci (2015) anticipate strong opposition from legislators whose constituents heavily rely on China.  They aim to avoid triggering of a broader trade war, as US-China economic interdependence is a significant concern.</t>
+  </si>
+  <si>
+    <t>By leveraging the Currency Reform for Fair Trade Act (CRFTA) and the Current Exchange Rate Oversight Reform Act (CERORA), Galantucci (2015) emphasises that supporting legislators may use these currency realignment acts as alternative trade barriers to China.  Conversely, opposing legislators express concerns about potential retaliation from China and compliance with WTO regulations.</t>
+  </si>
+  <si>
+    <t>Galantucci (2015) observes that legislators opposing currency reform acts are particularly concerned about potential job losses associated with an avoidable large-scale trade war.</t>
   </si>
 </sst>
 </file>
@@ -4844,7 +4856,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7275,7 +7287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -7307,11 +7319,19 @@
       <c r="J37" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="K37" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>511</v>
+      </c>
       <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
+      <c r="N37" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>513</v>
+      </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49560D1-CD3C-DC44-9B9E-E532AA366EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC968DF-2878-B346-B7F7-746A05E35FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="10560" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="517">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1849,6 +1849,15 @@
   </si>
   <si>
     <t>Galantucci (2015) observes that legislators opposing currency reform acts are particularly concerned about potential job losses associated with an avoidable large-scale trade war.</t>
+  </si>
+  <si>
+    <t>Combining datasets from the Integrated Public Use Microdata Series (IPUMS; Ruggles et al., 2019) and the American Community survey (ACS) from the US Census, Galle and Lorentzen (2024) focus on with a focus on non-government employees aged between 25 and 60 over an eight-year period (2000-2007) in US commuting zones (CZs).  They utilise a gravity model to assess quantitative impacts of the “China shock” and the “automation shock” on the labour market, adjusting income to 1999 levels using the consumer price index (CPI).</t>
+  </si>
+  <si>
+    <t>Based on empirical evidence, Galle and Lorentzen (2024) conclude that both the “China shock” and the “automation shock” have negatively affected the labour market; however, the impact of “China shock” has only reached one-third of that by the “automation shock”.</t>
+  </si>
+  <si>
+    <t>Notably, US manufacturing has declined by 3.5 million positions, or over 20%,  Galle and Lorentzen (2024) emphasise that both competition from China and automation have contributed to this contraction in US manufacturing employment.  Their counterfactual model reveals that there was an approximately 4% increase in aggregate income from 2000 to 2017 in the context of the “China shock” and “automation shock”.</t>
   </si>
 </sst>
 </file>
@@ -4853,10 +4862,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7357,7 +7366,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -7389,11 +7398,17 @@
       <c r="J38" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="K38" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>514</v>
+      </c>
       <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="M38" s="14" t="s">
+        <v>515</v>
+      </c>
       <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="O38" s="14" t="s">
+        <v>516</v>
+      </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC968DF-2878-B346-B7F7-746A05E35FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921C33B-DFC3-0A4B-BE19-6FC08537BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="523">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1858,6 +1858,24 @@
   </si>
   <si>
     <t>Notably, US manufacturing has declined by 3.5 million positions, or over 20%,  Galle and Lorentzen (2024) emphasise that both competition from China and automation have contributed to this contraction in US manufacturing employment.  Their counterfactual model reveals that there was an approximately 4% increase in aggregate income from 2000 to 2017 in the context of the “China shock” and “automation shock”.</t>
+  </si>
+  <si>
+    <t>Utilising historical annual wheat yield data from five major breadbaskets—Argentina (13), the US (3), China (1), India (2), and Australia (8)—over a 45-year period (1967-2012), Gaupp et al. (2017) employ a spatial allocation model (SPAM) using three methodologies: multivariate copula, vine copula, and ordered coupling via a minimax approach to investigate the necessity of interregional risk pooling.</t>
+  </si>
+  <si>
+    <t>In light of significant wheat production losses across various regions, with evidence indicating that these production losses are independent, Gaupp et al. (2017) argue that the interregional risk pooling could effectively alleviate post-disaster liabilities for governments and international organisations.</t>
+  </si>
+  <si>
+    <t>Aligning with the World Bank’s (2020) perspective on global value chains (GVC), Grossman et al. (2024) utilise monthly import data from the US Census during Trump’s first presidency (2016-2019) and employ a difference-in-differences (DiD) methodology to examine the nuanced changes in the supply chains before and after the implementation of tariff in 2018.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornelas and Turner (2012) emphasise that tariffs reducing trade transaction costs can positively impact overall welfare.  In light of unexpected but prolonged tariffs imposed on China in 2018, Grossman et al. (2024) reveal through their model that US-China trade war resulted in a 2% improvement in US terms of trade with China but at the cost of a 0.5% reduction in GDP welfare and an overall 0.4% deterioration in US terms of trade. </t>
+  </si>
+  <si>
+    <t>International manufacturers have increasingly imported goods due to trade liberalisation (Ornelas and Turner, 2008).  However, Grossman et al. (2024) highlight that US tariffs significantly dampened their intention to import.  The tariffs create a wedge favouring domestic manufacturing and vertical integration but discourage international trade investments due to uncertainty in trade policy (Ornelas and Turner, 2012).</t>
+  </si>
+  <si>
+    <t>Grossman et al. (2024) anticipate that these tariffs have led to substantial search costs for supply chain replacement, resulting in suboptimal employment growth.</t>
   </si>
 </sst>
 </file>
@@ -4862,10 +4880,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7462,12 +7480,16 @@
       <c r="J39" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="K39" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>517</v>
+      </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+      <c r="P39" s="14" t="s">
+        <v>518</v>
+      </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -7488,7 +7510,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -7520,11 +7542,19 @@
       <c r="J40" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="K40" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>520</v>
+      </c>
       <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
+      <c r="N40" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>522</v>
+      </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921C33B-DFC3-0A4B-BE19-6FC08537BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F4365-51ED-A447-A588-C71D91F41651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="527">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1876,6 +1876,18 @@
   </si>
   <si>
     <t>Grossman et al. (2024) anticipate that these tariffs have led to substantial search costs for supply chain replacement, resulting in suboptimal employment growth.</t>
+  </si>
+  <si>
+    <t>Utilising the systematic consolidation approach proposed by Pierce and Schott (2012), Handley and Limão (2017) analyse multiple trade data sources over past two decades (1990-2010).  These sources include US Imports from the US Census and the Commodity and Country from National Bureau of Economic Research (NBER), US tariffs schedules from the World Bank’s World Integrated Trade Solution (WITS), China exports from UN COMTRADE, and US manufacturing exports from the US International Trade Commission (ITC).  They examine the impacts of trade policy uncertainty on various aspects of general equilibrium, including trade, prices, and actual income, while also comparing and quantifying the effects of reduced trade policy uncertainty following China’s accession to the WTO.</t>
+  </si>
+  <si>
+    <t>Handley and Limão (2017) suggest that China’s accession to the WTO has mitigated US threats of a trade war, as this accession accounted for over 30% growth in US exports.  Albeit the estimated high welfare costs associated with trade wars, they argue that the threats posed by tariff during Trump’s first administration cannot be overlooked, estimating that consumers bore at least one-third of the costs associated with trade autarky.</t>
+  </si>
+  <si>
+    <t>Handley and Limão (2017) highlight that WTO members can leverage tariffs for improved trade negotiations due to their market power, given that WTO’s trade agreements have historically been poorly enforced (Broda et al., 2008; Rose, 2004).</t>
+  </si>
+  <si>
+    <t>Through their counterfactual model, Handley and Limão (2017) conjecture that trade policy uncertainty does not significantly impact employment and wages in the labour market.</t>
   </si>
 </sst>
 </file>
@@ -4880,10 +4892,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7580,7 +7592,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -7612,11 +7624,19 @@
       <c r="J41" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
+      <c r="K41" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>524</v>
+      </c>
       <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
+      <c r="N41" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>526</v>
+      </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F4365-51ED-A447-A588-C71D91F41651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F51AC3-8CE7-9D46-891A-2889FAFC942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="529">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1888,6 +1888,12 @@
   </si>
   <si>
     <t>Through their counterfactual model, Handley and Limão (2017) conjecture that trade policy uncertainty does not significantly impact employment and wages in the labour market.</t>
+  </si>
+  <si>
+    <t>Heilmann (2016)	Utilising diverse datasets from multiple sources—including Danish exports data from Statistics Denmark, Japanese trade data from UN Comtrade, trade data between the US and France from US Census Foreign Trade database, and trade data between Israel and Turkey from UN Comtrade—Heilmann (2016) employs difference-in-differences (DiD) models to investigate the economic impacts of various global boycotts.  These include Mohammad Cartoon conflicts in Denmark, the Senkaku Island dispute between China and Japan, US-French tensions related to the Middle East, and the tensions between Israel and Turkey related to the Gaza Strip crisis.</t>
+  </si>
+  <si>
+    <t>Heilmann (2016) explores the economic effects stemming from various international conflicts, such as the Islamic boycott of Danish products in 2005, the Sino-Japanese conflicts over the Senkaku Island in 2012, US conservative boycotts of French goods in 2003, and anti-Israel sentiment leading to boycotts in Turkey in 2014.  The study concludes that political conflicts can significantly adversely affect international trade between countries.</t>
   </si>
 </sst>
 </file>
@@ -4892,10 +4898,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7660,7 +7666,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -7692,12 +7698,16 @@
       <c r="J42" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="14" t="s">
+        <v>527</v>
+      </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="P42" s="14" t="s">
+        <v>528</v>
+      </c>
       <c r="Q42" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F51AC3-8CE7-9D46-891A-2889FAFC942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB8968-7379-5444-AB3A-A7BB4D5E29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="533">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1894,6 +1894,18 @@
   </si>
   <si>
     <t>Heilmann (2016) explores the economic effects stemming from various international conflicts, such as the Islamic boycott of Danish products in 2005, the Sino-Japanese conflicts over the Senkaku Island in 2012, US conservative boycotts of French goods in 2003, and anti-Israel sentiment leading to boycotts in Turkey in 2014.  The study concludes that political conflicts can significantly adversely affect international trade between countries.</t>
+  </si>
+  <si>
+    <t>Jakubik and Stolzenburg (2021) consolidate various trade data from multiple sources, including the Inter-Country Input-Output (ICIO) and Trade in Value Added (TiVA) databases from the Organisation for Economic Co-operation and Development (OECD), as well as the Multi-Regional Input-Output (MRIO) data from Asian Development Bank (ADB).  They also incorporate databases of the Country Business Patterns (CBP) and Population Estimates Program (PEP) from the US Census, covering a 15-year period (2000-2014).  Utilising these comprehensive datasets and an extended time frame, they apply the methodology proposed by Autor et al. (2013) to conduct a re-visited analysis.</t>
+  </si>
+  <si>
+    <t>Jakubik and Stolzenburg (2021) differentiate the “China shock” into two components—stemming from China and those from third countries.  They argue that the negative impacts on US manufacturing industries attributed to the “China shock” have been overstated by at least 30%.</t>
+  </si>
+  <si>
+    <t>Addressing the political factors influencing trade policy in the US, Jakubik and Stolzenburg (2021) emphasise that policymakers should consider the dynamics of global value chain (GVC) when implementing changes to trade policy.</t>
+  </si>
+  <si>
+    <t>Jakubik and Stolzenburg (2021) contend that Autor et al. (2013) have overstated the losses in US manufacturing employment attributed to the “China shock” by at least 30%, highlighting the need for a more nuanced understanding of these impacts.</t>
   </si>
 </sst>
 </file>
@@ -4898,10 +4910,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7730,7 +7742,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -7762,11 +7774,19 @@
       <c r="J43" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="14" t="s">
+        <v>529</v>
+      </c>
       <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
+      <c r="M43" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>532</v>
+      </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB8968-7379-5444-AB3A-A7BB4D5E29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EBAF5-D4C8-BB4A-B826-8B6F3587FBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="536">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1906,6 +1906,15 @@
   </si>
   <si>
     <t>Jakubik and Stolzenburg (2021) contend that Autor et al. (2013) have overstated the losses in US manufacturing employment attributed to the “China shock” by at least 30%, highlighting the need for a more nuanced understanding of these impacts.</t>
+  </si>
+  <si>
+    <t>Utilising monthly export data from China Customs over a 29-month period (January 2017 to May 2019), Jiang et al. (2023) analyse the nuanced effects of the trade war on manufacturers in China.</t>
+  </si>
+  <si>
+    <t>Through their heterogenous analysis, Jiang et al. (2023) demonstrate that industries with greater comparative advantage—characterised by higher market power—are more responsive to protectionist trade policies, enabling them to redirect their products to other countries.</t>
+  </si>
+  <si>
+    <t>By providing empirical evidence of a consistent reduction in export quantities, Jiang et al. (2023) conclude that China’s exports have been negatively affected by the trade policy implications.  They emphasise, however, that US consumers have suffered the impacts also borne the consequences of US tariffs, as there has been no significant adjustment in the unit price of exported goods.</t>
   </si>
 </sst>
 </file>
@@ -4910,10 +4919,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7812,7 +7821,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -7844,10 +7853,16 @@
       <c r="J44" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="K44" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>534</v>
+      </c>
       <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="N44" s="14" t="s">
+        <v>535</v>
+      </c>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EBAF5-D4C8-BB4A-B826-8B6F3587FBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D8C913-1FA4-7E4D-9157-392FBE7CCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="10540" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="3920" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="553">
   <si>
     <t>Journal Title</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Trade shocks, new industry entry and industry relatedness</t>
-  </si>
-  <si>
-    <t>Liang and Zeng</t>
   </si>
   <si>
     <t>Trade policy uncertainty and exports: Evidence from China's WTO accession</t>
@@ -1915,6 +1912,60 @@
   </si>
   <si>
     <t>By providing empirical evidence of a consistent reduction in export quantities, Jiang et al. (2023) conclude that China’s exports have been negatively affected by the trade policy implications.  They emphasise, however, that US consumers have suffered the impacts also borne the consequences of US tariffs, as there has been no significant adjustment in the unit price of exported goods.</t>
+  </si>
+  <si>
+    <t>Over an eight-year period (2015-2022), Ju et al. (2024) utilise firm-level data from the China Stock Market and Accounting Research (CSMAR) and the National Tax Survey (NTS).  They analyse 22 tradable sectors using the Inter-Country Input-Output (ICIO) framework developed by the Organisation for Economic Co-operation and Development (OECD).  This analysis incorporates a general equilibrium model as proposed by Caliendo and Parro (2015) and further integrates insights from Bartelme et al. (2021).</t>
+  </si>
+  <si>
+    <t>Given China’s ambitious dominance across various global sectors, Ju et al. (2024) emphasise that the Trump administration aimed to distort the “Made-in-China 2025” initiative by weaponizing tariffs to counter China’s subsidies and punitive tariffs implemented since 2018.  In contrast, the Biden administration has introduced tax reduction incentives to semiconductor manufacturers through the Creating Helpful Incentives to Produce Semiconductors (CHIPS) and Science Act in 2022.</t>
+  </si>
+  <si>
+    <t>Ju et al. (2024) highlight that the implications of Trump’s tariff fail to address the issues of US employment decline associated with “China shock” (Autor el al., 2013) or the US trade deficit.</t>
+  </si>
+  <si>
+    <t>Despite several influential studies not accounting for industrial policies (Amiti et al., 2019; Fajgelbaum et al., 2020), Ju et al. (2024) suggest that the economic implications of US-China relations have evolved from a tariff-based trade war into a broader competition in industrial strategies, driven by China’s ambitious policy “Made-in-China 2025” initiative.</t>
+  </si>
+  <si>
+    <t>Ju et al. (2024) argue that leveraging tariffs policies on imports may potentially address domestic economic misallocation; however, these distortions could hinder economic growth.  They emphasise that such tariffs policies may represent a suboptimal response to the “Made-in-China 2025” initiative (Lashkaripour and Lugovskyy, 2023).</t>
+  </si>
+  <si>
+    <t>Jiao et al. (2024) utilise firm-level data from the local government of an Eastern coastal city in China, complemented by product-level by country from the World Bank’s World Integrated Trade System (WITS).  They also conducted a survey with managers from 600 Chinese export firms to analyse the flexibility that exporters face in response to high tariff challenges.</t>
+  </si>
+  <si>
+    <t>Jiao et al. (2024) provide empirical evidence regarding the implications of globalisation strategies for Chinese exporting firms.  Consistent with existing literature, they find that Trump’s tariffs have slowed China’s imports, adversely affecting US importers and consumers (Hanley et al., 2020).  Conversely, China’s retaliatory tariffs have led to a decline in US consumption (Waugh, 2019).</t>
+  </si>
+  <si>
+    <t>Jiao et al. (2024) highlight that Chinese firms are strategically shifting their products to EU countries to mitigate potential reductions in profit margins.  Most managers reported being constrained in their ability to further reduce prices due to limited profit margins and contractual obligations.  Additionally, they noted that diversifying sales to domestic or other foreign markets presents challenges, such as a lack of sales channels and various issues, including differing standards and specifications, as well as low collection rates.</t>
+  </si>
+  <si>
+    <t>Utilising various datasets from Clarksons Research—including quarterly bulk ship production (2001-2012), shipbuilding agreements and used ship sales transactions (1998-2012), and shipyard characteristics as of 2012—Kalouptsidi (2018) employed these data into a Markov-perfect dynamic model (Hopenhayn, 1992; Ericson and Parkes, 1995) to explore how Chinese governmental subsidies strategically affect the global shipyard industry.</t>
+  </si>
+  <si>
+    <t>Kalouptsidi (2018) suggests the over-expansion of shipyard industries in China is merely the tip of the iceberg, reflecting broader challenges in several sectors dominated by China in recent years.  The author argues that Chinese subsidies severely disrupt various industries, including automotive parts, photovoltaic panels, and raw metals, without considering the implications for the geography of business and manufacturing or the welfare of the consumers.</t>
+  </si>
+  <si>
+    <t>Kalouptsidi (2018) highlights that Chinese governmental subsidies have significantly altered the global shipyard industry’s ecosystem by reducing costs by up to 20%.</t>
+  </si>
+  <si>
+    <t>Kim and Margalit (2021) emphasise that China’s accession to the World Trade Organisation (WTO) has resulted in a “China shock” that has  influenced the global political climate, impacting both the Trump’s presidency and the Brexit referendum in 2016.</t>
+  </si>
+  <si>
+    <t>By compiling a new county-level dataset that examines the relationship between exposure to China’s retaliatory tariffs and election data from their original survey across the US, Kim and Margalit (2021) explore the impacts of these tariffs on US residents, analysing voters’ responses to incumbent politicians across four snapshots in 2018.</t>
+  </si>
+  <si>
+    <t>Amid Trump’s trade war in 2018, Kim and Margalit (2021) argue that the Trump administration’s approach to the US-China trade conflict was largely unsuccessful.  They note that Republican voters felt betrayed, as China implemented a more aggressive retaliatory strategy.</t>
+  </si>
+  <si>
+    <t>Kim and Margalit (2021) highlight that the implications of trade policy have exacerbated US-China tensions, creating a wedge of partisanship.  Incumbent politicians often collaborate more closely with their constituents, as the ruling party bears the responsibility for the complications arising from the trade war.</t>
+  </si>
+  <si>
+    <t>Kim and Margalit (2021) reveal that the China’s retaliatory tariffs have adversely affected over 2 million jobs across both the agricultural and manufacturing sectors.</t>
+  </si>
+  <si>
+    <t>Kim and Margalit (2021) highlight that voters tend to adopt an anti-incumbent stance in response to these economic challenges.</t>
+  </si>
+  <si>
+    <t>Liang</t>
   </si>
 </sst>
 </file>
@@ -4919,10 +4970,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4945,22 +4996,22 @@
   <sheetData>
     <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -4969,34 +5020,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>44</v>
@@ -5005,7 +5056,7 @@
         <v>43</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
@@ -5017,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5102,17 +5153,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="13" t="str">
         <f>IF(B3="", "", B3 &amp; IF(F3="", " (no year)", " (" &amp; F3 &amp; ")"))</f>
         <v>Abraham and Kearney (2020)</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="16">
         <v>2020</v>
@@ -5124,21 +5175,21 @@
         <v>15</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="13" t="s">
@@ -5160,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -5168,17 +5219,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="13" t="str">
         <f t="shared" ref="C4:C64" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
         <v>Acemoglu et al. (2016)</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="16">
         <v>2016</v>
@@ -5190,23 +5241,23 @@
         <v>18</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>378</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="13" t="s">
@@ -5230,7 +5281,7 @@
         <v>4</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -5238,17 +5289,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Albouy et al. (2019)</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="16">
         <v>2019</v>
@@ -5260,19 +5311,19 @@
         <v>18</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="13" t="s">
@@ -5294,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -5309,10 +5360,10 @@
         <v>Alessandria et al. (2025)</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="16">
         <v>2025</v>
@@ -5324,22 +5375,22 @@
         <v>18</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -5360,7 +5411,7 @@
         <v>5</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -5375,7 +5426,7 @@
         <v>Alessandria et al. (2025)</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>52</v>
@@ -5390,20 +5441,20 @@
         <v>6</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -5424,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -5432,17 +5483,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Amiti et al. (2020)</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="16">
         <v>2020</v>
@@ -5454,23 +5505,23 @@
         <v>6</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5490,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -5498,17 +5549,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Aslan and Kumar (2021)</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="16">
         <v>2021</v>
@@ -5520,24 +5571,24 @@
         <v>6</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>45</v>
@@ -5556,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
@@ -5571,10 +5622,10 @@
         <v>Autor et al. (2020)</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="16">
         <v>2020</v>
@@ -5586,24 +5637,24 @@
         <v>15</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>428</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>45</v>
@@ -5626,7 +5677,7 @@
         <v>5</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -5641,7 +5692,7 @@
         <v>Autor et al. (2015)</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>48</v>
@@ -5656,21 +5707,21 @@
         <v>7</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="13" t="s">
@@ -5694,7 +5745,7 @@
         <v>4</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -5702,17 +5753,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ballard-Rosa et al. (2022)</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="19">
         <v>2022</v>
@@ -5724,24 +5775,24 @@
         <v>13</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -5760,7 +5811,7 @@
         <v>40</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -5768,17 +5819,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Benguria and Saffie (2024)</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="16">
         <v>2024</v>
@@ -5790,20 +5841,20 @@
         <v>6</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K13" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>444</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -5826,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -5834,17 +5885,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Benguria et al. (2022)</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="16">
         <v>2022</v>
@@ -5856,20 +5907,20 @@
         <v>6</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K14" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>437</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -5892,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -5900,17 +5951,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Blanchard et al. (2024)</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="16">
         <v>2024</v>
@@ -5922,22 +5973,22 @@
         <v>6</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K15" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="N15" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -5956,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
@@ -5964,17 +6015,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Bown and Wang (2024)</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="16">
         <v>2024</v>
@@ -5986,22 +6037,22 @@
         <v>15</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>45</v>
@@ -6020,7 +6071,7 @@
         <v>4</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -6028,17 +6079,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Broz and Werfel (2014)</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="16">
         <v>2014</v>
@@ -6050,23 +6101,23 @@
         <v>12</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K17" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>448</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>449</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>450</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6086,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -6094,17 +6145,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Caliendo et al. (2019)</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="16">
         <v>2019</v>
@@ -6116,33 +6167,33 @@
         <v>7</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="O18" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="P18" s="14" t="s">
         <v>454</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>455</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V18" s="13" t="s">
         <v>5</v>
@@ -6154,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -6162,17 +6213,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Carcelli and Park (2024)</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="19">
         <v>2024</v>
@@ -6184,26 +6235,26 @@
         <v>13</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>456</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>457</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="P19" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>460</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -6222,7 +6273,7 @@
         <v>40</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -6230,17 +6281,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Che et al. (2022)</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="16">
         <v>2022</v>
@@ -6252,20 +6303,20 @@
         <v>6</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K20" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>466</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -6286,7 +6337,7 @@
         <v>4</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
@@ -6294,17 +6345,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Che et al. (2025)</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="19">
         <v>2025</v>
@@ -6316,26 +6367,26 @@
         <v>6</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>463</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>464</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
@@ -6356,7 +6407,7 @@
         <v>4</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -6364,17 +6415,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Chetverikov et al. (2016)</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="16">
         <v>2016</v>
@@ -6386,24 +6437,24 @@
         <v>7</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="P22" s="14" t="s">
         <v>471</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>472</v>
       </c>
       <c r="Q22" s="13" t="s">
         <v>45</v>
@@ -6416,7 +6467,7 @@
         <v>43</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V22" s="13" t="s">
         <v>5</v>
@@ -6428,7 +6479,7 @@
         <v>5</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -6436,17 +6487,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Chor and Li (2024)</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="16">
         <v>2024</v>
@@ -6458,20 +6509,20 @@
         <v>6</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K23" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>475</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>476</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
@@ -6492,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -6500,17 +6551,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Chyzh and Urbatsch (2021)</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="19">
         <v>2021</v>
@@ -6522,18 +6573,18 @@
         <v>18</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -6554,7 +6605,7 @@
         <v>40</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
@@ -6562,17 +6613,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Colantone and Stanig (2018)</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="16">
         <v>2018</v>
@@ -6584,20 +6635,20 @@
         <v>7</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>45</v>
@@ -6610,7 +6661,7 @@
         <v>43</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V25" s="13" t="s">
         <v>5</v>
@@ -6622,7 +6673,7 @@
         <v>40</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -6630,17 +6681,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Defever et al. (2015)</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="16">
         <v>2015</v>
@@ -6652,22 +6703,22 @@
         <v>6</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>45</v>
@@ -6690,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -6698,17 +6749,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>DuBois (2023)</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="16">
         <v>2023</v>
@@ -6720,20 +6771,20 @@
         <v>9</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
@@ -6752,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -6760,17 +6811,17 @@
         <v>26</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Egger and Erhardt (2024)</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="19">
         <v>2024</v>
@@ -6782,18 +6833,18 @@
         <v>7</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -6814,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="Y28" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -6822,17 +6873,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Eugeni (2015)</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" s="16">
         <v>2015</v>
@@ -6844,20 +6895,20 @@
         <v>6</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>45</v>
@@ -6878,7 +6929,7 @@
         <v>4</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -6886,17 +6937,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Fan et al. (2020)</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="16">
         <v>2020</v>
@@ -6908,18 +6959,18 @@
         <v>6</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -6940,7 +6991,7 @@
         <v>4</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -6948,17 +6999,17 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Fatum et al. (2018)</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="16">
         <v>2018</v>
@@ -6970,22 +7021,22 @@
         <v>6</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q31" s="13" t="s">
         <v>45</v>
@@ -7008,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="Y31" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -7023,7 +7074,7 @@
         <v>Feenstra et al. (2019)</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>46</v>
@@ -7038,23 +7089,23 @@
         <v>6</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="O32" s="14" t="s">
         <v>494</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>495</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -7076,7 +7127,7 @@
         <v>4</v>
       </c>
       <c r="Y32" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
@@ -7084,17 +7135,17 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Feigenbaum and Hall (2015)</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="16">
         <v>2015</v>
@@ -7106,19 +7157,19 @@
         <v>18</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="N33" s="17" t="s">
         <v>502</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>503</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -7140,7 +7191,7 @@
         <v>40</v>
       </c>
       <c r="Y33" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -7148,17 +7199,17 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Feng et al. (2017)</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="16">
         <v>2017</v>
@@ -7170,23 +7221,23 @@
         <v>6</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="O34" s="14" t="s">
         <v>494</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>495</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="13" t="s">
@@ -7210,7 +7261,7 @@
         <v>4</v>
       </c>
       <c r="Y34" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
@@ -7218,17 +7269,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Flaaen et al. (2020)</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="19">
         <v>2020</v>
@@ -7240,23 +7291,23 @@
         <v>15</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K35" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>498</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>500</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="13" t="s">
@@ -7280,7 +7331,7 @@
         <v>5</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
@@ -7288,17 +7339,17 @@
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Freund et al. (2024)</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="16">
         <v>2024</v>
@@ -7310,25 +7361,25 @@
         <v>6</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K36" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="L36" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="L36" s="17" t="s">
-        <v>509</v>
-      </c>
       <c r="M36" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="O36" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>507</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
@@ -7350,7 +7401,7 @@
         <v>4</v>
       </c>
       <c r="Y36" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
@@ -7358,17 +7409,17 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Galantucci (2015)</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="16">
         <v>2015</v>
@@ -7380,23 +7431,23 @@
         <v>13</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K37" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>511</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>512</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>513</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="13" t="s">
@@ -7420,7 +7471,7 @@
         <v>40</v>
       </c>
       <c r="Y37" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
@@ -7428,17 +7479,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Galle and Lorentzen (2024)</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="16">
         <v>2024</v>
@@ -7450,21 +7501,21 @@
         <v>6</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -7484,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="Y38" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
@@ -7492,17 +7543,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Gaupp et al. (2017)</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="16">
         <v>2017</v>
@@ -7514,27 +7565,27 @@
         <v>7</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
       <c r="U39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V39" s="13">
         <v>4</v>
@@ -7546,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="Y39" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -7561,7 +7612,7 @@
         <v>Grossman et al. (2024)</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>41</v>
@@ -7576,23 +7627,23 @@
         <v>15</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>519</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>520</v>
       </c>
       <c r="M40" s="14"/>
       <c r="N40" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>521</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>522</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="13" t="s">
@@ -7616,7 +7667,7 @@
         <v>5</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
@@ -7624,17 +7675,17 @@
         <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Handley and Limão (2017)</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41" s="16">
         <v>2017</v>
@@ -7646,23 +7697,23 @@
         <v>15</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K41" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>523</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>524</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="O41" s="14" t="s">
         <v>525</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>526</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -7684,7 +7735,7 @@
         <v>5</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
@@ -7692,17 +7743,17 @@
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Heilmann (2016)</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="16">
         <v>2016</v>
@@ -7714,20 +7765,20 @@
         <v>6</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q42" s="13" t="s">
         <v>45</v>
@@ -7748,7 +7799,7 @@
         <v>4</v>
       </c>
       <c r="Y42" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
@@ -7756,17 +7807,17 @@
         <v>41</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Jakubik and Stolzenburg (2021)</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="16">
         <v>2021</v>
@@ -7778,23 +7829,23 @@
         <v>13</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="N43" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="O43" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>532</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="13" t="s">
@@ -7818,7 +7869,7 @@
         <v>4</v>
       </c>
       <c r="Y43" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -7826,17 +7877,17 @@
         <v>42</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Jiang et al. (2023)</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="16">
         <v>2023</v>
@@ -7848,20 +7899,20 @@
         <v>6</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K44" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>534</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -7884,25 +7935,25 @@
         <v>4</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Jiao et al. (2024)</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="19">
         <v>2024</v>
@@ -7914,15 +7965,21 @@
         <v>28</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+        <v>327</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>541</v>
+      </c>
       <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
+      <c r="N45" s="14" t="s">
+        <v>542</v>
+      </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
@@ -7944,10 +8001,10 @@
         <v>4</v>
       </c>
       <c r="Y45" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -7959,7 +8016,7 @@
         <v>Ju et al. (2024)</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>50</v>
@@ -7974,17 +8031,27 @@
         <v>6</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
+        <v>328</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>539</v>
+      </c>
       <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
+      <c r="P46" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="Q46" s="13" t="s">
         <v>45</v>
       </c>
@@ -8006,25 +8073,25 @@
         <v>4</v>
       </c>
       <c r="Y46" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>45</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Kalouptsidi (2018)</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="16">
         <v>2018</v>
@@ -8036,17 +8103,23 @@
         <v>13</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="K47" s="14"/>
+        <v>331</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>543</v>
+      </c>
       <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="M47" s="14" t="s">
+        <v>544</v>
+      </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
+      <c r="P47" s="14" t="s">
+        <v>545</v>
+      </c>
       <c r="Q47" s="13" t="s">
         <v>45</v>
       </c>
@@ -8066,25 +8139,25 @@
         <v>5</v>
       </c>
       <c r="Y47" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Kim and Margalit (2021)</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="19">
         <v>2021</v>
@@ -8096,17 +8169,29 @@
         <v>12</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
+        <v>333</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>551</v>
+      </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14" t="s">
@@ -8124,7 +8209,7 @@
         <v>40</v>
       </c>
       <c r="Y48" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -8132,17 +8217,17 @@
         <v>47</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Kim and Pelc (2021)</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="16">
         <v>2021</v>
@@ -8154,10 +8239,10 @@
         <v>13</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
@@ -8184,7 +8269,7 @@
         <v>40</v>
       </c>
       <c r="Y49" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -8192,14 +8277,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>55</v>
+        <v>552</v>
       </c>
       <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Liang and Zeng (2017)</v>
+        <v>Liang (2017)</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>54</v>
@@ -8214,10 +8299,10 @@
         <v>9</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -8246,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="Y50" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -8254,17 +8339,17 @@
         <v>49</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Lu and Zhou (2023)</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="16">
         <v>2023</v>
@@ -8276,10 +8361,10 @@
         <v>10</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -8289,7 +8374,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
       <c r="R51" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
@@ -8304,7 +8389,7 @@
         <v>5</v>
       </c>
       <c r="Y51" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -8312,17 +8397,17 @@
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Lu et al. (2018)</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="19">
         <v>2018</v>
@@ -8334,10 +8419,10 @@
         <v>6</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
@@ -8362,7 +8447,7 @@
         <v>4</v>
       </c>
       <c r="Y52" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -8370,17 +8455,17 @@
         <v>51</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Luo and Van Assche (2023)</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="16">
         <v>2023</v>
@@ -8392,10 +8477,10 @@
         <v>8</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -8420,7 +8505,7 @@
         <v>5</v>
       </c>
       <c r="Y53" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -8428,17 +8513,17 @@
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Mansfield and Solodoch (2024)</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54" s="19">
         <v>2024</v>
@@ -8450,10 +8535,10 @@
         <v>18</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -8480,7 +8565,7 @@
         <v>40</v>
       </c>
       <c r="Y54" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -8488,17 +8573,17 @@
         <v>53</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>McManus and Schaur (2016)</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="16">
         <v>2016</v>
@@ -8510,10 +8595,10 @@
         <v>6</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -8542,7 +8627,7 @@
         <v>4</v>
       </c>
       <c r="Y55" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -8550,17 +8635,17 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Niemeläinen (2021)</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="16">
         <v>2021</v>
@@ -8572,10 +8657,10 @@
         <v>6</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
@@ -8600,7 +8685,7 @@
         <v>4</v>
       </c>
       <c r="Y56" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
@@ -8608,17 +8693,17 @@
         <v>55</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Osman and El‐Gendy (2025)</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" s="16">
         <v>2025</v>
@@ -8630,10 +8715,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -8646,7 +8731,7 @@
       <c r="S57" s="14"/>
       <c r="T57" s="14"/>
       <c r="U57" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V57" s="13">
         <v>4</v>
@@ -8658,7 +8743,7 @@
         <v>4</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -8666,17 +8751,17 @@
         <v>56</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Pierce and Schott (2016)</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="16">
         <v>2016</v>
@@ -8688,10 +8773,10 @@
         <v>15</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
@@ -8720,7 +8805,7 @@
         <v>5</v>
       </c>
       <c r="Y58" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -8728,17 +8813,17 @@
         <v>57</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Rahaman (2016)</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" s="16">
         <v>2016</v>
@@ -8750,10 +8835,10 @@
         <v>8</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
@@ -8780,7 +8865,7 @@
         <v>5</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -8788,17 +8873,17 @@
         <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ramani (2025)</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="16">
         <v>2025</v>
@@ -8810,13 +8895,13 @@
         <v>10</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
@@ -8825,7 +8910,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
@@ -8840,7 +8925,7 @@
         <v>5</v>
       </c>
       <c r="Y60" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
@@ -8848,17 +8933,17 @@
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Ren (2024)</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F61" s="19">
         <v>2024</v>
@@ -8870,20 +8955,20 @@
         <v>9</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
@@ -8902,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="Y61" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -8910,17 +8995,17 @@
         <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Wang (2021)</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" s="16">
         <v>2021</v>
@@ -8932,10 +9017,10 @@
         <v>6</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
@@ -8962,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="Y62" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
@@ -8970,17 +9055,17 @@
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Wu et al. (2024)</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F63" s="16">
         <v>2024</v>
@@ -8992,10 +9077,10 @@
         <v>10</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
@@ -9005,7 +9090,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
@@ -9020,7 +9105,7 @@
         <v>4</v>
       </c>
       <c r="Y63" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -9028,17 +9113,17 @@
         <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Zeng and Kim (2024)</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64" s="16">
         <v>2024</v>
@@ -9050,23 +9135,23 @@
         <v>13</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K64" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="L64" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="L64" s="14" t="s">
-        <v>394</v>
-      </c>
       <c r="M64" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N64" s="14"/>
       <c r="O64" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P64" s="14"/>
       <c r="Q64" s="13" t="s">
@@ -9090,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="Y64" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -9117,28 +9202,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="7">
         <v>2020</v>
@@ -9162,7 +9247,7 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="7">
         <v>2016</v>
@@ -9186,7 +9271,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="7">
         <v>2019</v>
@@ -9210,7 +9295,7 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="7">
         <v>2025</v>
@@ -9234,7 +9319,7 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="7">
         <v>2025</v>
@@ -9258,7 +9343,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="7">
         <v>2020</v>
@@ -9282,7 +9367,7 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="7">
         <v>2021</v>
@@ -9306,7 +9391,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="7">
         <v>2020</v>
@@ -9330,7 +9415,7 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="7">
         <v>2015</v>
@@ -9354,7 +9439,7 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="9">
         <v>2022</v>
@@ -9378,7 +9463,7 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="7">
         <v>2024</v>
@@ -9402,7 +9487,7 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="7">
         <v>2022</v>
@@ -9426,7 +9511,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="7">
         <v>2024</v>
@@ -9439,7 +9524,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="7">
         <v>2024</v>
@@ -9452,7 +9537,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="7">
         <v>2014</v>
@@ -9465,7 +9550,7 @@
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="7">
         <v>2019</v>
@@ -9478,7 +9563,7 @@
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="9">
         <v>2024</v>
@@ -9491,7 +9576,7 @@
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="7">
         <v>2022</v>
@@ -9504,7 +9589,7 @@
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="9">
         <v>2025</v>
@@ -9517,7 +9602,7 @@
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="7">
         <v>2016</v>
@@ -9530,7 +9615,7 @@
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="7">
         <v>2024</v>
@@ -9543,7 +9628,7 @@
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B23" s="9">
         <v>2021</v>
@@ -9556,7 +9641,7 @@
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24" s="7">
         <v>2018</v>
@@ -9564,40 +9649,40 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="7">
         <v>2015</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E25" s="10">
         <f>SUM(E2:E13)</f>
@@ -9634,7 +9719,7 @@
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="7">
         <v>2023</v>
@@ -9647,7 +9732,7 @@
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B27" s="9">
         <v>2024</v>
@@ -9660,7 +9745,7 @@
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" s="7">
         <v>2015</v>
@@ -9673,7 +9758,7 @@
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="7">
         <v>2020</v>
@@ -9686,7 +9771,7 @@
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" s="7">
         <v>2018</v>
@@ -9699,7 +9784,7 @@
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="7">
         <v>2019</v>
@@ -9712,7 +9797,7 @@
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="7">
         <v>2015</v>
@@ -9725,7 +9810,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="7">
         <v>2017</v>
@@ -9738,7 +9823,7 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="9">
         <v>2020</v>
@@ -9751,7 +9836,7 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="7">
         <v>2024</v>
@@ -9764,7 +9849,7 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="7">
         <v>2015</v>
@@ -9777,7 +9862,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="7">
         <v>2024</v>
@@ -9790,7 +9875,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="7">
         <v>2017</v>
@@ -9803,7 +9888,7 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="9">
         <v>2024</v>
@@ -9816,7 +9901,7 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="7">
         <v>2017</v>
@@ -9829,7 +9914,7 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="7">
         <v>2016</v>
@@ -9842,7 +9927,7 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="7">
         <v>2021</v>
@@ -9855,7 +9940,7 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="7">
         <v>2023</v>
@@ -9868,7 +9953,7 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" s="9">
         <v>2024</v>
@@ -9881,7 +9966,7 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="7">
         <v>2024</v>
@@ -9894,7 +9979,7 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="7">
         <v>2018</v>
@@ -9907,7 +9992,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B47" s="9">
         <v>2021</v>
@@ -9920,7 +10005,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B48" s="7">
         <v>2021</v>
@@ -9933,7 +10018,7 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="9">
         <v>2017</v>
@@ -9946,7 +10031,7 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B50" s="7">
         <v>2023</v>
@@ -9959,7 +10044,7 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B51" s="9">
         <v>2018</v>
@@ -9972,7 +10057,7 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="7">
         <v>2023</v>
@@ -9985,7 +10070,7 @@
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="9">
         <v>2024</v>
@@ -9998,7 +10083,7 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B54" s="7">
         <v>2016</v>
@@ -10011,7 +10096,7 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B55" s="7">
         <v>2021</v>
@@ -10024,7 +10109,7 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" s="7">
         <v>2025</v>
@@ -10037,7 +10122,7 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="7">
         <v>2016</v>
@@ -10050,7 +10135,7 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="7">
         <v>2016</v>
@@ -10063,7 +10148,7 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="7">
         <v>2025</v>
@@ -10076,7 +10161,7 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" s="9">
         <v>2024</v>
@@ -10089,7 +10174,7 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61" s="7">
         <v>2021</v>
@@ -10102,7 +10187,7 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B62" s="7">
         <v>2024</v>
@@ -10115,7 +10200,7 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B63" s="7">
         <v>2024</v>
@@ -10137,7 +10222,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10149,10 +10234,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10160,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="10">
         <v>109</v>
@@ -10175,7 +10260,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C3" s="10">
         <v>149</v>
@@ -10190,7 +10275,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C4" s="10">
         <v>88</v>
@@ -10208,14 +10293,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" s="10">
         <v>113</v>
       </c>
+      <c r="D5" s="10">
+        <v>49</v>
+      </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -10223,14 +10311,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="10">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="D6" s="10">
+        <v>22</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -10238,7 +10329,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G7" s="10">
         <v>1200</v>
@@ -10249,7 +10340,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G8" s="10">
         <v>500</v>
@@ -10257,11 +10348,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="10">
         <f>SUM(G2:G8)</f>
-        <v>2438</v>
+        <v>2519</v>
       </c>
     </row>
   </sheetData>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D8C913-1FA4-7E4D-9157-392FBE7CCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FA230-F013-E646-A58D-5A46B77E63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="558">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1966,6 +1966,21 @@
   </si>
   <si>
     <t>Liang</t>
+  </si>
+  <si>
+    <t>Utilising data of roll-call votes and bill sponsorships, and floor speeches in the US House related to the Trade Adjustment Assistance (TAA) over the past two decades (1990-2007), Kim and Pelc (2021) examine the attributes of partisanships regarding TAA.  They analyse district-level data focusing on commuting zones (CZs), encompassing over 36,000 partitions and 3 million jobs.</t>
+  </si>
+  <si>
+    <t>Kim and Pelc (2021) provide empirical evidence that the high levels of trade are reflective of the declining US employment resulting from the China shock.</t>
+  </si>
+  <si>
+    <t>Kim and Pelc (2021) note that the US government has the responsibility to ensure trade compensation effectively reaches the employment positions affected by trade policy implications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim and Pelc (2021) argue that districts dominated by Republican tend to less favourable toward the Trade Adjustment Assistance (TAA).  However, TAA compensation rates within individual districts significantly influence Republican attitudes. Notably, they emphasise that labour unions generally oppose trade liberalisation </t>
+  </si>
+  <si>
+    <t>Kim and Pelc (2021) reveal that partisan politics drive the levels of trade compensation provided to workers through the Trade Adjustment Assistance (TAA) across various commuting zones (CZ) with similar exposure to the China shock.</t>
   </si>
 </sst>
 </file>
@@ -4970,10 +4985,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8212,7 +8227,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -8244,12 +8259,21 @@
       <c r="J49" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
+      <c r="K49" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>557</v>
+      </c>
       <c r="Q49" s="13" t="s">
         <v>45</v>
       </c>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FA230-F013-E646-A58D-5A46B77E63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D1569-5D94-0A44-8C60-51625B272C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="562">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1981,6 +1981,18 @@
   </si>
   <si>
     <t>Kim and Pelc (2021) reveal that partisan politics drive the levels of trade compensation provided to workers through the Trade Adjustment Assistance (TAA) across various commuting zones (CZ) with similar exposure to the China shock.</t>
+  </si>
+  <si>
+    <t>Utilising data from the County Business Pattern (CBP) and International Trade Statistics (ITS) from the US Census over an eight-year period (2000-2007), Liang (2017) quantifies the trade shock as the change in imports per worker.  This analysis focuses on county-level data and China’s imports, particularly in urban areas that account for approximately 80% of the US population.</t>
+  </si>
+  <si>
+    <t>Despite the negative impacts associated with the China shock, Liang (2017) suggests that economic restructuring has been underway as result of imports competition from China.  Entrepreneurs tend to be more resilient in the context of adverse effects (Boschma, 2015; Liang and Goetz, 2016),  The author emphasises that positive outcomes include branching of existing industries, resource reallocation, and increased industry entries (Boschma, 2015).</t>
+  </si>
+  <si>
+    <t>Liang (2017) highlights that trade policies could be enhanced to foster the incubation of technological ventures.</t>
+  </si>
+  <si>
+    <t>Notably, Liang (2017) observed that labour-intensive sectors, including clothing, footwear, leather accessories, furniture, and toys, have been significantly negatively by competition from China’s imports.  Districts with greater exposure to low-skilled, labour-intensive competition have suffered the most.</t>
   </si>
 </sst>
 </file>
@@ -4985,10 +4997,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomRight" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8296,7 +8308,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -8328,11 +8340,19 @@
       <c r="J50" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="14" t="s">
+        <v>558</v>
+      </c>
       <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
+      <c r="M50" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>561</v>
+      </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D1569-5D94-0A44-8C60-51625B272C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D1769-F11D-A942-A6F7-285AF3A7324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="572">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1993,6 +1993,36 @@
   </si>
   <si>
     <t>Notably, Liang (2017) observed that labour-intensive sectors, including clothing, footwear, leather accessories, furniture, and toys, have been significantly negatively by competition from China’s imports.  Districts with greater exposure to low-skilled, labour-intensive competition have suffered the most.</t>
+  </si>
+  <si>
+    <t>Utilising a variety of data sources—including firm-level financing data from the China Stock Market and Accounting Research (CSMAR) covering the past two-year (2017-2018), tariff recommendations from the Office of the US Trade Representative (USTR) in March 2018, data on China’s exports to the US from China Customs, and information on corporate social responsibility (CSR) from annual reports—Lu and Zhou analyse the impacts of the trade war on publicly listed companies in China.  Their study encompasses over 2,000 firms and examines changes in firm value by constructing a novel methodology for measuring spatial proximity between event spaces and organisations.</t>
+  </si>
+  <si>
+    <t>In light of the unexpected political implications faced by Chinese companies, Lu and Zhou (2023) observe that the implications magnitude of the trade war’s effects has similarly impacted firms with spatial proximity.  This is particularly evident as US tariffs have been imposed across various industries engaged in similar exporting activities.</t>
+  </si>
+  <si>
+    <t>Utilising county-level circulation data from local daily newspapers over a 15-year period (1998-2012), along with newspaper content data from Newslibrary and Factiva, which covers 147 newspapers, Lu et al. (2018) analyse the frequency of media slants to assess partisan bias towards China as reflected in newspaper reporting, referencing the political literature (Larcinese et al., 2011; Puglisi and Snyder, 2011).  Employing an instrumental variable (IV) approach, as utilised by Autor et al. (2013), the authors examine the growth of Chinese imports in the US and eight other developed countries to address potential endogeneity, applying a difference-in-differences (DiD) methodology.</t>
+  </si>
+  <si>
+    <t>Lu et al. (2018) emphasise that following China’s accession to the World Trade Organisation (WTO), the “China shock” has negatively impacted the globalisation, leading to increased “China-bashing” which corelates with a surge in unemployment and mortality in the US (Autor et al. 2013).</t>
+  </si>
+  <si>
+    <t>Referring to their anecdotal evidence of “China-bashing”, Lu et al. (2018) highlight that the decline of US manufacturing employment is associated with the increased media slants against China.</t>
+  </si>
+  <si>
+    <t>Consistent with political literature (Larcinese et al. 2011), Lu et al. (2018) observe that newspapers are increasingly to report non-trade related slants on China.</t>
+  </si>
+  <si>
+    <t>In the context of intertwined US-China relationship (Farrell et al., 2020), and the rise of techno-nationalism exemplified by the Biden administration’s Creating Helpful Incentives to Produce Semiconductors (CHIPS) and Science Act 2022, Luo and Van Assche (2023) analyse the international business (IB) strategies that multinational enterprises (MNEs) should adopt to navigate the uncertainties stemming from the US-China decoupling.</t>
+  </si>
+  <si>
+    <t>Luo and Van Assche (2023) suggest that multinational enterprises (MNEs) can mitigate cost risks by strengthening their regionalisation strategies amid the US-China trade wars and rising protectionism (Van Assche and Gangnes, 2019).</t>
+  </si>
+  <si>
+    <t>In light of the US losing its competitive edge in high-tech sectors, Luo and Van Assche (2023) argue that the Creating Helpful Incentives to Produce Semiconductors (CHIPS) and Science Act 2022, while aimed at supporting high-technology industries, along with the increase in US tariffs, undermines the goal of liberalisation by weaponizing global value chains (GVCs) and distorting industrial policies.</t>
+  </si>
+  <si>
+    <t>Luo and Van Assche (2023) provide strategies recommendations for multinational enterprises (MNEs) in response to the implications of techno-geopolitical uncertainty (TGU).</t>
   </si>
 </sst>
 </file>
@@ -4997,10 +5027,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8378,7 +8408,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -8410,8 +8440,12 @@
       <c r="J51" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
+      <c r="K51" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
@@ -8436,7 +8470,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>50</v>
       </c>
@@ -8468,12 +8502,20 @@
       <c r="J52" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="K52" s="14"/>
+      <c r="K52" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
+      <c r="M52" s="14" t="s">
+        <v>565</v>
+      </c>
       <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
+      <c r="O52" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>567</v>
+      </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
       <c r="S52" s="14" t="s">
@@ -8494,7 +8536,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>51</v>
       </c>
@@ -8526,12 +8568,20 @@
       <c r="J53" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
+      <c r="K53" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>569</v>
+      </c>
       <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
+      <c r="N53" s="14" t="s">
+        <v>570</v>
+      </c>
       <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
+      <c r="P53" s="14" t="s">
+        <v>571</v>
+      </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D1769-F11D-A942-A6F7-285AF3A7324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB306E9A-D063-AB48-8543-4ABE0AF00FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="3900" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="577">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2023,6 +2023,21 @@
   </si>
   <si>
     <t>Luo and Van Assche (2023) provide strategies recommendations for multinational enterprises (MNEs) in response to the implications of techno-geopolitical uncertainty (TGU).</t>
+  </si>
+  <si>
+    <t>Utilising three independent national surveys conducted in 2018—(1) CBS News from June 14 to 17, (2) Kaiser Family Foundation’s (KFF) poll from June 11 to 20, and (3) Gallup’s daily survey from June 11 to 17—Mansfield and Solodoch (2024) analyse public reactions to the economic uncertainty arising from China’s retaliatory tariffs in response to Trump’s trade policies.</t>
+  </si>
+  <si>
+    <t>In light of the escalation of the trade war due to China’s immediate retaliatory tariffs, Mansfield and Solodoch (2024) emphasise that a majority of voters hold Trump and his administration accountable for their perceived failures.  The decline in the stock market reflects public discontent with these trade policy implications.</t>
+  </si>
+  <si>
+    <t>Mansfield and Solodoch (2024) emphasise that trade protectionism often benefits low-skilled workers at the expense of high-skilled workers in the US, where land is relatively abundant (Stolper and Samuelson, 1941).  Their findings, however, may not align with the traditional observations of the Stopler-Samuleson theorem.</t>
+  </si>
+  <si>
+    <t>Mansfield and Solodoch (2024) notably observe that districts with high exposure to the China shock tend to experience significant impacts on electoral outcomes.</t>
+  </si>
+  <si>
+    <t>Mansfield and Solodoch (2024) note that the implications of protectionist trade policies have led to a measurable reduction in incumbent support for Trump’s administration.</t>
   </si>
 </sst>
 </file>
@@ -5027,10 +5042,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8602,7 +8617,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>52</v>
       </c>
@@ -8634,11 +8649,21 @@
       <c r="J54" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
+      <c r="K54" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>574</v>
+      </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB306E9A-D063-AB48-8543-4ABE0AF00FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29069976-6F12-6F4F-B9E3-AEE631FD7159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="581">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2038,6 +2038,18 @@
   </si>
   <si>
     <t>Mansfield and Solodoch (2024) note that the implications of protectionist trade policies have led to a measurable reduction in incumbent support for Trump’s administration.</t>
+  </si>
+  <si>
+    <t>Utilising various data from multiple data sources, including plant-level data from the US Occupational Safety and Health Administrative (OSHA) Data Initiate (ODI) over a ten-year period (1996-2007), and trade data from dual sources—yearly imports based on the dataset by Autor et al. (2013) and product-level import data from UN Comtrade—McManus and Schaur (2016) leverage occupational health data to examine the impacts of competition from Chinese imports on US manufacturing employment.</t>
+  </si>
+  <si>
+    <t>McManus and Schaur (2016) highlight that firms increasingly compromise their workers’ occupational safety due to heightened import competition, which negatively impacts labours welfare.</t>
+  </si>
+  <si>
+    <t>In the context of the China shock following China’s accession to the World Trade Organisation (WTO), McManus and Schaur (2016) estimate that between 62,000 and 90,000 cases of injuries and illnesses from 2001 to 2007 are associated with this shock.</t>
+  </si>
+  <si>
+    <t>Drawing on empirical evidence, McManus and Schaur (2016) observe that the injury rates among US workers have been significantly affected by the implications of trade policy.</t>
   </si>
 </sst>
 </file>
@@ -5042,10 +5054,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8687,7 +8699,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -8719,11 +8731,19 @@
       <c r="J55" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
+      <c r="M55" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>578</v>
+      </c>
       <c r="P55" s="14"/>
       <c r="Q55" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29069976-6F12-6F4F-B9E3-AEE631FD7159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA4953-8F5D-B148-992E-4D9CB0B5938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="592">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2050,6 +2050,39 @@
   </si>
   <si>
     <t>Drawing on empirical evidence, McManus and Schaur (2016) observe that the injury rates among US workers have been significantly affected by the implications of trade policy.</t>
+  </si>
+  <si>
+    <t>Utilising datasets from various disciplinaries—Including population, demographic, income, GDP, trade balance, foreign investment, consumption, and labour—this analysis examines the relationship between demographic aging, social welfare and trade imbalance between the US and China over the past three decades (1985-2015).  Data sources include the World Development Indicators (WDI) from the World Bank, the International Monetary Fund (IMF), UN World Population Prospects, and the Penn World Tables of National Bureau of Economic Research (NBER).   Niemeläinen (2021) employs these datasets in life-cycle and overlapping generations (OLG) models to explore these relationships.</t>
+  </si>
+  <si>
+    <t>Through a compositional analysis of the trade balance of both the US and China, Niemeläinen (2021) highlights that fluctuations in the total factor productivity (TFP) growth rate have contributed to the volatility in the US trade balance.</t>
+  </si>
+  <si>
+    <t>Niemeläinen (2021) emphasises that China’s rapid demographic transition, coupled with a lack of reform in social welfare, has significantly contributed to its trade surplus with the US.</t>
+  </si>
+  <si>
+    <t>This study consolidates various datasets related to the US, including the US imports, exports, and tariff data  from NBER (Feenstra et al., 2002) for the years 1989 to 2001, manufacturing employment data from the Longitudinal Business Database (LBD) of the US Census (Jarmin and Miranda, 2002), textile-related data (Khandelwal et al, 2013), technological advancements from the US Census, and industry-level unionisation data (Hirsch and MacPherson, 2003).  Additionally, it incorporates datasets from China, including import tariffs (Brandt et al., 2017), export licensing data (Bai et al., 2017), production subsidies from the China National Bureau of Statistics, and intermediate goods (Nunn, 2007), Pierce and Schott (2016) investigate the relationships between the decline in the US manufacturing employment and implications of US trade policy post-2000.</t>
+  </si>
+  <si>
+    <t>While the EU has not experienced significant job losses, the US has faced substantial employment decline due to competition from Chinese imports.  Pierce and Schott (2016) argue that “China shock” has negatively affected US price and consumption patterns, forcing manufacturers to reallocate resources to less labour-intensive facilities.</t>
+  </si>
+  <si>
+    <t>In the context of China’s accession to the World Trade Organisation (WTO) in 2000, Pierce and Schott (2016) emphasise that the US granted China with Permanent Normal Trade Relation (PNTR) status, equivalent to Most Favored Nation (MFN) status.  The authors contend that the anticipated liberalisation has not materialised, citing ongoing import tariffs, export licensing, production subsidies, and barriers to foreign direct investment (Brandt et al., 2017; 2019; Bai et al., 2017).</t>
+  </si>
+  <si>
+    <t>Over the past 35 years (1965-2000), approximately 18 million manufacturing jobs were created in the US.  However, Pierce and Schott (2016) highlight that over 3.2 million positions (about 18%) were lost following the granting of Permanent Normal Trade Relation (PNTR) status to China after 2000.  While offshoring has become common in both the US and EU, the US manufacturing sector has suffered from trade policy implications, whereas the EU did not experience similar job losses due to import competition.</t>
+  </si>
+  <si>
+    <t>Utilising a computable general equilibrium (CGE) model, Osman and El-Gendy (2025) employ datasets from the Global Trade Analysis Project (GTAP; Aguair et al. 2019) to explore the cascading impacts of cybersecurity threats related to disruptions from artificial intelligence (AI).</t>
+  </si>
+  <si>
+    <t>Through their simulation model, Osman and El‐Gendy (2025) emphasise that the bilaterial trades between the US and China could be disrupted by over 20% in a worst-case scenario.  This disruption is equivalent to a 10% increase in ad valorem tariffs, a 6% rise in production costs, and a 20% decline in total factor productivity (TFP), with the US exhibiting greater resilient than China.</t>
+  </si>
+  <si>
+    <t>Osman and El‐Gendy (2025) underscore that the “China shock” has benefited from advancements in digitalisation and supply chain technology.</t>
+  </si>
+  <si>
+    <t>Any cyberattacks could potentially disrupt global supply chains, leading to disputes in international trade and affecting the global economies, Osman and El-Gendy (2025) highlight that the importance of strengthening cybersecurity resilience while fostering trade liberalisation.</t>
   </si>
 </sst>
 </file>
@@ -5054,10 +5087,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N56" sqref="N56"/>
+      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8769,7 +8802,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>54</v>
       </c>
@@ -8801,12 +8834,18 @@
       <c r="J56" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="14" t="s">
+        <v>581</v>
+      </c>
       <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
+      <c r="M56" s="14" t="s">
+        <v>582</v>
+      </c>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+      <c r="P56" s="14" t="s">
+        <v>583</v>
+      </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
@@ -8859,12 +8898,19 @@
       <c r="J57" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="K57" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>590</v>
+      </c>
       <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="P57" s="14" t="s">
+        <v>591</v>
+      </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -8885,7 +8931,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>56</v>
       </c>
@@ -8917,11 +8963,19 @@
       <c r="J58" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="K58" s="14"/>
+      <c r="K58" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
+      <c r="M58" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>587</v>
+      </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="13" t="s">
         <v>45</v>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA4953-8F5D-B148-992E-4D9CB0B5938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D183E9DF-B2B2-5F42-A5C8-99731A497910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="595">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2083,6 +2083,15 @@
   </si>
   <si>
     <t>Any cyberattacks could potentially disrupt global supply chains, leading to disputes in international trade and affecting the global economies, Osman and El-Gendy (2025) highlight that the importance of strengthening cybersecurity resilience while fostering trade liberalisation.</t>
+  </si>
+  <si>
+    <t>Utilising various datasets from multidiscipline over the past two decades (1989-2012), including China imports from the US Census (Schott, 2008), firm-level annual financing data from Compustat, and bank loan data from DealScan of the Loan Pricing Corporation (LPC) (Chava and Roberts, 1989), Rahaman (2016) conducts a quasi-natural experiment to examine how competition from Chinese imports influences loan financing contracts in the US manufacturing sectors.</t>
+  </si>
+  <si>
+    <t>Rahaman (2016) observes that US manufacturers increasingly access bank financing in response to competition from China, resulting in more favourable terms, such as higher amounts, longer maturities, and lower spreads.  Through his quasi-natural experiment, he emphasises that the “China shock” has adversely affected the financing capabilities manufacturing sectors due to a loss of competitive advantages.</t>
+  </si>
+  <si>
+    <t>Rahaman (2016) suggests that financing patterns are not favourable to US manufacturers.  Bank creditors tend to mitigate their risks by shifting their financing focus from relatively high-risk sectors to low-risk sectors, such as moving from low-skilled, labour-intensive manufacturing to high-tech, capital-intensive industries.</t>
   </si>
 </sst>
 </file>
@@ -5087,10 +5096,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
+      <selection pane="bottomRight" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9001,7 +9010,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>57</v>
       </c>
@@ -9033,11 +9042,17 @@
       <c r="J59" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="14" t="s">
+        <v>592</v>
+      </c>
       <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
+      <c r="M59" s="14" t="s">
+        <v>593</v>
+      </c>
       <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
+      <c r="O59" s="14" t="s">
+        <v>594</v>
+      </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D183E9DF-B2B2-5F42-A5C8-99731A497910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83631202-382B-9A48-AE53-8F1A2C283882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="605">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1368,10 +1368,6 @@
 China</t>
   </si>
   <si>
-    <t>Quasi-Experiment / Natural Experiment and Diff-in-Diff
-Panel Data Models</t>
-  </si>
-  <si>
     <t>Import competition
 role of marketing
 quasi-experiment
@@ -1485,9 +1481,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Zeng and Kim (2024) utilise the Moody's databases of Orbis Crossborder Investment and Orbis Company.</t>
-  </si>
-  <si>
     <t>Zeng and Kim (2024) concluded that the data indicated Chinese firms, rather than state-owned enterprises (SOEs), dramatically increased their greenfield foreign direct investments (FDI) in the U.S. following the outbreak of the U.S.-China trade war in 2018.  SOEs were the most adversely affected.  Additionally, there is no evidence that any firms increased their investments in countries participating in the Belt and Road Initiative (BRI)).</t>
   </si>
   <si>
@@ -1497,9 +1490,6 @@
     <t>Other Theme</t>
   </si>
   <si>
-    <t>Invaluable insights can be gained from the busienss activities between the PRC and its politically aligned countries in Latin America, from Cuba to Chile, during the Mao, as discussed by Ren (2024).</t>
-  </si>
-  <si>
     <t>Citation</t>
   </si>
   <si>
@@ -1551,9 +1541,6 @@
     <t>Through a comprehensive literature review of the trade relationship between the US and China over the past six decades—from embargo to normalisation—Alessandra et al. (2025) conducted an empirical study with three components, analysing US imports from 1974 to 2007 to explore trade policy uncertainty.</t>
   </si>
   <si>
-    <t>Drawing the inspiration of the archives of foreign affairs of the PRC, Ren (2024) explored the nuanced its business history between the PRC and Latin America during the early decades of New China.</t>
-  </si>
-  <si>
     <t>Amiti et al. (2020) utilised firm-level export data from China to the US covering the years 2000 to 2006 to investigate the relationship between China’s export growth and trade normalisation, specifically the attainment of Permanent Normal Trade Relation (PNTR) status.  To measure the impacts of new product varieties, the authors employed Feenstra’s (1996) model of Constant Elasticity of Substitution (CES).</t>
   </si>
   <si>
@@ -2092,6 +2079,48 @@
   </si>
   <si>
     <t>Rahaman (2016) suggests that financing patterns are not favourable to US manufacturers.  Bank creditors tend to mitigate their risks by shifting their financing focus from relatively high-risk sectors to low-risk sectors, such as moving from low-skilled, labour-intensive manufacturing to high-tech, capital-intensive industries.</t>
+  </si>
+  <si>
+    <t>Utilising the Moody’s databases of Orbis Crossborder Investment and Orbis Company, Zeng and Kim (2024) investigate how Chinese firms are striving to survive in response to intensifying US-China trade war.</t>
+  </si>
+  <si>
+    <t>Utilising various datasets--including the Activity of Multinational Enterprises (AMNE) from OECD, firm-level export data from Chinese Customs Records (CCR), the Annual Survey of Chinese Manufacturing (ASCM) from the Chinese National Bureau of Statistics, and firm-level sales data from the Foreign-Invested Enterprise Survey in China (FIESC)—Wang (2021) employs these data into a general equilibrium model (Arkolakis et al., 2018) to examine how the headquarters gravity (HG; Head and Mayerx, 2019) in multinational production (MP) influences firms’ strategies in response to the US-China trade war.</t>
+  </si>
+  <si>
+    <t>Wang (2021) highlights that the US-China trade war has negatively impacted US imports due to elevated import tariffs.  Conversely, the trade war has a two-fold effect on China: Chinese firms are specialising in production as a result of multinational production (MP) and are investing more in innovation driven by headquarters gravity (HG).</t>
+  </si>
+  <si>
+    <t>Wang (2021) emphasises that the implications of trade policy have negatively impacted US multinational enterprises, even as their affiliates often hold a greater share of exports than firms from host countries.</t>
+  </si>
+  <si>
+    <t>Utilising 15 excerpts of various sources for qualitative analysis—including interviews, written excerpts, discussion threads and case studies from books, publications, and social media—along with firm-level data for quantitative analysis, such as marketing data from Execucomp of Compustat, descriptive statistics from US Securities and Exchange Commission (SEC) company filings (Hoberg and Phillips, 2016), financial data from Compustat, customer relationship data from Compustat (Saboo et al., 2017), and US economic policy uncertainty from Baker et al. (2016), Ramani (2025) examines how marketing strategies respond to competition from Chinese imports over the past 15 years (1992-2007).</t>
+  </si>
+  <si>
+    <t>Notably, the world is not yet prepared for another “China shock” (Douglas and Sebastian, 2024), Ramani (2025) emphasises that US manufacturing has suffered from the initial “China shock” over the past two decades following China’s accession to the WTO (Autor, 2018).  The revenue from Chinese imports grew from USD 18 billion in 1991 to USD 536 billion in 2022, with its market share increasing from about 8% to over 16%.</t>
+  </si>
+  <si>
+    <t>Through empirical evidence, Ramani (2025) suggests that US employment has declined as import competition has negatively impacted revenue growth in the manufacturing sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramani (2025) explores how marketing teams can counter import competition by focusing on three key aspects: upper echelons, capabilities, and resources. </t>
+  </si>
+  <si>
+    <t>Drawing on the archives of foreign affairs of the People’s Republic of China (PRC), Ren (2024) explores the nuanced business history between the PRC and Latin America during the early decades of New China.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ren (2024) discusses invaluable insights gained from the business activities between the PRC and its politically aligned countries in Latin America, from Cuba to Chile, during the Mao era. </t>
+  </si>
+  <si>
+    <t>By developing a theoretical model, Wu et al. (2024) investigate the factors influencing multinational firms (MNFs) in establishing new contract manufacturers (CMs) to mitigate risks associated with trade policy implications during the US-China trade war.</t>
+  </si>
+  <si>
+    <t>Wu et al. (2024) emphasise that several determinants influence multinational firms (MNFs) in developing new contract manufacturers (CMs).  They argue that establishing new CMs should be viewed as a contingent measure, indicating that import tariffs may not be the sole consideration.</t>
+  </si>
+  <si>
+    <t>Given the significant impact of the “China shock” on global supply chains, Wu et al. (2024) suggest that multinational firms (MFNs) should consider a wide range of factors—rather than a singular approach—when developing new contract manufacturers (CMs) outside their incumbent host countries.</t>
+  </si>
+  <si>
+    <t>Wu et al. (2024) note that while developing new contract manufacturers (CMs) in the same host country may lower production costs, it does not address the implications of high tariffs.  To effectively manage these challenges, multinational firms (MNFs) may need to reshore their production lines in other countries.</t>
   </si>
 </sst>
 </file>
@@ -5096,10 +5125,10 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O60" sqref="O60"/>
+      <selection pane="bottomRight" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5122,13 +5151,13 @@
   <sheetData>
     <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>164</v>
@@ -5155,19 +5184,19 @@
         <v>167</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>45</v>
@@ -5307,15 +5336,15 @@
         <v>252</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="13" t="s">
@@ -5373,17 +5402,17 @@
         <v>253</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>376</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>377</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="13" t="s">
@@ -5443,13 +5472,13 @@
         <v>250</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="13" t="s">
@@ -5507,16 +5536,16 @@
         <v>248</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -5573,14 +5602,14 @@
         <v>255</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -5637,17 +5666,17 @@
         <v>256</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5703,18 +5732,18 @@
         <v>259</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>45</v>
@@ -5769,18 +5798,18 @@
         <v>261</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>45</v>
@@ -5839,15 +5868,15 @@
         <v>260</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="13" t="s">
@@ -5907,18 +5936,18 @@
         <v>264</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -5973,14 +6002,14 @@
         <v>267</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -6039,14 +6068,14 @@
         <v>236</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -6105,16 +6134,16 @@
         <v>268</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -6169,16 +6198,16 @@
         <v>270</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>45</v>
@@ -6233,17 +6262,17 @@
         <v>273</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6271,7 +6300,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6299,20 +6328,20 @@
         <v>274</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -6367,20 +6396,20 @@
         <v>277</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -6435,14 +6464,14 @@
         <v>281</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -6499,20 +6528,20 @@
         <v>279</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
@@ -6569,18 +6598,18 @@
         <v>284</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q22" s="13" t="s">
         <v>45</v>
@@ -6641,14 +6670,14 @@
         <v>286</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
@@ -6705,12 +6734,12 @@
         <v>288</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -6767,14 +6796,14 @@
         <v>290</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>45</v>
@@ -6835,16 +6864,16 @@
         <v>293</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>45</v>
@@ -6903,14 +6932,14 @@
         <v>243</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
@@ -6965,12 +6994,12 @@
         <v>297</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -7027,14 +7056,14 @@
         <v>235</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>45</v>
@@ -7091,12 +7120,12 @@
         <v>298</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -7153,16 +7182,16 @@
         <v>240</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="13" t="s">
         <v>45</v>
@@ -7221,17 +7250,17 @@
         <v>301</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -7289,13 +7318,13 @@
         <v>304</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -7353,17 +7382,17 @@
         <v>305</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="13" t="s">
@@ -7423,17 +7452,17 @@
         <v>307</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="13" t="s">
@@ -7493,19 +7522,19 @@
         <v>309</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
@@ -7563,17 +7592,17 @@
         <v>311</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="13" t="s">
@@ -7633,15 +7662,15 @@
         <v>314</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -7697,14 +7726,14 @@
         <v>316</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
@@ -7759,17 +7788,17 @@
         <v>317</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M40" s="14"/>
       <c r="N40" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="13" t="s">
@@ -7829,17 +7858,17 @@
         <v>319</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -7869,7 +7898,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
@@ -7897,14 +7926,14 @@
         <v>321</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q42" s="13" t="s">
         <v>45</v>
@@ -7961,17 +7990,17 @@
         <v>324</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="13" t="s">
@@ -8031,14 +8060,14 @@
         <v>326</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="14" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -8097,14 +8126,14 @@
         <v>327</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -8163,20 +8192,20 @@
         <v>328</v>
       </c>
       <c r="K46" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="N46" s="14" t="s">
         <v>535</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>539</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q46" s="13" t="s">
         <v>45</v>
@@ -8207,7 +8236,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
@@ -8235,16 +8264,16 @@
         <v>331</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="14" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q47" s="13" t="s">
         <v>45</v>
@@ -8301,22 +8330,22 @@
         <v>333</v>
       </c>
       <c r="K48" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="P48" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>551</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
@@ -8371,19 +8400,19 @@
         <v>335</v>
       </c>
       <c r="K49" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="P49" s="14" t="s">
         <v>553</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>557</v>
       </c>
       <c r="Q49" s="13" t="s">
         <v>45</v>
@@ -8412,7 +8441,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
@@ -8440,17 +8469,17 @@
         <v>338</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="14" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="13" t="s">
@@ -8510,10 +8539,10 @@
         <v>340</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
@@ -8572,18 +8601,18 @@
         <v>343</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N52" s="14"/>
       <c r="O52" s="14" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -8638,18 +8667,18 @@
         <v>345</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="14" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -8704,19 +8733,19 @@
         <v>347</v>
       </c>
       <c r="K54" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="N54" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="L54" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>576</v>
-      </c>
       <c r="O54" s="14" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
@@ -8774,17 +8803,17 @@
         <v>348</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P55" s="14"/>
       <c r="Q55" s="13" t="s">
@@ -8844,16 +8873,16 @@
         <v>351</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
@@ -8908,17 +8937,17 @@
         <v>354</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
@@ -8973,17 +9002,17 @@
         <v>356</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="14" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N58" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="13" t="s">
@@ -9043,15 +9072,15 @@
         <v>358</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N59" s="14"/>
       <c r="O59" s="14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
@@ -9076,7 +9105,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>58</v>
       </c>
@@ -9106,16 +9135,22 @@
         <v>192</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>359</v>
+        <v>595</v>
       </c>
       <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
+      <c r="M60" s="14" t="s">
+        <v>596</v>
+      </c>
       <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
+      <c r="O60" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>598</v>
+      </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="13" t="s">
         <v>84</v>
@@ -9166,17 +9201,17 @@
         <v>173</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>414</v>
+        <v>599</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14" t="s">
-        <v>396</v>
+        <v>600</v>
       </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
@@ -9198,7 +9233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="17" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>60</v>
       </c>
@@ -9228,12 +9263,18 @@
         <v>194</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
+        <v>364</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>593</v>
+      </c>
       <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="N62" s="14" t="s">
+        <v>594</v>
+      </c>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
@@ -9255,7 +9296,7 @@
         <v>4</v>
       </c>
       <c r="Y62" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
@@ -9288,12 +9329,20 @@
         <v>217</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+        <v>365</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>604</v>
+      </c>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
@@ -9313,7 +9362,7 @@
         <v>4</v>
       </c>
       <c r="Y63" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -9346,20 +9395,20 @@
         <v>175</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>392</v>
+        <v>591</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N64" s="14"/>
       <c r="O64" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P64" s="14"/>
       <c r="Q64" s="13" t="s">
@@ -9383,7 +9432,7 @@
         <v>40</v>
       </c>
       <c r="Y64" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -9417,16 +9466,16 @@
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>369</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>233</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -9857,7 +9906,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>233</v>
@@ -9872,13 +9921,13 @@
         <v>287</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>295</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -9890,7 +9939,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E25" s="10">
         <f>SUM(E2:E13)</f>
@@ -10200,7 +10249,7 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B47" s="9">
         <v>2021</v>
@@ -10213,7 +10262,7 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B48" s="7">
         <v>2021</v>
@@ -10442,10 +10491,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10453,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C2" s="10">
         <v>109</v>
@@ -10468,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="10">
         <v>149</v>
@@ -10483,7 +10532,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" s="10">
         <v>88</v>
@@ -10501,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="10">
         <v>113</v>
@@ -10519,7 +10568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" s="10">
         <v>60</v>
@@ -10537,7 +10586,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G7" s="10">
         <v>1200</v>
@@ -10548,7 +10597,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="10">
         <v>500</v>
@@ -10556,7 +10605,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G9" s="10">
         <f>SUM(G2:G8)</f>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83631202-382B-9A48-AE53-8F1A2C283882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B202CB1-FEB8-B947-9A0F-EDCC4021E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="9740" windowWidth="42460" windowHeight="20560" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="1420" yWindow="1980" windowWidth="45920" windowHeight="29620" activeTab="1" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$U$64</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">chart!$M$2:$M$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">chart!$O$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">chart!$O$2:$O$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">chart!$P$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">chart!$P$2:$P$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="614">
   <si>
     <t>Journal Title</t>
   </si>
@@ -1247,9 +1252,6 @@
 Interests</t>
   </si>
   <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>Take-Up
 US
 Legislators
@@ -2121,6 +2123,36 @@
   </si>
   <si>
     <t>Wu et al. (2024) note that while developing new contract manufacturers (CMs) in the same host country may lower production costs, it does not address the implications of high tariffs.  To effectively manage these challenges, multinational firms (MNFs) may need to reshore their production lines in other countries.</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Trade War</t>
+  </si>
+  <si>
+    <t>China Shock</t>
+  </si>
+  <si>
+    <t>Trade Policy</t>
+  </si>
+  <si>
+    <t>Labour</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2674,6 +2706,7 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2754,15 +2787,15 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart!$F$1</c:f>
+              <c:f>chart!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>US</c:v>
+                  <c:v>T1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2781,7 +2814,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>chart!$D$2:$D$13</c:f>
+              <c:f>chart!$M$2:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2826,7 +2859,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$F$2:$F$13</c:f>
+              <c:f>chart!$Q$2:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2834,57 +2867,179 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B070-AB4A-8C74-04B8B515A3F9}"/>
+              <c16:uniqueId val="{00000000-EE0D-DC4A-9A7D-C6FC4BEA55DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart!$G$1</c:f>
+              <c:f>chart!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Others</c:v>
+                  <c:v>T2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$R$2:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE0D-DC4A-9A7D-C6FC4BEA55DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2903,7 +3058,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>chart!$D$2:$D$13</c:f>
+              <c:f>chart!$M$2:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2948,7 +3103,251 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$G$2:$G$13</c:f>
+              <c:f>chart!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE0D-DC4A-9A7D-C6FC4BEA55DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$T$2:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE0D-DC4A-9A7D-C6FC4BEA55DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$U$2:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2962,38 +3361,38 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B070-AB4A-8C74-04B8B515A3F9}"/>
+              <c16:uniqueId val="{00000004-EE0D-DC4A-9A7D-C6FC4BEA55DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3065,6 +3464,7 @@
         <c:axId val="2106931711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3186,7 +3586,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="6350">
@@ -3201,7 +3601,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3223,7 +3623,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3245,7 +3645,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3267,7 +3667,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3289,7 +3689,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3311,7 +3711,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3333,7 +3733,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="6350">
@@ -3511,9 +3911,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>chart!$F$24:$L$24</c:f>
+              <c:f>chart!$O$15:$U$15</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>US</c:v>
                 </c:pt>
@@ -3531,16 +3931,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Others</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$F$25:$L$25</c:f>
+              <c:f>chart!$O$16:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -3558,6 +3961,937 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-056F-8B4C-8C5C-A6978EDCD239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B070-AB4A-8C74-04B8B515A3F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B070-AB4A-8C74-04B8B515A3F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2106929999"/>
+        <c:axId val="2106931711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2106929999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106931711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2106931711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106929999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-056F-8B4C-8C5C-A6978EDCD239}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9365594-3D4E-C44D-B110-51093E426665}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{9B4700DB-1E26-A449-BDFF-89E77A091B8A}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-056F-8B4C-8C5C-A6978EDCD239}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart!$O$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Trade War</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>China Shock</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trade Policy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Labour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart!$O$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3665,6 +4999,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4728,20 +6142,1044 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>327024</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>559729</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>355754</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>191376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4768,16 +7206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4797,6 +7235,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554206</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>350231</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A86B1-DC03-F05E-B41B-54B69C226DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1337A2-E399-6DC1-1D55-0728453BAE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5124,11 +7634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="131" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N64" sqref="N64"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5151,13 +7661,13 @@
   <sheetData>
     <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>164</v>
@@ -5184,19 +7694,19 @@
         <v>167</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>45</v>
@@ -5336,15 +7846,15 @@
         <v>252</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="13" t="s">
@@ -5402,17 +7912,17 @@
         <v>253</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="13" t="s">
@@ -5472,13 +7982,13 @@
         <v>250</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="13" t="s">
@@ -5536,16 +8046,16 @@
         <v>248</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -5602,14 +8112,14 @@
         <v>255</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -5666,17 +8176,17 @@
         <v>256</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>414</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5732,18 +8242,18 @@
         <v>259</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>45</v>
@@ -5798,18 +8308,18 @@
         <v>261</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>422</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>423</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>45</v>
@@ -5868,15 +8378,15 @@
         <v>260</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="13" t="s">
@@ -5936,18 +8446,18 @@
         <v>264</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>428</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>429</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -6002,14 +8512,14 @@
         <v>267</v>
       </c>
       <c r="K13" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>438</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>439</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -6068,14 +8578,14 @@
         <v>236</v>
       </c>
       <c r="K14" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>432</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -6134,16 +8644,16 @@
         <v>268</v>
       </c>
       <c r="K15" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="N15" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>437</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -6198,16 +8708,16 @@
         <v>270</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>45</v>
@@ -6262,17 +8772,17 @@
         <v>273</v>
       </c>
       <c r="K17" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>442</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>443</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>444</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>445</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6300,7 +8810,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6328,20 +8838,20 @@
         <v>274</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="O18" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="P18" s="14" t="s">
         <v>449</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>450</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -6396,20 +8906,20 @@
         <v>277</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>452</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="P19" s="14" t="s">
         <v>454</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>455</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -6464,14 +8974,14 @@
         <v>281</v>
       </c>
       <c r="K20" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>460</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -6528,20 +9038,20 @@
         <v>279</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
@@ -6598,18 +9108,18 @@
         <v>284</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="P22" s="14" t="s">
         <v>466</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>467</v>
       </c>
       <c r="Q22" s="13" t="s">
         <v>45</v>
@@ -6670,14 +9180,14 @@
         <v>286</v>
       </c>
       <c r="K23" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>470</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>471</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
@@ -6734,12 +9244,12 @@
         <v>288</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -6796,14 +9306,14 @@
         <v>290</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>45</v>
@@ -6864,16 +9374,16 @@
         <v>293</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>45</v>
@@ -6932,14 +9442,14 @@
         <v>243</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
@@ -6994,12 +9504,12 @@
         <v>297</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -7056,14 +9566,14 @@
         <v>235</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>45</v>
@@ -7120,12 +9630,12 @@
         <v>298</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -7182,16 +9692,16 @@
         <v>240</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="13" t="s">
         <v>45</v>
@@ -7250,17 +9760,17 @@
         <v>301</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="O32" s="14" t="s">
         <v>489</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>490</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -7318,13 +9828,13 @@
         <v>304</v>
       </c>
       <c r="K33" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="N33" s="17" t="s">
         <v>497</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>498</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -7382,17 +9892,17 @@
         <v>305</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="O34" s="14" t="s">
         <v>489</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>490</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="13" t="s">
@@ -7452,17 +9962,17 @@
         <v>307</v>
       </c>
       <c r="K35" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>493</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>494</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>495</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="13" t="s">
@@ -7522,19 +10032,19 @@
         <v>309</v>
       </c>
       <c r="K36" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="L36" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="L36" s="17" t="s">
-        <v>504</v>
-      </c>
       <c r="M36" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="O36" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>502</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
@@ -7592,17 +10102,17 @@
         <v>311</v>
       </c>
       <c r="K37" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>505</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>506</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>508</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="13" t="s">
@@ -7662,15 +10172,15 @@
         <v>314</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -7726,14 +10236,14 @@
         <v>316</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
@@ -7788,17 +10298,17 @@
         <v>317</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>514</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>515</v>
       </c>
       <c r="M40" s="14"/>
       <c r="N40" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>516</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>517</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="13" t="s">
@@ -7858,17 +10368,17 @@
         <v>319</v>
       </c>
       <c r="K41" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>519</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="O41" s="14" t="s">
         <v>520</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>521</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -7898,7 +10408,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
@@ -7926,14 +10436,14 @@
         <v>321</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q42" s="13" t="s">
         <v>45</v>
@@ -7990,17 +10500,17 @@
         <v>324</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="N43" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="O43" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>527</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="13" t="s">
@@ -8060,14 +10570,14 @@
         <v>326</v>
       </c>
       <c r="K44" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>528</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>529</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -8126,14 +10636,14 @@
         <v>327</v>
       </c>
       <c r="K45" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="L45" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>537</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -8192,20 +10702,20 @@
         <v>328</v>
       </c>
       <c r="K46" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="L46" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="M46" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="M46" s="14" t="s">
-        <v>533</v>
-      </c>
       <c r="N46" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q46" s="13" t="s">
         <v>45</v>
@@ -8236,7 +10746,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
@@ -8264,16 +10774,16 @@
         <v>331</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q47" s="13" t="s">
         <v>45</v>
@@ -8309,7 +10819,7 @@
         <v>Kim and Margalit (2021)</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>80</v>
@@ -8330,22 +10840,22 @@
         <v>333</v>
       </c>
       <c r="K48" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="L48" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="M48" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="N48" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="M48" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="N48" s="14" t="s">
+      <c r="O48" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="P48" s="14" t="s">
         <v>546</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>547</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
@@ -8379,7 +10889,7 @@
         <v>Kim and Pelc (2021)</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>58</v>
@@ -8397,22 +10907,22 @@
         <v>223</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K49" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="M49" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="N49" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="O49" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="O49" s="14" t="s">
+      <c r="P49" s="14" t="s">
         <v>552</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>553</v>
       </c>
       <c r="Q49" s="13" t="s">
         <v>45</v>
@@ -8433,7 +10943,7 @@
         <v>40</v>
       </c>
       <c r="Y49" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
@@ -8441,7 +10951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
@@ -8466,20 +10976,20 @@
         <v>225</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="N50" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="O50" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>557</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="13" t="s">
@@ -8503,7 +11013,7 @@
         <v>3</v>
       </c>
       <c r="Y50" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
@@ -8518,7 +11028,7 @@
         <v>Lu and Zhou (2023)</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>133</v>
@@ -8536,13 +11046,13 @@
         <v>186</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K51" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="L51" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>559</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
@@ -8565,7 +11075,7 @@
         <v>5</v>
       </c>
       <c r="Y51" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
@@ -8598,21 +11108,21 @@
         <v>190</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N52" s="14"/>
       <c r="O52" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="P52" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="P52" s="14" t="s">
-        <v>563</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -8631,7 +11141,7 @@
         <v>4</v>
       </c>
       <c r="Y52" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
@@ -8664,21 +11174,21 @@
         <v>219</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K53" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="L53" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>565</v>
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
@@ -8697,7 +11207,7 @@
         <v>5</v>
       </c>
       <c r="Y53" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -8730,22 +11240,22 @@
         <v>170</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K54" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="L54" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="M54" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O54" s="14" t="s">
         <v>569</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>570</v>
       </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
@@ -8767,7 +11277,7 @@
         <v>40</v>
       </c>
       <c r="Y54" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
@@ -8800,20 +11310,20 @@
         <v>183</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="N55" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="N55" s="14" t="s">
-        <v>576</v>
-      </c>
       <c r="O55" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P55" s="14"/>
       <c r="Q55" s="13" t="s">
@@ -8837,7 +11347,7 @@
         <v>4</v>
       </c>
       <c r="Y55" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
@@ -8852,7 +11362,7 @@
         <v>Niemeläinen (2021)</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>123</v>
@@ -8870,19 +11380,19 @@
         <v>191</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
@@ -8901,7 +11411,7 @@
         <v>4</v>
       </c>
       <c r="Y56" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
@@ -8934,20 +11444,20 @@
         <v>201</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K57" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="L57" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="L57" s="14" t="s">
+      <c r="M57" s="14" t="s">
         <v>585</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>586</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
@@ -8966,7 +11476,7 @@
         <v>4</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
@@ -8999,20 +11509,20 @@
         <v>215</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="N58" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="N58" s="14" t="s">
+      <c r="O58" s="14" t="s">
         <v>582</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>583</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="13" t="s">
@@ -9036,7 +11546,7 @@
         <v>5</v>
       </c>
       <c r="Y58" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
@@ -9069,18 +11579,18 @@
         <v>176</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N59" s="14"/>
       <c r="O59" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
@@ -9102,7 +11612,7 @@
         <v>5</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
@@ -9135,21 +11645,21 @@
         <v>192</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="P60" s="14" t="s">
         <v>597</v>
-      </c>
-      <c r="P60" s="14" t="s">
-        <v>598</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="13" t="s">
@@ -9201,17 +11711,17 @@
         <v>173</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
@@ -9263,17 +11773,17 @@
         <v>194</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K62" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="L62" s="14" t="s">
         <v>592</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>593</v>
       </c>
       <c r="M62" s="14"/>
       <c r="N62" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
@@ -9296,7 +11806,7 @@
         <v>4</v>
       </c>
       <c r="Y62" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
@@ -9329,19 +11839,19 @@
         <v>217</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K63" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L63" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="L63" s="14" t="s">
+      <c r="M63" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="M63" s="14" t="s">
+      <c r="N63" s="14" t="s">
         <v>603</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>604</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
@@ -9362,7 +11872,7 @@
         <v>4</v>
       </c>
       <c r="Y63" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -9395,20 +11905,20 @@
         <v>175</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N64" s="14"/>
       <c r="O64" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P64" s="14"/>
       <c r="Q64" s="13" t="s">
@@ -9432,7 +11942,7 @@
         <v>40</v>
       </c>
       <c r="Y64" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -9444,1029 +11954,3100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="11" width="5.6640625" style="3" customWidth="1"/>
+    <col min="14" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>369</v>
-      </c>
+      <c r="Q1" s="20" t="str">
+        <f>E1</f>
+        <v>T1</v>
+      </c>
+      <c r="R1" s="20" t="str">
+        <f t="shared" ref="R1:U1" si="0">F1</f>
+        <v>T2</v>
+      </c>
+      <c r="S1" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="T1" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>T4</v>
+      </c>
+      <c r="U1" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>T5</v>
+      </c>
+      <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10">
+        <v>2014</v>
+      </c>
+      <c r="N2" s="10">
+        <f>COUNTIFS(D:D, M2, A:A, "")</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="10">
+        <f>COUNTIFS(C:C, $O$1, D:D, M2, A:A,"")</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="10">
+        <f>N2-O2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>COUNTIFS(E:E, $Q$1, $D:$D, $M2, A:A,"")</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="20">
+        <f>COUNTIFS(F:F, $R$1, $D:$D, $M2, A:A,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="20">
+        <f>COUNTIFS(G:G, $S$1, $D:$D, $M2, A:A,"")</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="20">
+        <f>COUNTIFS(H:H, $T$1, $D:$D, $M2, A:A,"")</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="20">
+        <f>COUNTIFS(I:I, $U$1, $D:$D, $M2, A:A,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="20"/>
+    </row>
+    <row r="3" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <f>data!A3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>data!D3</f>
+        <v>US</v>
+      </c>
+      <c r="D3" s="7">
+        <f>data!F3</f>
         <v>2020</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
-        <v>2014</v>
-      </c>
-      <c r="E2" s="10">
-        <f>COUNTIF(B:B, D2)</f>
+      <c r="E3" s="7" t="str">
+        <f>IF(data!L3&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>IF(data!M3&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f>IF(data!N3&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f>IF(data!O3&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>IF(data!P3&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10">
+        <v>2015</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N13" si="1">COUNTIFS(D:D, M3, A:A, "")</f>
+        <v>5</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O12" si="2">COUNTIFS(C:C, $O$1, D:D, M3, A:A,"")</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P13" si="3">N3-O3</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" ref="Q3:Q13" si="4">COUNTIFS(E:E, $Q$1, $D:$D, $M3, A:A,"")</f>
         <v>1</v>
       </c>
-      <c r="F2" s="10">
-        <f t="shared" ref="F2:F13" si="0">COUNTIFS(A:A, $F$1, B:B, D2)</f>
+      <c r="R3" s="20">
+        <f t="shared" ref="R3:R13" si="5">COUNTIFS(F:F, $R$1, $D:$D, $M3, A:A,"")</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" ref="S3:S13" si="6">COUNTIFS(G:G, $S$1, $D:$D, $M3, A:A,"")</f>
+        <v>3</v>
+      </c>
+      <c r="T3" s="20">
+        <f t="shared" ref="T3:T13" si="7">COUNTIFS(H:H, $T$1, $D:$D, $M3, A:A,"")</f>
+        <v>2</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" ref="U3:U13" si="8">COUNTIFS(I:I, $U$1, $D:$D, $M3, A:A,"")</f>
+        <v>2</v>
+      </c>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <f>data!A4</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>data!D4</f>
+        <v>US</v>
+      </c>
+      <c r="D4" s="7">
+        <f>data!F4</f>
+        <v>2016</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>IF(data!L4&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>IF(data!M4&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>IF(data!N4&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f>IF(data!O4&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>IF(data!P4&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <v>2016</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G2" s="10">
-        <f>E2-F2</f>
+      <c r="Q4" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U4" s="20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <f>data!A5</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>data!D5</f>
+        <v>US</v>
+      </c>
+      <c r="D5" s="7">
+        <f>data!F5</f>
+        <v>2019</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>IF(data!L5&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>IF(data!M5&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>IF(data!N5&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>IF(data!O5&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>IF(data!P5&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10">
+        <v>2017</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="V5" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E12" si="1">COUNTIF(B:B, D3)</f>
-        <v>5</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G3" s="10">
-        <f t="shared" ref="G3:G13" si="2">E3-F3</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
-        <v>2016</v>
-      </c>
-      <c r="E4" s="10">
+    <row r="6" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <f>data!A6</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>data!D6</f>
+        <v>US</v>
+      </c>
+      <c r="D6" s="7">
+        <f>data!F6</f>
+        <v>2025</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>IF(data!L6&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>IF(data!M6&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f>IF(data!N6&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>IF(data!O6&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>IF(data!P6&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="O6" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P6" s="10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V6" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="7" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <f>data!A7</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>data!D7</f>
+        <v>US</v>
+      </c>
+      <c r="D7" s="7">
+        <f>data!F7</f>
         <v>2025</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E7" s="7" t="str">
+        <f>IF(data!L7&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>IF(data!M7&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f>IF(data!N7&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>IF(data!O7&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>IF(data!P7&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10">
+        <v>2019</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="20"/>
+    </row>
+    <row r="8" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <f>data!A8</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>data!D8</f>
+        <v>US</v>
+      </c>
+      <c r="D8" s="7">
+        <f>data!F8</f>
+        <v>2020</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>IF(data!L8&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>IF(data!M8&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f>IF(data!N8&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>IF(data!O8&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>IF(data!P8&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
+        <v>2020</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" si="0"/>
+      <c r="P8" s="10">
+        <f>N8-O8</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="S8" s="20">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="20"/>
+    </row>
+    <row r="9" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <f>data!A9</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>data!D9</f>
+        <v>US</v>
+      </c>
+      <c r="D9" s="7">
+        <f>data!F9</f>
+        <v>2021</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>IF(data!L9&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>IF(data!M9&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>IF(data!N9&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f>IF(data!O9&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>IF(data!P9&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10">
+        <v>2021</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <f>data!A10</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>data!D10</f>
+        <v>US</v>
+      </c>
+      <c r="D10" s="7">
+        <f>data!F10</f>
+        <v>2020</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>IF(data!L10&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>IF(data!M10&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>IF(data!N10&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>IF(data!O10&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f>IF(data!P10&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
+        <v>2022</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="P10" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E7" s="10">
+    <row r="11" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <f>data!A11</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>data!D11</f>
+        <v>US</v>
+      </c>
+      <c r="D11" s="7">
+        <f>data!F11</f>
+        <v>2015</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>IF(data!L11&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>IF(data!M11&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f>IF(data!N11&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f>IF(data!O11&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f>IF(data!P11&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <v>2023</v>
+      </c>
+      <c r="N11" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
+      <c r="O11" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="R11" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <f>data!A12</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>data!D12</f>
+        <v>US</v>
+      </c>
+      <c r="D12" s="7">
+        <f>data!F12</f>
+        <v>2022</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>IF(data!L12&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>IF(data!M12&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f>IF(data!N12&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>IF(data!O12&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f>IF(data!P12&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V12" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
-        <v>2020</v>
-      </c>
-      <c r="E8" s="10">
+    <row r="13" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <f>data!A13</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>data!D13</f>
+        <v>US</v>
+      </c>
+      <c r="D13" s="7">
+        <f>data!F13</f>
+        <v>2024</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>IF(data!L13&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>IF(data!M13&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f>IF(data!N13&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>IF(data!O13&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>IF(data!P13&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
+        <v>2025</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
+      <c r="O13" s="10">
+        <f>COUNTIFS(C:C, $O$1, D:D, M13, A:A,"")</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G8" s="10">
-        <f t="shared" si="2"/>
+      <c r="R13" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <f>data!A14</f>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f>data!D14</f>
+        <v>US</v>
+      </c>
+      <c r="D14" s="7">
+        <f>data!F14</f>
+        <v>2022</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>IF(data!L14&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>IF(data!M14&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f>IF(data!N14&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>IF(data!O14&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f>IF(data!P14&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <f>data!A15</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>data!D15</f>
+        <v>US</v>
+      </c>
+      <c r="D15" s="7">
+        <f>data!F15</f>
+        <v>2024</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>IF(data!L15&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>IF(data!M15&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f>IF(data!N15&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f>IF(data!O15&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f>IF(data!P15&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" t="s">
+        <v>367</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <f>data!A16</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>data!D16</f>
+        <v>US</v>
+      </c>
+      <c r="D16" s="7">
+        <f>data!F16</f>
+        <v>2024</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>IF(data!L16&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>IF(data!M16&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f>IF(data!N16&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>IF(data!O16&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f>IF(data!P16&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="N16" s="10">
+        <f>SUM(N2:N13)</f>
+        <v>58</v>
+      </c>
+      <c r="O16" s="10">
+        <f>COUNTIF(C:C, O15)</f>
+        <v>36</v>
+      </c>
+      <c r="P16" s="10">
+        <f>COUNTIF(C:C, P15)</f>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>COUNTIF(C:C, Q15)</f>
+        <v>4</v>
+      </c>
+      <c r="R16" s="10">
+        <f>COUNTIF(C:C,R15)</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="10">
+        <f>COUNTIF(C:C, S15)</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="10">
+        <f>COUNTIF(C:C,T15)</f>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f>N16-SUM(O16:T16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="17" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <f>data!A17</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f>data!D17</f>
+        <v>US</v>
+      </c>
+      <c r="D17" s="7">
+        <f>data!F17</f>
+        <v>2014</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>IF(data!L17&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>IF(data!M17&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f>IF(data!N17&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>IF(data!O17&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>IF(data!P17&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <f>data!A18</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f>data!D18</f>
+        <v>US</v>
+      </c>
+      <c r="D18" s="7">
+        <f>data!F18</f>
+        <v>2019</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>IF(data!L18&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>IF(data!M18&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f>IF(data!N18&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>IF(data!O18&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f>IF(data!P18&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" t="s">
+        <v>367</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <f>data!A19</f>
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>data!D19</f>
+        <v>US</v>
+      </c>
+      <c r="D19" s="7">
+        <f>data!F19</f>
+        <v>2024</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>IF(data!L19&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>IF(data!M19&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f>IF(data!N19&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>IF(data!O19&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f>IF(data!P19&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="N19" s="10">
+        <f>SUM(Q2:U13)</f>
+        <v>151</v>
+      </c>
+      <c r="O19" s="10">
+        <f>SUM(Q2:Q13)</f>
+        <v>27</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" ref="P19:S19" si="9">SUM(R2:R13)</f>
+        <v>29</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <f>data!A20</f>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f>data!D20</f>
+        <v>China</v>
+      </c>
+      <c r="D20" s="7">
+        <f>data!F20</f>
+        <v>2022</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>IF(data!L20&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>IF(data!M20&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f>IF(data!N20&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>IF(data!O20&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f>IF(data!P20&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <f>data!A21</f>
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f>data!D21</f>
+        <v>China</v>
+      </c>
+      <c r="D21" s="7">
+        <f>data!F21</f>
+        <v>2025</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f>IF(data!L21&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>IF(data!M21&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f>IF(data!N21&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f>IF(data!O21&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f>IF(data!P21&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <f>data!A22</f>
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f>data!D22</f>
+        <v>US</v>
+      </c>
+      <c r="D22" s="7">
+        <f>data!F22</f>
+        <v>2016</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>IF(data!L22&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>IF(data!M22&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f>IF(data!N22&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>IF(data!O22&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f>IF(data!P22&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="8">
+        <f>data!A23</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="str">
+        <f>data!D23</f>
+        <v>US</v>
+      </c>
+      <c r="D23" s="7">
+        <f>data!F23</f>
+        <v>2024</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>IF(data!L23&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f>IF(data!M23&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f>IF(data!N23&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>IF(data!O23&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>IF(data!P23&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <f>data!A24</f>
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="str">
+        <f>data!D24</f>
+        <v>Canada</v>
+      </c>
+      <c r="D24" s="7">
+        <f>data!F24</f>
+        <v>2021</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f>IF(data!L24&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f>IF(data!M24&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f>IF(data!N24&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>IF(data!O24&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f>IF(data!P24&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <f>data!A25</f>
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>data!D25</f>
+        <v>Italy</v>
+      </c>
+      <c r="D25" s="7">
+        <f>data!F25</f>
+        <v>2018</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>IF(data!L25&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f>IF(data!M25&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f>IF(data!N25&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>IF(data!O25&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f>IF(data!P25&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="8">
+        <f>data!A26</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f>data!D26</f>
+        <v>UK</v>
+      </c>
+      <c r="D26" s="7">
+        <f>data!F26</f>
+        <v>2015</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>IF(data!L26&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f>IF(data!M26&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f>IF(data!N26&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>IF(data!O26&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I26" s="7" t="str">
+        <f>IF(data!P26&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>609</v>
+      </c>
+      <c r="B27" s="8">
+        <f>data!A27</f>
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>data!D27</f>
+        <v>China</v>
+      </c>
+      <c r="D27" s="7">
+        <f>data!F27</f>
+        <v>2023</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f>IF(data!L27&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>IF(data!M27&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f>IF(data!N27&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>IF(data!O27&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f>IF(data!P27&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="8">
+        <f>data!A28</f>
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>data!D28</f>
+        <v>Switzerland</v>
+      </c>
+      <c r="D28" s="7">
+        <f>data!F28</f>
+        <v>2024</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f>IF(data!L28&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f>IF(data!M28&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f>IF(data!N28&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f>IF(data!O28&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I28" s="7" t="str">
+        <f>IF(data!P28&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="8">
+        <f>data!A29</f>
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>data!D29</f>
+        <v>UK</v>
+      </c>
+      <c r="D29" s="7">
+        <f>data!F29</f>
+        <v>2015</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>IF(data!L29&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f>IF(data!M29&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="7" t="str">
+        <f>IF(data!N29&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>IF(data!O29&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f>IF(data!P29&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
+        <f>data!A30</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>data!D30</f>
+        <v>China</v>
+      </c>
+      <c r="D30" s="7">
+        <f>data!F30</f>
         <v>2020</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="E30" s="7" t="str">
+        <f>IF(data!L30&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f>IF(data!M30&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f>IF(data!N30&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f>IF(data!O30&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f>IF(data!P30&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
+        <f>data!A31</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>data!D31</f>
+        <v>Canda</v>
+      </c>
+      <c r="D31" s="7">
+        <f>data!F31</f>
+        <v>2018</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f>IF(data!L31&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f>IF(data!M31&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f>IF(data!N31&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>IF(data!O31&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f>IF(data!P31&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="8">
+        <f>data!A32</f>
+        <v>30</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f>data!D32</f>
+        <v>US</v>
+      </c>
+      <c r="D32" s="7">
+        <f>data!F32</f>
+        <v>2019</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>IF(data!L32&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>IF(data!M32&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f>IF(data!N32&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>IF(data!O32&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f>IF(data!P32&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="8">
+        <f>data!A33</f>
+        <v>31</v>
+      </c>
+      <c r="C33" s="8" t="str">
+        <f>data!D33</f>
+        <v>US</v>
+      </c>
+      <c r="D33" s="7">
+        <f>data!F33</f>
+        <v>2015</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f>IF(data!L33&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f>IF(data!M33&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f>IF(data!N33&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>IF(data!O33&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f>IF(data!P33&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="8">
+        <f>data!A34</f>
+        <v>32</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>data!D34</f>
+        <v>China</v>
+      </c>
+      <c r="D34" s="7">
+        <f>data!F34</f>
+        <v>2017</v>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f>IF(data!L34&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f>IF(data!M34&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f>IF(data!N34&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>IF(data!O34&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I34" s="7" t="str">
+        <f>IF(data!P34&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="8">
+        <f>data!A35</f>
+        <v>33</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>data!D35</f>
+        <v>US</v>
+      </c>
+      <c r="D35" s="7">
+        <f>data!F35</f>
+        <v>2020</v>
+      </c>
+      <c r="E35" s="7" t="str">
+        <f>IF(data!L35&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f>IF(data!M35&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f>IF(data!N35&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>IF(data!O35&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f>IF(data!P35&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="8">
+        <f>data!A36</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>data!D36</f>
+        <v>US</v>
+      </c>
+      <c r="D36" s="7">
+        <f>data!F36</f>
+        <v>2024</v>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f>IF(data!L36&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f>IF(data!M36&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f>IF(data!N36&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>IF(data!O36&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f>IF(data!P36&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="8">
+        <f>data!A37</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="8" t="str">
+        <f>data!D37</f>
+        <v>US</v>
+      </c>
+      <c r="D37" s="7">
+        <f>data!F37</f>
+        <v>2015</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f>IF(data!L37&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f>IF(data!M37&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f>IF(data!N37&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>IF(data!O37&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f>IF(data!P37&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <f>data!A38</f>
+        <v>36</v>
+      </c>
+      <c r="C38" s="8" t="str">
+        <f>data!D38</f>
+        <v>Norway</v>
+      </c>
+      <c r="D38" s="7">
+        <f>data!F38</f>
+        <v>2024</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f>IF(data!L38&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f>IF(data!M38&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>IF(data!N38&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>IF(data!O38&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I38" s="7" t="str">
+        <f>IF(data!P38&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>609</v>
+      </c>
+      <c r="B39" s="8">
+        <f>data!A39</f>
+        <v>37</v>
+      </c>
+      <c r="C39" s="8" t="str">
+        <f>data!D39</f>
+        <v>UK</v>
+      </c>
+      <c r="D39" s="7">
+        <f>data!F39</f>
+        <v>2017</v>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f>IF(data!L39&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f>IF(data!M39&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f>IF(data!N39&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>IF(data!O39&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f>IF(data!P39&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
+        <f>data!A40</f>
+        <v>38</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f>data!D40</f>
+        <v>US</v>
+      </c>
+      <c r="D40" s="7">
+        <f>data!F40</f>
+        <v>2024</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f>IF(data!L40&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f>IF(data!M40&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G40" s="7" t="str">
+        <f>IF(data!N40&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>IF(data!O40&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I40" s="7" t="str">
+        <f>IF(data!P40&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="8">
+        <f>data!A41</f>
+        <v>39</v>
+      </c>
+      <c r="C41" s="8" t="str">
+        <f>data!D41</f>
+        <v>US</v>
+      </c>
+      <c r="D41" s="7">
+        <f>data!F41</f>
+        <v>2017</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f>IF(data!L41&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>IF(data!M41&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f>IF(data!N41&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>IF(data!O41&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I41" s="7" t="str">
+        <f>IF(data!P41&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>609</v>
+      </c>
+      <c r="B42" s="8">
+        <f>data!A42</f>
+        <v>40</v>
+      </c>
+      <c r="C42" s="8" t="str">
+        <f>data!D42</f>
+        <v>US</v>
+      </c>
+      <c r="D42" s="7">
+        <f>data!F42</f>
+        <v>2016</v>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f>IF(data!L42&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F42" s="7" t="str">
+        <f>IF(data!M42&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G42" s="7" t="str">
+        <f>IF(data!N42&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>IF(data!O42&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I42" s="7" t="str">
+        <f>IF(data!P42&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="8">
+        <f>data!A43</f>
+        <v>41</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f>data!D43</f>
+        <v>Switzerland</v>
+      </c>
+      <c r="D43" s="7">
+        <f>data!F43</f>
         <v>2021</v>
       </c>
-      <c r="E9" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
+      <c r="E43" s="7" t="str">
+        <f>IF(data!L43&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f>IF(data!M43&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G43" s="7" t="str">
+        <f>IF(data!N43&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>IF(data!O43&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f>IF(data!P43&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="8">
+        <f>data!A44</f>
+        <v>42</v>
+      </c>
+      <c r="C44" s="8" t="str">
+        <f>data!D44</f>
+        <v>China</v>
+      </c>
+      <c r="D44" s="7">
+        <f>data!F44</f>
+        <v>2023</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f>IF(data!L44&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f>IF(data!M44&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f>IF(data!N44&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>IF(data!O44&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f>IF(data!P44&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10">
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="8">
+        <f>data!A45</f>
+        <v>43</v>
+      </c>
+      <c r="C45" s="8" t="str">
+        <f>data!D45</f>
+        <v>China</v>
+      </c>
+      <c r="D45" s="7">
+        <f>data!F45</f>
+        <v>2024</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f>IF(data!L45&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f>IF(data!M45&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f>IF(data!N45&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f>IF(data!O45&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I45" s="7" t="str">
+        <f>IF(data!P45&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="8">
+        <f>data!A46</f>
+        <v>44</v>
+      </c>
+      <c r="C46" s="8" t="str">
+        <f>data!D46</f>
+        <v>China</v>
+      </c>
+      <c r="D46" s="7">
+        <f>data!F46</f>
+        <v>2024</v>
+      </c>
+      <c r="E46" s="7" t="str">
+        <f>IF(data!L46&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F46" s="7" t="str">
+        <f>IF(data!M46&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G46" s="7" t="str">
+        <f>IF(data!N46&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f>IF(data!O46&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I46" s="7" t="str">
+        <f>IF(data!P46&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <f>data!A47</f>
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="str">
+        <f>data!D47</f>
+        <v>US</v>
+      </c>
+      <c r="D47" s="7">
+        <f>data!F47</f>
+        <v>2018</v>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f>IF(data!L47&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f>IF(data!M47&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G47" s="7" t="str">
+        <f>IF(data!N47&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f>IF(data!O47&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f>IF(data!P47&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <f>data!A48</f>
+        <v>46</v>
+      </c>
+      <c r="C48" s="8" t="str">
+        <f>data!D48</f>
+        <v>South Korea</v>
+      </c>
+      <c r="D48" s="7">
+        <f>data!F48</f>
+        <v>2021</v>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f>IF(data!L48&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f>IF(data!M48&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f>IF(data!N48&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f>IF(data!O48&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I48" s="7" t="str">
+        <f>IF(data!P48&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
+        <f>data!A49</f>
+        <v>47</v>
+      </c>
+      <c r="C49" s="8" t="str">
+        <f>data!D49</f>
+        <v>South Korea</v>
+      </c>
+      <c r="D49" s="7">
+        <f>data!F49</f>
+        <v>2021</v>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f>IF(data!L49&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f>IF(data!M49&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G49" s="7" t="str">
+        <f>IF(data!N49&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f>IF(data!O49&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I49" s="7" t="str">
+        <f>IF(data!P49&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="8">
+        <f>data!A50</f>
+        <v>48</v>
+      </c>
+      <c r="C50" s="8" t="str">
+        <f>data!D50</f>
+        <v>US</v>
+      </c>
+      <c r="D50" s="7">
+        <f>data!F50</f>
+        <v>2017</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f>IF(data!L50&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F50" s="7" t="str">
+        <f>IF(data!M50&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f>IF(data!N50&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f>IF(data!O50&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I50" s="7" t="str">
+        <f>IF(data!P50&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+    </row>
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="8">
+        <f>data!A51</f>
+        <v>49</v>
+      </c>
+      <c r="C51" s="8" t="str">
+        <f>data!D51</f>
+        <v>Hong Kong</v>
+      </c>
+      <c r="D51" s="7">
+        <f>data!F51</f>
         <v>2023</v>
       </c>
-      <c r="E11" s="10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="E51" s="7" t="str">
+        <f>IF(data!L51&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F51" s="7" t="str">
+        <f>IF(data!M51&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G51" s="7" t="str">
+        <f>IF(data!N51&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f>IF(data!O51&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I51" s="7" t="str">
+        <f>IF(data!P51&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="8">
+        <f>data!A52</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="8" t="str">
+        <f>data!D52</f>
+        <v>China</v>
+      </c>
+      <c r="D52" s="7">
+        <f>data!F52</f>
+        <v>2018</v>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f>IF(data!L52&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F52" s="7" t="str">
+        <f>IF(data!M52&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G52" s="7" t="str">
+        <f>IF(data!N52&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H52" s="7" t="str">
+        <f>IF(data!O52&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I52" s="7" t="str">
+        <f>IF(data!P52&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="8">
+        <f>data!A53</f>
+        <v>51</v>
+      </c>
+      <c r="C53" s="8" t="str">
+        <f>data!D53</f>
+        <v>US</v>
+      </c>
+      <c r="D53" s="7">
+        <f>data!F53</f>
+        <v>2023</v>
+      </c>
+      <c r="E53" s="7" t="str">
+        <f>IF(data!L53&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f>IF(data!M53&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G53" s="7" t="str">
+        <f>IF(data!N53&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H53" s="7" t="str">
+        <f>IF(data!O53&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I53" s="7" t="str">
+        <f>IF(data!P53&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="8">
+        <f>data!A54</f>
+        <v>52</v>
+      </c>
+      <c r="C54" s="8" t="str">
+        <f>data!D54</f>
+        <v>US</v>
+      </c>
+      <c r="D54" s="7">
+        <f>data!F54</f>
         <v>2024</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10">
+      <c r="E54" s="7" t="str">
+        <f>IF(data!L54&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F54" s="7" t="str">
+        <f>IF(data!M54&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G54" s="7" t="str">
+        <f>IF(data!N54&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H54" s="7" t="str">
+        <f>IF(data!O54&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I54" s="7" t="str">
+        <f>IF(data!P54&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="8">
+        <f>data!A55</f>
+        <v>53</v>
+      </c>
+      <c r="C55" s="8" t="str">
+        <f>data!D55</f>
+        <v>US</v>
+      </c>
+      <c r="D55" s="7">
+        <f>data!F55</f>
+        <v>2016</v>
+      </c>
+      <c r="E55" s="7" t="str">
+        <f>IF(data!L55&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f>IF(data!M55&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G55" s="7" t="str">
+        <f>IF(data!N55&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H55" s="7" t="str">
+        <f>IF(data!O55&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I55" s="7" t="str">
+        <f>IF(data!P55&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="8">
+        <f>data!A56</f>
+        <v>54</v>
+      </c>
+      <c r="C56" s="8" t="str">
+        <f>data!D56</f>
+        <v>Finland</v>
+      </c>
+      <c r="D56" s="7">
+        <f>data!F56</f>
+        <v>2021</v>
+      </c>
+      <c r="E56" s="7" t="str">
+        <f>IF(data!L56&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F56" s="7" t="str">
+        <f>IF(data!M56&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G56" s="7" t="str">
+        <f>IF(data!N56&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f>IF(data!O56&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I56" s="7" t="str">
+        <f>IF(data!P56&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="8">
+        <f>data!A57</f>
+        <v>55</v>
+      </c>
+      <c r="C57" s="8" t="str">
+        <f>data!D57</f>
+        <v>UK</v>
+      </c>
+      <c r="D57" s="7">
+        <f>data!F57</f>
+        <v>2025</v>
+      </c>
+      <c r="E57" s="7" t="str">
+        <f>IF(data!L57&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F57" s="7" t="str">
+        <f>IF(data!M57&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G57" s="7" t="str">
+        <f>IF(data!N57&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H57" s="7" t="str">
+        <f>IF(data!O57&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I57" s="7" t="str">
+        <f>IF(data!P57&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="8">
+        <f>data!A58</f>
+        <v>56</v>
+      </c>
+      <c r="C58" s="8" t="str">
+        <f>data!D58</f>
+        <v>US</v>
+      </c>
+      <c r="D58" s="7">
+        <f>data!F58</f>
+        <v>2016</v>
+      </c>
+      <c r="E58" s="7" t="str">
+        <f>IF(data!L58&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F58" s="7" t="str">
+        <f>IF(data!M58&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G58" s="7" t="str">
+        <f>IF(data!N58&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H58" s="7" t="str">
+        <f>IF(data!O58&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I58" s="7" t="str">
+        <f>IF(data!P58&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" s="8">
+        <f>data!A59</f>
+        <v>57</v>
+      </c>
+      <c r="C59" s="8" t="str">
+        <f>data!D59</f>
+        <v>Canada</v>
+      </c>
+      <c r="D59" s="7">
+        <f>data!F59</f>
+        <v>2016</v>
+      </c>
+      <c r="E59" s="7" t="str">
+        <f>IF(data!L59&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F59" s="7" t="str">
+        <f>IF(data!M59&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G59" s="7" t="str">
+        <f>IF(data!N59&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f>IF(data!O59&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I59" s="7" t="str">
+        <f>IF(data!P59&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="8">
+        <f>data!A60</f>
+        <v>58</v>
+      </c>
+      <c r="C60" s="8" t="str">
+        <f>data!D60</f>
+        <v>US</v>
+      </c>
+      <c r="D60" s="7">
+        <f>data!F60</f>
+        <v>2025</v>
+      </c>
+      <c r="E60" s="7" t="str">
+        <f>IF(data!L60&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F60" s="7" t="str">
+        <f>IF(data!M60&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G60" s="7" t="str">
+        <f>IF(data!N60&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H60" s="7" t="str">
+        <f>IF(data!O60&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I60" s="7" t="str">
+        <f>IF(data!P60&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>609</v>
+      </c>
+      <c r="B61" s="8">
+        <f>data!A61</f>
+        <v>59</v>
+      </c>
+      <c r="C61" s="8" t="str">
+        <f>data!D61</f>
+        <v>US</v>
+      </c>
+      <c r="D61" s="7">
+        <f>data!F61</f>
         <v>2024</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="E61" s="7" t="str">
+        <f>IF(data!L61&lt;&gt;"", "T1", "")</f>
+        <v/>
+      </c>
+      <c r="F61" s="7" t="str">
+        <f>IF(data!M61&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G61" s="7" t="str">
+        <f>IF(data!N61&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H61" s="7" t="str">
+        <f>IF(data!O61&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I61" s="7" t="str">
+        <f>IF(data!P61&lt;&gt;"", "T5", "")</f>
+        <v>T5</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10">
-        <v>2025</v>
-      </c>
-      <c r="E13" s="10">
-        <f>COUNTIF(B:B, D13)</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" s="8">
+        <f>data!A62</f>
+        <v>60</v>
+      </c>
+      <c r="C62" s="8" t="str">
+        <f>data!D62</f>
+        <v>China</v>
+      </c>
+      <c r="D62" s="7">
+        <f>data!F62</f>
+        <v>2021</v>
+      </c>
+      <c r="E62" s="7" t="str">
+        <f>IF(data!L62&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F62" s="7" t="str">
+        <f>IF(data!M62&lt;&gt;"", "T2", "")</f>
+        <v/>
+      </c>
+      <c r="G62" s="7" t="str">
+        <f>IF(data!N62&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f>IF(data!O62&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I62" s="7" t="str">
+        <f>IF(data!P62&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B63" s="8">
+        <f>data!A63</f>
+        <v>61</v>
+      </c>
+      <c r="C63" s="8" t="str">
+        <f>data!D63</f>
+        <v>China</v>
+      </c>
+      <c r="D63" s="7">
+        <f>data!F63</f>
         <v>2024</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E63" s="7" t="str">
+        <f>IF(data!L63&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F63" s="7" t="str">
+        <f>IF(data!M63&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G63" s="7" t="str">
+        <f>IF(data!N63&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H63" s="7" t="str">
+        <f>IF(data!O63&lt;&gt;"", "T4", "")</f>
+        <v/>
+      </c>
+      <c r="I63" s="7" t="str">
+        <f>IF(data!P63&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="8">
+        <f>data!A64</f>
+        <v>62</v>
+      </c>
+      <c r="C64" s="8" t="str">
+        <f>data!D64</f>
+        <v>US</v>
+      </c>
+      <c r="D64" s="7">
+        <f>data!F64</f>
         <v>2024</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2014</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" t="s">
-        <v>368</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="E25" s="10">
-        <f>SUM(E2:E13)</f>
-        <v>62</v>
-      </c>
-      <c r="F25" s="10">
-        <f>COUNTIF(A:A, F24)</f>
-        <v>36</v>
-      </c>
-      <c r="G25" s="10">
-        <f>COUNTIF(A:A, G24)</f>
-        <v>11</v>
-      </c>
-      <c r="H25" s="10">
-        <f>COUNTIF(A:A, H24)</f>
-        <v>4</v>
-      </c>
-      <c r="I25" s="10">
-        <f>COUNTIF(A:A,I24)</f>
-        <v>2</v>
-      </c>
-      <c r="J25" s="10">
-        <f>COUNTIF(A:A, J24)</f>
-        <v>2</v>
-      </c>
-      <c r="K25" s="10">
-        <f>COUNTIF(A:A,K24)</f>
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <f>E25-SUM(F25:K25)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2020</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B42" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B46" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B47" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B48" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B50" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B55" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B56" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B57" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B58" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B62" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="E64" s="7" t="str">
+        <f>IF(data!L64&lt;&gt;"", "T1", "")</f>
+        <v>T1</v>
+      </c>
+      <c r="F64" s="7" t="str">
+        <f>IF(data!M64&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G64" s="7" t="str">
+        <f>IF(data!N64&lt;&gt;"", "T3", "")</f>
+        <v/>
+      </c>
+      <c r="H64" s="7" t="str">
+        <f>IF(data!O64&lt;&gt;"", "T4", "")</f>
+        <v>T4</v>
+      </c>
+      <c r="I64" s="7" t="str">
+        <f>IF(data!P64&lt;&gt;"", "T5", "")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10479,7 +15060,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G2:G6"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10491,10 +15072,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10502,7 +15083,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" s="10">
         <v>109</v>
@@ -10517,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C3" s="10">
         <v>149</v>
@@ -10532,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C4" s="10">
         <v>88</v>
@@ -10550,7 +15131,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" s="10">
         <v>113</v>
@@ -10568,7 +15149,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C6" s="10">
         <v>60</v>
@@ -10586,7 +15167,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7" s="10">
         <v>1200</v>
@@ -10597,7 +15178,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G8" s="10">
         <v>500</v>
@@ -10605,7 +15186,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G9" s="10">
         <f>SUM(G2:G8)</f>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B202CB1-FEB8-B947-9A0F-EDCC4021E579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C065D-DEF4-8143-80E5-DF3D7892E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1980" windowWidth="45920" windowHeight="29620" activeTab="1" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="1860" yWindow="1140" windowWidth="45920" windowHeight="29620" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="count" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$U$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$U$65</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">chart!$M$2:$M$13</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">chart!$O$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">chart!$O$2:$O$13</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="616">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2153,6 +2153,12 @@
   </si>
   <si>
     <t>Labour</t>
+  </si>
+  <si>
+    <t>Alessandria et al. (2025a)</t>
+  </si>
+  <si>
+    <t>Alessandria et al. (2025b)</t>
   </si>
 </sst>
 </file>
@@ -7632,13 +7638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7887,7 +7893,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="13" t="str">
-        <f t="shared" ref="C4:C64" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
+        <f t="shared" ref="C4:C65" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
         <v>Acemoglu et al. (2016)</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -8013,49 +8019,46 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Alessandria et al. (2025)</v>
+      <c r="C6" s="13" t="s">
+        <v>614</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" s="16">
         <v>2025</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>418</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -8066,60 +8069,61 @@
         <v>43</v>
       </c>
       <c r="U6" s="14"/>
-      <c r="V6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>5</v>
+      <c r="V6" s="13">
+        <v>4</v>
+      </c>
+      <c r="W6" s="13">
+        <v>4</v>
+      </c>
+      <c r="X6" s="13">
+        <v>4</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Alessandria et al. (2025)</v>
+      <c r="C7" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7" s="16">
         <v>2025</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="M7" s="14"/>
+        <v>409</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>418</v>
+      </c>
       <c r="N7" s="14" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -8130,137 +8134,71 @@
         <v>43</v>
       </c>
       <c r="U7" s="14"/>
-      <c r="V7" s="13">
-        <v>4</v>
-      </c>
-      <c r="W7" s="13">
-        <v>4</v>
-      </c>
-      <c r="X7" s="13">
-        <v>4</v>
+      <c r="V7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    <row r="9" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Amiti et al. (2020)</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2020</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="13">
-        <v>4</v>
-      </c>
-      <c r="W8" s="13">
-        <v>4</v>
-      </c>
-      <c r="X8" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Aslan and Kumar (2021)</v>
-      </c>
       <c r="D9" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F9" s="16">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="N9" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="T9" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U9" s="14"/>
       <c r="V9" s="13">
         <v>4</v>
@@ -8272,123 +8210,121 @@
         <v>4</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Autor et al. (2020)</v>
+        <v>Aslan and Kumar (2021)</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F10" s="16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="N10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14" t="s">
+        <v>416</v>
+      </c>
       <c r="O10" s="14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R10" s="14"/>
-      <c r="S10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>5</v>
+      <c r="V10" s="13">
+        <v>4</v>
+      </c>
+      <c r="W10" s="13">
+        <v>4</v>
+      </c>
+      <c r="X10" s="13">
+        <v>4</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Autor et al. (2015)</v>
+        <v>Autor et al. (2020)</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F11" s="16">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="P11" s="14"/>
+        <v>421</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>422</v>
+      </c>
       <c r="Q11" s="13" t="s">
         <v>45</v>
       </c>
@@ -8400,170 +8336,172 @@
         <v>43</v>
       </c>
       <c r="U11" s="14"/>
-      <c r="V11" s="13">
-        <v>4</v>
-      </c>
-      <c r="W11" s="13">
-        <v>4</v>
-      </c>
-      <c r="X11" s="13">
-        <v>4</v>
+      <c r="V11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>138</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ballard-Rosa et al. (2022)</v>
+        <v>Autor et al. (2015)</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2022</v>
+      <c r="E12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2015</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q12" s="14"/>
+        <v>425</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R12" s="14"/>
       <c r="S12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="14"/>
+      <c r="T12" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U12" s="14"/>
-      <c r="V12" s="14">
+      <c r="V12" s="13">
         <v>4</v>
       </c>
-      <c r="W12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>40</v>
+      <c r="W12" s="13">
+        <v>4</v>
+      </c>
+      <c r="X12" s="13">
+        <v>4</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Benguria and Saffie (2024)</v>
+        <v>Ballard-Rosa et al. (2022)</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="16">
-        <v>2024</v>
+      <c r="E13" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2022</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+        <v>429</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>428</v>
+      </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="13">
+      <c r="V13" s="14">
         <v>4</v>
       </c>
-      <c r="W13" s="13">
-        <v>4</v>
-      </c>
-      <c r="X13" s="13">
-        <v>4</v>
+      <c r="W13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Benguria et al. (2022)</v>
-      </c>
-      <c r="D14" s="13" t="s">
+        <v>Benguria and Saffie (2024)</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F14" s="16">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>23</v>
@@ -8572,31 +8510,31 @@
         <v>6</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>430</v>
+        <v>188</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="14"/>
+      <c r="T14" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U14" s="14"/>
       <c r="V14" s="13">
         <v>4</v>
@@ -8608,28 +8546,28 @@
         <v>4</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Blanchard et al. (2024)</v>
-      </c>
-      <c r="D15" s="14" t="s">
+        <v>Benguria et al. (2022)</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>233</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F15" s="16">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>23</v>
@@ -8638,29 +8576,31 @@
         <v>6</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>433</v>
+        <v>169</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q15" s="14"/>
+        <v>431</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="13">
         <v>4</v>
@@ -8672,59 +8612,59 @@
         <v>4</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Bown and Wang (2024)</v>
+        <v>Blanchard et al. (2024)</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F16" s="16">
         <v>2024</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="O16" s="14"/>
+        <v>268</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>435</v>
+      </c>
       <c r="P16" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="T16" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U16" s="14"/>
       <c r="V16" s="13">
         <v>4</v>
@@ -8736,294 +8676,294 @@
         <v>4</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Broz and Werfel (2014)</v>
+        <v>Bown and Wang (2024)</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="F17" s="16">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>442</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+        <v>396</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="13">
         <v>4</v>
       </c>
-      <c r="W17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>40</v>
+      <c r="W17" s="13">
+        <v>4</v>
+      </c>
+      <c r="X17" s="13">
+        <v>4</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>376</v>
+        <v>132</v>
       </c>
       <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Caliendo et al. (2019)</v>
+        <v>Broz and Werfel (2014)</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="F18" s="16">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14" t="s">
-        <v>446</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="M18" s="14"/>
       <c r="N18" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>449</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>5</v>
+      <c r="T18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="13">
+        <v>4</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Carcelli and Park (2024)</v>
+        <v>Caliendo et al. (2019)</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="19">
-        <v>2024</v>
+      <c r="E19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2019</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="M19" s="14"/>
+        <v>445</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14" t="s">
+        <v>446</v>
+      </c>
       <c r="N19" s="14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14">
-        <v>4</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>40</v>
+      <c r="U19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Che et al. (2022)</v>
+        <v>Carcelli and Park (2024)</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="16">
-        <v>2022</v>
+        <v>233</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2024</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>459</v>
+        <v>206</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+        <v>452</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>454</v>
+      </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="13">
+      <c r="V20" s="14">
         <v>4</v>
       </c>
-      <c r="W20" s="13">
-        <v>4</v>
-      </c>
-      <c r="X20" s="13">
-        <v>4</v>
+      <c r="W20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Che et al. (2025)</v>
+        <v>Che et al. (2022)</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="19">
-        <v>2025</v>
+      <c r="E21" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2022</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>23</v>
@@ -9032,98 +8972,92 @@
         <v>6</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>462</v>
+        <v>179</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>459</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>458</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S21" s="14"/>
       <c r="T21" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U21" s="14"/>
-      <c r="V21" s="14">
+      <c r="V21" s="13">
         <v>4</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="13">
         <v>4</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X21" s="13">
         <v>4</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Chetverikov et al. (2016)</v>
+        <v>Che et al. (2025)</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="16">
-        <v>2016</v>
+        <v>278</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2025</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="N22" s="14"/>
+        <v>462</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14" t="s">
+        <v>456</v>
+      </c>
       <c r="O22" s="14" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14" t="s">
         <v>44</v>
@@ -9131,259 +9065,259 @@
       <c r="T22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>5</v>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14">
+        <v>4</v>
+      </c>
+      <c r="W22" s="14">
+        <v>4</v>
+      </c>
+      <c r="X22" s="14">
+        <v>4</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Chor and Li (2024)</v>
+        <v>Chetverikov et al. (2016)</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F23" s="16">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+        <v>463</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="S23" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="14"/>
-      <c r="V23" s="13">
-        <v>4</v>
-      </c>
-      <c r="W23" s="13">
-        <v>4</v>
-      </c>
-      <c r="X23" s="13">
-        <v>4</v>
+      <c r="U23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Chyzh and Urbatsch (2021)</v>
+        <v>Chor and Li (2024)</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="19">
-        <v>2021</v>
+        <v>233</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="16">
+        <v>2024</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L24" s="14"/>
+        <v>469</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>470</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="N24" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U24" s="14"/>
-      <c r="V24" s="14">
+      <c r="V24" s="13">
         <v>4</v>
       </c>
-      <c r="W24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>40</v>
+      <c r="W24" s="13">
+        <v>4</v>
+      </c>
+      <c r="X24" s="13">
+        <v>4</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Colantone and Stanig (2018)</v>
+        <v>Chyzh and Urbatsch (2021)</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="16">
-        <v>2018</v>
+        <v>287</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2021</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>473</v>
+      </c>
       <c r="O25" s="14"/>
-      <c r="P25" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="13" t="s">
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14">
+        <v>4</v>
+      </c>
+      <c r="W25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="13" t="s">
+      <c r="X25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Defever et al. (2015)</v>
+        <v>Colantone and Stanig (2018)</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F26" s="16">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>475</v>
-      </c>
+      <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>45</v>
@@ -9395,65 +9329,73 @@
       <c r="T26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="13">
-        <v>4</v>
-      </c>
-      <c r="W26" s="13">
-        <v>4</v>
-      </c>
-      <c r="X26" s="13">
-        <v>4</v>
+      <c r="U26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>DuBois (2023)</v>
+        <v>Defever et al. (2015)</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="F27" s="16">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="14" t="s">
+        <v>475</v>
+      </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q27" s="14"/>
+        <v>476</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="S27" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T27" s="13" t="s">
         <v>43</v>
       </c>
@@ -9465,157 +9407,155 @@
         <v>4</v>
       </c>
       <c r="X27" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>118</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Egger and Erhardt (2024)</v>
+        <v>DuBois (2023)</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="19">
-        <v>2024</v>
+        <v>278</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2023</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14" t="s">
-        <v>478</v>
-      </c>
+      <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="P28" s="14" t="s">
+        <v>395</v>
+      </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
-      <c r="S28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U28" s="14"/>
-      <c r="V28" s="14">
+      <c r="V28" s="13">
         <v>4</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="13">
         <v>4</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="13">
         <v>3</v>
       </c>
       <c r="Y28" s="14" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>161</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Eugeni (2015)</v>
+        <v>Egger and Erhardt (2024)</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2015</v>
+        <v>295</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="19">
+        <v>2024</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="N29" s="14" t="s">
+        <v>478</v>
+      </c>
       <c r="O29" s="14"/>
-      <c r="P29" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="13">
+      <c r="V29" s="14">
         <v>4</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="14">
         <v>4</v>
       </c>
-      <c r="X29" s="13">
-        <v>4</v>
+      <c r="X29" s="14">
+        <v>3</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fan et al. (2020)</v>
+        <v>Eugeni (2015)</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F30" s="16">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>23</v>
@@ -9624,27 +9564,29 @@
         <v>6</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14" t="s">
-        <v>482</v>
-      </c>
+      <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
+      <c r="P30" s="14" t="s">
+        <v>481</v>
+      </c>
       <c r="Q30" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
+      <c r="T30" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U30" s="14"/>
       <c r="V30" s="13">
         <v>4</v>
@@ -9656,28 +9598,28 @@
         <v>4</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C31" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fatum et al. (2018)</v>
+        <v>Fan et al. (2020)</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="F31" s="16">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>23</v>
@@ -9686,33 +9628,27 @@
         <v>6</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="L31" s="14"/>
-      <c r="M31" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="N31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14" t="s">
+        <v>482</v>
+      </c>
       <c r="O31" s="14"/>
-      <c r="P31" s="14" t="s">
-        <v>483</v>
-      </c>
+      <c r="P31" s="14"/>
       <c r="Q31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R31" s="14"/>
-      <c r="S31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="13">
         <v>4</v>
@@ -9724,28 +9660,28 @@
         <v>4</v>
       </c>
       <c r="Y31" s="14" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="C32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Feenstra et al. (2019)</v>
+        <v>Fatum et al. (2018)</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="F32" s="16">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>23</v>
@@ -9754,28 +9690,28 @@
         <v>6</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+        <v>484</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R32" s="14"/>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="13" t="s">
         <v>44</v>
       </c>
       <c r="T32" s="13" t="s">
@@ -9792,49 +9728,53 @@
         <v>4</v>
       </c>
       <c r="Y32" s="14" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C33" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Feigenbaum and Hall (2015)</v>
+        <v>Feenstra et al. (2019)</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F33" s="16">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>497</v>
+        <v>301</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>489</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -9849,65 +9789,59 @@
       <c r="V33" s="13">
         <v>4</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>40</v>
+      <c r="W33" s="13">
+        <v>4</v>
+      </c>
+      <c r="X33" s="13">
+        <v>4</v>
       </c>
       <c r="Y33" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C34" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Feng et al. (2017)</v>
+        <v>Feigenbaum and Hall (2015)</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F34" s="16">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>489</v>
+        <v>304</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>497</v>
       </c>
       <c r="P34" s="14"/>
-      <c r="Q34" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14" t="s">
         <v>44</v>
@@ -9919,60 +9853,60 @@
       <c r="V34" s="13">
         <v>4</v>
       </c>
-      <c r="W34" s="13">
-        <v>4</v>
-      </c>
-      <c r="X34" s="13">
-        <v>4</v>
+      <c r="W34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="Y34" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <v>33</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C35" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Flaaen et al. (2020)</v>
+        <v>Feng et al. (2017)</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="19">
-        <v>2020</v>
+        <v>278</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="16">
+        <v>2017</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="M35" s="14"/>
+        <v>486</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14" t="s">
+        <v>487</v>
+      </c>
       <c r="N35" s="14" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="13" t="s">
@@ -9986,68 +9920,68 @@
         <v>43</v>
       </c>
       <c r="U35" s="14"/>
-      <c r="V35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="14" t="s">
-        <v>5</v>
+      <c r="V35" s="13">
+        <v>4</v>
+      </c>
+      <c r="W35" s="13">
+        <v>4</v>
+      </c>
+      <c r="X35" s="13">
+        <v>4</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>105</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Freund et al. (2024)</v>
+        <v>Flaaen et al. (2020)</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="16">
-        <v>2024</v>
+      <c r="E36" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="19">
+        <v>2020</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>499</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="M36" s="14"/>
       <c r="N36" s="14" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R36" s="14"/>
       <c r="S36" s="14" t="s">
         <v>44</v>
@@ -10056,68 +9990,68 @@
         <v>43</v>
       </c>
       <c r="U36" s="14"/>
-      <c r="V36" s="13">
-        <v>4</v>
-      </c>
-      <c r="W36" s="13">
-        <v>4</v>
-      </c>
-      <c r="X36" s="13">
-        <v>4</v>
+      <c r="V36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X36" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="Y36" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C37" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Galantucci (2015)</v>
+        <v>Freund et al. (2024)</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F37" s="16">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="M37" s="14"/>
+        <v>502</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>499</v>
+      </c>
       <c r="N37" s="14" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="P37" s="14"/>
-      <c r="Q37" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14" t="s">
         <v>44</v>
@@ -10129,63 +10063,69 @@
       <c r="V37" s="13">
         <v>4</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>40</v>
+      <c r="W37" s="13">
+        <v>4</v>
+      </c>
+      <c r="X37" s="13">
+        <v>4</v>
       </c>
       <c r="Y37" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Galle and Lorentzen (2024)</v>
+        <v>Galantucci (2015)</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F38" s="16">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="N38" s="14"/>
+        <v>504</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14" t="s">
+        <v>506</v>
+      </c>
       <c r="O38" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="Q38" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
+      <c r="S38" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T38" s="13" t="s">
         <v>43</v>
       </c>
@@ -10193,65 +10133,67 @@
       <c r="V38" s="13">
         <v>4</v>
       </c>
-      <c r="W38" s="13">
-        <v>4</v>
-      </c>
-      <c r="X38" s="13">
-        <v>4</v>
+      <c r="W38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="Y38" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C39" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Gaupp et al. (2017)</v>
+        <v>Galle and Lorentzen (2024)</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="F39" s="16">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="M39" s="14" t="s">
+        <v>509</v>
+      </c>
       <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14" t="s">
-        <v>512</v>
-      </c>
+      <c r="O39" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="T39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" s="14"/>
       <c r="V39" s="13">
         <v>4</v>
       </c>
@@ -10262,98 +10204,90 @@
         <v>4</v>
       </c>
       <c r="Y39" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>38</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C40" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Grossman et al. (2024)</v>
+        <v>Gaupp et al. (2017)</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="19">
-        <v>2024</v>
+        <v>294</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="16">
+        <v>2017</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>514</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="L40" s="14"/>
       <c r="M40" s="14"/>
-      <c r="N40" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="X40" s="14" t="s">
-        <v>5</v>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V40" s="13">
+        <v>4</v>
+      </c>
+      <c r="W40" s="13">
+        <v>4</v>
+      </c>
+      <c r="X40" s="13">
+        <v>4</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <v>39</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>95</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Handley and Limão (2017)</v>
+        <v>Grossman et al. (2024)</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="16">
-        <v>2017</v>
+      <c r="E41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="19">
+        <v>2024</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>14</v>
@@ -10362,26 +10296,28 @@
         <v>15</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
+      <c r="Q41" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R41" s="14"/>
       <c r="S41" s="14" t="s">
         <v>44</v>
@@ -10390,136 +10326,134 @@
         <v>43</v>
       </c>
       <c r="U41" s="14"/>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="13" t="s">
+      <c r="W41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="13" t="s">
+      <c r="X41" s="14" t="s">
         <v>5</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Heilmann (2016)</v>
+        <v>Handley and Limão (2017)</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F42" s="16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="L42" s="14"/>
+        <v>517</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>518</v>
+      </c>
       <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="N42" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="S42" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T42" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U42" s="14"/>
-      <c r="V42" s="13">
-        <v>4</v>
-      </c>
-      <c r="W42" s="13">
-        <v>4</v>
-      </c>
-      <c r="X42" s="13">
-        <v>4</v>
+      <c r="V42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y42" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="C43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Jakubik and Stolzenburg (2021)</v>
+        <v>Heilmann (2016)</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F43" s="16">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L43" s="14"/>
-      <c r="M43" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="P43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14" t="s">
+        <v>522</v>
+      </c>
       <c r="Q43" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R43" s="14"/>
-      <c r="S43" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S43" s="14"/>
       <c r="T43" s="13" t="s">
         <v>43</v>
       </c>
@@ -10534,54 +10468,58 @@
         <v>4</v>
       </c>
       <c r="Y43" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C44" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Jiang et al. (2023)</v>
+        <v>Jakubik and Stolzenburg (2021)</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F44" s="16">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="M44" s="14"/>
+        <v>523</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14" t="s">
+        <v>524</v>
+      </c>
       <c r="N44" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="O44" s="14"/>
+        <v>525</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>526</v>
+      </c>
       <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
+      <c r="Q44" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R44" s="14"/>
       <c r="S44" s="14" t="s">
         <v>44</v>
@@ -10600,50 +10538,50 @@
         <v>4</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <v>43</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Jiao et al. (2024)</v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="19">
-        <v>2024</v>
+      <c r="E45" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="16">
+        <v>2023</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -10656,70 +10594,64 @@
         <v>43</v>
       </c>
       <c r="U45" s="14"/>
-      <c r="V45" s="14">
+      <c r="V45" s="13">
         <v>4</v>
       </c>
-      <c r="W45" s="14">
+      <c r="W45" s="13">
         <v>4</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X45" s="13">
         <v>4</v>
       </c>
       <c r="Y45" s="14" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C46" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ju et al. (2024)</v>
+        <v>Jiao et al. (2024)</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="16">
+      <c r="E46" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="19">
         <v>2024</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>532</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M46" s="14"/>
       <c r="N46" s="14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="O46" s="14"/>
-      <c r="P46" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14" t="s">
         <v>44</v>
@@ -10728,607 +10660,609 @@
         <v>43</v>
       </c>
       <c r="U46" s="14"/>
-      <c r="V46" s="13">
+      <c r="V46" s="14">
         <v>4</v>
       </c>
-      <c r="W46" s="13">
+      <c r="W46" s="14">
         <v>4</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="14">
         <v>4</v>
       </c>
       <c r="Y46" s="14" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>378</v>
+        <v>51</v>
       </c>
       <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Kalouptsidi (2018)</v>
+        <v>Ju et al. (2024)</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="F47" s="16">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="L47" s="14"/>
+        <v>530</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>531</v>
+      </c>
       <c r="M47" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="N47" s="14"/>
+        <v>532</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>534</v>
+      </c>
       <c r="O47" s="14"/>
       <c r="P47" s="14" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+      <c r="S47" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T47" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U47" s="14"/>
-      <c r="V47" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="13" t="s">
-        <v>5</v>
+      <c r="V47" s="13">
+        <v>4</v>
+      </c>
+      <c r="W47" s="13">
+        <v>4</v>
+      </c>
+      <c r="X47" s="13">
+        <v>4</v>
       </c>
       <c r="Y47" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <v>46</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="C48" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Kim and Margalit (2021)</v>
+        <v>Kalouptsidi (2018)</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="19">
-        <v>2021</v>
+        <v>233</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="16">
+        <v>2018</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>543</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="L48" s="14"/>
       <c r="M48" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>545</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
       <c r="P48" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q48" s="14"/>
+        <v>540</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R48" s="14"/>
-      <c r="S48" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U48" s="14"/>
-      <c r="V48" s="14">
-        <v>4</v>
-      </c>
-      <c r="W48" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X48" s="14" t="s">
-        <v>40</v>
+      <c r="V48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y48" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <v>47</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C49" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Kim and Pelc (2021)</v>
+        <v>Kim and Margalit (2021)</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="16">
+      <c r="E49" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="19">
         <v>2021</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>548</v>
+        <v>542</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S49" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T49" s="14"/>
       <c r="U49" s="14"/>
-      <c r="V49" s="13">
+      <c r="V49" s="14">
         <v>4</v>
       </c>
-      <c r="W49" s="13" t="s">
+      <c r="W49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X49" s="13" t="s">
+      <c r="X49" s="14" t="s">
         <v>40</v>
       </c>
       <c r="Y49" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <v>48</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>547</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Liang (2017)</v>
+        <v>Kim and Pelc (2021)</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="19">
-        <v>2017</v>
+        <v>490</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2021</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="L50" s="14"/>
+        <v>548</v>
+      </c>
       <c r="M50" s="14" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="P50" s="14"/>
+        <v>551</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>552</v>
+      </c>
       <c r="Q50" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R50" s="14"/>
-      <c r="S50" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S50" s="14"/>
       <c r="T50" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U50" s="14"/>
-      <c r="V50" s="14">
+      <c r="V50" s="13">
         <v>4</v>
       </c>
-      <c r="W50" s="14">
-        <v>4</v>
-      </c>
-      <c r="X50" s="14">
-        <v>3</v>
+      <c r="W50" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="Y50" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>134</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>547</v>
       </c>
       <c r="C51" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Lu and Zhou (2023)</v>
+        <v>Liang (2017)</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="16">
-        <v>2023</v>
+        <v>233</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="19">
+        <v>2017</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
+        <v>553</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>556</v>
+      </c>
       <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
+      <c r="Q51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U51" s="14"/>
-      <c r="V51" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>5</v>
+      <c r="V51" s="14">
+        <v>4</v>
+      </c>
+      <c r="W51" s="14">
+        <v>4</v>
+      </c>
+      <c r="X51" s="14">
+        <v>3</v>
       </c>
       <c r="Y51" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <v>50</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="C52" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Lu et al. (2018)</v>
+        <v>Lu and Zhou (2023)</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="19">
-        <v>2018</v>
+        <v>338</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="16">
+        <v>2023</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14" t="s">
-        <v>560</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="M52" s="14"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="P52" s="14" t="s">
-        <v>562</v>
-      </c>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="R52" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
-      <c r="V52" s="14">
-        <v>4</v>
-      </c>
-      <c r="W52" s="14">
-        <v>4</v>
-      </c>
-      <c r="X52" s="14">
-        <v>4</v>
+      <c r="V52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y52" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <v>51</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C53" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Luo and Van Assche (2023)</v>
+        <v>Lu et al. (2018)</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="16">
-        <v>2023</v>
+        <v>278</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="19">
+        <v>2018</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="O53" s="14"/>
+        <v>559</v>
+      </c>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14" t="s">
+        <v>561</v>
+      </c>
       <c r="P53" s="14" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S53" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T53" s="14"/>
       <c r="U53" s="14"/>
-      <c r="V53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X53" s="13" t="s">
-        <v>5</v>
+      <c r="V53" s="14">
+        <v>4</v>
+      </c>
+      <c r="W53" s="14">
+        <v>4</v>
+      </c>
+      <c r="X53" s="14">
+        <v>4</v>
       </c>
       <c r="Y53" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <v>52</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>93</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C54" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Mansfield and Solodoch (2024)</v>
+        <v>Luo and Van Assche (2023)</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="19">
-        <v>2024</v>
+      <c r="E54" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="16">
+        <v>2023</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="P54" s="14"/>
+        <v>564</v>
+      </c>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14" t="s">
+        <v>566</v>
+      </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
-      <c r="S54" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S54" s="14"/>
       <c r="T54" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U54" s="14"/>
-      <c r="V54" s="14">
-        <v>4</v>
-      </c>
-      <c r="W54" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X54" s="14" t="s">
-        <v>40</v>
+      <c r="V54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y54" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <v>53</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C55" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>McManus and Schaur (2016)</v>
+        <v>Mansfield and Solodoch (2024)</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="16">
-        <v>2016</v>
+      <c r="E55" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="19">
+        <v>2024</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="L55" s="14"/>
+        <v>567</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>568</v>
+      </c>
       <c r="M55" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>575</v>
+        <v>570</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P55" s="14"/>
-      <c r="Q55" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
       <c r="S55" s="14" t="s">
         <v>44</v>
@@ -11337,38 +11271,38 @@
         <v>43</v>
       </c>
       <c r="U55" s="14"/>
-      <c r="V55" s="13">
+      <c r="V55" s="14">
         <v>4</v>
       </c>
-      <c r="W55" s="13">
-        <v>4</v>
-      </c>
-      <c r="X55" s="13">
-        <v>4</v>
+      <c r="W55" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y55" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C56" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Niemeläinen (2021)</v>
+        <v>McManus and Schaur (2016)</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F56" s="16">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>23</v>
@@ -11377,26 +11311,32 @@
         <v>6</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q56" s="14"/>
+        <v>574</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
+      <c r="S56" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T56" s="13" t="s">
         <v>43</v>
       </c>
@@ -11411,61 +11351,60 @@
         <v>4</v>
       </c>
       <c r="Y56" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C57" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Osman and El‐Gendy (2025)</v>
+        <v>Niemeläinen (2021)</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F57" s="16">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>584</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="L57" s="14"/>
       <c r="M57" s="14" t="s">
-        <v>585</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="T57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U57" s="14"/>
       <c r="V57" s="13">
         <v>4</v>
       </c>
@@ -11476,126 +11415,125 @@
         <v>4</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C58" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pierce and Schott (2016)</v>
+        <v>Osman and El‐Gendy (2025)</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F58" s="16">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="L58" s="14"/>
+        <v>583</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="M58" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="N58" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
-      <c r="S58" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U58" s="14"/>
-      <c r="V58" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>5</v>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V58" s="13">
+        <v>4</v>
+      </c>
+      <c r="W58" s="13">
+        <v>4</v>
+      </c>
+      <c r="X58" s="13">
+        <v>4</v>
       </c>
       <c r="Y58" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C59" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Rahaman (2016)</v>
+        <v>Pierce and Schott (2016)</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="F59" s="16">
         <v>2016</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="N59" s="14"/>
+        <v>580</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>581</v>
+      </c>
       <c r="O59" s="14" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
+      <c r="Q59" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="R59" s="14"/>
-      <c r="S59" s="13" t="s">
+      <c r="S59" s="14" t="s">
         <v>44</v>
       </c>
       <c r="T59" s="13" t="s">
@@ -11612,61 +11550,61 @@
         <v>5</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C60" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ramani (2025)</v>
+        <v>Rahaman (2016)</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F60" s="16">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="P60" s="14" t="s">
-        <v>597</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
-      <c r="R60" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U60" s="14"/>
       <c r="V60" s="13" t="s">
         <v>5</v>
@@ -11678,189 +11616,189 @@
         <v>5</v>
       </c>
       <c r="Y60" s="14" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
-        <v>59</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>153</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C61" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ren (2024)</v>
+        <v>Ramani (2025)</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="19">
-        <v>2024</v>
+      <c r="E61" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="16">
+        <v>2025</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
+      <c r="M61" s="14" t="s">
+        <v>595</v>
+      </c>
       <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
+      <c r="O61" s="14" t="s">
+        <v>596</v>
+      </c>
       <c r="P61" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="R61" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S61" s="14"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
-      <c r="V61" s="14">
-        <v>4</v>
-      </c>
-      <c r="W61" s="14">
-        <v>4</v>
-      </c>
-      <c r="X61" s="14">
-        <v>3</v>
+      <c r="V61" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X61" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="Y61" s="14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="17" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <v>60</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>120</v>
+        <v>59</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C62" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wang (2021)</v>
+        <v>Ren (2024)</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="16">
-        <v>2021</v>
+        <v>233</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="19">
+        <v>2024</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>592</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="L62" s="14"/>
       <c r="M62" s="14"/>
-      <c r="N62" s="14" t="s">
-        <v>593</v>
-      </c>
+      <c r="N62" s="14"/>
       <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
+      <c r="P62" s="14" t="s">
+        <v>599</v>
+      </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
-      <c r="S62" s="14" t="s">
+      <c r="S62" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T62" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T62" s="14"/>
       <c r="U62" s="14"/>
-      <c r="V62" s="13">
+      <c r="V62" s="14">
         <v>4</v>
       </c>
-      <c r="W62" s="13">
+      <c r="W62" s="14">
         <v>4</v>
       </c>
-      <c r="X62" s="13">
-        <v>4</v>
+      <c r="X62" s="14">
+        <v>3</v>
       </c>
       <c r="Y62" s="14" t="s">
-        <v>360</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" s="17" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C63" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wu et al. (2024)</v>
+        <v>Wang (2021)</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>278</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="F63" s="16">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="M63" s="14" t="s">
-        <v>602</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="M63" s="14"/>
       <c r="N63" s="14" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
-      <c r="R63" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T63" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="U63" s="14"/>
       <c r="V63" s="13">
         <v>4</v>
@@ -11872,81 +11810,147 @@
         <v>4</v>
       </c>
       <c r="Y63" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C64" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Zeng and Kim (2024)</v>
+        <v>Wu et al. (2024)</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="F64" s="16">
         <v>2024</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>390</v>
+        <v>601</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14" t="s">
-        <v>391</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="O64" s="14"/>
       <c r="P64" s="14"/>
-      <c r="Q64" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R64" s="14"/>
-      <c r="S64" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
       <c r="U64" s="14"/>
       <c r="V64" s="13">
         <v>4</v>
       </c>
-      <c r="W64" s="13" t="s">
+      <c r="W64" s="13">
+        <v>4</v>
+      </c>
+      <c r="X64" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y64" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>62</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Zeng and Kim (2024)</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="16">
+        <v>2024</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R65" s="14"/>
+      <c r="S65" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U65" s="14"/>
+      <c r="V65" s="13">
+        <v>4</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="13" t="s">
+      <c r="X65" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y64" s="14" t="s">
+      <c r="Y65" s="14" t="s">
         <v>362</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
+  <autoFilter ref="A1:U65" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -11956,8 +11960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C5EF4-D7BB-A440-A0CC-D9338E97B403}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12289,35 +12293,35 @@
     </row>
     <row r="6" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
-        <f>data!A6</f>
-        <v>4</v>
+        <f>data!A7</f>
+        <v>3</v>
       </c>
       <c r="C6" s="8" t="str">
-        <f>data!D6</f>
+        <f>data!D7</f>
         <v>US</v>
       </c>
       <c r="D6" s="7">
-        <f>data!F6</f>
+        <f>data!F7</f>
         <v>2025</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(data!L6&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L7&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>IF(data!M6&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M7&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>IF(data!N6&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N7&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f>IF(data!O6&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O7&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I6" s="7" t="str">
-        <f>IF(data!P6&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P7&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J6" s="7"/>
@@ -12362,35 +12366,35 @@
     </row>
     <row r="7" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <f>data!A7</f>
-        <v>5</v>
+        <f>data!A6</f>
+        <v>3</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>data!D7</f>
+        <f>data!D6</f>
         <v>US</v>
       </c>
       <c r="D7" s="7">
-        <f>data!F7</f>
+        <f>data!F6</f>
         <v>2025</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(data!L7&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L6&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>IF(data!M7&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M6&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G7" s="7" t="str">
-        <f>IF(data!N7&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N6&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>IF(data!O7&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O6&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I7" s="7" t="str">
-        <f>IF(data!P7&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P6&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J7" s="7"/>
@@ -12435,35 +12439,35 @@
     </row>
     <row r="8" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <f>data!A8</f>
+        <f>data!A9</f>
         <v>6</v>
       </c>
       <c r="C8" s="8" t="str">
-        <f>data!D8</f>
+        <f>data!D9</f>
         <v>US</v>
       </c>
       <c r="D8" s="7">
-        <f>data!F8</f>
+        <f>data!F9</f>
         <v>2020</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(data!L8&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L9&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F8" s="7" t="str">
-        <f>IF(data!M8&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M9&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G8" s="7" t="str">
-        <f>IF(data!N8&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N9&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>IF(data!O8&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O9&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f>IF(data!P8&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P9&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J8" s="7"/>
@@ -12508,35 +12512,35 @@
     </row>
     <row r="9" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <f>data!A9</f>
+        <f>data!A10</f>
         <v>7</v>
       </c>
       <c r="C9" s="8" t="str">
-        <f>data!D9</f>
+        <f>data!D10</f>
         <v>US</v>
       </c>
       <c r="D9" s="7">
-        <f>data!F9</f>
+        <f>data!F10</f>
         <v>2021</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(data!L9&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L10&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F9" s="7" t="str">
-        <f>IF(data!M9&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M10&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G9" s="7" t="str">
-        <f>IF(data!N9&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N10&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>IF(data!O9&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O10&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I9" s="7" t="str">
-        <f>IF(data!P9&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P10&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J9" s="7"/>
@@ -12581,35 +12585,35 @@
     </row>
     <row r="10" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <f>data!A10</f>
+        <f>data!A11</f>
         <v>8</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f>data!D10</f>
+        <f>data!D11</f>
         <v>US</v>
       </c>
       <c r="D10" s="7">
-        <f>data!F10</f>
+        <f>data!F11</f>
         <v>2020</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(data!L10&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L11&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F10" s="7" t="str">
-        <f>IF(data!M10&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M11&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G10" s="7" t="str">
-        <f>IF(data!N10&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N11&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H10" s="7" t="str">
-        <f>IF(data!O10&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O11&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f>IF(data!P10&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P11&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J10" s="7"/>
@@ -12654,35 +12658,35 @@
     </row>
     <row r="11" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <f>data!A11</f>
+        <f>data!A12</f>
         <v>9</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f>data!D11</f>
+        <f>data!D12</f>
         <v>US</v>
       </c>
       <c r="D11" s="7">
-        <f>data!F11</f>
+        <f>data!F12</f>
         <v>2015</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(data!L11&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L12&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F11" s="7" t="str">
-        <f>IF(data!M11&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M12&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>IF(data!N11&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N12&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H11" s="7" t="str">
-        <f>IF(data!O11&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O12&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I11" s="7" t="str">
-        <f>IF(data!P11&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P12&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J11" s="9"/>
@@ -12727,35 +12731,35 @@
     </row>
     <row r="12" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <f>data!A12</f>
+        <f>data!A13</f>
         <v>10</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f>data!D12</f>
+        <f>data!D13</f>
         <v>US</v>
       </c>
       <c r="D12" s="7">
-        <f>data!F12</f>
+        <f>data!F13</f>
         <v>2022</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>IF(data!L12&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L13&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F12" s="7" t="str">
-        <f>IF(data!M12&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M13&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G12" s="7" t="str">
-        <f>IF(data!N12&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N13&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H12" s="7" t="str">
-        <f>IF(data!O12&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O13&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I12" s="7" t="str">
-        <f>IF(data!P12&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P13&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J12" s="7"/>
@@ -12800,35 +12804,35 @@
     </row>
     <row r="13" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <f>data!A13</f>
+        <f>data!A14</f>
         <v>11</v>
       </c>
       <c r="C13" s="8" t="str">
-        <f>data!D13</f>
+        <f>data!D14</f>
         <v>US</v>
       </c>
       <c r="D13" s="7">
-        <f>data!F13</f>
+        <f>data!F14</f>
         <v>2024</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>IF(data!L13&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L14&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>IF(data!M13&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M14&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G13" s="7" t="str">
-        <f>IF(data!N13&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N14&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(data!O13&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O14&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I13" s="7" t="str">
-        <f>IF(data!P13&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P14&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J13" s="7"/>
@@ -12873,35 +12877,35 @@
     </row>
     <row r="14" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <f>data!A14</f>
+        <f>data!A15</f>
         <v>12</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f>data!D14</f>
+        <f>data!D15</f>
         <v>US</v>
       </c>
       <c r="D14" s="7">
-        <f>data!F14</f>
+        <f>data!F15</f>
         <v>2022</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>IF(data!L14&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L15&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>IF(data!M14&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M15&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G14" s="7" t="str">
-        <f>IF(data!N14&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N15&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f>IF(data!O14&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O15&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I14" s="7" t="str">
-        <f>IF(data!P14&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P15&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J14" s="7"/>
@@ -12914,35 +12918,35 @@
     </row>
     <row r="15" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
-        <f>data!A15</f>
+        <f>data!A16</f>
         <v>13</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f>data!D15</f>
+        <f>data!D16</f>
         <v>US</v>
       </c>
       <c r="D15" s="7">
-        <f>data!F15</f>
+        <f>data!F16</f>
         <v>2024</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>IF(data!L15&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L16&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>IF(data!M15&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M16&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G15" s="7" t="str">
-        <f>IF(data!N15&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N16&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>IF(data!O15&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O16&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I15" s="7" t="str">
-        <f>IF(data!P15&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P16&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J15" s="7"/>
@@ -12976,35 +12980,35 @@
     </row>
     <row r="16" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <f>data!A16</f>
+        <f>data!A17</f>
         <v>14</v>
       </c>
       <c r="C16" s="8" t="str">
-        <f>data!D16</f>
+        <f>data!D17</f>
         <v>US</v>
       </c>
       <c r="D16" s="7">
-        <f>data!F16</f>
+        <f>data!F17</f>
         <v>2024</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>IF(data!L16&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L17&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F16" s="7" t="str">
-        <f>IF(data!M16&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M17&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G16" s="7" t="str">
-        <f>IF(data!N16&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N17&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>IF(data!O16&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O17&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I16" s="7" t="str">
-        <f>IF(data!P16&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P17&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J16" s="7"/>
@@ -13048,35 +13052,35 @@
     </row>
     <row r="17" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <f>data!A17</f>
+        <f>data!A18</f>
         <v>15</v>
       </c>
       <c r="C17" s="8" t="str">
-        <f>data!D17</f>
+        <f>data!D18</f>
         <v>US</v>
       </c>
       <c r="D17" s="7">
-        <f>data!F17</f>
+        <f>data!F18</f>
         <v>2014</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>IF(data!L17&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L18&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F17" s="7" t="str">
-        <f>IF(data!M17&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M18&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G17" s="7" t="str">
-        <f>IF(data!N17&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N18&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f>IF(data!O17&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O18&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I17" s="7" t="str">
-        <f>IF(data!P17&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P18&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J17" s="7"/>
@@ -13089,35 +13093,35 @@
     </row>
     <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <f>data!A18</f>
+        <f>data!A19</f>
         <v>16</v>
       </c>
       <c r="C18" s="8" t="str">
-        <f>data!D18</f>
+        <f>data!D19</f>
         <v>US</v>
       </c>
       <c r="D18" s="7">
-        <f>data!F18</f>
+        <f>data!F19</f>
         <v>2019</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>IF(data!L18&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L19&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F18" s="7" t="str">
-        <f>IF(data!M18&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M19&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>IF(data!N18&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N19&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f>IF(data!O18&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O19&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I18" s="7" t="str">
-        <f>IF(data!P18&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P19&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J18" s="9"/>
@@ -13145,35 +13149,35 @@
     </row>
     <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
-        <f>data!A19</f>
+        <f>data!A20</f>
         <v>17</v>
       </c>
       <c r="C19" s="8" t="str">
-        <f>data!D19</f>
+        <f>data!D20</f>
         <v>US</v>
       </c>
       <c r="D19" s="7">
-        <f>data!F19</f>
+        <f>data!F20</f>
         <v>2024</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>IF(data!L19&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L20&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>IF(data!M19&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M20&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G19" s="7" t="str">
-        <f>IF(data!N19&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N20&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f>IF(data!O19&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O20&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>IF(data!P19&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P20&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J19" s="7"/>
@@ -13209,35 +13213,35 @@
     </row>
     <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <f>data!A20</f>
+        <f>data!A21</f>
         <v>18</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f>data!D20</f>
+        <f>data!D21</f>
         <v>China</v>
       </c>
       <c r="D20" s="7">
-        <f>data!F20</f>
+        <f>data!F21</f>
         <v>2022</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>IF(data!L20&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L21&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>IF(data!M20&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M21&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G20" s="7" t="str">
-        <f>IF(data!N20&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N21&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f>IF(data!O20&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O21&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I20" s="7" t="str">
-        <f>IF(data!P20&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P21&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J20" s="9"/>
@@ -13250,35 +13254,35 @@
     </row>
     <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <f>data!A21</f>
+        <f>data!A22</f>
         <v>19</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f>data!D21</f>
+        <f>data!D22</f>
         <v>China</v>
       </c>
       <c r="D21" s="7">
-        <f>data!F21</f>
+        <f>data!F22</f>
         <v>2025</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>IF(data!L21&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L22&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>IF(data!M21&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M22&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G21" s="7" t="str">
-        <f>IF(data!N21&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N22&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f>IF(data!O21&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O22&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f>IF(data!P21&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P22&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J21" s="7"/>
@@ -13291,35 +13295,35 @@
     </row>
     <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <f>data!A22</f>
+        <f>data!A23</f>
         <v>20</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f>data!D22</f>
+        <f>data!D23</f>
         <v>US</v>
       </c>
       <c r="D22" s="7">
-        <f>data!F22</f>
+        <f>data!F23</f>
         <v>2016</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>IF(data!L22&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L23&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F22" s="7" t="str">
-        <f>IF(data!M22&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M23&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f>IF(data!N22&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N23&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H22" s="7" t="str">
-        <f>IF(data!O22&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O23&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I22" s="7" t="str">
-        <f>IF(data!P22&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P23&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J22" s="7"/>
@@ -13332,35 +13336,35 @@
     </row>
     <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <f>data!A23</f>
+        <f>data!A24</f>
         <v>21</v>
       </c>
       <c r="C23" s="8" t="str">
-        <f>data!D23</f>
+        <f>data!D24</f>
         <v>US</v>
       </c>
       <c r="D23" s="7">
-        <f>data!F23</f>
+        <f>data!F24</f>
         <v>2024</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>IF(data!L23&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L24&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>IF(data!M23&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M24&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G23" s="7" t="str">
-        <f>IF(data!N23&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N24&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>IF(data!O23&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O24&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IF(data!P23&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P24&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J23" s="9"/>
@@ -13373,35 +13377,35 @@
     </row>
     <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <f>data!A24</f>
+        <f>data!A25</f>
         <v>22</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>data!D24</f>
+        <f>data!D25</f>
         <v>Canada</v>
       </c>
       <c r="D24" s="7">
-        <f>data!F24</f>
+        <f>data!F25</f>
         <v>2021</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>IF(data!L24&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L25&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F24" s="7" t="str">
-        <f>IF(data!M24&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M25&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G24" s="7" t="str">
-        <f>IF(data!N24&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N25&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f>IF(data!O24&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O25&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I24" s="7" t="str">
-        <f>IF(data!P24&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P25&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J24" s="7"/>
@@ -13410,35 +13414,35 @@
     </row>
     <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <f>data!A25</f>
+        <f>data!A26</f>
         <v>23</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f>data!D25</f>
+        <f>data!D26</f>
         <v>Italy</v>
       </c>
       <c r="D25" s="7">
-        <f>data!F25</f>
+        <f>data!F26</f>
         <v>2018</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>IF(data!L25&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L26&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F25" s="7" t="str">
-        <f>IF(data!M25&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M26&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G25" s="7" t="str">
-        <f>IF(data!N25&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N26&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H25" s="7" t="str">
-        <f>IF(data!O25&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O26&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I25" s="7" t="str">
-        <f>IF(data!P25&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P26&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J25" s="7"/>
@@ -13447,35 +13451,35 @@
     </row>
     <row r="26" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <f>data!A26</f>
+        <f>data!A27</f>
         <v>24</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f>data!D26</f>
+        <f>data!D27</f>
         <v>UK</v>
       </c>
       <c r="D26" s="7">
-        <f>data!F26</f>
+        <f>data!F27</f>
         <v>2015</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f>IF(data!L26&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L27&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F26" s="7" t="str">
-        <f>IF(data!M26&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M27&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G26" s="7" t="str">
-        <f>IF(data!N26&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N27&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H26" s="7" t="str">
-        <f>IF(data!O26&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O27&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I26" s="7" t="str">
-        <f>IF(data!P26&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P27&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J26" s="7"/>
@@ -13491,35 +13495,35 @@
         <v>609</v>
       </c>
       <c r="B27" s="8">
-        <f>data!A27</f>
+        <f>data!A28</f>
         <v>25</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f>data!D27</f>
+        <f>data!D28</f>
         <v>China</v>
       </c>
       <c r="D27" s="7">
-        <f>data!F27</f>
+        <f>data!F28</f>
         <v>2023</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>IF(data!L27&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L28&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F27" s="7" t="str">
-        <f>IF(data!M27&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M28&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G27" s="7" t="str">
-        <f>IF(data!N27&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N28&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H27" s="7" t="str">
-        <f>IF(data!O27&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O28&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(data!P27&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P28&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J27" s="9"/>
@@ -13532,35 +13536,35 @@
     </row>
     <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <f>data!A28</f>
+        <f>data!A29</f>
         <v>26</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f>data!D28</f>
+        <f>data!D29</f>
         <v>Switzerland</v>
       </c>
       <c r="D28" s="7">
-        <f>data!F28</f>
+        <f>data!F29</f>
         <v>2024</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f>IF(data!L28&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L29&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F28" s="7" t="str">
-        <f>IF(data!M28&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M29&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G28" s="7" t="str">
-        <f>IF(data!N28&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N29&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IF(data!O28&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O29&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IF(data!P28&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P29&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J28" s="7"/>
@@ -13573,35 +13577,35 @@
     </row>
     <row r="29" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <f>data!A29</f>
+        <f>data!A30</f>
         <v>27</v>
       </c>
       <c r="C29" s="8" t="str">
-        <f>data!D29</f>
+        <f>data!D30</f>
         <v>UK</v>
       </c>
       <c r="D29" s="7">
-        <f>data!F29</f>
+        <f>data!F30</f>
         <v>2015</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f>IF(data!L29&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L30&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F29" s="7" t="str">
-        <f>IF(data!M29&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M30&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f>IF(data!N29&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N30&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(data!O29&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O30&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(data!P29&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P30&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J29" s="7"/>
@@ -13614,35 +13618,35 @@
     </row>
     <row r="30" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <f>data!A30</f>
+        <f>data!A31</f>
         <v>28</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f>data!D30</f>
+        <f>data!D31</f>
         <v>China</v>
       </c>
       <c r="D30" s="7">
-        <f>data!F30</f>
+        <f>data!F31</f>
         <v>2020</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f>IF(data!L30&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L31&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F30" s="7" t="str">
-        <f>IF(data!M30&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M31&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G30" s="7" t="str">
-        <f>IF(data!N30&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N31&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(data!O30&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O31&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(data!P30&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P31&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J30" s="7"/>
@@ -13655,35 +13659,35 @@
     </row>
     <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <f>data!A31</f>
+        <f>data!A32</f>
         <v>29</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f>data!D31</f>
+        <f>data!D32</f>
         <v>Canda</v>
       </c>
       <c r="D31" s="7">
-        <f>data!F31</f>
+        <f>data!F32</f>
         <v>2018</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f>IF(data!L31&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L32&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F31" s="7" t="str">
-        <f>IF(data!M31&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M32&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>IF(data!N31&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N32&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(data!O31&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O32&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(data!P31&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P32&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J31" s="7"/>
@@ -13696,35 +13700,35 @@
     </row>
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <f>data!A32</f>
+        <f>data!A33</f>
         <v>30</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f>data!D32</f>
+        <f>data!D33</f>
         <v>US</v>
       </c>
       <c r="D32" s="7">
-        <f>data!F32</f>
+        <f>data!F33</f>
         <v>2019</v>
       </c>
       <c r="E32" s="7" t="str">
-        <f>IF(data!L32&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L33&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F32" s="7" t="str">
-        <f>IF(data!M32&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M33&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f>IF(data!N32&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N33&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(data!O32&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O33&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(data!P32&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P33&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J32" s="7"/>
@@ -13737,35 +13741,35 @@
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
-        <f>data!A33</f>
+        <f>data!A34</f>
         <v>31</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f>data!D33</f>
+        <f>data!D34</f>
         <v>US</v>
       </c>
       <c r="D33" s="7">
-        <f>data!F33</f>
+        <f>data!F34</f>
         <v>2015</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f>IF(data!L33&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L34&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F33" s="7" t="str">
-        <f>IF(data!M33&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M34&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f>IF(data!N33&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N34&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f>IF(data!O33&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O34&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I33" s="7" t="str">
-        <f>IF(data!P33&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P34&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J33" s="7"/>
@@ -13778,35 +13782,35 @@
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
-        <f>data!A34</f>
+        <f>data!A35</f>
         <v>32</v>
       </c>
       <c r="C34" s="8" t="str">
-        <f>data!D34</f>
+        <f>data!D35</f>
         <v>China</v>
       </c>
       <c r="D34" s="7">
-        <f>data!F34</f>
+        <f>data!F35</f>
         <v>2017</v>
       </c>
       <c r="E34" s="7" t="str">
-        <f>IF(data!L34&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L35&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F34" s="7" t="str">
-        <f>IF(data!M34&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M35&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f>IF(data!N34&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N35&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H34" s="7" t="str">
-        <f>IF(data!O34&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O35&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I34" s="7" t="str">
-        <f>IF(data!P34&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P35&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J34" s="9"/>
@@ -13819,35 +13823,35 @@
     </row>
     <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
-        <f>data!A35</f>
+        <f>data!A36</f>
         <v>33</v>
       </c>
       <c r="C35" s="8" t="str">
-        <f>data!D35</f>
+        <f>data!D36</f>
         <v>US</v>
       </c>
       <c r="D35" s="7">
-        <f>data!F35</f>
+        <f>data!F36</f>
         <v>2020</v>
       </c>
       <c r="E35" s="7" t="str">
-        <f>IF(data!L35&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L36&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F35" s="7" t="str">
-        <f>IF(data!M35&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M36&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G35" s="7" t="str">
-        <f>IF(data!N35&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N36&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H35" s="7" t="str">
-        <f>IF(data!O35&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O36&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I35" s="7" t="str">
-        <f>IF(data!P35&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P36&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J35" s="7"/>
@@ -13860,35 +13864,35 @@
     </row>
     <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
-        <f>data!A36</f>
+        <f>data!A37</f>
         <v>34</v>
       </c>
       <c r="C36" s="8" t="str">
-        <f>data!D36</f>
+        <f>data!D37</f>
         <v>US</v>
       </c>
       <c r="D36" s="7">
-        <f>data!F36</f>
+        <f>data!F37</f>
         <v>2024</v>
       </c>
       <c r="E36" s="7" t="str">
-        <f>IF(data!L36&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L37&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F36" s="7" t="str">
-        <f>IF(data!M36&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M37&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f>IF(data!N36&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N37&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H36" s="7" t="str">
-        <f>IF(data!O36&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O37&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I36" s="7" t="str">
-        <f>IF(data!P36&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P37&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J36" s="7"/>
@@ -13901,35 +13905,35 @@
     </row>
     <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
-        <f>data!A37</f>
+        <f>data!A38</f>
         <v>35</v>
       </c>
       <c r="C37" s="8" t="str">
-        <f>data!D37</f>
+        <f>data!D38</f>
         <v>US</v>
       </c>
       <c r="D37" s="7">
-        <f>data!F37</f>
+        <f>data!F38</f>
         <v>2015</v>
       </c>
       <c r="E37" s="7" t="str">
-        <f>IF(data!L37&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L38&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f>IF(data!M37&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M38&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G37" s="7" t="str">
-        <f>IF(data!N37&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N38&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H37" s="7" t="str">
-        <f>IF(data!O37&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O38&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I37" s="7" t="str">
-        <f>IF(data!P37&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P38&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J37" s="7"/>
@@ -13942,35 +13946,35 @@
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
-        <f>data!A38</f>
+        <f>data!A39</f>
         <v>36</v>
       </c>
       <c r="C38" s="8" t="str">
-        <f>data!D38</f>
+        <f>data!D39</f>
         <v>Norway</v>
       </c>
       <c r="D38" s="7">
-        <f>data!F38</f>
+        <f>data!F39</f>
         <v>2024</v>
       </c>
       <c r="E38" s="7" t="str">
-        <f>IF(data!L38&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L39&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F38" s="7" t="str">
-        <f>IF(data!M38&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M39&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f>IF(data!N38&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N39&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H38" s="7" t="str">
-        <f>IF(data!O38&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O39&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I38" s="7" t="str">
-        <f>IF(data!P38&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P39&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J38" s="7"/>
@@ -13986,35 +13990,35 @@
         <v>609</v>
       </c>
       <c r="B39" s="8">
-        <f>data!A39</f>
+        <f>data!A40</f>
         <v>37</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f>data!D39</f>
+        <f>data!D40</f>
         <v>UK</v>
       </c>
       <c r="D39" s="7">
-        <f>data!F39</f>
+        <f>data!F40</f>
         <v>2017</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f>IF(data!L39&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L40&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F39" s="7" t="str">
-        <f>IF(data!M39&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M40&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G39" s="7" t="str">
-        <f>IF(data!N39&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N40&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H39" s="7" t="str">
-        <f>IF(data!O39&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O40&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I39" s="7" t="str">
-        <f>IF(data!P39&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P40&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J39" s="9"/>
@@ -14027,35 +14031,35 @@
     </row>
     <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
-        <f>data!A40</f>
+        <f>data!A41</f>
         <v>38</v>
       </c>
       <c r="C40" s="8" t="str">
-        <f>data!D40</f>
+        <f>data!D41</f>
         <v>US</v>
       </c>
       <c r="D40" s="7">
-        <f>data!F40</f>
+        <f>data!F41</f>
         <v>2024</v>
       </c>
       <c r="E40" s="7" t="str">
-        <f>IF(data!L40&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L41&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F40" s="7" t="str">
-        <f>IF(data!M40&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M41&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G40" s="7" t="str">
-        <f>IF(data!N40&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N41&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H40" s="7" t="str">
-        <f>IF(data!O40&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O41&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I40" s="7" t="str">
-        <f>IF(data!P40&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P41&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J40" s="7"/>
@@ -14068,35 +14072,35 @@
     </row>
     <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
-        <f>data!A41</f>
+        <f>data!A42</f>
         <v>39</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f>data!D41</f>
+        <f>data!D42</f>
         <v>US</v>
       </c>
       <c r="D41" s="7">
-        <f>data!F41</f>
+        <f>data!F42</f>
         <v>2017</v>
       </c>
       <c r="E41" s="7" t="str">
-        <f>IF(data!L41&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L42&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F41" s="7" t="str">
-        <f>IF(data!M41&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M42&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G41" s="7" t="str">
-        <f>IF(data!N41&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N42&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H41" s="7" t="str">
-        <f>IF(data!O41&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O42&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I41" s="7" t="str">
-        <f>IF(data!P41&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P42&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J41" s="7"/>
@@ -14112,35 +14116,35 @@
         <v>609</v>
       </c>
       <c r="B42" s="8">
-        <f>data!A42</f>
+        <f>data!A43</f>
         <v>40</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f>data!D42</f>
+        <f>data!D43</f>
         <v>US</v>
       </c>
       <c r="D42" s="7">
-        <f>data!F42</f>
+        <f>data!F43</f>
         <v>2016</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f>IF(data!L42&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L43&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F42" s="7" t="str">
-        <f>IF(data!M42&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M43&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G42" s="7" t="str">
-        <f>IF(data!N42&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N43&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H42" s="7" t="str">
-        <f>IF(data!O42&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O43&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I42" s="7" t="str">
-        <f>IF(data!P42&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P43&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J42" s="7"/>
@@ -14153,35 +14157,35 @@
     </row>
     <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
-        <f>data!A43</f>
+        <f>data!A44</f>
         <v>41</v>
       </c>
       <c r="C43" s="8" t="str">
-        <f>data!D43</f>
+        <f>data!D44</f>
         <v>Switzerland</v>
       </c>
       <c r="D43" s="7">
-        <f>data!F43</f>
+        <f>data!F44</f>
         <v>2021</v>
       </c>
       <c r="E43" s="7" t="str">
-        <f>IF(data!L43&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L44&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F43" s="7" t="str">
-        <f>IF(data!M43&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M44&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f>IF(data!N43&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N44&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H43" s="7" t="str">
-        <f>IF(data!O43&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O44&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I43" s="7" t="str">
-        <f>IF(data!P43&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P44&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J43" s="7"/>
@@ -14194,35 +14198,35 @@
     </row>
     <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
-        <f>data!A44</f>
+        <f>data!A45</f>
         <v>42</v>
       </c>
       <c r="C44" s="8" t="str">
-        <f>data!D44</f>
+        <f>data!D45</f>
         <v>China</v>
       </c>
       <c r="D44" s="7">
-        <f>data!F44</f>
+        <f>data!F45</f>
         <v>2023</v>
       </c>
       <c r="E44" s="7" t="str">
-        <f>IF(data!L44&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L45&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f>IF(data!M44&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M45&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G44" s="7" t="str">
-        <f>IF(data!N44&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N45&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H44" s="7" t="str">
-        <f>IF(data!O44&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O45&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I44" s="7" t="str">
-        <f>IF(data!P44&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P45&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J44" s="9"/>
@@ -14235,35 +14239,35 @@
     </row>
     <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
-        <f>data!A45</f>
+        <f>data!A46</f>
         <v>43</v>
       </c>
       <c r="C45" s="8" t="str">
-        <f>data!D45</f>
+        <f>data!D46</f>
         <v>China</v>
       </c>
       <c r="D45" s="7">
-        <f>data!F45</f>
+        <f>data!F46</f>
         <v>2024</v>
       </c>
       <c r="E45" s="7" t="str">
-        <f>IF(data!L45&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L46&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F45" s="7" t="str">
-        <f>IF(data!M45&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M46&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G45" s="7" t="str">
-        <f>IF(data!N45&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N46&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H45" s="7" t="str">
-        <f>IF(data!O45&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O46&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I45" s="7" t="str">
-        <f>IF(data!P45&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P46&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J45" s="7"/>
@@ -14276,35 +14280,35 @@
     </row>
     <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
-        <f>data!A46</f>
+        <f>data!A47</f>
         <v>44</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f>data!D46</f>
+        <f>data!D47</f>
         <v>China</v>
       </c>
       <c r="D46" s="7">
-        <f>data!F46</f>
+        <f>data!F47</f>
         <v>2024</v>
       </c>
       <c r="E46" s="7" t="str">
-        <f>IF(data!L46&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L47&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F46" s="7" t="str">
-        <f>IF(data!M46&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M47&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f>IF(data!N46&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N47&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H46" s="7" t="str">
-        <f>IF(data!O46&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O47&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I46" s="7" t="str">
-        <f>IF(data!P46&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P47&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J46" s="7"/>
@@ -14317,35 +14321,35 @@
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
-        <f>data!A47</f>
+        <f>data!A48</f>
         <v>45</v>
       </c>
       <c r="C47" s="8" t="str">
-        <f>data!D47</f>
+        <f>data!D48</f>
         <v>US</v>
       </c>
       <c r="D47" s="7">
-        <f>data!F47</f>
+        <f>data!F48</f>
         <v>2018</v>
       </c>
       <c r="E47" s="7" t="str">
-        <f>IF(data!L47&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L48&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F47" s="7" t="str">
-        <f>IF(data!M47&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M48&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G47" s="7" t="str">
-        <f>IF(data!N47&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N48&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H47" s="7" t="str">
-        <f>IF(data!O47&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O48&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I47" s="7" t="str">
-        <f>IF(data!P47&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P48&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J47" s="9"/>
@@ -14358,35 +14362,35 @@
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
-        <f>data!A48</f>
+        <f>data!A49</f>
         <v>46</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f>data!D48</f>
+        <f>data!D49</f>
         <v>South Korea</v>
       </c>
       <c r="D48" s="7">
-        <f>data!F48</f>
+        <f>data!F49</f>
         <v>2021</v>
       </c>
       <c r="E48" s="7" t="str">
-        <f>IF(data!L48&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L49&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F48" s="7" t="str">
-        <f>IF(data!M48&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M49&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f>IF(data!N48&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N49&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H48" s="7" t="str">
-        <f>IF(data!O48&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O49&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I48" s="7" t="str">
-        <f>IF(data!P48&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P49&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J48" s="7"/>
@@ -14399,35 +14403,35 @@
     </row>
     <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
-        <f>data!A49</f>
+        <f>data!A50</f>
         <v>47</v>
       </c>
       <c r="C49" s="8" t="str">
-        <f>data!D49</f>
+        <f>data!D50</f>
         <v>South Korea</v>
       </c>
       <c r="D49" s="7">
-        <f>data!F49</f>
+        <f>data!F50</f>
         <v>2021</v>
       </c>
       <c r="E49" s="7" t="str">
-        <f>IF(data!L49&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L50&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F49" s="7" t="str">
-        <f>IF(data!M49&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M50&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G49" s="7" t="str">
-        <f>IF(data!N49&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N50&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H49" s="7" t="str">
-        <f>IF(data!O49&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O50&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I49" s="7" t="str">
-        <f>IF(data!P49&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P50&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J49" s="9"/>
@@ -14440,35 +14444,35 @@
     </row>
     <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
-        <f>data!A50</f>
+        <f>data!A51</f>
         <v>48</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f>data!D50</f>
+        <f>data!D51</f>
         <v>US</v>
       </c>
       <c r="D50" s="7">
-        <f>data!F50</f>
+        <f>data!F51</f>
         <v>2017</v>
       </c>
       <c r="E50" s="7" t="str">
-        <f>IF(data!L50&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L51&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F50" s="7" t="str">
-        <f>IF(data!M50&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M51&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f>IF(data!N50&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N51&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H50" s="7" t="str">
-        <f>IF(data!O50&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O51&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I50" s="7" t="str">
-        <f>IF(data!P50&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P51&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J50" s="7"/>
@@ -14481,35 +14485,35 @@
     </row>
     <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
-        <f>data!A51</f>
+        <f>data!A52</f>
         <v>49</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f>data!D51</f>
+        <f>data!D52</f>
         <v>Hong Kong</v>
       </c>
       <c r="D51" s="7">
-        <f>data!F51</f>
+        <f>data!F52</f>
         <v>2023</v>
       </c>
       <c r="E51" s="7" t="str">
-        <f>IF(data!L51&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L52&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F51" s="7" t="str">
-        <f>IF(data!M51&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M52&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G51" s="7" t="str">
-        <f>IF(data!N51&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N52&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H51" s="7" t="str">
-        <f>IF(data!O51&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O52&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I51" s="7" t="str">
-        <f>IF(data!P51&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P52&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J51" s="9"/>
@@ -14522,35 +14526,35 @@
     </row>
     <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
-        <f>data!A52</f>
+        <f>data!A53</f>
         <v>50</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f>data!D52</f>
+        <f>data!D53</f>
         <v>China</v>
       </c>
       <c r="D52" s="7">
-        <f>data!F52</f>
+        <f>data!F53</f>
         <v>2018</v>
       </c>
       <c r="E52" s="7" t="str">
-        <f>IF(data!L52&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L53&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F52" s="7" t="str">
-        <f>IF(data!M52&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M53&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G52" s="7" t="str">
-        <f>IF(data!N52&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N53&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H52" s="7" t="str">
-        <f>IF(data!O52&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O53&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I52" s="7" t="str">
-        <f>IF(data!P52&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P53&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J52" s="7"/>
@@ -14563,35 +14567,35 @@
     </row>
     <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
-        <f>data!A53</f>
+        <f>data!A54</f>
         <v>51</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f>data!D53</f>
+        <f>data!D54</f>
         <v>US</v>
       </c>
       <c r="D53" s="7">
-        <f>data!F53</f>
+        <f>data!F54</f>
         <v>2023</v>
       </c>
       <c r="E53" s="7" t="str">
-        <f>IF(data!L53&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L54&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F53" s="7" t="str">
-        <f>IF(data!M53&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M54&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G53" s="7" t="str">
-        <f>IF(data!N53&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N54&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H53" s="7" t="str">
-        <f>IF(data!O53&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O54&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I53" s="7" t="str">
-        <f>IF(data!P53&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P54&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J53" s="9"/>
@@ -14604,35 +14608,35 @@
     </row>
     <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
-        <f>data!A54</f>
+        <f>data!A55</f>
         <v>52</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f>data!D54</f>
+        <f>data!D55</f>
         <v>US</v>
       </c>
       <c r="D54" s="7">
-        <f>data!F54</f>
+        <f>data!F55</f>
         <v>2024</v>
       </c>
       <c r="E54" s="7" t="str">
-        <f>IF(data!L54&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L55&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F54" s="7" t="str">
-        <f>IF(data!M54&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M55&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G54" s="7" t="str">
-        <f>IF(data!N54&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N55&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H54" s="7" t="str">
-        <f>IF(data!O54&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O55&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I54" s="7" t="str">
-        <f>IF(data!P54&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P55&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J54" s="7"/>
@@ -14645,35 +14649,35 @@
     </row>
     <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
-        <f>data!A55</f>
+        <f>data!A56</f>
         <v>53</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f>data!D55</f>
+        <f>data!D56</f>
         <v>US</v>
       </c>
       <c r="D55" s="7">
-        <f>data!F55</f>
+        <f>data!F56</f>
         <v>2016</v>
       </c>
       <c r="E55" s="7" t="str">
-        <f>IF(data!L55&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L56&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F55" s="7" t="str">
-        <f>IF(data!M55&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M56&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G55" s="7" t="str">
-        <f>IF(data!N55&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N56&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H55" s="7" t="str">
-        <f>IF(data!O55&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O56&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I55" s="7" t="str">
-        <f>IF(data!P55&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P56&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J55" s="7"/>
@@ -14686,35 +14690,35 @@
     </row>
     <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
-        <f>data!A56</f>
+        <f>data!A57</f>
         <v>54</v>
       </c>
       <c r="C56" s="8" t="str">
-        <f>data!D56</f>
+        <f>data!D57</f>
         <v>Finland</v>
       </c>
       <c r="D56" s="7">
-        <f>data!F56</f>
+        <f>data!F57</f>
         <v>2021</v>
       </c>
       <c r="E56" s="7" t="str">
-        <f>IF(data!L56&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L57&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F56" s="7" t="str">
-        <f>IF(data!M56&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M57&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G56" s="7" t="str">
-        <f>IF(data!N56&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N57&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H56" s="7" t="str">
-        <f>IF(data!O56&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O57&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I56" s="7" t="str">
-        <f>IF(data!P56&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P57&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J56" s="7"/>
@@ -14727,35 +14731,35 @@
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
-        <f>data!A57</f>
+        <f>data!A58</f>
         <v>55</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f>data!D57</f>
+        <f>data!D58</f>
         <v>UK</v>
       </c>
       <c r="D57" s="7">
-        <f>data!F57</f>
+        <f>data!F58</f>
         <v>2025</v>
       </c>
       <c r="E57" s="7" t="str">
-        <f>IF(data!L57&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L58&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F57" s="7" t="str">
-        <f>IF(data!M57&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M58&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G57" s="7" t="str">
-        <f>IF(data!N57&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N58&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H57" s="7" t="str">
-        <f>IF(data!O57&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O58&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I57" s="7" t="str">
-        <f>IF(data!P57&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P58&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J57" s="7"/>
@@ -14768,35 +14772,35 @@
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
-        <f>data!A58</f>
+        <f>data!A59</f>
         <v>56</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f>data!D58</f>
+        <f>data!D59</f>
         <v>US</v>
       </c>
       <c r="D58" s="7">
-        <f>data!F58</f>
+        <f>data!F59</f>
         <v>2016</v>
       </c>
       <c r="E58" s="7" t="str">
-        <f>IF(data!L58&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L59&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F58" s="7" t="str">
-        <f>IF(data!M58&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M59&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G58" s="7" t="str">
-        <f>IF(data!N58&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N59&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H58" s="7" t="str">
-        <f>IF(data!O58&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O59&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I58" s="7" t="str">
-        <f>IF(data!P58&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P59&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J58" s="7"/>
@@ -14809,35 +14813,35 @@
     </row>
     <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
-        <f>data!A59</f>
+        <f>data!A60</f>
         <v>57</v>
       </c>
       <c r="C59" s="8" t="str">
-        <f>data!D59</f>
+        <f>data!D60</f>
         <v>Canada</v>
       </c>
       <c r="D59" s="7">
-        <f>data!F59</f>
+        <f>data!F60</f>
         <v>2016</v>
       </c>
       <c r="E59" s="7" t="str">
-        <f>IF(data!L59&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L60&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F59" s="7" t="str">
-        <f>IF(data!M59&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M60&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G59" s="7" t="str">
-        <f>IF(data!N59&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N60&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H59" s="7" t="str">
-        <f>IF(data!O59&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O60&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I59" s="7" t="str">
-        <f>IF(data!P59&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P60&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J59" s="7"/>
@@ -14850,35 +14854,35 @@
     </row>
     <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
-        <f>data!A60</f>
+        <f>data!A61</f>
         <v>58</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f>data!D60</f>
+        <f>data!D61</f>
         <v>US</v>
       </c>
       <c r="D60" s="7">
-        <f>data!F60</f>
+        <f>data!F61</f>
         <v>2025</v>
       </c>
       <c r="E60" s="7" t="str">
-        <f>IF(data!L60&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L61&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F60" s="7" t="str">
-        <f>IF(data!M60&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M61&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G60" s="7" t="str">
-        <f>IF(data!N60&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N61&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H60" s="7" t="str">
-        <f>IF(data!O60&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O61&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I60" s="7" t="str">
-        <f>IF(data!P60&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P61&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J60" s="9"/>
@@ -14894,35 +14898,35 @@
         <v>609</v>
       </c>
       <c r="B61" s="8">
-        <f>data!A61</f>
+        <f>data!A62</f>
         <v>59</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f>data!D61</f>
+        <f>data!D62</f>
         <v>US</v>
       </c>
       <c r="D61" s="7">
-        <f>data!F61</f>
+        <f>data!F62</f>
         <v>2024</v>
       </c>
       <c r="E61" s="7" t="str">
-        <f>IF(data!L61&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L62&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F61" s="7" t="str">
-        <f>IF(data!M61&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M62&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G61" s="7" t="str">
-        <f>IF(data!N61&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N62&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H61" s="7" t="str">
-        <f>IF(data!O61&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O62&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I61" s="7" t="str">
-        <f>IF(data!P61&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P62&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
       <c r="J61" s="7"/>
@@ -14935,35 +14939,35 @@
     </row>
     <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
-        <f>data!A62</f>
+        <f>data!A63</f>
         <v>60</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f>data!D62</f>
+        <f>data!D63</f>
         <v>China</v>
       </c>
       <c r="D62" s="7">
-        <f>data!F62</f>
+        <f>data!F63</f>
         <v>2021</v>
       </c>
       <c r="E62" s="7" t="str">
-        <f>IF(data!L62&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L63&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F62" s="7" t="str">
-        <f>IF(data!M62&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M63&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G62" s="7" t="str">
-        <f>IF(data!N62&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N63&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H62" s="7" t="str">
-        <f>IF(data!O62&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O63&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I62" s="7" t="str">
-        <f>IF(data!P62&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P63&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J62" s="7"/>
@@ -14976,35 +14980,35 @@
     </row>
     <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
-        <f>data!A63</f>
+        <f>data!A64</f>
         <v>61</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f>data!D63</f>
+        <f>data!D64</f>
         <v>China</v>
       </c>
       <c r="D63" s="7">
-        <f>data!F63</f>
+        <f>data!F64</f>
         <v>2024</v>
       </c>
       <c r="E63" s="7" t="str">
-        <f>IF(data!L63&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L64&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F63" s="7" t="str">
-        <f>IF(data!M63&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M64&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G63" s="7" t="str">
-        <f>IF(data!N63&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N64&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H63" s="7" t="str">
-        <f>IF(data!O63&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O64&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I63" s="7" t="str">
-        <f>IF(data!P63&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P64&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
       <c r="J63" s="7"/>
@@ -15017,35 +15021,35 @@
     </row>
     <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
-        <f>data!A64</f>
+        <f>data!A65</f>
         <v>62</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f>data!D64</f>
+        <f>data!D65</f>
         <v>US</v>
       </c>
       <c r="D64" s="7">
-        <f>data!F64</f>
+        <f>data!F65</f>
         <v>2024</v>
       </c>
       <c r="E64" s="7" t="str">
-        <f>IF(data!L64&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!L65&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F64" s="7" t="str">
-        <f>IF(data!M64&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!M65&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G64" s="7" t="str">
-        <f>IF(data!N64&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!N65&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H64" s="7" t="str">
-        <f>IF(data!O64&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!O65&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I64" s="7" t="str">
-        <f>IF(data!P64&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!P65&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
     </row>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C065D-DEF4-8143-80E5-DF3D7892E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74E68D-56AA-0F49-913D-1450B9CB8CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1140" windowWidth="45920" windowHeight="29620" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="3200" yWindow="2000" windowWidth="32080" windowHeight="29620" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="count" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$U$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$64</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">chart!$M$2:$M$13</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">chart!$O$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">chart!$O$2:$O$13</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="659">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2159,6 +2159,135 @@
   </si>
   <si>
     <t>Alessandria et al. (2025b)</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>Autor et al. (2013)</t>
+  </si>
+  <si>
+    <t>Autor, Dorn, and Hanson (2013)</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Database Analysis</t>
+  </si>
+  <si>
+    <t>Literature Review</t>
+  </si>
+  <si>
+    <t>Empirical Analysis</t>
+  </si>
+  <si>
+    <t>Comparative Data Analysis</t>
+  </si>
+  <si>
+    <t>Dynamic Modelling</t>
+  </si>
+  <si>
+    <t>Panel Data Analysis</t>
+  </si>
+  <si>
+    <t>Survey and Media Data Analysis</t>
+  </si>
+  <si>
+    <t>Survey and Data Analysis</t>
+  </si>
+  <si>
+    <t>Empirical Analysis in CES Model</t>
+  </si>
+  <si>
+    <t>Comparative Analysis of Employment Data</t>
+  </si>
+  <si>
+    <t>Firm-level Data Modelling Analysis</t>
+  </si>
+  <si>
+    <t>Textual and Firm-level Data Analysis</t>
+  </si>
+  <si>
+    <t>County-level Data Analysis</t>
+  </si>
+  <si>
+    <t>Historical Analysis</t>
+  </si>
+  <si>
+    <t>Dynamic Trade Modelling</t>
+  </si>
+  <si>
+    <t>Geo-referenced Data Analysis</t>
+  </si>
+  <si>
+    <t>Difference-in-difference (DiD) Analysis</t>
+  </si>
+  <si>
+    <t>Quantile Regression</t>
+  </si>
+  <si>
+    <t>Nighttime Imagery Analysis</t>
+  </si>
+  <si>
+    <t>District-level and individual-level Analysis</t>
+  </si>
+  <si>
+    <t>Transcation-level Panel Data Analysis</t>
+  </si>
+  <si>
+    <t>Archival Research</t>
+  </si>
+  <si>
+    <t>Economic Modelling</t>
+  </si>
+  <si>
+    <t>General Equilibrium Modelling</t>
+  </si>
+  <si>
+    <t>Structural Modelling</t>
+  </si>
+  <si>
+    <t>Firm-level Data Analysis</t>
+  </si>
+  <si>
+    <t>Data Model Expansion</t>
+  </si>
+  <si>
+    <t>Empirical Analysis of Voting Behaviour</t>
+  </si>
+  <si>
+    <t>Transcation-level Data Analysis</t>
+  </si>
+  <si>
+    <t>Merchandise-level Data Analysis</t>
+  </si>
+  <si>
+    <t>Supply Chain Analysis using Import Data</t>
+  </si>
+  <si>
+    <t>Bayesiann Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Multi-sector Gravity Model Analysis</t>
+  </si>
+  <si>
+    <t>Spatial Allocation Model Using Copula Approaches</t>
+  </si>
+  <si>
+    <t>Systematic Consolidation Approach</t>
+  </si>
+  <si>
+    <t>Decomposition of Trade Flows using Value-added Data</t>
+  </si>
+  <si>
+    <t>Monthly Customs Data Analysis</t>
+  </si>
+  <si>
+    <t>Firm-level Data Analysis with Surveys</t>
+  </si>
+  <si>
+    <t>General Equilibrium Modeling with Sectoral Analysis</t>
   </si>
 </sst>
 </file>
@@ -7638,13 +7767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7658,14 +7787,15 @@
     <col min="8" max="8" width="19.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="101.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="31.1640625" style="5" customWidth="1"/>
-    <col min="13" max="16" width="31.1640625" style="1" customWidth="1"/>
-    <col min="17" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.1640625" style="5" customWidth="1"/>
+    <col min="14" max="17" width="31.1640625" style="1" customWidth="1"/>
+    <col min="18" max="25" width="8" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>369</v>
       </c>
@@ -7697,52 +7827,55 @@
         <v>231</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -7768,16 +7901,16 @@
         <v>5</v>
       </c>
       <c r="I2" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J2" s="11">
         <v>5</v>
       </c>
       <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
         <v>10</v>
-      </c>
-      <c r="L2" s="11">
-        <v>15</v>
       </c>
       <c r="M2" s="11">
         <v>15</v>
@@ -7788,11 +7921,11 @@
       <c r="O2" s="11">
         <v>15</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>15</v>
       </c>
-      <c r="Q2" s="11">
-        <v>1</v>
+      <c r="Q2" s="12">
+        <v>15</v>
       </c>
       <c r="R2" s="11">
         <v>1</v>
@@ -7816,10 +7949,13 @@
         <v>1</v>
       </c>
       <c r="Y2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -7852,40 +7988,43 @@
         <v>252</v>
       </c>
       <c r="K3" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="13">
-        <v>4</v>
-      </c>
+      <c r="V3" s="14"/>
       <c r="W3" s="13">
         <v>4</v>
       </c>
       <c r="X3" s="13">
         <v>4</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -7893,7 +8032,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="13" t="str">
-        <f t="shared" ref="C4:C65" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
+        <f t="shared" ref="C4:C64" si="0">IF(B4="", "", B4 &amp; IF(F4="", " (no year)", " (" &amp; F4 &amp; ")"))</f>
         <v>Acemoglu et al. (2016)</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -7918,44 +8057,47 @@
         <v>253</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="13">
-        <v>4</v>
-      </c>
+      <c r="V4" s="14"/>
       <c r="W4" s="13">
         <v>4</v>
       </c>
       <c r="X4" s="13">
         <v>4</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="17" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -7988,40 +8130,43 @@
         <v>250</v>
       </c>
       <c r="K5" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="13">
-        <v>4</v>
-      </c>
+      <c r="V5" s="14"/>
       <c r="W5" s="13">
         <v>4</v>
       </c>
       <c r="X5" s="13">
         <v>4</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>53</v>
@@ -8050,41 +8195,44 @@
       <c r="J6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="14"/>
+      <c r="U6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="13">
-        <v>4</v>
-      </c>
+      <c r="V6" s="14"/>
       <c r="W6" s="13">
         <v>4</v>
       </c>
       <c r="X6" s="13">
         <v>4</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>53</v>
@@ -8113,395 +8261,482 @@
       <c r="J7" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="14"/>
+      <c r="U7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="V7" s="14"/>
       <c r="W7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Amiti et al. (2020)</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="14"/>
+      <c r="W8" s="13">
+        <v>4</v>
+      </c>
+      <c r="X8" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Amiti et al. (2020)</v>
+        <v>Aslan and Kumar (2021)</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F9" s="16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>412</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="S9" s="14"/>
-      <c r="T9" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="13">
-        <v>4</v>
-      </c>
+      <c r="V9" s="14"/>
       <c r="W9" s="13">
         <v>4</v>
       </c>
       <c r="X9" s="13">
         <v>4</v>
       </c>
-      <c r="Y9" s="14" t="s">
-        <v>257</v>
+      <c r="Y9" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Aslan and Kumar (2021)</v>
+        <v>Autor et al. (2020)</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F10" s="16">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="L10" s="14"/>
+        <v>261</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>419</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>415</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O10" s="14"/>
       <c r="P10" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="13">
-        <v>4</v>
-      </c>
-      <c r="W10" s="13">
-        <v>4</v>
-      </c>
-      <c r="X10" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>258</v>
+      <c r="T10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="W10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Autor et al. (2020)</v>
+        <v>Autor et al. (2015)</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F11" s="16">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
-        <v>421</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="O11" s="14"/>
       <c r="P11" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q11" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="U11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="14"/>
-      <c r="V11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>262</v>
+      <c r="V11" s="14"/>
+      <c r="W11" s="13">
+        <v>4</v>
+      </c>
+      <c r="X11" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Autor et al. (2015)</v>
+        <v>Ballard-Rosa et al. (2022)</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="16">
-        <v>2015</v>
+      <c r="E12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2022</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="13" t="s">
-        <v>45</v>
+        <v>264</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>428</v>
       </c>
       <c r="R12" s="14"/>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="14"/>
+      <c r="T12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="U12" s="14"/>
-      <c r="V12" s="13">
+      <c r="V12" s="14"/>
+      <c r="W12" s="14">
         <v>4</v>
       </c>
-      <c r="W12" s="13">
-        <v>4</v>
-      </c>
-      <c r="X12" s="13">
-        <v>4</v>
+      <c r="X12" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>263</v>
+        <v>40</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>138</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ballard-Rosa et al. (2022)</v>
+        <v>Benguria and Saffie (2024)</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="19">
-        <v>2022</v>
+      <c r="E13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2024</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="L13" s="14"/>
+        <v>267</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>437</v>
+      </c>
       <c r="M13" s="14" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>428</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="14"/>
+      <c r="T13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14">
+      <c r="U13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="13">
         <v>4</v>
       </c>
-      <c r="W13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>265</v>
+      <c r="X13" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Benguria and Saffie (2024)</v>
-      </c>
-      <c r="D14" s="14" t="s">
+        <v>Benguria et al. (2022)</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>233</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F14" s="16">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>23</v>
@@ -8510,64 +8745,67 @@
         <v>6</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>267</v>
+        <v>169</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>437</v>
+        <v>631</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="O14" s="14"/>
+        <v>430</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>432</v>
+      </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14" t="s">
+      <c r="R14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="14"/>
+      <c r="T14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="U14" s="14"/>
-      <c r="V14" s="13">
-        <v>4</v>
-      </c>
+      <c r="V14" s="14"/>
       <c r="W14" s="13">
         <v>4</v>
       </c>
       <c r="X14" s="13">
         <v>4</v>
       </c>
-      <c r="Y14" s="14" t="s">
-        <v>266</v>
+      <c r="Y14" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Benguria et al. (2022)</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>Blanchard et al. (2024)</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F15" s="16">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>23</v>
@@ -8576,394 +8814,410 @@
         <v>6</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>236</v>
+        <v>180</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="13" t="s">
-        <v>45</v>
+        <v>632</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="R15" s="14"/>
-      <c r="S15" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="13">
-        <v>4</v>
-      </c>
+      <c r="U15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="14"/>
       <c r="W15" s="13">
         <v>4</v>
       </c>
       <c r="X15" s="13">
         <v>4</v>
       </c>
-      <c r="Y15" s="14" t="s">
-        <v>238</v>
+      <c r="Y15" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Blanchard et al. (2024)</v>
+        <v>Bown and Wang (2024)</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="F16" s="16">
         <v>2024</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>433</v>
+        <v>270</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>633</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+        <v>397</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="S16" s="14"/>
-      <c r="T16" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="13">
-        <v>4</v>
-      </c>
+      <c r="V16" s="14"/>
       <c r="W16" s="13">
         <v>4</v>
       </c>
       <c r="X16" s="13">
         <v>4</v>
       </c>
-      <c r="Y16" s="14" t="s">
-        <v>269</v>
+      <c r="Y16" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Bown and Wang (2024)</v>
+        <v>Broz and Werfel (2014)</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="F17" s="16">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="O17" s="14"/>
+        <v>622</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14" t="s">
+        <v>443</v>
+      </c>
       <c r="P17" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="13">
-        <v>4</v>
-      </c>
+      <c r="U17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="14"/>
       <c r="W17" s="13">
         <v>4</v>
       </c>
-      <c r="X17" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>271</v>
+      <c r="X17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Broz and Werfel (2014)</v>
+        <v>Caliendo et al. (2019)</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="F18" s="16">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>441</v>
+        <v>634</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+        <v>447</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="13">
-        <v>4</v>
+      <c r="V18" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>272</v>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>16</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>376</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Caliendo et al. (2019)</v>
+        <v>Carcelli and Park (2024)</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="16">
-        <v>2019</v>
+      <c r="E19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2024</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="L19" s="14"/>
+        <v>635</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>450</v>
+      </c>
       <c r="M19" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>447</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N19" s="14"/>
       <c r="O19" s="14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q19" s="14"/>
+        <v>453</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>454</v>
+      </c>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>5</v>
+      <c r="T19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14">
+        <v>4</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>275</v>
+        <v>40</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>97</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Carcelli and Park (2024)</v>
+        <v>Che et al. (2022)</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2024</v>
+        <v>278</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2022</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14" t="s">
-        <v>452</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="N20" s="14"/>
       <c r="O20" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>454</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S20" s="14"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14">
+      <c r="U20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="14"/>
+      <c r="W20" s="13">
         <v>4</v>
       </c>
-      <c r="W20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>276</v>
+      <c r="X20" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Che et al. (2022)</v>
+        <v>Che et al. (2025)</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="16">
-        <v>2022</v>
+      <c r="E21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2025</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>23</v>
@@ -8972,590 +9226,617 @@
         <v>6</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>459</v>
+        <v>205</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>622</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+        <v>462</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>458</v>
+      </c>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="13">
+      <c r="V21" s="14"/>
+      <c r="W21" s="14">
         <v>4</v>
       </c>
-      <c r="W21" s="13">
+      <c r="X21" s="14">
         <v>4</v>
       </c>
-      <c r="X21" s="13">
+      <c r="Y21" s="14">
         <v>4</v>
       </c>
-      <c r="Y21" s="14" t="s">
-        <v>282</v>
+      <c r="Z21" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Che et al. (2025)</v>
+        <v>Chetverikov et al. (2016)</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="19">
-        <v>2025</v>
+        <v>233</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2016</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>462</v>
+        <v>637</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>457</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="O22" s="14"/>
       <c r="P22" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="U22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14">
-        <v>4</v>
-      </c>
-      <c r="W22" s="14">
-        <v>4</v>
-      </c>
-      <c r="X22" s="14">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>280</v>
+      <c r="V22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Chetverikov et al. (2016)</v>
+        <v>Chor and Li (2024)</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F23" s="16">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="L23" s="14"/>
+        <v>638</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="M23" s="14" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T23" s="13" t="s">
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>283</v>
+      <c r="V23" s="14"/>
+      <c r="W23" s="13">
+        <v>4</v>
+      </c>
+      <c r="X23" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Chor and Li (2024)</v>
+        <v>Chyzh and Urbatsch (2021)</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="16">
-        <v>2024</v>
+        <v>287</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2021</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>469</v>
+        <v>632</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M24" s="14"/>
-      <c r="N24" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="O24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14" t="s">
+        <v>473</v>
+      </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="13" t="s">
-        <v>43</v>
+      <c r="T24" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="U24" s="14"/>
-      <c r="V24" s="13">
+      <c r="V24" s="14"/>
+      <c r="W24" s="14">
         <v>4</v>
       </c>
-      <c r="W24" s="13">
-        <v>4</v>
-      </c>
-      <c r="X24" s="13">
-        <v>4</v>
+      <c r="X24" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>285</v>
+        <v>40</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>157</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Chyzh and Urbatsch (2021)</v>
+        <v>Colantone and Stanig (2018)</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="19">
-        <v>2021</v>
+        <v>289</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2018</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L25" s="14"/>
+        <v>639</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="M25" s="14"/>
-      <c r="N25" s="14" t="s">
-        <v>473</v>
-      </c>
+      <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14" t="s">
+      <c r="Q25" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14">
-        <v>4</v>
-      </c>
-      <c r="W25" s="14" t="s">
+      <c r="U25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="14" t="s">
+      <c r="Y25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y25" s="14" t="s">
-        <v>239</v>
+      <c r="Z25" s="14" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Colantone and Stanig (2018)</v>
+        <v>Defever et al. (2015)</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F26" s="16">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="L26" s="14"/>
+        <v>640</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>474</v>
+      </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q26" s="13" t="s">
+      <c r="O26" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="14"/>
+      <c r="T26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="U26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>291</v>
+      <c r="V26" s="14"/>
+      <c r="W26" s="13">
+        <v>4</v>
+      </c>
+      <c r="X26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="14" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Defever et al. (2015)</v>
+        <v>DuBois (2023)</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="F27" s="16">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="L27" s="14"/>
+        <v>641</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>394</v>
+      </c>
       <c r="M27" s="14"/>
-      <c r="N27" s="14" t="s">
-        <v>475</v>
-      </c>
+      <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>45</v>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T27" s="13" t="s">
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="13">
-        <v>4</v>
-      </c>
+      <c r="V27" s="14"/>
       <c r="W27" s="13">
         <v>4</v>
       </c>
       <c r="X27" s="13">
         <v>4</v>
       </c>
-      <c r="Y27" s="14" t="s">
-        <v>292</v>
+      <c r="Y27" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="14" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>151</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>DuBois (2023)</v>
+        <v>Egger and Erhardt (2024)</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="16">
-        <v>2023</v>
+        <v>295</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2024</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="L28" s="14"/>
+        <v>644</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>477</v>
+      </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14" t="s">
-        <v>395</v>
-      </c>
+      <c r="O28" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="13" t="s">
-        <v>43</v>
+      <c r="T28" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="U28" s="14"/>
-      <c r="V28" s="13">
+      <c r="V28" s="14"/>
+      <c r="W28" s="14">
         <v>4</v>
       </c>
-      <c r="W28" s="13">
+      <c r="X28" s="14">
         <v>4</v>
       </c>
-      <c r="X28" s="13">
+      <c r="Y28" s="14">
         <v>3</v>
       </c>
-      <c r="Y28" s="14" t="s">
-        <v>244</v>
+      <c r="Z28" s="14" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <v>26</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="C29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Egger and Erhardt (2024)</v>
+        <v>Eugeni (2015)</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="19">
-        <v>2024</v>
+        <v>294</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2015</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="L29" s="14"/>
+        <v>642</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>480</v>
+      </c>
       <c r="M29" s="14"/>
-      <c r="N29" s="14" t="s">
-        <v>478</v>
-      </c>
+      <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q29" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14">
+      <c r="U29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="13">
         <v>4</v>
       </c>
-      <c r="W29" s="14">
+      <c r="X29" s="13">
         <v>4</v>
       </c>
-      <c r="X29" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>296</v>
+      <c r="Y29" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="C30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Eugeni (2015)</v>
+        <v>Fan et al. (2020)</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F30" s="16">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>23</v>
@@ -9564,62 +9845,63 @@
         <v>6</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="L30" s="14"/>
+        <v>643</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>498</v>
+      </c>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q30" s="13" t="s">
+      <c r="O30" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="13">
-        <v>4</v>
-      </c>
+      <c r="V30" s="14"/>
       <c r="W30" s="13">
         <v>4</v>
       </c>
       <c r="X30" s="13">
         <v>4</v>
       </c>
-      <c r="Y30" s="14" t="s">
-        <v>237</v>
+      <c r="Y30" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C31" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fan et al. (2020)</v>
+        <v>Fatum et al. (2018)</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="F31" s="16">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>23</v>
@@ -9628,60 +9910,69 @@
         <v>6</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="L31" s="14"/>
+        <v>645</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>485</v>
+      </c>
       <c r="M31" s="14"/>
       <c r="N31" s="14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="R31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="14"/>
       <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="13">
-        <v>4</v>
-      </c>
+      <c r="T31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" s="14"/>
       <c r="W31" s="13">
         <v>4</v>
       </c>
       <c r="X31" s="13">
         <v>4</v>
       </c>
-      <c r="Y31" s="14" t="s">
-        <v>299</v>
+      <c r="Y31" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="14" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="C32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fatum et al. (2018)</v>
+        <v>Feenstra et al. (2019)</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="F32" s="16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>23</v>
@@ -9690,512 +9981,527 @@
         <v>6</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+        <v>646</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>488</v>
+      </c>
       <c r="P32" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="14"/>
+      <c r="T32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="U32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="14"/>
-      <c r="V32" s="13">
-        <v>4</v>
-      </c>
+      <c r="V32" s="14"/>
       <c r="W32" s="13">
         <v>4</v>
       </c>
       <c r="X32" s="13">
         <v>4</v>
       </c>
-      <c r="Y32" s="14" t="s">
-        <v>241</v>
+      <c r="Y32" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C33" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Feenstra et al. (2019)</v>
+        <v>Feigenbaum and Hall (2015)</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F33" s="16">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="P33" s="14"/>
+        <v>647</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>497</v>
+      </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="14"/>
+      <c r="T33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="U33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="14"/>
-      <c r="V33" s="13">
-        <v>4</v>
-      </c>
+      <c r="V33" s="14"/>
       <c r="W33" s="13">
         <v>4</v>
       </c>
-      <c r="X33" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="14" t="s">
-        <v>302</v>
+      <c r="X33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="14" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C34" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Feigenbaum and Hall (2015)</v>
+        <v>Feng et al. (2017)</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="F34" s="16">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="P34" s="14"/>
+        <v>305</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>489</v>
+      </c>
       <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14" t="s">
+      <c r="R34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="U34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="14"/>
-      <c r="V34" s="13">
+      <c r="V34" s="14"/>
+      <c r="W34" s="13">
         <v>4</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y34" s="14" t="s">
-        <v>303</v>
+      <c r="X34" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="14" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <v>32</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C35" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Feng et al. (2017)</v>
+        <v>Flaaen et al. (2020)</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="16">
-        <v>2017</v>
+        <v>233</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="19">
+        <v>2020</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="L35" s="14"/>
+        <v>649</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>491</v>
+      </c>
       <c r="M35" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>488</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="N35" s="14"/>
       <c r="O35" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="14"/>
+      <c r="T35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="U35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="14"/>
-      <c r="V35" s="13">
-        <v>4</v>
-      </c>
-      <c r="W35" s="13">
-        <v>4</v>
-      </c>
-      <c r="X35" s="13">
-        <v>4</v>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>306</v>
+        <v>5</v>
+      </c>
+      <c r="Z35" s="14" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <v>33</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Flaaen et al. (2020)</v>
+        <v>Freund et al. (2024)</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="19">
-        <v>2020</v>
+      <c r="E36" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="16">
+        <v>2024</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>491</v>
+        <v>650</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="M36" s="14"/>
+        <v>502</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="N36" s="14" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="14"/>
+      <c r="T36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="U36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="14" t="s">
+      <c r="V36" s="14"/>
+      <c r="W36" s="13">
+        <v>4</v>
+      </c>
+      <c r="X36" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C37" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Freund et al. (2024)</v>
+        <v>Galantucci (2015)</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F37" s="16">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>503</v>
+        <v>651</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>504</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>500</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N37" s="14"/>
       <c r="O37" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="P37" s="14"/>
+        <v>506</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>507</v>
+      </c>
       <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14" t="s">
+      <c r="R37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="U37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="14"/>
-      <c r="V37" s="13">
-        <v>4</v>
-      </c>
+      <c r="V37" s="14"/>
       <c r="W37" s="13">
         <v>4</v>
       </c>
-      <c r="X37" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y37" s="14" t="s">
-        <v>308</v>
+      <c r="X37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z37" s="14" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Galantucci (2015)</v>
+        <v>Galle and Lorentzen (2024)</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F38" s="16">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>504</v>
+        <v>652</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M38" s="14"/>
       <c r="N38" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
-      <c r="S38" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T38" s="13" t="s">
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="14"/>
-      <c r="V38" s="13">
+      <c r="V38" s="14"/>
+      <c r="W38" s="13">
         <v>4</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y38" s="14" t="s">
-        <v>310</v>
+      <c r="X38" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z38" s="14" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="17" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C39" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Galle and Lorentzen (2024)</v>
+        <v>Gaupp et al. (2017)</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F39" s="16">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14" t="s">
-        <v>509</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="M39" s="14"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="14" t="s">
-        <v>510</v>
-      </c>
+      <c r="O39" s="14"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
+      <c r="Q39" s="14" t="s">
+        <v>512</v>
+      </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="13">
-        <v>4</v>
+      <c r="V39" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="W39" s="13">
         <v>4</v>
@@ -10203,91 +10509,105 @@
       <c r="X39" s="13">
         <v>4</v>
       </c>
-      <c r="Y39" s="14" t="s">
-        <v>312</v>
+      <c r="Y39" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z39" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>37</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>145</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Gaupp et al. (2017)</v>
+        <v>Grossman et al. (2024)</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="16">
-        <v>2017</v>
+        <v>233</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="19">
+        <v>2024</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>39</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V40" s="13">
-        <v>4</v>
-      </c>
-      <c r="W40" s="13">
-        <v>4</v>
-      </c>
-      <c r="X40" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
-        <v>38</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>42</v>
+      <c r="B41" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Grossman et al. (2024)</v>
+        <v>Handley and Limão (2017)</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="19">
-        <v>2024</v>
+      <c r="E41" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="16">
+        <v>2017</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>14</v>
@@ -10296,1013 +10616,1040 @@
         <v>15</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>513</v>
+        <v>654</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14" t="s">
-        <v>515</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="N41" s="14"/>
       <c r="O41" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
-      <c r="S41" s="14" t="s">
+      <c r="S41" s="14"/>
+      <c r="T41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="U41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="14"/>
+      <c r="W41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="14" t="s">
+      <c r="X41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="14" t="s">
+      <c r="Y41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="14" t="s">
-        <v>318</v>
+      <c r="Z41" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>95</v>
+        <v>377</v>
       </c>
       <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Handley and Limão (2017)</v>
+        <v>Heilmann (2016)</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>233</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F42" s="16">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>517</v>
+        <v>636</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M42" s="14"/>
-      <c r="N42" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>520</v>
-      </c>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T42" s="13" t="s">
+      <c r="Q42" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="14"/>
-      <c r="V42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>320</v>
+      <c r="V42" s="14"/>
+      <c r="W42" s="13">
+        <v>4</v>
+      </c>
+      <c r="X42" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z42" s="14" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="C43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Heilmann (2016)</v>
+        <v>Jakubik and Stolzenburg (2021)</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="F43" s="16">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="L43" s="14"/>
+        <v>655</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>523</v>
+      </c>
       <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
+      <c r="N43" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>525</v>
+      </c>
       <c r="P43" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q43" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="14"/>
       <c r="S43" s="14"/>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="14"/>
-      <c r="V43" s="13">
-        <v>4</v>
-      </c>
+      <c r="V43" s="14"/>
       <c r="W43" s="13">
         <v>4</v>
       </c>
       <c r="X43" s="13">
         <v>4</v>
       </c>
-      <c r="Y43" s="14" t="s">
-        <v>322</v>
+      <c r="Y43" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C44" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Jakubik and Stolzenburg (2021)</v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" s="16">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="L44" s="14"/>
+        <v>656</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>527</v>
+      </c>
       <c r="M44" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>525</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N44" s="14"/>
       <c r="O44" s="14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P44" s="14"/>
-      <c r="Q44" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
-      <c r="S44" s="14" t="s">
+      <c r="S44" s="14"/>
+      <c r="T44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="U44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="14"/>
-      <c r="V44" s="13">
-        <v>4</v>
-      </c>
+      <c r="V44" s="14"/>
       <c r="W44" s="13">
         <v>4</v>
       </c>
       <c r="X44" s="13">
         <v>4</v>
       </c>
-      <c r="Y44" s="14" t="s">
-        <v>323</v>
+      <c r="Y44" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <v>42</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C45" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Jiang et al. (2023)</v>
+        <v>Jiao et al. (2024)</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="16">
-        <v>2023</v>
+      <c r="E45" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="19">
+        <v>2024</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>527</v>
+        <v>657</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="O45" s="14"/>
+        <v>535</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14" t="s">
+        <v>537</v>
+      </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
-      <c r="S45" s="14" t="s">
+      <c r="S45" s="14"/>
+      <c r="T45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T45" s="13" t="s">
+      <c r="U45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U45" s="14"/>
-      <c r="V45" s="13">
+      <c r="V45" s="14"/>
+      <c r="W45" s="14">
         <v>4</v>
       </c>
-      <c r="W45" s="13">
+      <c r="X45" s="14">
         <v>4</v>
       </c>
-      <c r="X45" s="13">
+      <c r="Y45" s="14">
         <v>4</v>
       </c>
-      <c r="Y45" s="14" t="s">
-        <v>325</v>
+      <c r="Z45" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <v>43</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C46" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Jiao et al. (2024)</v>
+        <v>Ju et al. (2024)</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="19">
+      <c r="E46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="16">
         <v>2024</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>535</v>
+        <v>658</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="M46" s="14"/>
+        <v>530</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>531</v>
+      </c>
       <c r="N46" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="O46" s="14"/>
+        <v>532</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>534</v>
+      </c>
       <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14" t="s">
+      <c r="Q46" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T46" s="13" t="s">
+      <c r="U46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14">
+      <c r="V46" s="14"/>
+      <c r="W46" s="13">
         <v>4</v>
       </c>
-      <c r="W46" s="14">
+      <c r="X46" s="13">
         <v>4</v>
       </c>
-      <c r="X46" s="14">
+      <c r="Y46" s="13">
         <v>4</v>
       </c>
-      <c r="Y46" s="14" t="s">
-        <v>234</v>
+      <c r="Z46" s="14" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ju et al. (2024)</v>
+        <v>Kalouptsidi (2018)</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="F47" s="16">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>530</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>532</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="M47" s="14"/>
       <c r="N47" s="14" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="O47" s="14"/>
-      <c r="P47" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q47" s="13" t="s">
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="R47" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T47" s="13" t="s">
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="14"/>
-      <c r="V47" s="13">
-        <v>4</v>
-      </c>
-      <c r="W47" s="13">
-        <v>4</v>
-      </c>
-      <c r="X47" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="14" t="s">
-        <v>329</v>
+      <c r="V47" s="14"/>
+      <c r="W47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <v>45</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>378</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C48" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Kalouptsidi (2018)</v>
+        <v>Kim and Margalit (2021)</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="16">
-        <v>2018</v>
+        <v>490</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="19">
+        <v>2021</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
+        <v>333</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>544</v>
+      </c>
       <c r="P48" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>45</v>
+        <v>545</v>
+      </c>
+      <c r="Q48" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
-      <c r="T48" s="13" t="s">
-        <v>43</v>
+      <c r="T48" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="U48" s="14"/>
-      <c r="V48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="13" t="s">
-        <v>5</v>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14">
+        <v>4</v>
+      </c>
+      <c r="X48" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y48" s="14" t="s">
-        <v>330</v>
+        <v>40</v>
+      </c>
+      <c r="Z48" s="14" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <v>46</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C49" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Kim and Margalit (2021)</v>
+        <v>Kim and Pelc (2021)</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="E49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="16">
         <v>2021</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>541</v>
+        <v>334</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14" t="s">
+        <v>548</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14" t="s">
-        <v>44</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="Q49" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S49" s="14"/>
       <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14">
+      <c r="U49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V49" s="14"/>
+      <c r="W49" s="13">
         <v>4</v>
       </c>
-      <c r="W49" s="14" t="s">
+      <c r="X49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X49" s="14" t="s">
+      <c r="Y49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="14" t="s">
-        <v>332</v>
+      <c r="Z49" s="14" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <v>47</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>547</v>
       </c>
       <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Kim and Pelc (2021)</v>
+        <v>Liang (2017)</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="16">
-        <v>2021</v>
+        <v>233</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="19">
+        <v>2017</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>549</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="M50" s="14"/>
       <c r="N50" s="14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q50" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R50" s="14"/>
       <c r="S50" s="14"/>
-      <c r="T50" s="13" t="s">
+      <c r="T50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U50" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="14"/>
-      <c r="V50" s="13">
+      <c r="V50" s="14"/>
+      <c r="W50" s="14">
         <v>4</v>
       </c>
-      <c r="W50" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X50" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y50" s="14" t="s">
-        <v>335</v>
+      <c r="X50" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="14" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <v>48</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>547</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="C51" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Liang (2017)</v>
+        <v>Lu and Zhou (2023)</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="19">
-        <v>2017</v>
+        <v>338</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="16">
+        <v>2023</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="L51" s="14"/>
+        <v>339</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14" t="s">
+        <v>557</v>
+      </c>
       <c r="M51" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>556</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
       <c r="P51" s="14"/>
-      <c r="Q51" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
-      <c r="S51" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T51" s="14"/>
       <c r="U51" s="14"/>
-      <c r="V51" s="14">
-        <v>4</v>
-      </c>
-      <c r="W51" s="14">
-        <v>4</v>
-      </c>
-      <c r="X51" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y51" s="14" t="s">
-        <v>336</v>
+      <c r="V51" s="14"/>
+      <c r="W51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="14" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <v>49</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>134</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C52" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Lu and Zhou (2023)</v>
+        <v>Lu et al. (2018)</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="16">
-        <v>2023</v>
+        <v>278</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="19">
+        <v>2018</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>557</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="K52" s="14"/>
       <c r="L52" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="N52" s="14" t="s">
+        <v>560</v>
+      </c>
       <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="P52" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="R52" s="14"/>
       <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
+      <c r="T52" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="U52" s="14"/>
-      <c r="V52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="14" t="s">
-        <v>340</v>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14">
+        <v>4</v>
+      </c>
+      <c r="X52" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="14" t="s">
+        <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <v>50</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C53" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Lu et al. (2018)</v>
+        <v>Luo and Van Assche (2023)</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="19">
-        <v>2018</v>
+        <v>233</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="16">
+        <v>2023</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="L53" s="14"/>
+        <v>344</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="M53" s="14" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q53" s="14"/>
+        <v>565</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14" t="s">
+        <v>566</v>
+      </c>
       <c r="R53" s="14"/>
-      <c r="S53" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="S53" s="14"/>
       <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14">
-        <v>4</v>
-      </c>
-      <c r="W53" s="14">
-        <v>4</v>
-      </c>
-      <c r="X53" s="14">
-        <v>4</v>
-      </c>
-      <c r="Y53" s="14" t="s">
-        <v>341</v>
+      <c r="U53" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V53" s="14"/>
+      <c r="W53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="14" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <v>51</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C54" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Luo and Van Assche (2023)</v>
+        <v>Mansfield and Solodoch (2024)</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="16">
-        <v>2023</v>
+      <c r="E54" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="19">
+        <v>2024</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>563</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="K54" s="14"/>
       <c r="L54" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="M54" s="14"/>
+        <v>567</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>568</v>
+      </c>
       <c r="N54" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="O54" s="14"/>
+        <v>570</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>571</v>
+      </c>
       <c r="P54" s="14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
-      <c r="T54" s="13" t="s">
+      <c r="T54" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="14"/>
-      <c r="V54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>5</v>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14">
+        <v>4</v>
+      </c>
+      <c r="X54" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="Y54" s="14" t="s">
-        <v>343</v>
+        <v>40</v>
+      </c>
+      <c r="Z54" s="14" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="17" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <v>52</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C55" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Mansfield and Solodoch (2024)</v>
+        <v>McManus and Schaur (2016)</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="19">
-        <v>2024</v>
+      <c r="E55" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="16">
+        <v>2016</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>567</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K55" s="14"/>
       <c r="L55" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="N55" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14" t="s">
+        <v>574</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="P55" s="14"/>
+        <v>575</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>573</v>
+      </c>
       <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14" t="s">
+      <c r="R55" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T55" s="13" t="s">
+      <c r="U55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14">
+      <c r="V55" s="14"/>
+      <c r="W55" s="13">
         <v>4</v>
       </c>
-      <c r="W55" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X55" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y55" s="14" t="s">
-        <v>345</v>
+      <c r="X55" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z55" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C56" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>McManus and Schaur (2016)</v>
+        <v>Niemeläinen (2021)</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>233</v>
+        <v>351</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F56" s="16">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>23</v>
@@ -11311,102 +11658,96 @@
         <v>6</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14" t="s">
-        <v>574</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="M56" s="14"/>
       <c r="N56" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>573</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="O56" s="14"/>
       <c r="P56" s="14"/>
-      <c r="Q56" s="13" t="s">
-        <v>45</v>
+      <c r="Q56" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="R56" s="14"/>
-      <c r="S56" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T56" s="13" t="s">
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="14"/>
-      <c r="V56" s="13">
-        <v>4</v>
-      </c>
+      <c r="V56" s="14"/>
       <c r="W56" s="13">
         <v>4</v>
       </c>
       <c r="X56" s="13">
         <v>4</v>
       </c>
-      <c r="Y56" s="14" t="s">
-        <v>348</v>
+      <c r="Y56" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z56" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C57" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Niemeläinen (2021)</v>
+        <v>Osman and El‐Gendy (2025)</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F57" s="16">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="L57" s="14"/>
+        <v>353</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14" t="s">
+        <v>583</v>
+      </c>
       <c r="M57" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q57" s="14"/>
+        <v>584</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
-      <c r="T57" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="T57" s="14"/>
       <c r="U57" s="14"/>
-      <c r="V57" s="13">
-        <v>4</v>
+      <c r="V57" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="W57" s="13">
         <v>4</v>
@@ -11414,543 +11755,490 @@
       <c r="X57" s="13">
         <v>4</v>
       </c>
-      <c r="Y57" s="14" t="s">
-        <v>349</v>
+      <c r="Y57" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="14" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C58" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Osman and El‐Gendy (2025)</v>
+        <v>Pierce and Schott (2016)</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F58" s="16">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>583</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="K58" s="14"/>
       <c r="L58" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="O58" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>581</v>
+      </c>
       <c r="P58" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
+      <c r="R58" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
+      <c r="T58" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="U58" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V58" s="13">
-        <v>4</v>
-      </c>
-      <c r="W58" s="13">
-        <v>4</v>
-      </c>
-      <c r="X58" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="14" t="s">
-        <v>352</v>
+        <v>43</v>
+      </c>
+      <c r="V58" s="14"/>
+      <c r="W58" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C59" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Pierce and Schott (2016)</v>
+        <v>Rahaman (2016)</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="F59" s="16">
         <v>2016</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14" t="s">
-        <v>580</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="M59" s="14"/>
       <c r="N59" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
-      <c r="S59" s="14" t="s">
+      <c r="S59" s="14"/>
+      <c r="T59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T59" s="13" t="s">
+      <c r="U59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="14"/>
-      <c r="V59" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="V59" s="14"/>
       <c r="W59" s="13" t="s">
         <v>5</v>
       </c>
       <c r="X59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="14" t="s">
-        <v>354</v>
+      <c r="Y59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C60" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Rahaman (2016)</v>
+        <v>Ramani (2025)</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F60" s="16">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
+        <v>358</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q60" s="14" t="s">
+        <v>597</v>
+      </c>
       <c r="R60" s="14"/>
       <c r="S60" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="T60" s="14"/>
       <c r="U60" s="14"/>
-      <c r="V60" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="V60" s="14"/>
       <c r="W60" s="13" t="s">
         <v>5</v>
       </c>
       <c r="X60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="14" t="s">
-        <v>356</v>
+      <c r="Y60" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="17" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
-        <v>58</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>126</v>
+        <v>59</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C61" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ramani (2025)</v>
+        <v>Ren (2024)</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="16">
-        <v>2025</v>
+      <c r="E61" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="19">
+        <v>2024</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14" t="s">
-        <v>595</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="M61" s="14"/>
       <c r="N61" s="14"/>
-      <c r="O61" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="P61" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="R61" s="14"/>
       <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
+      <c r="T61" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="U61" s="14"/>
-      <c r="V61" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X61" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y61" s="14" t="s">
-        <v>245</v>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14">
+        <v>4</v>
+      </c>
+      <c r="X61" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z61" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" s="17" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <v>59</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>153</v>
+        <v>60</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="C62" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Ren (2024)</v>
+        <v>Wang (2021)</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F62" s="19">
-        <v>2024</v>
+        <v>278</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="16">
+        <v>2021</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
+        <v>363</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>592</v>
+      </c>
       <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14" t="s">
-        <v>599</v>
-      </c>
+      <c r="O62" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
-      <c r="S62" s="13" t="s">
+      <c r="S62" s="14"/>
+      <c r="T62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14">
+      <c r="U62" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V62" s="14"/>
+      <c r="W62" s="13">
         <v>4</v>
       </c>
-      <c r="W62" s="14">
+      <c r="X62" s="13">
         <v>4</v>
       </c>
-      <c r="X62" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y62" s="14" t="s">
-        <v>242</v>
+      <c r="Y62" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="17" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C63" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wang (2021)</v>
+        <v>Wu et al. (2024)</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>278</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F63" s="16">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>591</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="K63" s="14"/>
       <c r="L63" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="M63" s="14"/>
+        <v>600</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>601</v>
+      </c>
       <c r="N63" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="O63" s="14"/>
+        <v>602</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>603</v>
+      </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
-      <c r="S63" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S63" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T63" s="14"/>
       <c r="U63" s="14"/>
-      <c r="V63" s="13">
-        <v>4</v>
-      </c>
+      <c r="V63" s="14"/>
       <c r="W63" s="13">
         <v>4</v>
       </c>
       <c r="X63" s="13">
         <v>4</v>
       </c>
-      <c r="Y63" s="14" t="s">
-        <v>360</v>
+      <c r="Y63" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z63" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="C64" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wu et al. (2024)</v>
+        <v>Zeng and Kim (2024)</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F64" s="16">
         <v>2024</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>602</v>
+        <v>390</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>603</v>
+        <v>405</v>
       </c>
       <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
+      <c r="P64" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="13" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="13">
-        <v>4</v>
-      </c>
+      <c r="T64" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V64" s="14"/>
       <c r="W64" s="13">
         <v>4</v>
       </c>
-      <c r="X64" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y64" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
-        <v>62</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Zeng and Kim (2024)</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" s="16">
-        <v>2024</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="L65" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="M65" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R65" s="14"/>
-      <c r="S65" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U65" s="14"/>
-      <c r="V65" s="13">
-        <v>4</v>
-      </c>
-      <c r="W65" s="13" t="s">
+      <c r="X64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X65" s="13" t="s">
+      <c r="Y64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y65" s="14" t="s">
+      <c r="Z64" s="14" t="s">
         <v>362</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U65" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
+  <autoFilter ref="A1:V64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -11961,14 +12249,16 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="J64" sqref="A3:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="11" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4" max="9" width="5.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36" style="3" customWidth="1"/>
     <col min="14" max="22" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11994,8 +12284,12 @@
       <c r="I1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>617</v>
+      </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10" t="s">
         <v>366</v>
@@ -12086,27 +12380,32 @@
         <v>2020</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(data!L3&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M3&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F3" s="7" t="str">
-        <f>IF(data!M3&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N3&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G3" s="7" t="str">
-        <f>IF(data!N3&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O3&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H3" s="7" t="str">
-        <f>IF(data!O3&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P3&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f>IF(data!P3&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q3&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="7" t="str">
+        <f>data!C3</f>
+        <v>Abraham and Kearney (2020)</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10">
         <v>2015</v>
@@ -12159,27 +12458,32 @@
         <v>2016</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(data!L4&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M4&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>IF(data!M4&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N4&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G4" s="7" t="str">
-        <f>IF(data!N4&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O4&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f>IF(data!O4&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P4&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f>IF(data!P4&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q4&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="7" t="str">
+        <f>data!C4</f>
+        <v>Acemoglu et al. (2016)</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10">
         <v>2016</v>
@@ -12232,26 +12536,29 @@
         <v>2019</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(data!L5&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M5&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F5" s="7" t="str">
-        <f>IF(data!M5&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N5&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G5" s="7" t="str">
-        <f>IF(data!N5&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O5&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H5" s="7" t="str">
-        <f>IF(data!O5&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P5&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f>IF(data!P5&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q5&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="str">
+        <f>data!C5</f>
+        <v>Albouy et al. (2019)</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10">
@@ -12293,38 +12600,41 @@
     </row>
     <row r="6" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
-        <f>data!A7</f>
-        <v>3</v>
+        <f>data!A6</f>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="str">
-        <f>data!D7</f>
+        <f>data!D6</f>
         <v>US</v>
       </c>
       <c r="D6" s="7">
-        <f>data!F7</f>
+        <f>data!F6</f>
         <v>2025</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(data!L7&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M6&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>IF(data!M7&lt;&gt;"", "T2", "")</f>
-        <v>T2</v>
+        <f>IF(data!N6&lt;&gt;"", "T2", "")</f>
+        <v/>
       </c>
       <c r="G6" s="7" t="str">
-        <f>IF(data!N7&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O6&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f>IF(data!O7&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P6&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I6" s="7" t="str">
-        <f>IF(data!P7&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q6&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="str">
+        <f>data!C6</f>
+        <v>Alessandria et al. (2025a)</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10">
@@ -12366,38 +12676,41 @@
     </row>
     <row r="7" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <f>data!A6</f>
-        <v>3</v>
+        <f>data!A7</f>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>data!D6</f>
+        <f>data!D7</f>
         <v>US</v>
       </c>
       <c r="D7" s="7">
-        <f>data!F6</f>
+        <f>data!F7</f>
         <v>2025</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(data!L6&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M7&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>IF(data!M6&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N7&lt;&gt;"", "T2", "")</f>
+        <v>T2</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f>IF(data!O7&lt;&gt;"", "T3", "")</f>
+        <v>T3</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>IF(data!P7&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
-      <c r="G7" s="7" t="str">
-        <f>IF(data!N6&lt;&gt;"", "T3", "")</f>
-        <v>T3</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f>IF(data!O6&lt;&gt;"", "T4", "")</f>
+      <c r="I7" s="7" t="str">
+        <f>IF(data!Q7&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="I7" s="7" t="str">
-        <f>IF(data!P6&lt;&gt;"", "T5", "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="str">
+        <f>data!C7</f>
+        <v>Alessandria et al. (2025b)</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10">
@@ -12439,38 +12752,41 @@
     </row>
     <row r="8" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <f>data!A9</f>
+        <f>data!A8</f>
         <v>6</v>
       </c>
       <c r="C8" s="8" t="str">
-        <f>data!D9</f>
+        <f>data!D8</f>
         <v>US</v>
       </c>
       <c r="D8" s="7">
-        <f>data!F9</f>
+        <f>data!F8</f>
         <v>2020</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(data!L9&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M8&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F8" s="7" t="str">
-        <f>IF(data!M9&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N8&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G8" s="7" t="str">
-        <f>IF(data!N9&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O8&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>IF(data!O9&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P8&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f>IF(data!P9&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q8&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="str">
+        <f>data!C8</f>
+        <v>Amiti et al. (2020)</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10">
@@ -12512,38 +12828,41 @@
     </row>
     <row r="9" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <f>data!A10</f>
+        <f>data!A9</f>
         <v>7</v>
       </c>
       <c r="C9" s="8" t="str">
-        <f>data!D10</f>
+        <f>data!D9</f>
         <v>US</v>
       </c>
       <c r="D9" s="7">
-        <f>data!F10</f>
+        <f>data!F9</f>
         <v>2021</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(data!L10&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M9&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F9" s="7" t="str">
-        <f>IF(data!M10&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N9&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G9" s="7" t="str">
-        <f>IF(data!N10&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O9&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>IF(data!O10&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P9&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I9" s="7" t="str">
-        <f>IF(data!P10&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q9&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="str">
+        <f>data!C9</f>
+        <v>Aslan and Kumar (2021)</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10">
@@ -12585,39 +12904,44 @@
     </row>
     <row r="10" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <f>data!A11</f>
+        <f>data!A10</f>
         <v>8</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f>data!D11</f>
+        <f>data!D10</f>
         <v>US</v>
       </c>
       <c r="D10" s="7">
-        <f>data!F11</f>
+        <f>data!F10</f>
         <v>2020</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(data!L11&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M10&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F10" s="7" t="str">
-        <f>IF(data!M11&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N10&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G10" s="7" t="str">
-        <f>IF(data!N11&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O10&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H10" s="7" t="str">
-        <f>IF(data!O11&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P10&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f>IF(data!P11&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q10&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="7" t="str">
+        <f>data!C10</f>
+        <v>Autor et al. (2020)</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10">
         <v>2022</v>
@@ -12658,39 +12982,44 @@
     </row>
     <row r="11" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <f>data!A12</f>
+        <f>data!A11</f>
         <v>9</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f>data!D12</f>
+        <f>data!D11</f>
         <v>US</v>
       </c>
       <c r="D11" s="7">
-        <f>data!F12</f>
+        <f>data!F11</f>
         <v>2015</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(data!L12&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M11&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F11" s="7" t="str">
-        <f>IF(data!M12&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N11&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>IF(data!N12&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O11&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H11" s="7" t="str">
-        <f>IF(data!O12&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P11&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I11" s="7" t="str">
-        <f>IF(data!P12&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q11&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="7" t="str">
+        <f>data!C11</f>
+        <v>Autor et al. (2015)</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10">
         <v>2023</v>
@@ -12731,39 +13060,44 @@
     </row>
     <row r="12" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <f>data!A13</f>
+        <f>data!A12</f>
         <v>10</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f>data!D13</f>
+        <f>data!D12</f>
         <v>US</v>
       </c>
       <c r="D12" s="7">
-        <f>data!F13</f>
+        <f>data!F12</f>
         <v>2022</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>IF(data!L13&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M12&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F12" s="7" t="str">
-        <f>IF(data!M13&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N12&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G12" s="7" t="str">
-        <f>IF(data!N13&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O12&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H12" s="7" t="str">
-        <f>IF(data!O13&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P12&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I12" s="7" t="str">
-        <f>IF(data!P13&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q12&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="7" t="str">
+        <f>data!C12</f>
+        <v>Ballard-Rosa et al. (2022)</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10">
         <v>2024</v>
@@ -12804,38 +13138,41 @@
     </row>
     <row r="13" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <f>data!A14</f>
+        <f>data!A13</f>
         <v>11</v>
       </c>
       <c r="C13" s="8" t="str">
-        <f>data!D14</f>
+        <f>data!D13</f>
         <v>US</v>
       </c>
       <c r="D13" s="7">
-        <f>data!F14</f>
+        <f>data!F13</f>
         <v>2024</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>IF(data!L14&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M13&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>IF(data!M14&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N13&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G13" s="7" t="str">
-        <f>IF(data!N14&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O13&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(data!O14&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P13&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I13" s="7" t="str">
-        <f>IF(data!P14&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q13&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7" t="str">
+        <f>data!C13</f>
+        <v>Benguria and Saffie (2024)</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10">
@@ -12877,38 +13214,41 @@
     </row>
     <row r="14" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <f>data!A15</f>
+        <f>data!A14</f>
         <v>12</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f>data!D15</f>
+        <f>data!D14</f>
         <v>US</v>
       </c>
       <c r="D14" s="7">
-        <f>data!F15</f>
+        <f>data!F14</f>
         <v>2022</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>IF(data!L15&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M14&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>IF(data!M15&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N14&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G14" s="7" t="str">
-        <f>IF(data!N15&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O14&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f>IF(data!O15&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P14&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I14" s="7" t="str">
-        <f>IF(data!P15&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q14&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7" t="str">
+        <f>data!C14</f>
+        <v>Benguria et al. (2022)</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -12918,39 +13258,44 @@
     </row>
     <row r="15" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
-        <f>data!A16</f>
+        <f>data!A15</f>
         <v>13</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f>data!D16</f>
+        <f>data!D15</f>
         <v>US</v>
       </c>
       <c r="D15" s="7">
-        <f>data!F16</f>
+        <f>data!F15</f>
         <v>2024</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>IF(data!L16&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M15&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>IF(data!M16&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N15&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G15" s="7" t="str">
-        <f>IF(data!N16&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O15&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>IF(data!O16&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P15&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I15" s="7" t="str">
-        <f>IF(data!P16&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q15&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="7" t="str">
+        <f>data!C15</f>
+        <v>Blanchard et al. (2024)</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" t="s">
@@ -12980,38 +13325,41 @@
     </row>
     <row r="16" spans="2:22" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <f>data!A17</f>
+        <f>data!A16</f>
         <v>14</v>
       </c>
       <c r="C16" s="8" t="str">
-        <f>data!D17</f>
+        <f>data!D16</f>
         <v>US</v>
       </c>
       <c r="D16" s="7">
-        <f>data!F17</f>
+        <f>data!F16</f>
         <v>2024</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>IF(data!L17&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M16&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F16" s="7" t="str">
-        <f>IF(data!M17&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N16&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G16" s="7" t="str">
-        <f>IF(data!N17&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O16&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>IF(data!O17&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P16&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I16" s="7" t="str">
-        <f>IF(data!P17&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q16&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7" t="str">
+        <f>data!C16</f>
+        <v>Bown and Wang (2024)</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
@@ -13052,38 +13400,41 @@
     </row>
     <row r="17" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <f>data!A18</f>
+        <f>data!A17</f>
         <v>15</v>
       </c>
       <c r="C17" s="8" t="str">
-        <f>data!D18</f>
+        <f>data!D17</f>
         <v>US</v>
       </c>
       <c r="D17" s="7">
-        <f>data!F18</f>
+        <f>data!F17</f>
         <v>2014</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>IF(data!L18&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M17&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F17" s="7" t="str">
-        <f>IF(data!M18&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N17&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G17" s="7" t="str">
-        <f>IF(data!N18&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O17&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f>IF(data!O18&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P17&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I17" s="7" t="str">
-        <f>IF(data!P18&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q17&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7" t="str">
+        <f>data!C17</f>
+        <v>Broz and Werfel (2014)</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -13093,38 +13444,41 @@
     </row>
     <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <f>data!A19</f>
+        <f>data!A18</f>
         <v>16</v>
       </c>
       <c r="C18" s="8" t="str">
-        <f>data!D19</f>
+        <f>data!D18</f>
         <v>US</v>
       </c>
       <c r="D18" s="7">
-        <f>data!F19</f>
+        <f>data!F18</f>
         <v>2019</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>IF(data!L19&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M18&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F18" s="7" t="str">
-        <f>IF(data!M19&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N18&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>IF(data!N19&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O18&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f>IF(data!O19&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P18&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I18" s="7" t="str">
-        <f>IF(data!P19&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q18&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="7" t="str">
+        <f>data!C18</f>
+        <v>Caliendo et al. (2019)</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -13149,39 +13503,44 @@
     </row>
     <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
-        <f>data!A20</f>
+        <f>data!A19</f>
         <v>17</v>
       </c>
       <c r="C19" s="8" t="str">
-        <f>data!D20</f>
+        <f>data!D19</f>
         <v>US</v>
       </c>
       <c r="D19" s="7">
-        <f>data!F20</f>
+        <f>data!F19</f>
         <v>2024</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>IF(data!L20&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M19&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>IF(data!M20&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N19&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G19" s="7" t="str">
-        <f>IF(data!N20&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O19&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f>IF(data!O20&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P19&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>IF(data!P20&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q19&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="7" t="str">
+        <f>data!C19</f>
+        <v>Carcelli and Park (2024)</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
         <v>479</v>
@@ -13213,39 +13572,44 @@
     </row>
     <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <f>data!A21</f>
+        <f>data!A20</f>
         <v>18</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f>data!D21</f>
+        <f>data!D20</f>
         <v>China</v>
       </c>
       <c r="D20" s="7">
-        <f>data!F21</f>
+        <f>data!F20</f>
         <v>2022</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>IF(data!L21&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M20&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>IF(data!M21&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N20&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G20" s="7" t="str">
-        <f>IF(data!N21&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O20&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f>IF(data!O21&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P20&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I20" s="7" t="str">
-        <f>IF(data!P21&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q20&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="7" t="str">
+        <f>data!C20</f>
+        <v>Che et al. (2022)</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -13254,38 +13618,41 @@
     </row>
     <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <f>data!A22</f>
+        <f>data!A21</f>
         <v>19</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f>data!D22</f>
+        <f>data!D21</f>
         <v>China</v>
       </c>
       <c r="D21" s="7">
-        <f>data!F22</f>
+        <f>data!F21</f>
         <v>2025</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>IF(data!L22&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M21&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>IF(data!M22&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N21&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G21" s="7" t="str">
-        <f>IF(data!N22&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O21&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f>IF(data!O22&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P21&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f>IF(data!P22&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q21&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7" t="str">
+        <f>data!C21</f>
+        <v>Che et al. (2025)</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -13295,38 +13662,41 @@
     </row>
     <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <f>data!A23</f>
+        <f>data!A22</f>
         <v>20</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f>data!D23</f>
+        <f>data!D22</f>
         <v>US</v>
       </c>
       <c r="D22" s="7">
-        <f>data!F23</f>
+        <f>data!F22</f>
         <v>2016</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>IF(data!L23&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M22&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F22" s="7" t="str">
-        <f>IF(data!M23&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N22&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f>IF(data!N23&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O22&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H22" s="7" t="str">
-        <f>IF(data!O23&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P22&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I22" s="7" t="str">
-        <f>IF(data!P23&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q22&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="str">
+        <f>data!C22</f>
+        <v>Chetverikov et al. (2016)</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -13336,39 +13706,44 @@
     </row>
     <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <f>data!A24</f>
+        <f>data!A23</f>
         <v>21</v>
       </c>
       <c r="C23" s="8" t="str">
-        <f>data!D24</f>
+        <f>data!D23</f>
         <v>US</v>
       </c>
       <c r="D23" s="7">
-        <f>data!F24</f>
+        <f>data!F23</f>
         <v>2024</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>IF(data!L24&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M23&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>IF(data!M24&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N23&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G23" s="7" t="str">
-        <f>IF(data!N24&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O23&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>IF(data!O24&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P23&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IF(data!P24&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q23&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="7" t="str">
+        <f>data!C23</f>
+        <v>Chor and Li (2024)</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -13377,112 +13752,123 @@
     </row>
     <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <f>data!A25</f>
+        <f>data!A24</f>
         <v>22</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>data!D25</f>
+        <f>data!D24</f>
         <v>Canada</v>
       </c>
       <c r="D24" s="7">
-        <f>data!F25</f>
+        <f>data!F24</f>
         <v>2021</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>IF(data!L25&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M24&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F24" s="7" t="str">
-        <f>IF(data!M25&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N24&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G24" s="7" t="str">
-        <f>IF(data!N25&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O24&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f>IF(data!O25&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P24&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I24" s="7" t="str">
-        <f>IF(data!P25&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q24&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7" t="str">
+        <f>data!C24</f>
+        <v>Chyzh and Urbatsch (2021)</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <f>data!A26</f>
+        <f>data!A25</f>
         <v>23</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f>data!D26</f>
+        <f>data!D25</f>
         <v>Italy</v>
       </c>
       <c r="D25" s="7">
-        <f>data!F26</f>
+        <f>data!F25</f>
         <v>2018</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>IF(data!L26&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M25&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F25" s="7" t="str">
-        <f>IF(data!M26&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N25&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G25" s="7" t="str">
-        <f>IF(data!N26&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O25&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H25" s="7" t="str">
-        <f>IF(data!O26&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P25&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I25" s="7" t="str">
-        <f>IF(data!P26&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q25&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="7" t="str">
+        <f>data!C25</f>
+        <v>Colantone and Stanig (2018)</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <f>data!A27</f>
+        <f>data!A26</f>
         <v>24</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f>data!D27</f>
+        <f>data!D26</f>
         <v>UK</v>
       </c>
       <c r="D26" s="7">
-        <f>data!F27</f>
+        <f>data!F26</f>
         <v>2015</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f>IF(data!L27&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M26&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F26" s="7" t="str">
-        <f>IF(data!M27&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N26&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G26" s="7" t="str">
-        <f>IF(data!N27&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O26&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H26" s="7" t="str">
-        <f>IF(data!O27&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P26&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I26" s="7" t="str">
-        <f>IF(data!P27&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q26&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7" t="str">
+        <f>data!C26</f>
+        <v>Defever et al. (2015)</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -13495,38 +13881,41 @@
         <v>609</v>
       </c>
       <c r="B27" s="8">
-        <f>data!A28</f>
+        <f>data!A27</f>
         <v>25</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f>data!D28</f>
+        <f>data!D27</f>
         <v>China</v>
       </c>
       <c r="D27" s="7">
-        <f>data!F28</f>
+        <f>data!F27</f>
         <v>2023</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>IF(data!L28&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M27&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F27" s="7" t="str">
-        <f>IF(data!M28&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N27&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G27" s="7" t="str">
-        <f>IF(data!N28&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O27&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H27" s="7" t="str">
-        <f>IF(data!O28&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P27&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(data!P28&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q27&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="7" t="str">
+        <f>data!C27</f>
+        <v>DuBois (2023)</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -13536,38 +13925,41 @@
     </row>
     <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <f>data!A29</f>
+        <f>data!A28</f>
         <v>26</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f>data!D29</f>
+        <f>data!D28</f>
         <v>Switzerland</v>
       </c>
       <c r="D28" s="7">
-        <f>data!F29</f>
+        <f>data!F28</f>
         <v>2024</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f>IF(data!L29&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M28&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F28" s="7" t="str">
-        <f>IF(data!M29&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N28&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G28" s="7" t="str">
-        <f>IF(data!N29&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O28&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IF(data!O29&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P28&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IF(data!P29&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q28&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7" t="str">
+        <f>data!C28</f>
+        <v>Egger and Erhardt (2024)</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -13577,38 +13969,41 @@
     </row>
     <row r="29" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <f>data!A30</f>
+        <f>data!A29</f>
         <v>27</v>
       </c>
       <c r="C29" s="8" t="str">
-        <f>data!D30</f>
+        <f>data!D29</f>
         <v>UK</v>
       </c>
       <c r="D29" s="7">
-        <f>data!F30</f>
+        <f>data!F29</f>
         <v>2015</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f>IF(data!L30&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M29&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F29" s="7" t="str">
-        <f>IF(data!M30&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N29&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f>IF(data!N30&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O29&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(data!O30&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P29&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(data!P30&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q29&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7" t="str">
+        <f>data!C29</f>
+        <v>Eugeni (2015)</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -13618,38 +14013,41 @@
     </row>
     <row r="30" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <f>data!A31</f>
+        <f>data!A30</f>
         <v>28</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f>data!D31</f>
+        <f>data!D30</f>
         <v>China</v>
       </c>
       <c r="D30" s="7">
-        <f>data!F31</f>
+        <f>data!F30</f>
         <v>2020</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f>IF(data!L31&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M30&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F30" s="7" t="str">
-        <f>IF(data!M31&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N30&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G30" s="7" t="str">
-        <f>IF(data!N31&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O30&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(data!O31&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P30&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(data!P31&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q30&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7" t="str">
+        <f>data!C30</f>
+        <v>Fan et al. (2020)</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -13659,38 +14057,41 @@
     </row>
     <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <f>data!A32</f>
+        <f>data!A31</f>
         <v>29</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f>data!D32</f>
+        <f>data!D31</f>
         <v>Canda</v>
       </c>
       <c r="D31" s="7">
-        <f>data!F32</f>
+        <f>data!F31</f>
         <v>2018</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f>IF(data!L32&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M31&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F31" s="7" t="str">
-        <f>IF(data!M32&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N31&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>IF(data!N32&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O31&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(data!O32&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P31&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(data!P32&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q31&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7" t="str">
+        <f>data!C31</f>
+        <v>Fatum et al. (2018)</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -13700,39 +14101,44 @@
     </row>
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <f>data!A33</f>
+        <f>data!A32</f>
         <v>30</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f>data!D33</f>
+        <f>data!D32</f>
         <v>US</v>
       </c>
       <c r="D32" s="7">
-        <f>data!F33</f>
+        <f>data!F32</f>
         <v>2019</v>
       </c>
       <c r="E32" s="7" t="str">
-        <f>IF(data!L33&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M32&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F32" s="7" t="str">
-        <f>IF(data!M33&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N32&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f>IF(data!N33&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O32&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(data!O33&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P32&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(data!P33&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q32&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="7" t="str">
+        <f>data!C32</f>
+        <v>Feenstra et al. (2019)</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -13741,39 +14147,44 @@
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
-        <f>data!A34</f>
+        <f>data!A33</f>
         <v>31</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f>data!D34</f>
+        <f>data!D33</f>
         <v>US</v>
       </c>
       <c r="D33" s="7">
-        <f>data!F34</f>
+        <f>data!F33</f>
         <v>2015</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f>IF(data!L34&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M33&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F33" s="7" t="str">
-        <f>IF(data!M34&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N33&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f>IF(data!N34&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O33&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f>IF(data!O34&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P33&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I33" s="7" t="str">
-        <f>IF(data!P34&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q33&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="7" t="str">
+        <f>data!C33</f>
+        <v>Feigenbaum and Hall (2015)</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -13782,38 +14193,41 @@
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
-        <f>data!A35</f>
+        <f>data!A34</f>
         <v>32</v>
       </c>
       <c r="C34" s="8" t="str">
-        <f>data!D35</f>
+        <f>data!D34</f>
         <v>China</v>
       </c>
       <c r="D34" s="7">
-        <f>data!F35</f>
+        <f>data!F34</f>
         <v>2017</v>
       </c>
       <c r="E34" s="7" t="str">
-        <f>IF(data!L35&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M34&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F34" s="7" t="str">
-        <f>IF(data!M35&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N34&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f>IF(data!N35&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O34&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H34" s="7" t="str">
-        <f>IF(data!O35&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P34&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I34" s="7" t="str">
-        <f>IF(data!P35&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q34&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="7" t="str">
+        <f>data!C34</f>
+        <v>Feng et al. (2017)</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -13823,38 +14237,41 @@
     </row>
     <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
-        <f>data!A36</f>
+        <f>data!A35</f>
         <v>33</v>
       </c>
       <c r="C35" s="8" t="str">
-        <f>data!D36</f>
+        <f>data!D35</f>
         <v>US</v>
       </c>
       <c r="D35" s="7">
-        <f>data!F36</f>
+        <f>data!F35</f>
         <v>2020</v>
       </c>
       <c r="E35" s="7" t="str">
-        <f>IF(data!L36&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M35&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F35" s="7" t="str">
-        <f>IF(data!M36&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N35&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G35" s="7" t="str">
-        <f>IF(data!N36&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O35&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H35" s="7" t="str">
-        <f>IF(data!O36&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P35&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I35" s="7" t="str">
-        <f>IF(data!P36&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q35&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="7" t="str">
+        <f>data!C35</f>
+        <v>Flaaen et al. (2020)</v>
+      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -13864,38 +14281,41 @@
     </row>
     <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
-        <f>data!A37</f>
+        <f>data!A36</f>
         <v>34</v>
       </c>
       <c r="C36" s="8" t="str">
-        <f>data!D37</f>
+        <f>data!D36</f>
         <v>US</v>
       </c>
       <c r="D36" s="7">
-        <f>data!F37</f>
+        <f>data!F36</f>
         <v>2024</v>
       </c>
       <c r="E36" s="7" t="str">
-        <f>IF(data!L37&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M36&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F36" s="7" t="str">
-        <f>IF(data!M37&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N36&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f>IF(data!N37&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O36&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H36" s="7" t="str">
-        <f>IF(data!O37&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P36&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I36" s="7" t="str">
-        <f>IF(data!P37&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q36&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="7" t="str">
+        <f>data!C36</f>
+        <v>Freund et al. (2024)</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -13905,38 +14325,41 @@
     </row>
     <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
-        <f>data!A38</f>
+        <f>data!A37</f>
         <v>35</v>
       </c>
       <c r="C37" s="8" t="str">
-        <f>data!D38</f>
+        <f>data!D37</f>
         <v>US</v>
       </c>
       <c r="D37" s="7">
-        <f>data!F38</f>
+        <f>data!F37</f>
         <v>2015</v>
       </c>
       <c r="E37" s="7" t="str">
-        <f>IF(data!L38&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M37&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f>IF(data!M38&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N37&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G37" s="7" t="str">
-        <f>IF(data!N38&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O37&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H37" s="7" t="str">
-        <f>IF(data!O38&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P37&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I37" s="7" t="str">
-        <f>IF(data!P38&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q37&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="7" t="str">
+        <f>data!C37</f>
+        <v>Galantucci (2015)</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -13946,39 +14369,44 @@
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
-        <f>data!A39</f>
+        <f>data!A38</f>
         <v>36</v>
       </c>
       <c r="C38" s="8" t="str">
-        <f>data!D39</f>
+        <f>data!D38</f>
         <v>Norway</v>
       </c>
       <c r="D38" s="7">
-        <f>data!F39</f>
+        <f>data!F38</f>
         <v>2024</v>
       </c>
       <c r="E38" s="7" t="str">
-        <f>IF(data!L39&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M38&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F38" s="7" t="str">
-        <f>IF(data!M39&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N38&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f>IF(data!N39&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O38&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H38" s="7" t="str">
-        <f>IF(data!O39&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P38&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I38" s="7" t="str">
-        <f>IF(data!P39&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q38&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="J38" s="7" t="str">
+        <f>data!C38</f>
+        <v>Galle and Lorentzen (2024)</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -13990,38 +14418,41 @@
         <v>609</v>
       </c>
       <c r="B39" s="8">
-        <f>data!A40</f>
+        <f>data!A39</f>
         <v>37</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f>data!D40</f>
+        <f>data!D39</f>
         <v>UK</v>
       </c>
       <c r="D39" s="7">
-        <f>data!F40</f>
+        <f>data!F39</f>
         <v>2017</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f>IF(data!L40&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M39&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F39" s="7" t="str">
-        <f>IF(data!M40&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N39&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G39" s="7" t="str">
-        <f>IF(data!N40&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O39&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H39" s="7" t="str">
-        <f>IF(data!O40&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P39&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I39" s="7" t="str">
-        <f>IF(data!P40&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q39&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="7" t="str">
+        <f>data!C39</f>
+        <v>Gaupp et al. (2017)</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -14031,38 +14462,41 @@
     </row>
     <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
-        <f>data!A41</f>
+        <f>data!A40</f>
         <v>38</v>
       </c>
       <c r="C40" s="8" t="str">
-        <f>data!D41</f>
+        <f>data!D40</f>
         <v>US</v>
       </c>
       <c r="D40" s="7">
-        <f>data!F41</f>
+        <f>data!F40</f>
         <v>2024</v>
       </c>
       <c r="E40" s="7" t="str">
-        <f>IF(data!L41&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M40&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F40" s="7" t="str">
-        <f>IF(data!M41&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N40&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G40" s="7" t="str">
-        <f>IF(data!N41&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O40&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H40" s="7" t="str">
-        <f>IF(data!O41&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P40&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I40" s="7" t="str">
-        <f>IF(data!P41&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q40&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7" t="str">
+        <f>data!C40</f>
+        <v>Grossman et al. (2024)</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -14072,39 +14506,44 @@
     </row>
     <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
-        <f>data!A42</f>
+        <f>data!A41</f>
         <v>39</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f>data!D42</f>
+        <f>data!D41</f>
         <v>US</v>
       </c>
       <c r="D41" s="7">
-        <f>data!F42</f>
+        <f>data!F41</f>
         <v>2017</v>
       </c>
       <c r="E41" s="7" t="str">
-        <f>IF(data!L42&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M41&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F41" s="7" t="str">
-        <f>IF(data!M42&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N41&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G41" s="7" t="str">
-        <f>IF(data!N42&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O41&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H41" s="7" t="str">
-        <f>IF(data!O42&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P41&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I41" s="7" t="str">
-        <f>IF(data!P42&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q41&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="J41" s="7" t="str">
+        <f>data!C41</f>
+        <v>Handley and Limão (2017)</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -14116,38 +14555,41 @@
         <v>609</v>
       </c>
       <c r="B42" s="8">
-        <f>data!A43</f>
+        <f>data!A42</f>
         <v>40</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f>data!D43</f>
+        <f>data!D42</f>
         <v>US</v>
       </c>
       <c r="D42" s="7">
-        <f>data!F43</f>
+        <f>data!F42</f>
         <v>2016</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f>IF(data!L43&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M42&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F42" s="7" t="str">
-        <f>IF(data!M43&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N42&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G42" s="7" t="str">
-        <f>IF(data!N43&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O42&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H42" s="7" t="str">
-        <f>IF(data!O43&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P42&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I42" s="7" t="str">
-        <f>IF(data!P43&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q42&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="7" t="str">
+        <f>data!C42</f>
+        <v>Heilmann (2016)</v>
+      </c>
       <c r="K42" s="7"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -14157,39 +14599,44 @@
     </row>
     <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
-        <f>data!A44</f>
+        <f>data!A43</f>
         <v>41</v>
       </c>
       <c r="C43" s="8" t="str">
-        <f>data!D44</f>
+        <f>data!D43</f>
         <v>Switzerland</v>
       </c>
       <c r="D43" s="7">
-        <f>data!F44</f>
+        <f>data!F43</f>
         <v>2021</v>
       </c>
       <c r="E43" s="7" t="str">
-        <f>IF(data!L44&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M43&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F43" s="7" t="str">
-        <f>IF(data!M44&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N43&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f>IF(data!N44&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O43&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H43" s="7" t="str">
-        <f>IF(data!O44&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P43&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I43" s="7" t="str">
-        <f>IF(data!P44&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q43&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="J43" s="7" t="str">
+        <f>data!C43</f>
+        <v>Jakubik and Stolzenburg (2021)</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -14198,38 +14645,41 @@
     </row>
     <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
-        <f>data!A45</f>
+        <f>data!A44</f>
         <v>42</v>
       </c>
       <c r="C44" s="8" t="str">
-        <f>data!D45</f>
+        <f>data!D44</f>
         <v>China</v>
       </c>
       <c r="D44" s="7">
-        <f>data!F45</f>
+        <f>data!F44</f>
         <v>2023</v>
       </c>
       <c r="E44" s="7" t="str">
-        <f>IF(data!L45&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M44&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f>IF(data!M45&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N44&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G44" s="7" t="str">
-        <f>IF(data!N45&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O44&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H44" s="7" t="str">
-        <f>IF(data!O45&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P44&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I44" s="7" t="str">
-        <f>IF(data!P45&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q44&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="7" t="str">
+        <f>data!C44</f>
+        <v>Jiang et al. (2023)</v>
+      </c>
       <c r="K44" s="9"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -14239,39 +14689,44 @@
     </row>
     <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
-        <f>data!A46</f>
+        <f>data!A45</f>
         <v>43</v>
       </c>
       <c r="C45" s="8" t="str">
-        <f>data!D46</f>
+        <f>data!D45</f>
         <v>China</v>
       </c>
       <c r="D45" s="7">
-        <f>data!F46</f>
+        <f>data!F45</f>
         <v>2024</v>
       </c>
       <c r="E45" s="7" t="str">
-        <f>IF(data!L46&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M45&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F45" s="7" t="str">
-        <f>IF(data!M46&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N45&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G45" s="7" t="str">
-        <f>IF(data!N46&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O45&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H45" s="7" t="str">
-        <f>IF(data!O46&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P45&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I45" s="7" t="str">
-        <f>IF(data!P46&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q45&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="J45" s="7" t="str">
+        <f>data!C45</f>
+        <v>Jiao et al. (2024)</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -14280,38 +14735,41 @@
     </row>
     <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
-        <f>data!A47</f>
+        <f>data!A46</f>
         <v>44</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f>data!D47</f>
+        <f>data!D46</f>
         <v>China</v>
       </c>
       <c r="D46" s="7">
-        <f>data!F47</f>
+        <f>data!F46</f>
         <v>2024</v>
       </c>
       <c r="E46" s="7" t="str">
-        <f>IF(data!L47&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M46&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F46" s="7" t="str">
-        <f>IF(data!M47&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N46&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f>IF(data!N47&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O46&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H46" s="7" t="str">
-        <f>IF(data!O47&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P46&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I46" s="7" t="str">
-        <f>IF(data!P47&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q46&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="7" t="str">
+        <f>data!C46</f>
+        <v>Ju et al. (2024)</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -14321,38 +14779,41 @@
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
-        <f>data!A48</f>
+        <f>data!A47</f>
         <v>45</v>
       </c>
       <c r="C47" s="8" t="str">
-        <f>data!D48</f>
+        <f>data!D47</f>
         <v>US</v>
       </c>
       <c r="D47" s="7">
-        <f>data!F48</f>
+        <f>data!F47</f>
         <v>2018</v>
       </c>
       <c r="E47" s="7" t="str">
-        <f>IF(data!L48&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M47&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F47" s="7" t="str">
-        <f>IF(data!M48&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N47&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G47" s="7" t="str">
-        <f>IF(data!N48&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O47&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H47" s="7" t="str">
-        <f>IF(data!O48&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P47&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I47" s="7" t="str">
-        <f>IF(data!P48&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q47&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="7" t="str">
+        <f>data!C47</f>
+        <v>Kalouptsidi (2018)</v>
+      </c>
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -14362,38 +14823,41 @@
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
-        <f>data!A49</f>
+        <f>data!A48</f>
         <v>46</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f>data!D49</f>
+        <f>data!D48</f>
         <v>South Korea</v>
       </c>
       <c r="D48" s="7">
-        <f>data!F49</f>
+        <f>data!F48</f>
         <v>2021</v>
       </c>
       <c r="E48" s="7" t="str">
-        <f>IF(data!L49&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M48&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F48" s="7" t="str">
-        <f>IF(data!M49&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N48&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f>IF(data!N49&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O48&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H48" s="7" t="str">
-        <f>IF(data!O49&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P48&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I48" s="7" t="str">
-        <f>IF(data!P49&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q48&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J48" s="7"/>
+      <c r="J48" s="7" t="str">
+        <f>data!C48</f>
+        <v>Kim and Margalit (2021)</v>
+      </c>
       <c r="K48" s="7"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -14403,39 +14867,44 @@
     </row>
     <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
-        <f>data!A50</f>
+        <f>data!A49</f>
         <v>47</v>
       </c>
       <c r="C49" s="8" t="str">
-        <f>data!D50</f>
+        <f>data!D49</f>
         <v>South Korea</v>
       </c>
       <c r="D49" s="7">
-        <f>data!F50</f>
+        <f>data!F49</f>
         <v>2021</v>
       </c>
       <c r="E49" s="7" t="str">
-        <f>IF(data!L50&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M49&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F49" s="7" t="str">
-        <f>IF(data!M50&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N49&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G49" s="7" t="str">
-        <f>IF(data!N50&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O49&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H49" s="7" t="str">
-        <f>IF(data!O50&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P49&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I49" s="7" t="str">
-        <f>IF(data!P50&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q49&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="J49" s="7" t="str">
+        <f>data!C49</f>
+        <v>Kim and Pelc (2021)</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -14444,38 +14913,41 @@
     </row>
     <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
-        <f>data!A51</f>
+        <f>data!A50</f>
         <v>48</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f>data!D51</f>
+        <f>data!D50</f>
         <v>US</v>
       </c>
       <c r="D50" s="7">
-        <f>data!F51</f>
+        <f>data!F50</f>
         <v>2017</v>
       </c>
       <c r="E50" s="7" t="str">
-        <f>IF(data!L51&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M50&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F50" s="7" t="str">
-        <f>IF(data!M51&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N50&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f>IF(data!N51&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O50&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H50" s="7" t="str">
-        <f>IF(data!O51&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P50&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I50" s="7" t="str">
-        <f>IF(data!P51&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q50&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J50" s="7"/>
+      <c r="J50" s="7" t="str">
+        <f>data!C50</f>
+        <v>Liang (2017)</v>
+      </c>
       <c r="K50" s="7"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -14485,38 +14957,41 @@
     </row>
     <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
-        <f>data!A52</f>
+        <f>data!A51</f>
         <v>49</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f>data!D52</f>
+        <f>data!D51</f>
         <v>Hong Kong</v>
       </c>
       <c r="D51" s="7">
-        <f>data!F52</f>
+        <f>data!F51</f>
         <v>2023</v>
       </c>
       <c r="E51" s="7" t="str">
-        <f>IF(data!L52&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M51&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F51" s="7" t="str">
-        <f>IF(data!M52&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N51&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G51" s="7" t="str">
-        <f>IF(data!N52&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O51&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H51" s="7" t="str">
-        <f>IF(data!O52&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P51&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I51" s="7" t="str">
-        <f>IF(data!P52&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q51&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J51" s="9"/>
+      <c r="J51" s="7" t="str">
+        <f>data!C51</f>
+        <v>Lu and Zhou (2023)</v>
+      </c>
       <c r="K51" s="9"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -14526,39 +15001,44 @@
     </row>
     <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
-        <f>data!A53</f>
+        <f>data!A52</f>
         <v>50</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f>data!D53</f>
+        <f>data!D52</f>
         <v>China</v>
       </c>
       <c r="D52" s="7">
-        <f>data!F53</f>
+        <f>data!F52</f>
         <v>2018</v>
       </c>
       <c r="E52" s="7" t="str">
-        <f>IF(data!L53&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M52&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F52" s="7" t="str">
-        <f>IF(data!M53&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N52&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G52" s="7" t="str">
-        <f>IF(data!N53&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O52&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H52" s="7" t="str">
-        <f>IF(data!O53&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P52&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I52" s="7" t="str">
-        <f>IF(data!P53&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q52&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="J52" s="7" t="str">
+        <f>data!C52</f>
+        <v>Lu et al. (2018)</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -14567,38 +15047,41 @@
     </row>
     <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
-        <f>data!A54</f>
+        <f>data!A53</f>
         <v>51</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f>data!D54</f>
+        <f>data!D53</f>
         <v>US</v>
       </c>
       <c r="D53" s="7">
-        <f>data!F54</f>
+        <f>data!F53</f>
         <v>2023</v>
       </c>
       <c r="E53" s="7" t="str">
-        <f>IF(data!L54&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M53&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F53" s="7" t="str">
-        <f>IF(data!M54&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N53&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G53" s="7" t="str">
-        <f>IF(data!N54&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O53&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H53" s="7" t="str">
-        <f>IF(data!O54&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P53&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I53" s="7" t="str">
-        <f>IF(data!P54&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q53&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J53" s="9"/>
+      <c r="J53" s="7" t="str">
+        <f>data!C53</f>
+        <v>Luo and Van Assche (2023)</v>
+      </c>
       <c r="K53" s="9"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -14608,38 +15091,41 @@
     </row>
     <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
-        <f>data!A55</f>
+        <f>data!A54</f>
         <v>52</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f>data!D55</f>
+        <f>data!D54</f>
         <v>US</v>
       </c>
       <c r="D54" s="7">
-        <f>data!F55</f>
+        <f>data!F54</f>
         <v>2024</v>
       </c>
       <c r="E54" s="7" t="str">
-        <f>IF(data!L55&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M54&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F54" s="7" t="str">
-        <f>IF(data!M55&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N54&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G54" s="7" t="str">
-        <f>IF(data!N55&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O54&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H54" s="7" t="str">
-        <f>IF(data!O55&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P54&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I54" s="7" t="str">
-        <f>IF(data!P55&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q54&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J54" s="7"/>
+      <c r="J54" s="7" t="str">
+        <f>data!C54</f>
+        <v>Mansfield and Solodoch (2024)</v>
+      </c>
       <c r="K54" s="7"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -14649,39 +15135,44 @@
     </row>
     <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
-        <f>data!A56</f>
+        <f>data!A55</f>
         <v>53</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f>data!D56</f>
+        <f>data!D55</f>
         <v>US</v>
       </c>
       <c r="D55" s="7">
-        <f>data!F56</f>
+        <f>data!F55</f>
         <v>2016</v>
       </c>
       <c r="E55" s="7" t="str">
-        <f>IF(data!L56&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M55&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F55" s="7" t="str">
-        <f>IF(data!M56&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N55&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G55" s="7" t="str">
-        <f>IF(data!N56&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O55&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H55" s="7" t="str">
-        <f>IF(data!O56&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P55&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I55" s="7" t="str">
-        <f>IF(data!P56&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q55&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="J55" s="7" t="str">
+        <f>data!C55</f>
+        <v>McManus and Schaur (2016)</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -14690,38 +15181,41 @@
     </row>
     <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
-        <f>data!A57</f>
+        <f>data!A56</f>
         <v>54</v>
       </c>
       <c r="C56" s="8" t="str">
-        <f>data!D57</f>
+        <f>data!D56</f>
         <v>Finland</v>
       </c>
       <c r="D56" s="7">
-        <f>data!F57</f>
+        <f>data!F56</f>
         <v>2021</v>
       </c>
       <c r="E56" s="7" t="str">
-        <f>IF(data!L57&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M56&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F56" s="7" t="str">
-        <f>IF(data!M57&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N56&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G56" s="7" t="str">
-        <f>IF(data!N57&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O56&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H56" s="7" t="str">
-        <f>IF(data!O57&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P56&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I56" s="7" t="str">
-        <f>IF(data!P57&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q56&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J56" s="7"/>
+      <c r="J56" s="7" t="str">
+        <f>data!C56</f>
+        <v>Niemeläinen (2021)</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -14731,38 +15225,41 @@
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
-        <f>data!A58</f>
+        <f>data!A57</f>
         <v>55</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f>data!D58</f>
+        <f>data!D57</f>
         <v>UK</v>
       </c>
       <c r="D57" s="7">
-        <f>data!F58</f>
+        <f>data!F57</f>
         <v>2025</v>
       </c>
       <c r="E57" s="7" t="str">
-        <f>IF(data!L58&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M57&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F57" s="7" t="str">
-        <f>IF(data!M58&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N57&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G57" s="7" t="str">
-        <f>IF(data!N58&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O57&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H57" s="7" t="str">
-        <f>IF(data!O58&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P57&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I57" s="7" t="str">
-        <f>IF(data!P58&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q57&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J57" s="7"/>
+      <c r="J57" s="7" t="str">
+        <f>data!C57</f>
+        <v>Osman and El‐Gendy (2025)</v>
+      </c>
       <c r="K57" s="7"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -14772,38 +15269,41 @@
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
-        <f>data!A59</f>
+        <f>data!A58</f>
         <v>56</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f>data!D59</f>
+        <f>data!D58</f>
         <v>US</v>
       </c>
       <c r="D58" s="7">
-        <f>data!F59</f>
+        <f>data!F58</f>
         <v>2016</v>
       </c>
       <c r="E58" s="7" t="str">
-        <f>IF(data!L59&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M58&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F58" s="7" t="str">
-        <f>IF(data!M59&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N58&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G58" s="7" t="str">
-        <f>IF(data!N59&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O58&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H58" s="7" t="str">
-        <f>IF(data!O59&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P58&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I58" s="7" t="str">
-        <f>IF(data!P59&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q58&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J58" s="7"/>
+      <c r="J58" s="7" t="str">
+        <f>data!C58</f>
+        <v>Pierce and Schott (2016)</v>
+      </c>
       <c r="K58" s="7"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -14813,39 +15313,44 @@
     </row>
     <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
-        <f>data!A60</f>
+        <f>data!A59</f>
         <v>57</v>
       </c>
       <c r="C59" s="8" t="str">
-        <f>data!D60</f>
+        <f>data!D59</f>
         <v>Canada</v>
       </c>
       <c r="D59" s="7">
-        <f>data!F60</f>
+        <f>data!F59</f>
         <v>2016</v>
       </c>
       <c r="E59" s="7" t="str">
-        <f>IF(data!L60&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M59&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F59" s="7" t="str">
-        <f>IF(data!M60&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N59&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G59" s="7" t="str">
-        <f>IF(data!N60&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O59&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H59" s="7" t="str">
-        <f>IF(data!O60&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P59&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I59" s="7" t="str">
-        <f>IF(data!P60&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q59&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="J59" s="7" t="str">
+        <f>data!C59</f>
+        <v>Rahaman (2016)</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -14854,39 +15359,44 @@
     </row>
     <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
-        <f>data!A61</f>
+        <f>data!A60</f>
         <v>58</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f>data!D61</f>
+        <f>data!D60</f>
         <v>US</v>
       </c>
       <c r="D60" s="7">
-        <f>data!F61</f>
+        <f>data!F60</f>
         <v>2025</v>
       </c>
       <c r="E60" s="7" t="str">
-        <f>IF(data!L61&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M60&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F60" s="7" t="str">
-        <f>IF(data!M61&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N60&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G60" s="7" t="str">
-        <f>IF(data!N61&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O60&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H60" s="7" t="str">
-        <f>IF(data!O61&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P60&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I60" s="7" t="str">
-        <f>IF(data!P61&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q60&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="J60" s="7" t="str">
+        <f>data!C60</f>
+        <v>Ramani (2025)</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -14898,38 +15408,41 @@
         <v>609</v>
       </c>
       <c r="B61" s="8">
-        <f>data!A62</f>
+        <f>data!A61</f>
         <v>59</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f>data!D62</f>
+        <f>data!D61</f>
         <v>US</v>
       </c>
       <c r="D61" s="7">
-        <f>data!F62</f>
+        <f>data!F61</f>
         <v>2024</v>
       </c>
       <c r="E61" s="7" t="str">
-        <f>IF(data!L62&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M61&lt;&gt;"", "T1", "")</f>
         <v/>
       </c>
       <c r="F61" s="7" t="str">
-        <f>IF(data!M62&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N61&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G61" s="7" t="str">
-        <f>IF(data!N62&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O61&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H61" s="7" t="str">
-        <f>IF(data!O62&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P61&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I61" s="7" t="str">
-        <f>IF(data!P62&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q61&lt;&gt;"", "T5", "")</f>
         <v>T5</v>
       </c>
-      <c r="J61" s="7"/>
+      <c r="J61" s="7" t="str">
+        <f>data!C61</f>
+        <v>Ren (2024)</v>
+      </c>
       <c r="K61" s="7"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -14939,38 +15452,41 @@
     </row>
     <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
-        <f>data!A63</f>
+        <f>data!A62</f>
         <v>60</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f>data!D63</f>
+        <f>data!D62</f>
         <v>China</v>
       </c>
       <c r="D62" s="7">
-        <f>data!F63</f>
+        <f>data!F62</f>
         <v>2021</v>
       </c>
       <c r="E62" s="7" t="str">
-        <f>IF(data!L63&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M62&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F62" s="7" t="str">
-        <f>IF(data!M63&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N62&lt;&gt;"", "T2", "")</f>
         <v/>
       </c>
       <c r="G62" s="7" t="str">
-        <f>IF(data!N63&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O62&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H62" s="7" t="str">
-        <f>IF(data!O63&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P62&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I62" s="7" t="str">
-        <f>IF(data!P63&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q62&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J62" s="7"/>
+      <c r="J62" s="7" t="str">
+        <f>data!C62</f>
+        <v>Wang (2021)</v>
+      </c>
       <c r="K62" s="7"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -14980,38 +15496,41 @@
     </row>
     <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
-        <f>data!A64</f>
+        <f>data!A63</f>
         <v>61</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f>data!D64</f>
+        <f>data!D63</f>
         <v>China</v>
       </c>
       <c r="D63" s="7">
-        <f>data!F64</f>
+        <f>data!F63</f>
         <v>2024</v>
       </c>
       <c r="E63" s="7" t="str">
-        <f>IF(data!L64&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M63&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F63" s="7" t="str">
-        <f>IF(data!M64&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N63&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G63" s="7" t="str">
-        <f>IF(data!N64&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O63&lt;&gt;"", "T3", "")</f>
         <v>T3</v>
       </c>
       <c r="H63" s="7" t="str">
-        <f>IF(data!O64&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P63&lt;&gt;"", "T4", "")</f>
         <v/>
       </c>
       <c r="I63" s="7" t="str">
-        <f>IF(data!P64&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q63&lt;&gt;"", "T5", "")</f>
         <v/>
       </c>
-      <c r="J63" s="7"/>
+      <c r="J63" s="7" t="str">
+        <f>data!C63</f>
+        <v>Wu et al. (2024)</v>
+      </c>
       <c r="K63" s="7"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -15021,36 +15540,40 @@
     </row>
     <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
-        <f>data!A65</f>
+        <f>data!A64</f>
         <v>62</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f>data!D65</f>
+        <f>data!D64</f>
         <v>US</v>
       </c>
       <c r="D64" s="7">
-        <f>data!F65</f>
+        <f>data!F64</f>
         <v>2024</v>
       </c>
       <c r="E64" s="7" t="str">
-        <f>IF(data!L65&lt;&gt;"", "T1", "")</f>
+        <f>IF(data!M64&lt;&gt;"", "T1", "")</f>
         <v>T1</v>
       </c>
       <c r="F64" s="7" t="str">
-        <f>IF(data!M65&lt;&gt;"", "T2", "")</f>
+        <f>IF(data!N64&lt;&gt;"", "T2", "")</f>
         <v>T2</v>
       </c>
       <c r="G64" s="7" t="str">
-        <f>IF(data!N65&lt;&gt;"", "T3", "")</f>
+        <f>IF(data!O64&lt;&gt;"", "T3", "")</f>
         <v/>
       </c>
       <c r="H64" s="7" t="str">
-        <f>IF(data!O65&lt;&gt;"", "T4", "")</f>
+        <f>IF(data!P64&lt;&gt;"", "T4", "")</f>
         <v>T4</v>
       </c>
       <c r="I64" s="7" t="str">
-        <f>IF(data!P65&lt;&gt;"", "T5", "")</f>
+        <f>IF(data!Q64&lt;&gt;"", "T5", "")</f>
         <v/>
+      </c>
+      <c r="J64" s="7" t="str">
+        <f>data!C64</f>
+        <v>Zeng and Kim (2024)</v>
       </c>
     </row>
   </sheetData>
@@ -15064,7 +15587,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G6" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15105,11 +15628,11 @@
         <v>383</v>
       </c>
       <c r="C3" s="10">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3:G6" si="0">SUM(C3:F3)</f>
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -15138,14 +15661,14 @@
         <v>385</v>
       </c>
       <c r="C5" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D5" s="10">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -15156,14 +15679,14 @@
         <v>386</v>
       </c>
       <c r="C6" s="10">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D6" s="10">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -15194,7 +15717,7 @@
       </c>
       <c r="G9" s="10">
         <f>SUM(G2:G8)</f>
-        <v>2519</v>
+        <v>2623</v>
       </c>
     </row>
   </sheetData>

--- a/slr/tc/data.xlsx
+++ b/slr/tc/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74E68D-56AA-0F49-913D-1450B9CB8CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802D5DE-B8AD-0C4D-BEAF-F9E32B7B1FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2000" windowWidth="32080" windowHeight="29620" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2020" yWindow="780" windowWidth="43040" windowHeight="29100" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -19,11 +19,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$64</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">chart!$M$2:$M$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">chart!$O$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">chart!$O$2:$O$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">chart!$P$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">chart!$P$2:$P$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="674">
   <si>
     <t>Journal Title</t>
   </si>
@@ -2173,9 +2168,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Database Analysis</t>
-  </si>
-  <si>
     <t>Literature Review</t>
   </si>
   <si>
@@ -2233,9 +2225,6 @@
     <t>District-level and individual-level Analysis</t>
   </si>
   <si>
-    <t>Transcation-level Panel Data Analysis</t>
-  </si>
-  <si>
     <t>Archival Research</t>
   </si>
   <si>
@@ -2257,18 +2246,12 @@
     <t>Empirical Analysis of Voting Behaviour</t>
   </si>
   <si>
-    <t>Transcation-level Data Analysis</t>
-  </si>
-  <si>
     <t>Merchandise-level Data Analysis</t>
   </si>
   <si>
     <t>Supply Chain Analysis using Import Data</t>
   </si>
   <si>
-    <t>Bayesiann Statistical Analysis</t>
-  </si>
-  <si>
     <t>Multi-sector Gravity Model Analysis</t>
   </si>
   <si>
@@ -2287,7 +2270,64 @@
     <t>Firm-level Data Analysis with Surveys</t>
   </si>
   <si>
-    <t>General Equilibrium Modeling with Sectoral Analysis</t>
+    <t>Transaction-level Data Analysis</t>
+  </si>
+  <si>
+    <t>Bayesian Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Roll-call Votes Analysis</t>
+  </si>
+  <si>
+    <t>County-level Media Slant Analysis</t>
+  </si>
+  <si>
+    <t>Survey Analysis</t>
+  </si>
+  <si>
+    <t>Plant-level Injury Data Analysis</t>
+  </si>
+  <si>
+    <t>Analysis of Trade Policy and Employment Data</t>
+  </si>
+  <si>
+    <t>Quasi-natural Experiment using Loan Contract Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Quantitative and Qualitative Data Analysis </t>
+  </si>
+  <si>
+    <t>Longitudinal Data Analysis of Greenfield Investment</t>
+  </si>
+  <si>
+    <t>Transaction-level Panel Data Analysis</t>
+  </si>
+  <si>
+    <t>General Equilibrium Modelling with Sectoral Analysis</t>
+  </si>
+  <si>
+    <t>Model-based Empirical Strategy</t>
+  </si>
+  <si>
+    <t>Event Space Analysis</t>
+  </si>
+  <si>
+    <t>Techno-nationalism Strategies Analysis</t>
+  </si>
+  <si>
+    <t>Life-cycle Model Analysis</t>
+  </si>
+  <si>
+    <t>Computable General Equilibrium (CGE) Modelling</t>
+  </si>
+  <si>
+    <t>Historical Analysis of Trade Relations</t>
+  </si>
+  <si>
+    <t>General Equilibrium Modelling with Trade Data</t>
+  </si>
+  <si>
+    <t>Theoretical Modelling of Contract Manufacturer Decisions</t>
   </si>
 </sst>
 </file>
@@ -2790,7 +2830,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2841,7 +2881,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7769,11 +7808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7988,7 +8027,7 @@
         <v>252</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>401</v>
@@ -8057,7 +8096,7 @@
         <v>253</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>402</v>
@@ -8130,7 +8169,7 @@
         <v>250</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>379</v>
@@ -8196,7 +8235,7 @@
         <v>255</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>400</v>
@@ -8262,7 +8301,7 @@
         <v>248</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>409</v>
@@ -8331,7 +8370,7 @@
         <v>256</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>410</v>
@@ -8400,7 +8439,7 @@
         <v>259</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>417</v>
@@ -8469,7 +8508,7 @@
         <v>261</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>419</v>
@@ -8542,7 +8581,7 @@
         <v>260</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>423</v>
@@ -8613,7 +8652,7 @@
         <v>264</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>429</v>
@@ -8682,7 +8721,7 @@
         <v>267</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>437</v>
@@ -8751,7 +8790,7 @@
         <v>236</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>430</v>
@@ -8820,7 +8859,7 @@
         <v>268</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>433</v>
@@ -8887,7 +8926,7 @@
         <v>270</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>397</v>
@@ -8954,7 +8993,7 @@
         <v>273</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>441</v>
@@ -9023,7 +9062,7 @@
         <v>274</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>445</v>
@@ -9094,7 +9133,7 @@
         <v>277</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>450</v>
@@ -9165,7 +9204,7 @@
         <v>281</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>459</v>
@@ -9232,7 +9271,7 @@
         <v>279</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>462</v>
@@ -9305,7 +9344,7 @@
         <v>284</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>463</v>
@@ -9380,7 +9419,7 @@
         <v>286</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>469</v>
@@ -9447,7 +9486,7 @@
         <v>288</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>472</v>
@@ -9512,7 +9551,7 @@
         <v>290</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>467</v>
@@ -9583,7 +9622,7 @@
         <v>293</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>474</v>
@@ -9654,7 +9693,7 @@
         <v>243</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>394</v>
@@ -9719,7 +9758,7 @@
         <v>297</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>477</v>
@@ -9784,7 +9823,7 @@
         <v>235</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>480</v>
@@ -9851,7 +9890,7 @@
         <v>298</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>498</v>
@@ -9916,7 +9955,7 @@
         <v>240</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>485</v>
@@ -9987,7 +10026,7 @@
         <v>301</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>486</v>
@@ -10058,7 +10097,7 @@
         <v>304</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>495</v>
@@ -10125,7 +10164,7 @@
         <v>305</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>486</v>
@@ -10198,7 +10237,7 @@
         <v>307</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>491</v>
@@ -10271,7 +10310,7 @@
         <v>309</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>502</v>
@@ -10344,7 +10383,7 @@
         <v>311</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>504</v>
@@ -10417,7 +10456,7 @@
         <v>314</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>652</v>
+        <v>